--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A38B2210-120E-48BA-B902-99FB665129B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38775E82-CE44-4D2A-B73D-4B8F0846B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="118">
   <si>
     <t>Sel</t>
   </si>
@@ -248,6 +248,132 @@
   </si>
   <si>
     <t>1858700132581</t>
+  </si>
+  <si>
+    <t>1858700132582</t>
+  </si>
+  <si>
+    <t>1858700132583</t>
+  </si>
+  <si>
+    <t>1858700132584</t>
+  </si>
+  <si>
+    <t>1858700132585</t>
+  </si>
+  <si>
+    <t>1858700132586</t>
+  </si>
+  <si>
+    <t>1858700132587</t>
+  </si>
+  <si>
+    <t>1858700132588</t>
+  </si>
+  <si>
+    <t>1858700132589</t>
+  </si>
+  <si>
+    <t>1858700132590</t>
+  </si>
+  <si>
+    <t>1858700132591</t>
+  </si>
+  <si>
+    <t>1858700132592</t>
+  </si>
+  <si>
+    <t>1858700132593</t>
+  </si>
+  <si>
+    <t>1858700132594</t>
+  </si>
+  <si>
+    <t>1858700132595</t>
+  </si>
+  <si>
+    <t>1858700132596</t>
+  </si>
+  <si>
+    <t>1858700132597</t>
+  </si>
+  <si>
+    <t>1858700132598</t>
+  </si>
+  <si>
+    <t>1858700132599</t>
+  </si>
+  <si>
+    <t>1858700132600</t>
+  </si>
+  <si>
+    <t>1858700132601</t>
+  </si>
+  <si>
+    <t>1858700132602</t>
+  </si>
+  <si>
+    <t>1858700132603</t>
+  </si>
+  <si>
+    <t>1858700132604</t>
+  </si>
+  <si>
+    <t>1858700132605</t>
+  </si>
+  <si>
+    <t>1858700132606</t>
+  </si>
+  <si>
+    <t>1858700132607</t>
+  </si>
+  <si>
+    <t>1858700132608</t>
+  </si>
+  <si>
+    <t>1858700132609</t>
+  </si>
+  <si>
+    <t>10058029</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>FORNO ELETRICO FOGATTI AIR FRYER 22L PRETO - FOGATTI AIR FRYER - 127 V</t>
+  </si>
+  <si>
+    <t>1025000003565</t>
+  </si>
+  <si>
+    <t>1025000003566</t>
+  </si>
+  <si>
+    <t>1025000003567</t>
+  </si>
+  <si>
+    <t>1025000003568</t>
+  </si>
+  <si>
+    <t>1025000003569</t>
+  </si>
+  <si>
+    <t>1025000003570</t>
+  </si>
+  <si>
+    <t>1025000003571</t>
+  </si>
+  <si>
+    <t>1025000003572</t>
+  </si>
+  <si>
+    <t>1025000003573</t>
+  </si>
+  <si>
+    <t>1025000003574</t>
+  </si>
+  <si>
+    <t>1025000003575</t>
   </si>
 </sst>
 </file>
@@ -823,7 +949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR22"/>
+  <dimension ref="A1:AR61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3777,6 +3903,5232 @@
         <v>75</v>
       </c>
     </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G23" s="5">
+        <v>22</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="6">
+        <v>5278</v>
+      </c>
+      <c r="M23" s="7">
+        <v>907603.74</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U23" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V23" s="11">
+        <v>11</v>
+      </c>
+      <c r="W23" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X23" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR23" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G24" s="5">
+        <v>23</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="6">
+        <v>5279</v>
+      </c>
+      <c r="M24" s="7">
+        <v>907775.7</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U24" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V24" s="11">
+        <v>11</v>
+      </c>
+      <c r="W24" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X24" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR24" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G25" s="5">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="6">
+        <v>5280</v>
+      </c>
+      <c r="M25" s="7">
+        <v>907947.66</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V25" s="11">
+        <v>11</v>
+      </c>
+      <c r="W25" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X25" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR25" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G26" s="5">
+        <v>25</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="6">
+        <v>5281</v>
+      </c>
+      <c r="M26" s="7">
+        <v>908119.62</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V26" s="11">
+        <v>11</v>
+      </c>
+      <c r="W26" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X26" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR26" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G27" s="5">
+        <v>26</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="6">
+        <v>5282</v>
+      </c>
+      <c r="M27" s="7">
+        <v>908291.58</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U27" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V27" s="11">
+        <v>11</v>
+      </c>
+      <c r="W27" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X27" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR27" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G28" s="5">
+        <v>27</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="6">
+        <v>5283</v>
+      </c>
+      <c r="M28" s="7">
+        <v>908463.54</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U28" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V28" s="11">
+        <v>11</v>
+      </c>
+      <c r="W28" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X28" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR28" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G29" s="5">
+        <v>28</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="6">
+        <v>5284</v>
+      </c>
+      <c r="M29" s="7">
+        <v>908635.5</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U29" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V29" s="11">
+        <v>11</v>
+      </c>
+      <c r="W29" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X29" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR29" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G30" s="5">
+        <v>29</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="6">
+        <v>5285</v>
+      </c>
+      <c r="M30" s="7">
+        <v>908807.46</v>
+      </c>
+      <c r="N30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U30" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V30" s="11">
+        <v>11</v>
+      </c>
+      <c r="W30" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X30" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR30" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G31" s="5">
+        <v>30</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="6">
+        <v>5286</v>
+      </c>
+      <c r="M31" s="7">
+        <v>908979.42</v>
+      </c>
+      <c r="N31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V31" s="11">
+        <v>11</v>
+      </c>
+      <c r="W31" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X31" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR31" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G32" s="5">
+        <v>31</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="6">
+        <v>5287</v>
+      </c>
+      <c r="M32" s="7">
+        <v>909151.38</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U32" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V32" s="11">
+        <v>11</v>
+      </c>
+      <c r="W32" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X32" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR32" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G33" s="5">
+        <v>32</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="6">
+        <v>5288</v>
+      </c>
+      <c r="M33" s="7">
+        <v>909323.34</v>
+      </c>
+      <c r="N33" s="6">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V33" s="11">
+        <v>11</v>
+      </c>
+      <c r="W33" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X33" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR33" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G34" s="5">
+        <v>33</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="6">
+        <v>5289</v>
+      </c>
+      <c r="M34" s="7">
+        <v>909495.3</v>
+      </c>
+      <c r="N34" s="6">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V34" s="11">
+        <v>11</v>
+      </c>
+      <c r="W34" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X34" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR34" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G35" s="5">
+        <v>34</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" s="6">
+        <v>5290</v>
+      </c>
+      <c r="M35" s="7">
+        <v>909667.26</v>
+      </c>
+      <c r="N35" s="6">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V35" s="11">
+        <v>11</v>
+      </c>
+      <c r="W35" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X35" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR35" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G36" s="5">
+        <v>35</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" s="6">
+        <v>5291</v>
+      </c>
+      <c r="M36" s="7">
+        <v>909839.22</v>
+      </c>
+      <c r="N36" s="6">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U36" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V36" s="11">
+        <v>11</v>
+      </c>
+      <c r="W36" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X36" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR36" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G37" s="5">
+        <v>36</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="6">
+        <v>5292</v>
+      </c>
+      <c r="M37" s="7">
+        <v>910011.18</v>
+      </c>
+      <c r="N37" s="6">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V37" s="11">
+        <v>11</v>
+      </c>
+      <c r="W37" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X37" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR37" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G38" s="5">
+        <v>37</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="6">
+        <v>5293</v>
+      </c>
+      <c r="M38" s="7">
+        <v>910183.14</v>
+      </c>
+      <c r="N38" s="6">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P38" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U38" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V38" s="11">
+        <v>11</v>
+      </c>
+      <c r="W38" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X38" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR38" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G39" s="5">
+        <v>38</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="6">
+        <v>5294</v>
+      </c>
+      <c r="M39" s="7">
+        <v>910355.1</v>
+      </c>
+      <c r="N39" s="6">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+      <c r="S39" s="9">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U39" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V39" s="11">
+        <v>11</v>
+      </c>
+      <c r="W39" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X39" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G40" s="5">
+        <v>39</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="6">
+        <v>5295</v>
+      </c>
+      <c r="M40" s="7">
+        <v>910527.06</v>
+      </c>
+      <c r="N40" s="6">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+      <c r="S40" s="9">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V40" s="11">
+        <v>11</v>
+      </c>
+      <c r="W40" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X40" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR40" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G41" s="5">
+        <v>40</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" s="6">
+        <v>5296</v>
+      </c>
+      <c r="M41" s="7">
+        <v>910699.02</v>
+      </c>
+      <c r="N41" s="6">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U41" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V41" s="11">
+        <v>11</v>
+      </c>
+      <c r="W41" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X41" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR41" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G42" s="5">
+        <v>41</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L42" s="6">
+        <v>5297</v>
+      </c>
+      <c r="M42" s="7">
+        <v>910870.98</v>
+      </c>
+      <c r="N42" s="6">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U42" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V42" s="11">
+        <v>11</v>
+      </c>
+      <c r="W42" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X42" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR42" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G43" s="5">
+        <v>42</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="6">
+        <v>5298</v>
+      </c>
+      <c r="M43" s="7">
+        <v>911042.94</v>
+      </c>
+      <c r="N43" s="6">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P43" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="S43" s="9">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U43" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V43" s="11">
+        <v>11</v>
+      </c>
+      <c r="W43" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X43" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR43" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G44" s="5">
+        <v>43</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" s="6">
+        <v>5299</v>
+      </c>
+      <c r="M44" s="7">
+        <v>911214.9</v>
+      </c>
+      <c r="N44" s="6">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0</v>
+      </c>
+      <c r="S44" s="9">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U44" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V44" s="11">
+        <v>11</v>
+      </c>
+      <c r="W44" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X44" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR44" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G45" s="5">
+        <v>44</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L45" s="6">
+        <v>5300</v>
+      </c>
+      <c r="M45" s="7">
+        <v>911386.86</v>
+      </c>
+      <c r="N45" s="6">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P45" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="9">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U45" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V45" s="11">
+        <v>11</v>
+      </c>
+      <c r="W45" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X45" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR45" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G46" s="5">
+        <v>45</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" s="6">
+        <v>5301</v>
+      </c>
+      <c r="M46" s="7">
+        <v>911558.82</v>
+      </c>
+      <c r="N46" s="6">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+      <c r="S46" s="9">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U46" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V46" s="11">
+        <v>11</v>
+      </c>
+      <c r="W46" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X46" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y46" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR46" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G47" s="5">
+        <v>46</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L47" s="6">
+        <v>5302</v>
+      </c>
+      <c r="M47" s="7">
+        <v>911730.77</v>
+      </c>
+      <c r="N47" s="6">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P47" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>0</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="S47" s="9">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U47" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V47" s="11">
+        <v>11</v>
+      </c>
+      <c r="W47" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X47" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR47" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G48" s="5">
+        <v>47</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L48" s="6">
+        <v>5303</v>
+      </c>
+      <c r="M48" s="7">
+        <v>911902.73</v>
+      </c>
+      <c r="N48" s="6">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P48" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>0</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0</v>
+      </c>
+      <c r="S48" s="9">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U48" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V48" s="11">
+        <v>11</v>
+      </c>
+      <c r="W48" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X48" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR48" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G49" s="5">
+        <v>48</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L49" s="6">
+        <v>5304</v>
+      </c>
+      <c r="M49" s="7">
+        <v>912074.69</v>
+      </c>
+      <c r="N49" s="6">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P49" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>0</v>
+      </c>
+      <c r="R49" s="7">
+        <v>0</v>
+      </c>
+      <c r="S49" s="9">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U49" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V49" s="11">
+        <v>11</v>
+      </c>
+      <c r="W49" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X49" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR49" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G50" s="5">
+        <v>49</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L50" s="6">
+        <v>5305</v>
+      </c>
+      <c r="M50" s="7">
+        <v>912246.65</v>
+      </c>
+      <c r="N50" s="6">
+        <v>1</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>0</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0</v>
+      </c>
+      <c r="S50" s="9">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U50" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V50" s="11">
+        <v>11</v>
+      </c>
+      <c r="W50" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X50" s="12">
+        <v>0.33680559999999998</v>
+      </c>
+      <c r="Y50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR50" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G51" s="5">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" s="6">
+        <v>1782</v>
+      </c>
+      <c r="M51" s="7">
+        <v>309800.7</v>
+      </c>
+      <c r="N51" s="6">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P51" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>0</v>
+      </c>
+      <c r="R51" s="7">
+        <v>0</v>
+      </c>
+      <c r="S51" s="9">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U51" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V51" s="11">
+        <v>11</v>
+      </c>
+      <c r="W51" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X51" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR51" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L52" s="6">
+        <v>1783</v>
+      </c>
+      <c r="M52" s="7">
+        <v>309974.55</v>
+      </c>
+      <c r="N52" s="6">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P52" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>0</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0</v>
+      </c>
+      <c r="S52" s="9">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U52" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V52" s="11">
+        <v>11</v>
+      </c>
+      <c r="W52" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X52" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y52" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR52" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G53" s="5">
+        <v>3</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" s="6">
+        <v>1784</v>
+      </c>
+      <c r="M53" s="7">
+        <v>310148.40000000002</v>
+      </c>
+      <c r="N53" s="6">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P53" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>0</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+      <c r="S53" s="9">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U53" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V53" s="11">
+        <v>11</v>
+      </c>
+      <c r="W53" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X53" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y53" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR53" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G54" s="5">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="6">
+        <v>1785</v>
+      </c>
+      <c r="M54" s="7">
+        <v>310322.25</v>
+      </c>
+      <c r="N54" s="6">
+        <v>1</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P54" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>0</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0</v>
+      </c>
+      <c r="S54" s="9">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U54" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V54" s="11">
+        <v>11</v>
+      </c>
+      <c r="W54" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X54" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR54" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G55" s="5">
+        <v>5</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L55" s="6">
+        <v>1786</v>
+      </c>
+      <c r="M55" s="7">
+        <v>310496.09999999998</v>
+      </c>
+      <c r="N55" s="6">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P55" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>0</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0</v>
+      </c>
+      <c r="S55" s="9">
+        <v>0</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U55" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V55" s="11">
+        <v>11</v>
+      </c>
+      <c r="W55" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X55" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR55" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G56" s="5">
+        <v>6</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L56" s="6">
+        <v>1787</v>
+      </c>
+      <c r="M56" s="7">
+        <v>310669.95</v>
+      </c>
+      <c r="N56" s="6">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P56" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>0</v>
+      </c>
+      <c r="R56" s="7">
+        <v>0</v>
+      </c>
+      <c r="S56" s="9">
+        <v>0</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U56" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V56" s="11">
+        <v>11</v>
+      </c>
+      <c r="W56" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X56" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR56" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G57" s="5">
+        <v>7</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57" s="6">
+        <v>1788</v>
+      </c>
+      <c r="M57" s="7">
+        <v>310843.8</v>
+      </c>
+      <c r="N57" s="6">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P57" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>0</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+      <c r="S57" s="9">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U57" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V57" s="11">
+        <v>11</v>
+      </c>
+      <c r="W57" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X57" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y57" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR57" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G58" s="5">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L58" s="6">
+        <v>1789</v>
+      </c>
+      <c r="M58" s="7">
+        <v>311017.65000000002</v>
+      </c>
+      <c r="N58" s="6">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P58" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>0</v>
+      </c>
+      <c r="R58" s="7">
+        <v>0</v>
+      </c>
+      <c r="S58" s="9">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U58" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V58" s="11">
+        <v>11</v>
+      </c>
+      <c r="W58" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X58" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR58" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G59" s="5">
+        <v>9</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L59" s="6">
+        <v>1790</v>
+      </c>
+      <c r="M59" s="7">
+        <v>311191.5</v>
+      </c>
+      <c r="N59" s="6">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P59" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>0</v>
+      </c>
+      <c r="R59" s="7">
+        <v>0</v>
+      </c>
+      <c r="S59" s="9">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U59" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V59" s="11">
+        <v>11</v>
+      </c>
+      <c r="W59" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X59" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y59" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR59" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G60" s="5">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L60" s="6">
+        <v>1791</v>
+      </c>
+      <c r="M60" s="7">
+        <v>311365.34999999998</v>
+      </c>
+      <c r="N60" s="6">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P60" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>0</v>
+      </c>
+      <c r="R60" s="7">
+        <v>0</v>
+      </c>
+      <c r="S60" s="9">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U60" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V60" s="11">
+        <v>11</v>
+      </c>
+      <c r="W60" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X60" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y60" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR60" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G61" s="5">
+        <v>11</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" s="6">
+        <v>1792</v>
+      </c>
+      <c r="M61" s="7">
+        <v>311539.20000000001</v>
+      </c>
+      <c r="N61" s="6">
+        <v>1</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P61" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>0</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="S61" s="9">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U61" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V61" s="11">
+        <v>11</v>
+      </c>
+      <c r="W61" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X61" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y61" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR61" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38775E82-CE44-4D2A-B73D-4B8F0846B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BAB6D6B-E3AB-43A1-866D-5B3673A750F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BAB6D6B-E3AB-43A1-866D-5B3673A750F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AAEACA2-5CDB-480D-88E9-9DE8FC623065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="161">
   <si>
     <t>Sel</t>
   </si>
@@ -334,6 +334,105 @@
     <t>1858700132609</t>
   </si>
   <si>
+    <t>1858700132610</t>
+  </si>
+  <si>
+    <t>1858700132611</t>
+  </si>
+  <si>
+    <t>1858700132612</t>
+  </si>
+  <si>
+    <t>1858700132613</t>
+  </si>
+  <si>
+    <t>1858700132614</t>
+  </si>
+  <si>
+    <t>1858700132615</t>
+  </si>
+  <si>
+    <t>1858700132616</t>
+  </si>
+  <si>
+    <t>1858700132617</t>
+  </si>
+  <si>
+    <t>1858700132618</t>
+  </si>
+  <si>
+    <t>1858700132619</t>
+  </si>
+  <si>
+    <t>1858700132620</t>
+  </si>
+  <si>
+    <t>1858700132621</t>
+  </si>
+  <si>
+    <t>1858700132622</t>
+  </si>
+  <si>
+    <t>1858700132623</t>
+  </si>
+  <si>
+    <t>1858700132624</t>
+  </si>
+  <si>
+    <t>1858700132625</t>
+  </si>
+  <si>
+    <t>1858700132626</t>
+  </si>
+  <si>
+    <t>1858700132627</t>
+  </si>
+  <si>
+    <t>1858700132628</t>
+  </si>
+  <si>
+    <t>1858700132629</t>
+  </si>
+  <si>
+    <t>1858700132630</t>
+  </si>
+  <si>
+    <t>1858700132631</t>
+  </si>
+  <si>
+    <t>1858700132632</t>
+  </si>
+  <si>
+    <t>1858700132633</t>
+  </si>
+  <si>
+    <t>1858700132634</t>
+  </si>
+  <si>
+    <t>1858700132635</t>
+  </si>
+  <si>
+    <t>1858700132636</t>
+  </si>
+  <si>
+    <t>1858700132637</t>
+  </si>
+  <si>
+    <t>1858700132638</t>
+  </si>
+  <si>
+    <t>1858700132639</t>
+  </si>
+  <si>
+    <t>1858700132640</t>
+  </si>
+  <si>
+    <t>1858700132641</t>
+  </si>
+  <si>
+    <t>1858700132642</t>
+  </si>
+  <si>
     <t>10058029</t>
   </si>
   <si>
@@ -374,6 +473,36 @@
   </si>
   <si>
     <t>1025000003575</t>
+  </si>
+  <si>
+    <t>1025000003576</t>
+  </si>
+  <si>
+    <t>1025000003577</t>
+  </si>
+  <si>
+    <t>1025000003578</t>
+  </si>
+  <si>
+    <t>1025000003579</t>
+  </si>
+  <si>
+    <t>1025000003580</t>
+  </si>
+  <si>
+    <t>1025000003581</t>
+  </si>
+  <si>
+    <t>1025000003582</t>
+  </si>
+  <si>
+    <t>1025000003583</t>
+  </si>
+  <si>
+    <t>1025000003584</t>
+  </si>
+  <si>
+    <t>1025000003585</t>
   </si>
 </sst>
 </file>
@@ -949,7 +1078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR61"/>
+  <dimension ref="A1:AR104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7663,10 +7792,10 @@
         <v>2</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>46</v>
@@ -7675,7 +7804,7 @@
         <v>46064</v>
       </c>
       <c r="G51" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>47</v>
@@ -7690,19 +7819,19 @@
         <v>50</v>
       </c>
       <c r="L51" s="6">
-        <v>1782</v>
+        <v>5306</v>
       </c>
       <c r="M51" s="7">
-        <v>309800.7</v>
+        <v>912418.61</v>
       </c>
       <c r="N51" s="6">
         <v>1</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P51" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q51" s="6">
         <v>0</v>
@@ -7717,7 +7846,7 @@
         <v>52</v>
       </c>
       <c r="U51" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V51" s="11">
         <v>11</v>
@@ -7726,7 +7855,7 @@
         <v>46064</v>
       </c>
       <c r="X51" s="12">
-        <v>0.3361111</v>
+        <v>0.35763889999999998</v>
       </c>
       <c r="Y51" s="10">
         <v>0</v>
@@ -7786,7 +7915,7 @@
         <v>53</v>
       </c>
       <c r="AR51" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.3">
@@ -7797,10 +7926,10 @@
         <v>2</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>46</v>
@@ -7809,7 +7938,7 @@
         <v>46064</v>
       </c>
       <c r="G52" s="5">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>47</v>
@@ -7824,19 +7953,19 @@
         <v>50</v>
       </c>
       <c r="L52" s="6">
-        <v>1783</v>
+        <v>5307</v>
       </c>
       <c r="M52" s="7">
-        <v>309974.55</v>
+        <v>912590.57</v>
       </c>
       <c r="N52" s="6">
         <v>1</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P52" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q52" s="6">
         <v>0</v>
@@ -7851,7 +7980,7 @@
         <v>52</v>
       </c>
       <c r="U52" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V52" s="11">
         <v>11</v>
@@ -7860,7 +7989,7 @@
         <v>46064</v>
       </c>
       <c r="X52" s="12">
-        <v>0.3361111</v>
+        <v>0.35763889999999998</v>
       </c>
       <c r="Y52" s="10">
         <v>0</v>
@@ -7920,7 +8049,7 @@
         <v>53</v>
       </c>
       <c r="AR52" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.3">
@@ -7931,10 +8060,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>46</v>
@@ -7943,7 +8072,7 @@
         <v>46064</v>
       </c>
       <c r="G53" s="5">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>47</v>
@@ -7958,19 +8087,19 @@
         <v>50</v>
       </c>
       <c r="L53" s="6">
-        <v>1784</v>
+        <v>5308</v>
       </c>
       <c r="M53" s="7">
-        <v>310148.40000000002</v>
+        <v>912762.53</v>
       </c>
       <c r="N53" s="6">
         <v>1</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P53" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q53" s="6">
         <v>0</v>
@@ -7985,7 +8114,7 @@
         <v>52</v>
       </c>
       <c r="U53" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V53" s="11">
         <v>11</v>
@@ -7994,7 +8123,7 @@
         <v>46064</v>
       </c>
       <c r="X53" s="12">
-        <v>0.3361111</v>
+        <v>0.35763889999999998</v>
       </c>
       <c r="Y53" s="10">
         <v>0</v>
@@ -8054,7 +8183,7 @@
         <v>53</v>
       </c>
       <c r="AR53" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.3">
@@ -8065,10 +8194,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>46</v>
@@ -8077,7 +8206,7 @@
         <v>46064</v>
       </c>
       <c r="G54" s="5">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>47</v>
@@ -8092,19 +8221,19 @@
         <v>50</v>
       </c>
       <c r="L54" s="6">
-        <v>1785</v>
+        <v>5309</v>
       </c>
       <c r="M54" s="7">
-        <v>310322.25</v>
+        <v>912934.49</v>
       </c>
       <c r="N54" s="6">
         <v>1</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P54" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q54" s="6">
         <v>0</v>
@@ -8119,7 +8248,7 @@
         <v>52</v>
       </c>
       <c r="U54" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V54" s="11">
         <v>11</v>
@@ -8128,7 +8257,7 @@
         <v>46064</v>
       </c>
       <c r="X54" s="12">
-        <v>0.3361111</v>
+        <v>0.35763889999999998</v>
       </c>
       <c r="Y54" s="10">
         <v>0</v>
@@ -8188,7 +8317,7 @@
         <v>53</v>
       </c>
       <c r="AR54" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.3">
@@ -8199,10 +8328,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>46</v>
@@ -8211,7 +8340,7 @@
         <v>46064</v>
       </c>
       <c r="G55" s="5">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>47</v>
@@ -8226,19 +8355,19 @@
         <v>50</v>
       </c>
       <c r="L55" s="6">
-        <v>1786</v>
+        <v>5310</v>
       </c>
       <c r="M55" s="7">
-        <v>310496.09999999998</v>
+        <v>913106.45</v>
       </c>
       <c r="N55" s="6">
         <v>1</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P55" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q55" s="6">
         <v>0</v>
@@ -8253,7 +8382,7 @@
         <v>52</v>
       </c>
       <c r="U55" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V55" s="11">
         <v>11</v>
@@ -8262,7 +8391,7 @@
         <v>46064</v>
       </c>
       <c r="X55" s="12">
-        <v>0.3361111</v>
+        <v>0.35763889999999998</v>
       </c>
       <c r="Y55" s="10">
         <v>0</v>
@@ -8322,7 +8451,7 @@
         <v>53</v>
       </c>
       <c r="AR55" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.3">
@@ -8333,10 +8462,10 @@
         <v>2</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>46</v>
@@ -8345,7 +8474,7 @@
         <v>46064</v>
       </c>
       <c r="G56" s="5">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>47</v>
@@ -8360,19 +8489,19 @@
         <v>50</v>
       </c>
       <c r="L56" s="6">
-        <v>1787</v>
+        <v>5311</v>
       </c>
       <c r="M56" s="7">
-        <v>310669.95</v>
+        <v>913278.41</v>
       </c>
       <c r="N56" s="6">
         <v>1</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P56" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q56" s="6">
         <v>0</v>
@@ -8387,7 +8516,7 @@
         <v>52</v>
       </c>
       <c r="U56" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V56" s="11">
         <v>11</v>
@@ -8396,7 +8525,7 @@
         <v>46064</v>
       </c>
       <c r="X56" s="12">
-        <v>0.3361111</v>
+        <v>0.35763889999999998</v>
       </c>
       <c r="Y56" s="10">
         <v>0</v>
@@ -8456,7 +8585,7 @@
         <v>53</v>
       </c>
       <c r="AR56" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.3">
@@ -8467,10 +8596,10 @@
         <v>2</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>46</v>
@@ -8479,7 +8608,7 @@
         <v>46064</v>
       </c>
       <c r="G57" s="5">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>47</v>
@@ -8494,19 +8623,19 @@
         <v>50</v>
       </c>
       <c r="L57" s="6">
-        <v>1788</v>
+        <v>5312</v>
       </c>
       <c r="M57" s="7">
-        <v>310843.8</v>
+        <v>913450.37</v>
       </c>
       <c r="N57" s="6">
         <v>1</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P57" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q57" s="6">
         <v>0</v>
@@ -8521,7 +8650,7 @@
         <v>52</v>
       </c>
       <c r="U57" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V57" s="11">
         <v>11</v>
@@ -8530,7 +8659,7 @@
         <v>46064</v>
       </c>
       <c r="X57" s="12">
-        <v>0.3361111</v>
+        <v>0.35763889999999998</v>
       </c>
       <c r="Y57" s="10">
         <v>0</v>
@@ -8590,7 +8719,7 @@
         <v>53</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.3">
@@ -8601,10 +8730,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>46</v>
@@ -8613,7 +8742,7 @@
         <v>46064</v>
       </c>
       <c r="G58" s="5">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>47</v>
@@ -8628,19 +8757,19 @@
         <v>50</v>
       </c>
       <c r="L58" s="6">
-        <v>1789</v>
+        <v>5313</v>
       </c>
       <c r="M58" s="7">
-        <v>311017.65000000002</v>
+        <v>913622.33</v>
       </c>
       <c r="N58" s="6">
         <v>1</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P58" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q58" s="6">
         <v>0</v>
@@ -8655,7 +8784,7 @@
         <v>52</v>
       </c>
       <c r="U58" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V58" s="11">
         <v>11</v>
@@ -8664,7 +8793,7 @@
         <v>46064</v>
       </c>
       <c r="X58" s="12">
-        <v>0.3361111</v>
+        <v>0.35763889999999998</v>
       </c>
       <c r="Y58" s="10">
         <v>0</v>
@@ -8724,7 +8853,7 @@
         <v>53</v>
       </c>
       <c r="AR58" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.3">
@@ -8735,10 +8864,10 @@
         <v>2</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>46</v>
@@ -8747,7 +8876,7 @@
         <v>46064</v>
       </c>
       <c r="G59" s="5">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>47</v>
@@ -8762,19 +8891,19 @@
         <v>50</v>
       </c>
       <c r="L59" s="6">
-        <v>1790</v>
+        <v>5314</v>
       </c>
       <c r="M59" s="7">
-        <v>311191.5</v>
+        <v>913794.29</v>
       </c>
       <c r="N59" s="6">
         <v>1</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P59" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q59" s="6">
         <v>0</v>
@@ -8789,7 +8918,7 @@
         <v>52</v>
       </c>
       <c r="U59" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V59" s="11">
         <v>11</v>
@@ -8798,7 +8927,7 @@
         <v>46064</v>
       </c>
       <c r="X59" s="12">
-        <v>0.3361111</v>
+        <v>0.35763889999999998</v>
       </c>
       <c r="Y59" s="10">
         <v>0</v>
@@ -8858,7 +8987,7 @@
         <v>53</v>
       </c>
       <c r="AR59" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.3">
@@ -8869,10 +8998,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>46</v>
@@ -8881,7 +9010,7 @@
         <v>46064</v>
       </c>
       <c r="G60" s="5">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>47</v>
@@ -8896,19 +9025,19 @@
         <v>50</v>
       </c>
       <c r="L60" s="6">
-        <v>1791</v>
+        <v>5315</v>
       </c>
       <c r="M60" s="7">
-        <v>311365.34999999998</v>
+        <v>913966.25</v>
       </c>
       <c r="N60" s="6">
         <v>1</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P60" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q60" s="6">
         <v>0</v>
@@ -8923,7 +9052,7 @@
         <v>52</v>
       </c>
       <c r="U60" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V60" s="11">
         <v>11</v>
@@ -8932,7 +9061,7 @@
         <v>46064</v>
       </c>
       <c r="X60" s="12">
-        <v>0.3361111</v>
+        <v>0.35763889999999998</v>
       </c>
       <c r="Y60" s="10">
         <v>0</v>
@@ -8992,7 +9121,7 @@
         <v>53</v>
       </c>
       <c r="AR60" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.3">
@@ -9003,10 +9132,10 @@
         <v>2</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>46</v>
@@ -9015,7 +9144,7 @@
         <v>46064</v>
       </c>
       <c r="G61" s="5">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>47</v>
@@ -9030,19 +9159,19 @@
         <v>50</v>
       </c>
       <c r="L61" s="6">
-        <v>1792</v>
+        <v>5316</v>
       </c>
       <c r="M61" s="7">
-        <v>311539.20000000001</v>
+        <v>914138.21</v>
       </c>
       <c r="N61" s="6">
         <v>1</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="P61" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q61" s="6">
         <v>0</v>
@@ -9057,7 +9186,7 @@
         <v>52</v>
       </c>
       <c r="U61" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V61" s="11">
         <v>11</v>
@@ -9066,7 +9195,7 @@
         <v>46064</v>
       </c>
       <c r="X61" s="12">
-        <v>0.3361111</v>
+        <v>0.35763889999999998</v>
       </c>
       <c r="Y61" s="10">
         <v>0</v>
@@ -9126,7 +9255,5769 @@
         <v>53</v>
       </c>
       <c r="AR61" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G62" s="5">
+        <v>61</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" s="6">
+        <v>5317</v>
+      </c>
+      <c r="M62" s="7">
+        <v>914310.17</v>
+      </c>
+      <c r="N62" s="6">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P62" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>0</v>
+      </c>
+      <c r="R62" s="7">
+        <v>0</v>
+      </c>
+      <c r="S62" s="9">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U62" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V62" s="11">
+        <v>11</v>
+      </c>
+      <c r="W62" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X62" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y62" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI62" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR62" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G63" s="5">
+        <v>62</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" s="6">
+        <v>5318</v>
+      </c>
+      <c r="M63" s="7">
+        <v>914482.13</v>
+      </c>
+      <c r="N63" s="6">
+        <v>1</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>0</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+      <c r="S63" s="9">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U63" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V63" s="11">
+        <v>11</v>
+      </c>
+      <c r="W63" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X63" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y63" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI63" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR63" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G64" s="5">
+        <v>63</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L64" s="6">
+        <v>5319</v>
+      </c>
+      <c r="M64" s="7">
+        <v>914654.09</v>
+      </c>
+      <c r="N64" s="6">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P64" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>0</v>
+      </c>
+      <c r="R64" s="7">
+        <v>0</v>
+      </c>
+      <c r="S64" s="9">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U64" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V64" s="11">
+        <v>11</v>
+      </c>
+      <c r="W64" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X64" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y64" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR64" s="3" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G65" s="5">
+        <v>64</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L65" s="6">
+        <v>5320</v>
+      </c>
+      <c r="M65" s="7">
+        <v>914826.05</v>
+      </c>
+      <c r="N65" s="6">
+        <v>1</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P65" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>0</v>
+      </c>
+      <c r="R65" s="7">
+        <v>0</v>
+      </c>
+      <c r="S65" s="9">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U65" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V65" s="11">
+        <v>11</v>
+      </c>
+      <c r="W65" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X65" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y65" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR65" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G66" s="5">
+        <v>65</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L66" s="6">
+        <v>5321</v>
+      </c>
+      <c r="M66" s="7">
+        <v>914998.01</v>
+      </c>
+      <c r="N66" s="6">
+        <v>1</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P66" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>0</v>
+      </c>
+      <c r="R66" s="7">
+        <v>0</v>
+      </c>
+      <c r="S66" s="9">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U66" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V66" s="11">
+        <v>11</v>
+      </c>
+      <c r="W66" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X66" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y66" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG66" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR66" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G67" s="5">
+        <v>66</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L67" s="6">
+        <v>5322</v>
+      </c>
+      <c r="M67" s="7">
+        <v>915169.97</v>
+      </c>
+      <c r="N67" s="6">
+        <v>1</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P67" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>0</v>
+      </c>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="9">
+        <v>0</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U67" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V67" s="11">
+        <v>11</v>
+      </c>
+      <c r="W67" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X67" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y67" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG67" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI67" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK67" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR67" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G68" s="5">
+        <v>67</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L68" s="6">
+        <v>5323</v>
+      </c>
+      <c r="M68" s="7">
+        <v>915341.93</v>
+      </c>
+      <c r="N68" s="6">
+        <v>1</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P68" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0</v>
+      </c>
+      <c r="S68" s="9">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U68" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V68" s="11">
+        <v>11</v>
+      </c>
+      <c r="W68" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X68" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y68" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG68" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR68" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G69" s="5">
+        <v>68</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L69" s="6">
+        <v>5324</v>
+      </c>
+      <c r="M69" s="7">
+        <v>915513.89</v>
+      </c>
+      <c r="N69" s="6">
+        <v>1</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P69" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>0</v>
+      </c>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69" s="9">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U69" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V69" s="11">
+        <v>11</v>
+      </c>
+      <c r="W69" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X69" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y69" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG69" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR69" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G70" s="5">
+        <v>69</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L70" s="6">
+        <v>5325</v>
+      </c>
+      <c r="M70" s="7">
+        <v>915685.85</v>
+      </c>
+      <c r="N70" s="6">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P70" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>0</v>
+      </c>
+      <c r="R70" s="7">
+        <v>0</v>
+      </c>
+      <c r="S70" s="9">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U70" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V70" s="11">
+        <v>11</v>
+      </c>
+      <c r="W70" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X70" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y70" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG70" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI70" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR70" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G71" s="5">
+        <v>70</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L71" s="6">
+        <v>5326</v>
+      </c>
+      <c r="M71" s="7">
+        <v>915857.81</v>
+      </c>
+      <c r="N71" s="6">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P71" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>0</v>
+      </c>
+      <c r="R71" s="7">
+        <v>0</v>
+      </c>
+      <c r="S71" s="9">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U71" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V71" s="11">
+        <v>11</v>
+      </c>
+      <c r="W71" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X71" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y71" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG71" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR71" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G72" s="5">
+        <v>71</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L72" s="6">
+        <v>5327</v>
+      </c>
+      <c r="M72" s="7">
+        <v>916029.77</v>
+      </c>
+      <c r="N72" s="6">
+        <v>1</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P72" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q72" s="6">
+        <v>0</v>
+      </c>
+      <c r="R72" s="7">
+        <v>0</v>
+      </c>
+      <c r="S72" s="9">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U72" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V72" s="11">
+        <v>11</v>
+      </c>
+      <c r="W72" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X72" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y72" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI72" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR72" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G73" s="5">
+        <v>72</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L73" s="6">
+        <v>5328</v>
+      </c>
+      <c r="M73" s="7">
+        <v>916201.73</v>
+      </c>
+      <c r="N73" s="6">
+        <v>1</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P73" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q73" s="6">
+        <v>0</v>
+      </c>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73" s="9">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U73" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V73" s="11">
+        <v>11</v>
+      </c>
+      <c r="W73" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X73" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y73" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG73" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI73" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR73" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G74" s="5">
+        <v>73</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L74" s="6">
+        <v>5329</v>
+      </c>
+      <c r="M74" s="7">
+        <v>916373.69</v>
+      </c>
+      <c r="N74" s="6">
+        <v>1</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P74" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>0</v>
+      </c>
+      <c r="R74" s="7">
+        <v>0</v>
+      </c>
+      <c r="S74" s="9">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U74" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V74" s="11">
+        <v>11</v>
+      </c>
+      <c r="W74" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X74" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y74" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG74" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK74" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR74" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G75" s="5">
+        <v>74</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L75" s="6">
+        <v>5330</v>
+      </c>
+      <c r="M75" s="7">
+        <v>916545.65</v>
+      </c>
+      <c r="N75" s="6">
+        <v>1</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P75" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>0</v>
+      </c>
+      <c r="R75" s="7">
+        <v>0</v>
+      </c>
+      <c r="S75" s="9">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U75" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V75" s="11">
+        <v>11</v>
+      </c>
+      <c r="W75" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X75" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y75" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG75" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK75" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM75" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR75" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G76" s="5">
+        <v>75</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L76" s="6">
+        <v>5331</v>
+      </c>
+      <c r="M76" s="7">
+        <v>916717.61</v>
+      </c>
+      <c r="N76" s="6">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P76" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>0</v>
+      </c>
+      <c r="R76" s="7">
+        <v>0</v>
+      </c>
+      <c r="S76" s="9">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U76" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V76" s="11">
+        <v>11</v>
+      </c>
+      <c r="W76" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X76" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y76" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG76" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR76" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G77" s="5">
+        <v>76</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L77" s="6">
+        <v>5332</v>
+      </c>
+      <c r="M77" s="7">
+        <v>916889.57</v>
+      </c>
+      <c r="N77" s="6">
+        <v>1</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P77" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q77" s="6">
+        <v>0</v>
+      </c>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="9">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U77" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V77" s="11">
+        <v>11</v>
+      </c>
+      <c r="W77" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X77" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y77" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG77" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ77" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR77" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G78" s="5">
+        <v>77</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L78" s="6">
+        <v>5333</v>
+      </c>
+      <c r="M78" s="7">
+        <v>917061.53</v>
+      </c>
+      <c r="N78" s="6">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P78" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q78" s="6">
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="9">
+        <v>0</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U78" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V78" s="11">
+        <v>11</v>
+      </c>
+      <c r="W78" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X78" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y78" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG78" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK78" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR78" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G79" s="5">
+        <v>78</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L79" s="6">
+        <v>5334</v>
+      </c>
+      <c r="M79" s="7">
+        <v>917233.49</v>
+      </c>
+      <c r="N79" s="6">
+        <v>1</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P79" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q79" s="6">
+        <v>0</v>
+      </c>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="9">
+        <v>0</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U79" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V79" s="11">
+        <v>11</v>
+      </c>
+      <c r="W79" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X79" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y79" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG79" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI79" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ79" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK79" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM79" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR79" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G80" s="5">
+        <v>79</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L80" s="6">
+        <v>5335</v>
+      </c>
+      <c r="M80" s="7">
+        <v>917405.45</v>
+      </c>
+      <c r="N80" s="6">
+        <v>1</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P80" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q80" s="6">
+        <v>0</v>
+      </c>
+      <c r="R80" s="7">
+        <v>0</v>
+      </c>
+      <c r="S80" s="9">
+        <v>0</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U80" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V80" s="11">
+        <v>11</v>
+      </c>
+      <c r="W80" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X80" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y80" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG80" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ80" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK80" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM80" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR80" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G81" s="5">
+        <v>80</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L81" s="6">
+        <v>5336</v>
+      </c>
+      <c r="M81" s="7">
+        <v>917577.41</v>
+      </c>
+      <c r="N81" s="6">
+        <v>1</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P81" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q81" s="6">
+        <v>0</v>
+      </c>
+      <c r="R81" s="7">
+        <v>0</v>
+      </c>
+      <c r="S81" s="9">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U81" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V81" s="11">
+        <v>11</v>
+      </c>
+      <c r="W81" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X81" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y81" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG81" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK81" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM81" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR81" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G82" s="5">
+        <v>81</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L82" s="6">
+        <v>5337</v>
+      </c>
+      <c r="M82" s="7">
+        <v>917749.37</v>
+      </c>
+      <c r="N82" s="6">
+        <v>1</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P82" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>0</v>
+      </c>
+      <c r="R82" s="7">
+        <v>0</v>
+      </c>
+      <c r="S82" s="9">
+        <v>0</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U82" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V82" s="11">
+        <v>11</v>
+      </c>
+      <c r="W82" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X82" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y82" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG82" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI82" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK82" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR82" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G83" s="5">
+        <v>82</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L83" s="6">
+        <v>5338</v>
+      </c>
+      <c r="M83" s="7">
+        <v>917921.33</v>
+      </c>
+      <c r="N83" s="6">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P83" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>0</v>
+      </c>
+      <c r="R83" s="7">
+        <v>0</v>
+      </c>
+      <c r="S83" s="9">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U83" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V83" s="11">
+        <v>11</v>
+      </c>
+      <c r="W83" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X83" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y83" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG83" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI83" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ83" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK83" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR83" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G84" s="5">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L84" s="6">
+        <v>1782</v>
+      </c>
+      <c r="M84" s="7">
+        <v>309800.7</v>
+      </c>
+      <c r="N84" s="6">
+        <v>1</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P84" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>0</v>
+      </c>
+      <c r="R84" s="7">
+        <v>0</v>
+      </c>
+      <c r="S84" s="9">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U84" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V84" s="11">
+        <v>11</v>
+      </c>
+      <c r="W84" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X84" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y84" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK84" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM84" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR84" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G85" s="5">
+        <v>2</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L85" s="6">
+        <v>1783</v>
+      </c>
+      <c r="M85" s="7">
+        <v>309974.55</v>
+      </c>
+      <c r="N85" s="6">
+        <v>1</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P85" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q85" s="6">
+        <v>0</v>
+      </c>
+      <c r="R85" s="7">
+        <v>0</v>
+      </c>
+      <c r="S85" s="9">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U85" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V85" s="11">
+        <v>11</v>
+      </c>
+      <c r="W85" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X85" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y85" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ85" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR85" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G86" s="5">
+        <v>3</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L86" s="6">
+        <v>1784</v>
+      </c>
+      <c r="M86" s="7">
+        <v>310148.40000000002</v>
+      </c>
+      <c r="N86" s="6">
+        <v>1</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P86" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>0</v>
+      </c>
+      <c r="R86" s="7">
+        <v>0</v>
+      </c>
+      <c r="S86" s="9">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U86" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V86" s="11">
+        <v>11</v>
+      </c>
+      <c r="W86" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X86" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y86" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ86" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR86" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G87" s="5">
+        <v>4</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L87" s="6">
+        <v>1785</v>
+      </c>
+      <c r="M87" s="7">
+        <v>310322.25</v>
+      </c>
+      <c r="N87" s="6">
+        <v>1</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P87" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q87" s="6">
+        <v>0</v>
+      </c>
+      <c r="R87" s="7">
+        <v>0</v>
+      </c>
+      <c r="S87" s="9">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U87" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V87" s="11">
+        <v>11</v>
+      </c>
+      <c r="W87" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X87" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y87" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ87" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK87" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM87" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR87" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G88" s="5">
+        <v>5</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L88" s="6">
+        <v>1786</v>
+      </c>
+      <c r="M88" s="7">
+        <v>310496.09999999998</v>
+      </c>
+      <c r="N88" s="6">
+        <v>1</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P88" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>0</v>
+      </c>
+      <c r="R88" s="7">
+        <v>0</v>
+      </c>
+      <c r="S88" s="9">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U88" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V88" s="11">
+        <v>11</v>
+      </c>
+      <c r="W88" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X88" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y88" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI88" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ88" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK88" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM88" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR88" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G89" s="5">
+        <v>6</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L89" s="6">
+        <v>1787</v>
+      </c>
+      <c r="M89" s="7">
+        <v>310669.95</v>
+      </c>
+      <c r="N89" s="6">
+        <v>1</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P89" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q89" s="6">
+        <v>0</v>
+      </c>
+      <c r="R89" s="7">
+        <v>0</v>
+      </c>
+      <c r="S89" s="9">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U89" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V89" s="11">
+        <v>11</v>
+      </c>
+      <c r="W89" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X89" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y89" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG89" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ89" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK89" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM89" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR89" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>1</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G90" s="5">
+        <v>7</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L90" s="6">
+        <v>1788</v>
+      </c>
+      <c r="M90" s="7">
+        <v>310843.8</v>
+      </c>
+      <c r="N90" s="6">
+        <v>1</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P90" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q90" s="6">
+        <v>0</v>
+      </c>
+      <c r="R90" s="7">
+        <v>0</v>
+      </c>
+      <c r="S90" s="9">
+        <v>0</v>
+      </c>
+      <c r="T90" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U90" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V90" s="11">
+        <v>11</v>
+      </c>
+      <c r="W90" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X90" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y90" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG90" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ90" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK90" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM90" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR90" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G91" s="5">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L91" s="6">
+        <v>1789</v>
+      </c>
+      <c r="M91" s="7">
+        <v>311017.65000000002</v>
+      </c>
+      <c r="N91" s="6">
+        <v>1</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P91" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q91" s="6">
+        <v>0</v>
+      </c>
+      <c r="R91" s="7">
+        <v>0</v>
+      </c>
+      <c r="S91" s="9">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U91" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V91" s="11">
+        <v>11</v>
+      </c>
+      <c r="W91" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X91" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y91" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG91" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ91" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK91" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR91" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G92" s="5">
+        <v>9</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L92" s="6">
+        <v>1790</v>
+      </c>
+      <c r="M92" s="7">
+        <v>311191.5</v>
+      </c>
+      <c r="N92" s="6">
+        <v>1</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P92" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q92" s="6">
+        <v>0</v>
+      </c>
+      <c r="R92" s="7">
+        <v>0</v>
+      </c>
+      <c r="S92" s="9">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U92" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V92" s="11">
+        <v>11</v>
+      </c>
+      <c r="W92" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X92" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y92" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG92" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI92" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ92" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK92" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL92" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM92" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR92" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G93" s="5">
+        <v>10</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L93" s="6">
+        <v>1791</v>
+      </c>
+      <c r="M93" s="7">
+        <v>311365.34999999998</v>
+      </c>
+      <c r="N93" s="6">
+        <v>1</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P93" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q93" s="6">
+        <v>0</v>
+      </c>
+      <c r="R93" s="7">
+        <v>0</v>
+      </c>
+      <c r="S93" s="9">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U93" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V93" s="11">
+        <v>11</v>
+      </c>
+      <c r="W93" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X93" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y93" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG93" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI93" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ93" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK93" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR93" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>1</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F94" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G94" s="5">
+        <v>11</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L94" s="6">
+        <v>1792</v>
+      </c>
+      <c r="M94" s="7">
+        <v>311539.20000000001</v>
+      </c>
+      <c r="N94" s="6">
+        <v>1</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P94" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q94" s="6">
+        <v>0</v>
+      </c>
+      <c r="R94" s="7">
+        <v>0</v>
+      </c>
+      <c r="S94" s="9">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U94" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V94" s="11">
+        <v>11</v>
+      </c>
+      <c r="W94" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X94" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y94" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG94" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI94" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ94" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK94" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM94" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO94" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP94" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ94" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR94" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>1</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F95" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G95" s="5">
+        <v>12</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L95" s="6">
+        <v>1793</v>
+      </c>
+      <c r="M95" s="7">
+        <v>311713.05</v>
+      </c>
+      <c r="N95" s="6">
+        <v>1</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P95" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q95" s="6">
+        <v>0</v>
+      </c>
+      <c r="R95" s="7">
+        <v>0</v>
+      </c>
+      <c r="S95" s="9">
+        <v>0</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U95" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V95" s="11">
+        <v>11</v>
+      </c>
+      <c r="W95" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X95" s="12">
+        <v>0.3569444</v>
+      </c>
+      <c r="Y95" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG95" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI95" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ95" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK95" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM95" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR95" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>1</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G96" s="5">
+        <v>13</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L96" s="6">
+        <v>1794</v>
+      </c>
+      <c r="M96" s="7">
+        <v>311886.90000000002</v>
+      </c>
+      <c r="N96" s="6">
+        <v>1</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P96" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q96" s="6">
+        <v>0</v>
+      </c>
+      <c r="R96" s="7">
+        <v>0</v>
+      </c>
+      <c r="S96" s="9">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U96" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V96" s="11">
+        <v>11</v>
+      </c>
+      <c r="W96" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X96" s="12">
+        <v>0.3569444</v>
+      </c>
+      <c r="Y96" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG96" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ96" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK96" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM96" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN96" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO96" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP96" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ96" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR96" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>1</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F97" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G97" s="5">
+        <v>14</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L97" s="6">
+        <v>1795</v>
+      </c>
+      <c r="M97" s="7">
+        <v>312060.75</v>
+      </c>
+      <c r="N97" s="6">
+        <v>1</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P97" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q97" s="6">
+        <v>0</v>
+      </c>
+      <c r="R97" s="7">
+        <v>0</v>
+      </c>
+      <c r="S97" s="9">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U97" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V97" s="11">
+        <v>11</v>
+      </c>
+      <c r="W97" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X97" s="12">
+        <v>0.3569444</v>
+      </c>
+      <c r="Y97" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG97" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH97" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ97" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK97" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM97" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN97" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO97" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP97" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ97" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR97" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F98" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G98" s="5">
+        <v>15</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L98" s="6">
+        <v>1796</v>
+      </c>
+      <c r="M98" s="7">
+        <v>312234.59999999998</v>
+      </c>
+      <c r="N98" s="6">
+        <v>1</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P98" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q98" s="6">
+        <v>0</v>
+      </c>
+      <c r="R98" s="7">
+        <v>0</v>
+      </c>
+      <c r="S98" s="9">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U98" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V98" s="11">
+        <v>11</v>
+      </c>
+      <c r="W98" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X98" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y98" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG98" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH98" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI98" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ98" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK98" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM98" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN98" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO98" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP98" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ98" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR98" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F99" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G99" s="5">
+        <v>16</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L99" s="6">
+        <v>1797</v>
+      </c>
+      <c r="M99" s="7">
+        <v>312408.45</v>
+      </c>
+      <c r="N99" s="6">
+        <v>1</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P99" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q99" s="6">
+        <v>0</v>
+      </c>
+      <c r="R99" s="7">
+        <v>0</v>
+      </c>
+      <c r="S99" s="9">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U99" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V99" s="11">
+        <v>11</v>
+      </c>
+      <c r="W99" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X99" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y99" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG99" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH99" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI99" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ99" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK99" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM99" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN99" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO99" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP99" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ99" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR99" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G100" s="5">
+        <v>17</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L100" s="6">
+        <v>1798</v>
+      </c>
+      <c r="M100" s="7">
+        <v>312582.3</v>
+      </c>
+      <c r="N100" s="6">
+        <v>1</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P100" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q100" s="6">
+        <v>0</v>
+      </c>
+      <c r="R100" s="7">
+        <v>0</v>
+      </c>
+      <c r="S100" s="9">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U100" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V100" s="11">
+        <v>11</v>
+      </c>
+      <c r="W100" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X100" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y100" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG100" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI100" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ100" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK100" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM100" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR100" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G101" s="5">
+        <v>18</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L101" s="6">
+        <v>1799</v>
+      </c>
+      <c r="M101" s="7">
+        <v>312756.15000000002</v>
+      </c>
+      <c r="N101" s="6">
+        <v>1</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P101" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q101" s="6">
+        <v>0</v>
+      </c>
+      <c r="R101" s="7">
+        <v>0</v>
+      </c>
+      <c r="S101" s="9">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U101" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V101" s="11">
+        <v>11</v>
+      </c>
+      <c r="W101" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X101" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y101" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG101" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI101" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ101" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK101" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM101" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR101" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F102" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G102" s="5">
+        <v>19</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L102" s="6">
+        <v>1800</v>
+      </c>
+      <c r="M102" s="7">
+        <v>312930</v>
+      </c>
+      <c r="N102" s="6">
+        <v>1</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P102" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q102" s="6">
+        <v>0</v>
+      </c>
+      <c r="R102" s="7">
+        <v>0</v>
+      </c>
+      <c r="S102" s="9">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U102" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V102" s="11">
+        <v>11</v>
+      </c>
+      <c r="W102" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X102" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y102" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG102" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH102" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI102" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ102" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK102" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL102" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM102" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN102" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO102" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP102" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ102" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR102" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F103" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G103" s="5">
+        <v>20</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L103" s="6">
+        <v>1801</v>
+      </c>
+      <c r="M103" s="7">
+        <v>313103.84999999998</v>
+      </c>
+      <c r="N103" s="6">
+        <v>1</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P103" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q103" s="6">
+        <v>0</v>
+      </c>
+      <c r="R103" s="7">
+        <v>0</v>
+      </c>
+      <c r="S103" s="9">
+        <v>0</v>
+      </c>
+      <c r="T103" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U103" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V103" s="11">
+        <v>11</v>
+      </c>
+      <c r="W103" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X103" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y103" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG103" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI103" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ103" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK103" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL103" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM103" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR103" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G104" s="5">
+        <v>21</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L104" s="6">
+        <v>1802</v>
+      </c>
+      <c r="M104" s="7">
+        <v>313277.7</v>
+      </c>
+      <c r="N104" s="6">
+        <v>1</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P104" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q104" s="6">
+        <v>0</v>
+      </c>
+      <c r="R104" s="7">
+        <v>0</v>
+      </c>
+      <c r="S104" s="9">
+        <v>0</v>
+      </c>
+      <c r="T104" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U104" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V104" s="11">
+        <v>11</v>
+      </c>
+      <c r="W104" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X104" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y104" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG104" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH104" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI104" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ104" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK104" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL104" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM104" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN104" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO104" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP104" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ104" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR104" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AAEACA2-5CDB-480D-88E9-9DE8FC623065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EA77B4-CA34-4D4A-856B-19913B7E83A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="204">
   <si>
     <t>Sel</t>
   </si>
@@ -433,6 +433,93 @@
     <t>1858700132642</t>
   </si>
   <si>
+    <t>1858700132643</t>
+  </si>
+  <si>
+    <t>1858700132644</t>
+  </si>
+  <si>
+    <t>1858700132645</t>
+  </si>
+  <si>
+    <t>1858700132646</t>
+  </si>
+  <si>
+    <t>1858700132647</t>
+  </si>
+  <si>
+    <t>1858700132648</t>
+  </si>
+  <si>
+    <t>1858700132649</t>
+  </si>
+  <si>
+    <t>1858700132650</t>
+  </si>
+  <si>
+    <t>1858700132651</t>
+  </si>
+  <si>
+    <t>1858700132652</t>
+  </si>
+  <si>
+    <t>1858700132653</t>
+  </si>
+  <si>
+    <t>1858700132654</t>
+  </si>
+  <si>
+    <t>1858700132655</t>
+  </si>
+  <si>
+    <t>1858700132656</t>
+  </si>
+  <si>
+    <t>1858700132657</t>
+  </si>
+  <si>
+    <t>1858700132658</t>
+  </si>
+  <si>
+    <t>1858700132659</t>
+  </si>
+  <si>
+    <t>1858700132660</t>
+  </si>
+  <si>
+    <t>1858700132661</t>
+  </si>
+  <si>
+    <t>1858700132662</t>
+  </si>
+  <si>
+    <t>1858700132663</t>
+  </si>
+  <si>
+    <t>1858700132664</t>
+  </si>
+  <si>
+    <t>1858700132665</t>
+  </si>
+  <si>
+    <t>1858700132666</t>
+  </si>
+  <si>
+    <t>1858700132667</t>
+  </si>
+  <si>
+    <t>1858700132668</t>
+  </si>
+  <si>
+    <t>1858700132669</t>
+  </si>
+  <si>
+    <t>1858700132670</t>
+  </si>
+  <si>
+    <t>1858700132671</t>
+  </si>
+  <si>
     <t>10058029</t>
   </si>
   <si>
@@ -503,6 +590,48 @@
   </si>
   <si>
     <t>1025000003585</t>
+  </si>
+  <si>
+    <t>1025000003586</t>
+  </si>
+  <si>
+    <t>1025000003587</t>
+  </si>
+  <si>
+    <t>1025000003588</t>
+  </si>
+  <si>
+    <t>1025000003589</t>
+  </si>
+  <si>
+    <t>1025000003590</t>
+  </si>
+  <si>
+    <t>1025000003591</t>
+  </si>
+  <si>
+    <t>1025000003592</t>
+  </si>
+  <si>
+    <t>1025000003593</t>
+  </si>
+  <si>
+    <t>1025000003594</t>
+  </si>
+  <si>
+    <t>1025000003595</t>
+  </si>
+  <si>
+    <t>1025000003596</t>
+  </si>
+  <si>
+    <t>1025000003597</t>
+  </si>
+  <si>
+    <t>1025000003598</t>
+  </si>
+  <si>
+    <t>1025000003599</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1207,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR104"/>
+  <dimension ref="A1:AR147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12214,10 +12343,10 @@
         <v>2</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>46</v>
@@ -12226,7 +12355,7 @@
         <v>46064</v>
       </c>
       <c r="G84" s="5">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>47</v>
@@ -12241,19 +12370,19 @@
         <v>50</v>
       </c>
       <c r="L84" s="6">
-        <v>1782</v>
+        <v>5339</v>
       </c>
       <c r="M84" s="7">
-        <v>309800.7</v>
+        <v>918093.29</v>
       </c>
       <c r="N84" s="6">
         <v>1</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P84" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q84" s="6">
         <v>0</v>
@@ -12268,7 +12397,7 @@
         <v>52</v>
       </c>
       <c r="U84" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V84" s="11">
         <v>11</v>
@@ -12277,7 +12406,7 @@
         <v>46064</v>
       </c>
       <c r="X84" s="12">
-        <v>0.3361111</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y84" s="10">
         <v>0</v>
@@ -12337,7 +12466,7 @@
         <v>53</v>
       </c>
       <c r="AR84" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.3">
@@ -12348,10 +12477,10 @@
         <v>2</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>46</v>
@@ -12360,7 +12489,7 @@
         <v>46064</v>
       </c>
       <c r="G85" s="5">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>47</v>
@@ -12375,19 +12504,19 @@
         <v>50</v>
       </c>
       <c r="L85" s="6">
-        <v>1783</v>
+        <v>5340</v>
       </c>
       <c r="M85" s="7">
-        <v>309974.55</v>
+        <v>918265.25</v>
       </c>
       <c r="N85" s="6">
         <v>1</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P85" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q85" s="6">
         <v>0</v>
@@ -12402,7 +12531,7 @@
         <v>52</v>
       </c>
       <c r="U85" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V85" s="11">
         <v>11</v>
@@ -12411,7 +12540,7 @@
         <v>46064</v>
       </c>
       <c r="X85" s="12">
-        <v>0.3361111</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y85" s="10">
         <v>0</v>
@@ -12471,7 +12600,7 @@
         <v>53</v>
       </c>
       <c r="AR85" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.3">
@@ -12482,10 +12611,10 @@
         <v>2</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>46</v>
@@ -12494,7 +12623,7 @@
         <v>46064</v>
       </c>
       <c r="G86" s="5">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>47</v>
@@ -12509,19 +12638,19 @@
         <v>50</v>
       </c>
       <c r="L86" s="6">
-        <v>1784</v>
+        <v>5341</v>
       </c>
       <c r="M86" s="7">
-        <v>310148.40000000002</v>
+        <v>918437.21</v>
       </c>
       <c r="N86" s="6">
         <v>1</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P86" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q86" s="6">
         <v>0</v>
@@ -12536,7 +12665,7 @@
         <v>52</v>
       </c>
       <c r="U86" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V86" s="11">
         <v>11</v>
@@ -12545,7 +12674,7 @@
         <v>46064</v>
       </c>
       <c r="X86" s="12">
-        <v>0.3361111</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y86" s="10">
         <v>0</v>
@@ -12605,7 +12734,7 @@
         <v>53</v>
       </c>
       <c r="AR86" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.3">
@@ -12616,10 +12745,10 @@
         <v>2</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>46</v>
@@ -12628,7 +12757,7 @@
         <v>46064</v>
       </c>
       <c r="G87" s="5">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>47</v>
@@ -12643,19 +12772,19 @@
         <v>50</v>
       </c>
       <c r="L87" s="6">
-        <v>1785</v>
+        <v>5342</v>
       </c>
       <c r="M87" s="7">
-        <v>310322.25</v>
+        <v>918609.17</v>
       </c>
       <c r="N87" s="6">
         <v>1</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P87" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q87" s="6">
         <v>0</v>
@@ -12670,7 +12799,7 @@
         <v>52</v>
       </c>
       <c r="U87" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V87" s="11">
         <v>11</v>
@@ -12679,7 +12808,7 @@
         <v>46064</v>
       </c>
       <c r="X87" s="12">
-        <v>0.3361111</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y87" s="10">
         <v>0</v>
@@ -12739,7 +12868,7 @@
         <v>53</v>
       </c>
       <c r="AR87" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.3">
@@ -12750,10 +12879,10 @@
         <v>2</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>46</v>
@@ -12762,7 +12891,7 @@
         <v>46064</v>
       </c>
       <c r="G88" s="5">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>47</v>
@@ -12777,19 +12906,19 @@
         <v>50</v>
       </c>
       <c r="L88" s="6">
-        <v>1786</v>
+        <v>5343</v>
       </c>
       <c r="M88" s="7">
-        <v>310496.09999999998</v>
+        <v>918781.13</v>
       </c>
       <c r="N88" s="6">
         <v>1</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P88" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q88" s="6">
         <v>0</v>
@@ -12804,7 +12933,7 @@
         <v>52</v>
       </c>
       <c r="U88" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V88" s="11">
         <v>11</v>
@@ -12813,7 +12942,7 @@
         <v>46064</v>
       </c>
       <c r="X88" s="12">
-        <v>0.3361111</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y88" s="10">
         <v>0</v>
@@ -12873,7 +13002,7 @@
         <v>53</v>
       </c>
       <c r="AR88" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.3">
@@ -12884,10 +13013,10 @@
         <v>2</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>46</v>
@@ -12896,7 +13025,7 @@
         <v>46064</v>
       </c>
       <c r="G89" s="5">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>47</v>
@@ -12911,19 +13040,19 @@
         <v>50</v>
       </c>
       <c r="L89" s="6">
-        <v>1787</v>
+        <v>5344</v>
       </c>
       <c r="M89" s="7">
-        <v>310669.95</v>
+        <v>918953.09</v>
       </c>
       <c r="N89" s="6">
         <v>1</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P89" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q89" s="6">
         <v>0</v>
@@ -12938,7 +13067,7 @@
         <v>52</v>
       </c>
       <c r="U89" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V89" s="11">
         <v>11</v>
@@ -12947,7 +13076,7 @@
         <v>46064</v>
       </c>
       <c r="X89" s="12">
-        <v>0.3361111</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y89" s="10">
         <v>0</v>
@@ -13007,7 +13136,7 @@
         <v>53</v>
       </c>
       <c r="AR89" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.3">
@@ -13018,10 +13147,10 @@
         <v>2</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>46</v>
@@ -13030,7 +13159,7 @@
         <v>46064</v>
       </c>
       <c r="G90" s="5">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>47</v>
@@ -13045,19 +13174,19 @@
         <v>50</v>
       </c>
       <c r="L90" s="6">
-        <v>1788</v>
+        <v>5345</v>
       </c>
       <c r="M90" s="7">
-        <v>310843.8</v>
+        <v>919125.05</v>
       </c>
       <c r="N90" s="6">
         <v>1</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P90" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q90" s="6">
         <v>0</v>
@@ -13072,7 +13201,7 @@
         <v>52</v>
       </c>
       <c r="U90" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V90" s="11">
         <v>11</v>
@@ -13081,7 +13210,7 @@
         <v>46064</v>
       </c>
       <c r="X90" s="12">
-        <v>0.3361111</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y90" s="10">
         <v>0</v>
@@ -13141,7 +13270,7 @@
         <v>53</v>
       </c>
       <c r="AR90" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.3">
@@ -13152,10 +13281,10 @@
         <v>2</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>46</v>
@@ -13164,7 +13293,7 @@
         <v>46064</v>
       </c>
       <c r="G91" s="5">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>47</v>
@@ -13179,19 +13308,19 @@
         <v>50</v>
       </c>
       <c r="L91" s="6">
-        <v>1789</v>
+        <v>5346</v>
       </c>
       <c r="M91" s="7">
-        <v>311017.65000000002</v>
+        <v>919297.01</v>
       </c>
       <c r="N91" s="6">
         <v>1</v>
       </c>
       <c r="O91" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P91" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q91" s="6">
         <v>0</v>
@@ -13206,7 +13335,7 @@
         <v>52</v>
       </c>
       <c r="U91" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V91" s="11">
         <v>11</v>
@@ -13215,7 +13344,7 @@
         <v>46064</v>
       </c>
       <c r="X91" s="12">
-        <v>0.3361111</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y91" s="10">
         <v>0</v>
@@ -13275,7 +13404,7 @@
         <v>53</v>
       </c>
       <c r="AR91" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.3">
@@ -13286,10 +13415,10 @@
         <v>2</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>46</v>
@@ -13298,7 +13427,7 @@
         <v>46064</v>
       </c>
       <c r="G92" s="5">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>47</v>
@@ -13313,19 +13442,19 @@
         <v>50</v>
       </c>
       <c r="L92" s="6">
-        <v>1790</v>
+        <v>5347</v>
       </c>
       <c r="M92" s="7">
-        <v>311191.5</v>
+        <v>919468.97</v>
       </c>
       <c r="N92" s="6">
         <v>1</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P92" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q92" s="6">
         <v>0</v>
@@ -13340,7 +13469,7 @@
         <v>52</v>
       </c>
       <c r="U92" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V92" s="11">
         <v>11</v>
@@ -13349,7 +13478,7 @@
         <v>46064</v>
       </c>
       <c r="X92" s="12">
-        <v>0.3361111</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y92" s="10">
         <v>0</v>
@@ -13409,7 +13538,7 @@
         <v>53</v>
       </c>
       <c r="AR92" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.3">
@@ -13420,10 +13549,10 @@
         <v>2</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>46</v>
@@ -13432,7 +13561,7 @@
         <v>46064</v>
       </c>
       <c r="G93" s="5">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>47</v>
@@ -13447,19 +13576,19 @@
         <v>50</v>
       </c>
       <c r="L93" s="6">
-        <v>1791</v>
+        <v>5348</v>
       </c>
       <c r="M93" s="7">
-        <v>311365.34999999998</v>
+        <v>919640.92</v>
       </c>
       <c r="N93" s="6">
         <v>1</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P93" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q93" s="6">
         <v>0</v>
@@ -13474,7 +13603,7 @@
         <v>52</v>
       </c>
       <c r="U93" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V93" s="11">
         <v>11</v>
@@ -13483,7 +13612,7 @@
         <v>46064</v>
       </c>
       <c r="X93" s="12">
-        <v>0.3361111</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y93" s="10">
         <v>0</v>
@@ -13543,7 +13672,7 @@
         <v>53</v>
       </c>
       <c r="AR93" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.3">
@@ -13554,10 +13683,10 @@
         <v>2</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>46</v>
@@ -13566,7 +13695,7 @@
         <v>46064</v>
       </c>
       <c r="G94" s="5">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>47</v>
@@ -13581,19 +13710,19 @@
         <v>50</v>
       </c>
       <c r="L94" s="6">
-        <v>1792</v>
+        <v>5349</v>
       </c>
       <c r="M94" s="7">
-        <v>311539.20000000001</v>
+        <v>919812.88</v>
       </c>
       <c r="N94" s="6">
         <v>1</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P94" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q94" s="6">
         <v>0</v>
@@ -13608,7 +13737,7 @@
         <v>52</v>
       </c>
       <c r="U94" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V94" s="11">
         <v>11</v>
@@ -13617,7 +13746,7 @@
         <v>46064</v>
       </c>
       <c r="X94" s="12">
-        <v>0.3361111</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y94" s="10">
         <v>0</v>
@@ -13677,7 +13806,7 @@
         <v>53</v>
       </c>
       <c r="AR94" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.3">
@@ -13688,10 +13817,10 @@
         <v>2</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>46</v>
@@ -13700,7 +13829,7 @@
         <v>46064</v>
       </c>
       <c r="G95" s="5">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>47</v>
@@ -13715,19 +13844,19 @@
         <v>50</v>
       </c>
       <c r="L95" s="6">
-        <v>1793</v>
+        <v>5350</v>
       </c>
       <c r="M95" s="7">
-        <v>311713.05</v>
+        <v>919984.84</v>
       </c>
       <c r="N95" s="6">
         <v>1</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P95" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q95" s="6">
         <v>0</v>
@@ -13742,7 +13871,7 @@
         <v>52</v>
       </c>
       <c r="U95" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V95" s="11">
         <v>11</v>
@@ -13751,7 +13880,7 @@
         <v>46064</v>
       </c>
       <c r="X95" s="12">
-        <v>0.3569444</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y95" s="10">
         <v>0</v>
@@ -13811,7 +13940,7 @@
         <v>53</v>
       </c>
       <c r="AR95" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.3">
@@ -13822,10 +13951,10 @@
         <v>2</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>46</v>
@@ -13834,7 +13963,7 @@
         <v>46064</v>
       </c>
       <c r="G96" s="5">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>47</v>
@@ -13849,19 +13978,19 @@
         <v>50</v>
       </c>
       <c r="L96" s="6">
-        <v>1794</v>
+        <v>5351</v>
       </c>
       <c r="M96" s="7">
-        <v>311886.90000000002</v>
+        <v>920156.8</v>
       </c>
       <c r="N96" s="6">
         <v>1</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P96" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q96" s="6">
         <v>0</v>
@@ -13876,7 +14005,7 @@
         <v>52</v>
       </c>
       <c r="U96" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V96" s="11">
         <v>11</v>
@@ -13885,7 +14014,7 @@
         <v>46064</v>
       </c>
       <c r="X96" s="12">
-        <v>0.3569444</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y96" s="10">
         <v>0</v>
@@ -13945,7 +14074,7 @@
         <v>53</v>
       </c>
       <c r="AR96" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:44" x14ac:dyDescent="0.3">
@@ -13956,10 +14085,10 @@
         <v>2</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>46</v>
@@ -13968,7 +14097,7 @@
         <v>46064</v>
       </c>
       <c r="G97" s="5">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>47</v>
@@ -13983,19 +14112,19 @@
         <v>50</v>
       </c>
       <c r="L97" s="6">
-        <v>1795</v>
+        <v>5352</v>
       </c>
       <c r="M97" s="7">
-        <v>312060.75</v>
+        <v>920328.76</v>
       </c>
       <c r="N97" s="6">
         <v>1</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P97" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q97" s="6">
         <v>0</v>
@@ -14010,7 +14139,7 @@
         <v>52</v>
       </c>
       <c r="U97" s="10">
-        <v>62386</v>
+        <v>62417</v>
       </c>
       <c r="V97" s="11">
         <v>11</v>
@@ -14019,7 +14148,7 @@
         <v>46064</v>
       </c>
       <c r="X97" s="12">
-        <v>0.3569444</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y97" s="10">
         <v>0</v>
@@ -14079,7 +14208,7 @@
         <v>53</v>
       </c>
       <c r="AR97" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:44" x14ac:dyDescent="0.3">
@@ -14090,10 +14219,10 @@
         <v>2</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>46</v>
@@ -14102,7 +14231,7 @@
         <v>46064</v>
       </c>
       <c r="G98" s="5">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>47</v>
@@ -14117,19 +14246,19 @@
         <v>50</v>
       </c>
       <c r="L98" s="6">
-        <v>1796</v>
+        <v>5353</v>
       </c>
       <c r="M98" s="7">
-        <v>312234.59999999998</v>
+        <v>920500.72</v>
       </c>
       <c r="N98" s="6">
         <v>1</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P98" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q98" s="6">
         <v>0</v>
@@ -14144,7 +14273,7 @@
         <v>52</v>
       </c>
       <c r="U98" s="10">
-        <v>62418</v>
+        <v>62417</v>
       </c>
       <c r="V98" s="11">
         <v>11</v>
@@ -14153,7 +14282,7 @@
         <v>46064</v>
       </c>
       <c r="X98" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y98" s="10">
         <v>0</v>
@@ -14213,7 +14342,7 @@
         <v>53</v>
       </c>
       <c r="AR98" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:44" x14ac:dyDescent="0.3">
@@ -14224,10 +14353,10 @@
         <v>2</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>46</v>
@@ -14236,7 +14365,7 @@
         <v>46064</v>
       </c>
       <c r="G99" s="5">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>47</v>
@@ -14251,19 +14380,19 @@
         <v>50</v>
       </c>
       <c r="L99" s="6">
-        <v>1797</v>
+        <v>5354</v>
       </c>
       <c r="M99" s="7">
-        <v>312408.45</v>
+        <v>920672.68</v>
       </c>
       <c r="N99" s="6">
         <v>1</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P99" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q99" s="6">
         <v>0</v>
@@ -14278,7 +14407,7 @@
         <v>52</v>
       </c>
       <c r="U99" s="10">
-        <v>62418</v>
+        <v>62417</v>
       </c>
       <c r="V99" s="11">
         <v>11</v>
@@ -14287,7 +14416,7 @@
         <v>46064</v>
       </c>
       <c r="X99" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y99" s="10">
         <v>0</v>
@@ -14347,7 +14476,7 @@
         <v>53</v>
       </c>
       <c r="AR99" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.3">
@@ -14358,10 +14487,10 @@
         <v>2</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>46</v>
@@ -14370,7 +14499,7 @@
         <v>46064</v>
       </c>
       <c r="G100" s="5">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>47</v>
@@ -14385,19 +14514,19 @@
         <v>50</v>
       </c>
       <c r="L100" s="6">
-        <v>1798</v>
+        <v>5355</v>
       </c>
       <c r="M100" s="7">
-        <v>312582.3</v>
+        <v>920844.64</v>
       </c>
       <c r="N100" s="6">
         <v>1</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P100" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q100" s="6">
         <v>0</v>
@@ -14412,7 +14541,7 @@
         <v>52</v>
       </c>
       <c r="U100" s="10">
-        <v>62418</v>
+        <v>62417</v>
       </c>
       <c r="V100" s="11">
         <v>11</v>
@@ -14421,7 +14550,7 @@
         <v>46064</v>
       </c>
       <c r="X100" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y100" s="10">
         <v>0</v>
@@ -14481,7 +14610,7 @@
         <v>53</v>
       </c>
       <c r="AR100" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.3">
@@ -14492,10 +14621,10 @@
         <v>2</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>46</v>
@@ -14504,7 +14633,7 @@
         <v>46064</v>
       </c>
       <c r="G101" s="5">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>47</v>
@@ -14519,19 +14648,19 @@
         <v>50</v>
       </c>
       <c r="L101" s="6">
-        <v>1799</v>
+        <v>5356</v>
       </c>
       <c r="M101" s="7">
-        <v>312756.15000000002</v>
+        <v>921016.6</v>
       </c>
       <c r="N101" s="6">
         <v>1</v>
       </c>
       <c r="O101" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P101" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q101" s="6">
         <v>0</v>
@@ -14546,7 +14675,7 @@
         <v>52</v>
       </c>
       <c r="U101" s="10">
-        <v>62418</v>
+        <v>62417</v>
       </c>
       <c r="V101" s="11">
         <v>11</v>
@@ -14555,7 +14684,7 @@
         <v>46064</v>
       </c>
       <c r="X101" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y101" s="10">
         <v>0</v>
@@ -14615,7 +14744,7 @@
         <v>53</v>
       </c>
       <c r="AR101" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.3">
@@ -14626,10 +14755,10 @@
         <v>2</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>46</v>
@@ -14638,7 +14767,7 @@
         <v>46064</v>
       </c>
       <c r="G102" s="5">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>47</v>
@@ -14653,19 +14782,19 @@
         <v>50</v>
       </c>
       <c r="L102" s="6">
-        <v>1800</v>
+        <v>5357</v>
       </c>
       <c r="M102" s="7">
-        <v>312930</v>
+        <v>921188.56</v>
       </c>
       <c r="N102" s="6">
         <v>1</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P102" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q102" s="6">
         <v>0</v>
@@ -14680,7 +14809,7 @@
         <v>52</v>
       </c>
       <c r="U102" s="10">
-        <v>62418</v>
+        <v>62417</v>
       </c>
       <c r="V102" s="11">
         <v>11</v>
@@ -14689,7 +14818,7 @@
         <v>46064</v>
       </c>
       <c r="X102" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y102" s="10">
         <v>0</v>
@@ -14749,7 +14878,7 @@
         <v>53</v>
       </c>
       <c r="AR102" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.3">
@@ -14760,10 +14889,10 @@
         <v>2</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>46</v>
@@ -14772,7 +14901,7 @@
         <v>46064</v>
       </c>
       <c r="G103" s="5">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>47</v>
@@ -14787,19 +14916,19 @@
         <v>50</v>
       </c>
       <c r="L103" s="6">
-        <v>1801</v>
+        <v>5358</v>
       </c>
       <c r="M103" s="7">
-        <v>313103.84999999998</v>
+        <v>921360.52</v>
       </c>
       <c r="N103" s="6">
         <v>1</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P103" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q103" s="6">
         <v>0</v>
@@ -14814,7 +14943,7 @@
         <v>52</v>
       </c>
       <c r="U103" s="10">
-        <v>62418</v>
+        <v>62417</v>
       </c>
       <c r="V103" s="11">
         <v>11</v>
@@ -14823,7 +14952,7 @@
         <v>46064</v>
       </c>
       <c r="X103" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y103" s="10">
         <v>0</v>
@@ -14883,7 +15012,7 @@
         <v>53</v>
       </c>
       <c r="AR103" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.3">
@@ -14894,10 +15023,10 @@
         <v>2</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>46</v>
@@ -14906,7 +15035,7 @@
         <v>46064</v>
       </c>
       <c r="G104" s="5">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>47</v>
@@ -14921,19 +15050,19 @@
         <v>50</v>
       </c>
       <c r="L104" s="6">
-        <v>1802</v>
+        <v>5359</v>
       </c>
       <c r="M104" s="7">
-        <v>313277.7</v>
+        <v>921532.48</v>
       </c>
       <c r="N104" s="6">
         <v>1</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="P104" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q104" s="6">
         <v>0</v>
@@ -14948,7 +15077,7 @@
         <v>52</v>
       </c>
       <c r="U104" s="10">
-        <v>62418</v>
+        <v>62417</v>
       </c>
       <c r="V104" s="11">
         <v>11</v>
@@ -14957,7 +15086,7 @@
         <v>46064</v>
       </c>
       <c r="X104" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="Y104" s="10">
         <v>0</v>
@@ -15017,7 +15146,5769 @@
         <v>53</v>
       </c>
       <c r="AR104" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G105" s="5">
+        <v>104</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L105" s="6">
+        <v>5360</v>
+      </c>
+      <c r="M105" s="7">
+        <v>921704.44</v>
+      </c>
+      <c r="N105" s="6">
+        <v>1</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P105" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q105" s="6">
+        <v>0</v>
+      </c>
+      <c r="R105" s="7">
+        <v>0</v>
+      </c>
+      <c r="S105" s="9">
+        <v>0</v>
+      </c>
+      <c r="T105" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U105" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V105" s="11">
+        <v>11</v>
+      </c>
+      <c r="W105" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X105" s="12">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="Y105" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF105" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG105" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH105" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI105" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ105" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK105" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL105" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM105" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN105" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO105" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP105" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ105" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR105" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G106" s="5">
+        <v>105</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L106" s="6">
+        <v>5361</v>
+      </c>
+      <c r="M106" s="7">
+        <v>921876.4</v>
+      </c>
+      <c r="N106" s="6">
+        <v>1</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P106" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q106" s="6">
+        <v>0</v>
+      </c>
+      <c r="R106" s="7">
+        <v>0</v>
+      </c>
+      <c r="S106" s="9">
+        <v>0</v>
+      </c>
+      <c r="T106" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U106" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V106" s="11">
+        <v>11</v>
+      </c>
+      <c r="W106" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X106" s="12">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="Y106" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG106" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI106" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ106" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK106" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL106" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM106" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR106" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>1</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F107" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G107" s="5">
+        <v>106</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L107" s="6">
+        <v>5362</v>
+      </c>
+      <c r="M107" s="7">
+        <v>922048.36</v>
+      </c>
+      <c r="N107" s="6">
+        <v>1</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P107" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q107" s="6">
+        <v>0</v>
+      </c>
+      <c r="R107" s="7">
+        <v>0</v>
+      </c>
+      <c r="S107" s="9">
+        <v>0</v>
+      </c>
+      <c r="T107" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U107" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V107" s="11">
+        <v>11</v>
+      </c>
+      <c r="W107" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X107" s="12">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="Y107" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF107" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG107" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH107" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI107" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ107" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK107" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL107" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM107" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN107" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO107" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP107" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ107" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR107" s="3" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F108" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G108" s="5">
+        <v>107</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L108" s="6">
+        <v>5363</v>
+      </c>
+      <c r="M108" s="7">
+        <v>922220.32</v>
+      </c>
+      <c r="N108" s="6">
+        <v>1</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P108" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q108" s="6">
+        <v>0</v>
+      </c>
+      <c r="R108" s="7">
+        <v>0</v>
+      </c>
+      <c r="S108" s="9">
+        <v>0</v>
+      </c>
+      <c r="T108" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U108" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V108" s="11">
+        <v>11</v>
+      </c>
+      <c r="W108" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X108" s="12">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="Y108" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD108" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG108" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH108" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI108" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ108" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK108" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL108" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM108" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN108" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO108" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP108" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ108" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR108" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>1</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G109" s="5">
+        <v>108</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L109" s="6">
+        <v>5364</v>
+      </c>
+      <c r="M109" s="7">
+        <v>922392.28</v>
+      </c>
+      <c r="N109" s="6">
+        <v>1</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P109" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q109" s="6">
+        <v>0</v>
+      </c>
+      <c r="R109" s="7">
+        <v>0</v>
+      </c>
+      <c r="S109" s="9">
+        <v>0</v>
+      </c>
+      <c r="T109" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U109" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V109" s="11">
+        <v>11</v>
+      </c>
+      <c r="W109" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X109" s="12">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="Y109" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC109" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE109" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF109" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG109" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH109" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI109" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ109" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK109" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL109" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM109" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN109" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO109" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP109" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ109" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR109" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F110" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G110" s="5">
+        <v>109</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L110" s="6">
+        <v>5365</v>
+      </c>
+      <c r="M110" s="7">
+        <v>922564.24</v>
+      </c>
+      <c r="N110" s="6">
+        <v>1</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P110" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q110" s="6">
+        <v>0</v>
+      </c>
+      <c r="R110" s="7">
+        <v>0</v>
+      </c>
+      <c r="S110" s="9">
+        <v>0</v>
+      </c>
+      <c r="T110" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U110" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V110" s="11">
+        <v>11</v>
+      </c>
+      <c r="W110" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X110" s="12">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="Y110" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF110" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG110" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH110" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI110" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ110" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK110" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL110" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM110" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN110" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO110" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP110" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ110" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR110" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>1</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G111" s="5">
+        <v>110</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L111" s="6">
+        <v>5366</v>
+      </c>
+      <c r="M111" s="7">
+        <v>922736.2</v>
+      </c>
+      <c r="N111" s="6">
+        <v>1</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P111" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q111" s="6">
+        <v>0</v>
+      </c>
+      <c r="R111" s="7">
+        <v>0</v>
+      </c>
+      <c r="S111" s="9">
+        <v>0</v>
+      </c>
+      <c r="T111" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U111" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V111" s="11">
+        <v>11</v>
+      </c>
+      <c r="W111" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X111" s="12">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="Y111" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC111" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF111" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG111" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH111" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI111" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ111" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK111" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL111" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM111" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN111" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO111" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP111" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ111" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR111" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>1</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F112" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G112" s="5">
+        <v>111</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L112" s="6">
+        <v>5367</v>
+      </c>
+      <c r="M112" s="7">
+        <v>922908.16000000003</v>
+      </c>
+      <c r="N112" s="6">
+        <v>1</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P112" s="8">
+        <v>171.96</v>
+      </c>
+      <c r="Q112" s="6">
+        <v>0</v>
+      </c>
+      <c r="R112" s="7">
+        <v>0</v>
+      </c>
+      <c r="S112" s="9">
+        <v>0</v>
+      </c>
+      <c r="T112" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U112" s="10">
+        <v>62417</v>
+      </c>
+      <c r="V112" s="11">
+        <v>11</v>
+      </c>
+      <c r="W112" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X112" s="12">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="Y112" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE112" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF112" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG112" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH112" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI112" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ112" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK112" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL112" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM112" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN112" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO112" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP112" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ112" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR112" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F113" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G113" s="5">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L113" s="6">
+        <v>1782</v>
+      </c>
+      <c r="M113" s="7">
+        <v>309800.7</v>
+      </c>
+      <c r="N113" s="6">
+        <v>1</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P113" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q113" s="6">
+        <v>0</v>
+      </c>
+      <c r="R113" s="7">
+        <v>0</v>
+      </c>
+      <c r="S113" s="9">
+        <v>0</v>
+      </c>
+      <c r="T113" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U113" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V113" s="11">
+        <v>11</v>
+      </c>
+      <c r="W113" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X113" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y113" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE113" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF113" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG113" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH113" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI113" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ113" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK113" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL113" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM113" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN113" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO113" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP113" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ113" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR113" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>1</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F114" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G114" s="5">
+        <v>2</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L114" s="6">
+        <v>1783</v>
+      </c>
+      <c r="M114" s="7">
+        <v>309974.55</v>
+      </c>
+      <c r="N114" s="6">
+        <v>1</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P114" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q114" s="6">
+        <v>0</v>
+      </c>
+      <c r="R114" s="7">
+        <v>0</v>
+      </c>
+      <c r="S114" s="9">
+        <v>0</v>
+      </c>
+      <c r="T114" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U114" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V114" s="11">
+        <v>11</v>
+      </c>
+      <c r="W114" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X114" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y114" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD114" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE114" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG114" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI114" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ114" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK114" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL114" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM114" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR114" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>1</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F115" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G115" s="5">
+        <v>3</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L115" s="6">
+        <v>1784</v>
+      </c>
+      <c r="M115" s="7">
+        <v>310148.40000000002</v>
+      </c>
+      <c r="N115" s="6">
+        <v>1</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P115" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q115" s="6">
+        <v>0</v>
+      </c>
+      <c r="R115" s="7">
+        <v>0</v>
+      </c>
+      <c r="S115" s="9">
+        <v>0</v>
+      </c>
+      <c r="T115" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U115" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V115" s="11">
+        <v>11</v>
+      </c>
+      <c r="W115" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X115" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y115" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG115" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI115" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ115" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK115" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM115" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR115" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F116" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G116" s="5">
+        <v>4</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L116" s="6">
+        <v>1785</v>
+      </c>
+      <c r="M116" s="7">
+        <v>310322.25</v>
+      </c>
+      <c r="N116" s="6">
+        <v>1</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P116" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q116" s="6">
+        <v>0</v>
+      </c>
+      <c r="R116" s="7">
+        <v>0</v>
+      </c>
+      <c r="S116" s="9">
+        <v>0</v>
+      </c>
+      <c r="T116" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U116" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V116" s="11">
+        <v>11</v>
+      </c>
+      <c r="W116" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X116" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y116" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG116" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI116" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ116" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK116" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM116" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR116" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>1</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F117" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G117" s="5">
+        <v>5</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L117" s="6">
+        <v>1786</v>
+      </c>
+      <c r="M117" s="7">
+        <v>310496.09999999998</v>
+      </c>
+      <c r="N117" s="6">
+        <v>1</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P117" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q117" s="6">
+        <v>0</v>
+      </c>
+      <c r="R117" s="7">
+        <v>0</v>
+      </c>
+      <c r="S117" s="9">
+        <v>0</v>
+      </c>
+      <c r="T117" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U117" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V117" s="11">
+        <v>11</v>
+      </c>
+      <c r="W117" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X117" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y117" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD117" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE117" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG117" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI117" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ117" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK117" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL117" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM117" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR117" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>1</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F118" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G118" s="5">
+        <v>6</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L118" s="6">
+        <v>1787</v>
+      </c>
+      <c r="M118" s="7">
+        <v>310669.95</v>
+      </c>
+      <c r="N118" s="6">
+        <v>1</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P118" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q118" s="6">
+        <v>0</v>
+      </c>
+      <c r="R118" s="7">
+        <v>0</v>
+      </c>
+      <c r="S118" s="9">
+        <v>0</v>
+      </c>
+      <c r="T118" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U118" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V118" s="11">
+        <v>11</v>
+      </c>
+      <c r="W118" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X118" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y118" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC118" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD118" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE118" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG118" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI118" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ118" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK118" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL118" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM118" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR118" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F119" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G119" s="5">
+        <v>7</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L119" s="6">
+        <v>1788</v>
+      </c>
+      <c r="M119" s="7">
+        <v>310843.8</v>
+      </c>
+      <c r="N119" s="6">
+        <v>1</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P119" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q119" s="6">
+        <v>0</v>
+      </c>
+      <c r="R119" s="7">
+        <v>0</v>
+      </c>
+      <c r="S119" s="9">
+        <v>0</v>
+      </c>
+      <c r="T119" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U119" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V119" s="11">
+        <v>11</v>
+      </c>
+      <c r="W119" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X119" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y119" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC119" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD119" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE119" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG119" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI119" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ119" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK119" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL119" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM119" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR119" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>1</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G120" s="5">
+        <v>8</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L120" s="6">
+        <v>1789</v>
+      </c>
+      <c r="M120" s="7">
+        <v>311017.65000000002</v>
+      </c>
+      <c r="N120" s="6">
+        <v>1</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P120" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q120" s="6">
+        <v>0</v>
+      </c>
+      <c r="R120" s="7">
+        <v>0</v>
+      </c>
+      <c r="S120" s="9">
+        <v>0</v>
+      </c>
+      <c r="T120" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U120" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V120" s="11">
+        <v>11</v>
+      </c>
+      <c r="W120" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X120" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y120" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z120" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI120" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ120" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK120" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL120" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM120" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR120" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F121" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G121" s="5">
+        <v>9</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L121" s="6">
+        <v>1790</v>
+      </c>
+      <c r="M121" s="7">
+        <v>311191.5</v>
+      </c>
+      <c r="N121" s="6">
+        <v>1</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P121" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q121" s="6">
+        <v>0</v>
+      </c>
+      <c r="R121" s="7">
+        <v>0</v>
+      </c>
+      <c r="S121" s="9">
+        <v>0</v>
+      </c>
+      <c r="T121" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U121" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V121" s="11">
+        <v>11</v>
+      </c>
+      <c r="W121" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X121" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y121" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z121" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA121" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC121" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD121" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE121" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG121" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI121" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ121" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK121" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL121" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM121" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR121" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F122" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G122" s="5">
+        <v>10</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L122" s="6">
+        <v>1791</v>
+      </c>
+      <c r="M122" s="7">
+        <v>311365.34999999998</v>
+      </c>
+      <c r="N122" s="6">
+        <v>1</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P122" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q122" s="6">
+        <v>0</v>
+      </c>
+      <c r="R122" s="7">
+        <v>0</v>
+      </c>
+      <c r="S122" s="9">
+        <v>0</v>
+      </c>
+      <c r="T122" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U122" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V122" s="11">
+        <v>11</v>
+      </c>
+      <c r="W122" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X122" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y122" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z122" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA122" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC122" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD122" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE122" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG122" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI122" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ122" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK122" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL122" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM122" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR122" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F123" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G123" s="5">
+        <v>11</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L123" s="6">
+        <v>1792</v>
+      </c>
+      <c r="M123" s="7">
+        <v>311539.20000000001</v>
+      </c>
+      <c r="N123" s="6">
+        <v>1</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P123" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q123" s="6">
+        <v>0</v>
+      </c>
+      <c r="R123" s="7">
+        <v>0</v>
+      </c>
+      <c r="S123" s="9">
+        <v>0</v>
+      </c>
+      <c r="T123" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U123" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V123" s="11">
+        <v>11</v>
+      </c>
+      <c r="W123" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X123" s="12">
+        <v>0.3361111</v>
+      </c>
+      <c r="Y123" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC123" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD123" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE123" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG123" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI123" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ123" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK123" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL123" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM123" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR123" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>1</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G124" s="5">
+        <v>12</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L124" s="6">
+        <v>1793</v>
+      </c>
+      <c r="M124" s="7">
+        <v>311713.05</v>
+      </c>
+      <c r="N124" s="6">
+        <v>1</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P124" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q124" s="6">
+        <v>0</v>
+      </c>
+      <c r="R124" s="7">
+        <v>0</v>
+      </c>
+      <c r="S124" s="9">
+        <v>0</v>
+      </c>
+      <c r="T124" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U124" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V124" s="11">
+        <v>11</v>
+      </c>
+      <c r="W124" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X124" s="12">
+        <v>0.3569444</v>
+      </c>
+      <c r="Y124" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z124" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC124" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD124" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE124" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG124" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI124" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ124" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK124" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL124" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM124" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR124" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>1</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F125" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G125" s="5">
+        <v>13</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L125" s="6">
+        <v>1794</v>
+      </c>
+      <c r="M125" s="7">
+        <v>311886.90000000002</v>
+      </c>
+      <c r="N125" s="6">
+        <v>1</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P125" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q125" s="6">
+        <v>0</v>
+      </c>
+      <c r="R125" s="7">
+        <v>0</v>
+      </c>
+      <c r="S125" s="9">
+        <v>0</v>
+      </c>
+      <c r="T125" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U125" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V125" s="11">
+        <v>11</v>
+      </c>
+      <c r="W125" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X125" s="12">
+        <v>0.3569444</v>
+      </c>
+      <c r="Y125" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z125" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD125" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE125" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG125" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI125" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ125" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK125" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL125" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM125" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR125" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>1</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F126" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G126" s="5">
+        <v>14</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L126" s="6">
+        <v>1795</v>
+      </c>
+      <c r="M126" s="7">
+        <v>312060.75</v>
+      </c>
+      <c r="N126" s="6">
+        <v>1</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P126" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q126" s="6">
+        <v>0</v>
+      </c>
+      <c r="R126" s="7">
+        <v>0</v>
+      </c>
+      <c r="S126" s="9">
+        <v>0</v>
+      </c>
+      <c r="T126" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U126" s="10">
+        <v>62386</v>
+      </c>
+      <c r="V126" s="11">
+        <v>11</v>
+      </c>
+      <c r="W126" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X126" s="12">
+        <v>0.3569444</v>
+      </c>
+      <c r="Y126" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z126" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA126" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB126" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC126" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD126" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE126" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG126" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI126" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ126" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK126" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL126" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM126" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR126" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>1</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F127" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G127" s="5">
+        <v>15</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L127" s="6">
+        <v>1796</v>
+      </c>
+      <c r="M127" s="7">
+        <v>312234.59999999998</v>
+      </c>
+      <c r="N127" s="6">
+        <v>1</v>
+      </c>
+      <c r="O127" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P127" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q127" s="6">
+        <v>0</v>
+      </c>
+      <c r="R127" s="7">
+        <v>0</v>
+      </c>
+      <c r="S127" s="9">
+        <v>0</v>
+      </c>
+      <c r="T127" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U127" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V127" s="11">
+        <v>11</v>
+      </c>
+      <c r="W127" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X127" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y127" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z127" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC127" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD127" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE127" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG127" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI127" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ127" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK127" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL127" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM127" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR127" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>1</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F128" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G128" s="5">
+        <v>16</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L128" s="6">
+        <v>1797</v>
+      </c>
+      <c r="M128" s="7">
+        <v>312408.45</v>
+      </c>
+      <c r="N128" s="6">
+        <v>1</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P128" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q128" s="6">
+        <v>0</v>
+      </c>
+      <c r="R128" s="7">
+        <v>0</v>
+      </c>
+      <c r="S128" s="9">
+        <v>0</v>
+      </c>
+      <c r="T128" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U128" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V128" s="11">
+        <v>11</v>
+      </c>
+      <c r="W128" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X128" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y128" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC128" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD128" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE128" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG128" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI128" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ128" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK128" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL128" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM128" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR128" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>1</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F129" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G129" s="5">
+        <v>17</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L129" s="6">
+        <v>1798</v>
+      </c>
+      <c r="M129" s="7">
+        <v>312582.3</v>
+      </c>
+      <c r="N129" s="6">
+        <v>1</v>
+      </c>
+      <c r="O129" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P129" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q129" s="6">
+        <v>0</v>
+      </c>
+      <c r="R129" s="7">
+        <v>0</v>
+      </c>
+      <c r="S129" s="9">
+        <v>0</v>
+      </c>
+      <c r="T129" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U129" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V129" s="11">
+        <v>11</v>
+      </c>
+      <c r="W129" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X129" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y129" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB129" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC129" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD129" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE129" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG129" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI129" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ129" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK129" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL129" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM129" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR129" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>1</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F130" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G130" s="5">
+        <v>18</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L130" s="6">
+        <v>1799</v>
+      </c>
+      <c r="M130" s="7">
+        <v>312756.15000000002</v>
+      </c>
+      <c r="N130" s="6">
+        <v>1</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P130" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q130" s="6">
+        <v>0</v>
+      </c>
+      <c r="R130" s="7">
+        <v>0</v>
+      </c>
+      <c r="S130" s="9">
+        <v>0</v>
+      </c>
+      <c r="T130" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U130" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V130" s="11">
+        <v>11</v>
+      </c>
+      <c r="W130" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X130" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y130" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z130" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC130" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD130" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE130" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG130" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI130" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ130" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK130" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL130" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM130" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR130" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>1</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G131" s="5">
+        <v>19</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L131" s="6">
+        <v>1800</v>
+      </c>
+      <c r="M131" s="7">
+        <v>312930</v>
+      </c>
+      <c r="N131" s="6">
+        <v>1</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P131" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q131" s="6">
+        <v>0</v>
+      </c>
+      <c r="R131" s="7">
+        <v>0</v>
+      </c>
+      <c r="S131" s="9">
+        <v>0</v>
+      </c>
+      <c r="T131" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U131" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V131" s="11">
+        <v>11</v>
+      </c>
+      <c r="W131" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X131" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y131" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB131" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC131" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD131" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE131" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG131" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI131" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ131" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK131" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL131" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM131" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR131" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>1</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F132" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G132" s="5">
+        <v>20</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L132" s="6">
+        <v>1801</v>
+      </c>
+      <c r="M132" s="7">
+        <v>313103.84999999998</v>
+      </c>
+      <c r="N132" s="6">
+        <v>1</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P132" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q132" s="6">
+        <v>0</v>
+      </c>
+      <c r="R132" s="7">
+        <v>0</v>
+      </c>
+      <c r="S132" s="9">
+        <v>0</v>
+      </c>
+      <c r="T132" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U132" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V132" s="11">
+        <v>11</v>
+      </c>
+      <c r="W132" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X132" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y132" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG132" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI132" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ132" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK132" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM132" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR132" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>1</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F133" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G133" s="5">
+        <v>21</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L133" s="6">
+        <v>1802</v>
+      </c>
+      <c r="M133" s="7">
+        <v>313277.7</v>
+      </c>
+      <c r="N133" s="6">
+        <v>1</v>
+      </c>
+      <c r="O133" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P133" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q133" s="6">
+        <v>0</v>
+      </c>
+      <c r="R133" s="7">
+        <v>0</v>
+      </c>
+      <c r="S133" s="9">
+        <v>0</v>
+      </c>
+      <c r="T133" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U133" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V133" s="11">
+        <v>11</v>
+      </c>
+      <c r="W133" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X133" s="12">
+        <v>0.35902780000000001</v>
+      </c>
+      <c r="Y133" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z133" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA133" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB133" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC133" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD133" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE133" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG133" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI133" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ133" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK133" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL133" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM133" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR133" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F134" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G134" s="5">
+        <v>22</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L134" s="6">
+        <v>1803</v>
+      </c>
+      <c r="M134" s="7">
+        <v>313451.55</v>
+      </c>
+      <c r="N134" s="6">
+        <v>1</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P134" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q134" s="6">
+        <v>0</v>
+      </c>
+      <c r="R134" s="7">
+        <v>0</v>
+      </c>
+      <c r="S134" s="9">
+        <v>0</v>
+      </c>
+      <c r="T134" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U134" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V134" s="11">
+        <v>11</v>
+      </c>
+      <c r="W134" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X134" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y134" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z134" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA134" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB134" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC134" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD134" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE134" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG134" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI134" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ134" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK134" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL134" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM134" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR134" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="135" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>1</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G135" s="5">
+        <v>23</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L135" s="6">
+        <v>1804</v>
+      </c>
+      <c r="M135" s="7">
+        <v>313625.40000000002</v>
+      </c>
+      <c r="N135" s="6">
+        <v>1</v>
+      </c>
+      <c r="O135" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P135" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q135" s="6">
+        <v>0</v>
+      </c>
+      <c r="R135" s="7">
+        <v>0</v>
+      </c>
+      <c r="S135" s="9">
+        <v>0</v>
+      </c>
+      <c r="T135" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U135" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V135" s="11">
+        <v>11</v>
+      </c>
+      <c r="W135" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X135" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y135" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z135" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD135" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE135" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG135" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI135" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ135" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK135" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL135" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM135" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR135" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>1</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G136" s="5">
+        <v>24</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L136" s="6">
+        <v>1805</v>
+      </c>
+      <c r="M136" s="7">
+        <v>313799.25</v>
+      </c>
+      <c r="N136" s="6">
+        <v>1</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P136" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q136" s="6">
+        <v>0</v>
+      </c>
+      <c r="R136" s="7">
+        <v>0</v>
+      </c>
+      <c r="S136" s="9">
+        <v>0</v>
+      </c>
+      <c r="T136" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U136" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V136" s="11">
+        <v>11</v>
+      </c>
+      <c r="W136" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X136" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y136" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z136" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB136" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC136" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD136" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE136" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG136" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI136" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ136" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK136" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL136" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM136" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR136" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>1</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G137" s="5">
+        <v>25</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L137" s="6">
+        <v>1806</v>
+      </c>
+      <c r="M137" s="7">
+        <v>313973.09999999998</v>
+      </c>
+      <c r="N137" s="6">
+        <v>1</v>
+      </c>
+      <c r="O137" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P137" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q137" s="6">
+        <v>0</v>
+      </c>
+      <c r="R137" s="7">
+        <v>0</v>
+      </c>
+      <c r="S137" s="9">
+        <v>0</v>
+      </c>
+      <c r="T137" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U137" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V137" s="11">
+        <v>11</v>
+      </c>
+      <c r="W137" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X137" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y137" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA137" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB137" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC137" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD137" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE137" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG137" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI137" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ137" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK137" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL137" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM137" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR137" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>1</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F138" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G138" s="5">
+        <v>26</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L138" s="6">
+        <v>1807</v>
+      </c>
+      <c r="M138" s="7">
+        <v>314146.95</v>
+      </c>
+      <c r="N138" s="6">
+        <v>1</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P138" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q138" s="6">
+        <v>0</v>
+      </c>
+      <c r="R138" s="7">
+        <v>0</v>
+      </c>
+      <c r="S138" s="9">
+        <v>0</v>
+      </c>
+      <c r="T138" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U138" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V138" s="11">
+        <v>11</v>
+      </c>
+      <c r="W138" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X138" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y138" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z138" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA138" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB138" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC138" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD138" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE138" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF138" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG138" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH138" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI138" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ138" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK138" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL138" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM138" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN138" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO138" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP138" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ138" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR138" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>1</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F139" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G139" s="5">
+        <v>27</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L139" s="6">
+        <v>1808</v>
+      </c>
+      <c r="M139" s="7">
+        <v>314320.8</v>
+      </c>
+      <c r="N139" s="6">
+        <v>1</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P139" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q139" s="6">
+        <v>0</v>
+      </c>
+      <c r="R139" s="7">
+        <v>0</v>
+      </c>
+      <c r="S139" s="9">
+        <v>0</v>
+      </c>
+      <c r="T139" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U139" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V139" s="11">
+        <v>11</v>
+      </c>
+      <c r="W139" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X139" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y139" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z139" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA139" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB139" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC139" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD139" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE139" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF139" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG139" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH139" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI139" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ139" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK139" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL139" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM139" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN139" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO139" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP139" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ139" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR139" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>1</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F140" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G140" s="5">
+        <v>28</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L140" s="6">
+        <v>1809</v>
+      </c>
+      <c r="M140" s="7">
+        <v>314494.65000000002</v>
+      </c>
+      <c r="N140" s="6">
+        <v>1</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P140" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q140" s="6">
+        <v>0</v>
+      </c>
+      <c r="R140" s="7">
+        <v>0</v>
+      </c>
+      <c r="S140" s="9">
+        <v>0</v>
+      </c>
+      <c r="T140" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U140" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V140" s="11">
+        <v>11</v>
+      </c>
+      <c r="W140" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X140" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y140" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z140" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA140" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB140" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC140" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD140" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE140" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG140" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI140" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ140" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK140" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL140" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM140" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR140" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="141" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>1</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F141" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G141" s="5">
+        <v>29</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L141" s="6">
+        <v>1810</v>
+      </c>
+      <c r="M141" s="7">
+        <v>314668.5</v>
+      </c>
+      <c r="N141" s="6">
+        <v>1</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P141" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q141" s="6">
+        <v>0</v>
+      </c>
+      <c r="R141" s="7">
+        <v>0</v>
+      </c>
+      <c r="S141" s="9">
+        <v>0</v>
+      </c>
+      <c r="T141" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U141" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V141" s="11">
+        <v>11</v>
+      </c>
+      <c r="W141" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X141" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y141" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z141" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA141" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB141" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC141" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD141" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE141" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG141" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI141" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ141" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK141" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL141" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM141" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR141" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="142" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>1</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F142" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G142" s="5">
+        <v>30</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L142" s="6">
+        <v>1811</v>
+      </c>
+      <c r="M142" s="7">
+        <v>314842.34999999998</v>
+      </c>
+      <c r="N142" s="6">
+        <v>1</v>
+      </c>
+      <c r="O142" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P142" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q142" s="6">
+        <v>0</v>
+      </c>
+      <c r="R142" s="7">
+        <v>0</v>
+      </c>
+      <c r="S142" s="9">
+        <v>0</v>
+      </c>
+      <c r="T142" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U142" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V142" s="11">
+        <v>11</v>
+      </c>
+      <c r="W142" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X142" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y142" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z142" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA142" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB142" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC142" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD142" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE142" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG142" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI142" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ142" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK142" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL142" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM142" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR142" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="143" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>1</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F143" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G143" s="5">
+        <v>31</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L143" s="6">
+        <v>1812</v>
+      </c>
+      <c r="M143" s="7">
+        <v>315016.2</v>
+      </c>
+      <c r="N143" s="6">
+        <v>1</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P143" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q143" s="6">
+        <v>0</v>
+      </c>
+      <c r="R143" s="7">
+        <v>0</v>
+      </c>
+      <c r="S143" s="9">
+        <v>0</v>
+      </c>
+      <c r="T143" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U143" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V143" s="11">
+        <v>11</v>
+      </c>
+      <c r="W143" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X143" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y143" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z143" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA143" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB143" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC143" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD143" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE143" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG143" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI143" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ143" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK143" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL143" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM143" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR143" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>1</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F144" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G144" s="5">
+        <v>32</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L144" s="6">
+        <v>1813</v>
+      </c>
+      <c r="M144" s="7">
+        <v>315190.05</v>
+      </c>
+      <c r="N144" s="6">
+        <v>1</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P144" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q144" s="6">
+        <v>0</v>
+      </c>
+      <c r="R144" s="7">
+        <v>0</v>
+      </c>
+      <c r="S144" s="9">
+        <v>0</v>
+      </c>
+      <c r="T144" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U144" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V144" s="11">
+        <v>11</v>
+      </c>
+      <c r="W144" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X144" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y144" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z144" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB144" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC144" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD144" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG144" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI144" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ144" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK144" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL144" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM144" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR144" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>1</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F145" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G145" s="5">
+        <v>33</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L145" s="6">
+        <v>1814</v>
+      </c>
+      <c r="M145" s="7">
+        <v>315363.90000000002</v>
+      </c>
+      <c r="N145" s="6">
+        <v>1</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P145" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q145" s="6">
+        <v>0</v>
+      </c>
+      <c r="R145" s="7">
+        <v>0</v>
+      </c>
+      <c r="S145" s="9">
+        <v>0</v>
+      </c>
+      <c r="T145" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U145" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V145" s="11">
+        <v>11</v>
+      </c>
+      <c r="W145" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X145" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y145" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB145" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE145" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG145" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI145" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ145" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK145" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL145" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM145" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR145" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>1</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F146" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G146" s="5">
+        <v>34</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L146" s="6">
+        <v>1815</v>
+      </c>
+      <c r="M146" s="7">
+        <v>315537.75</v>
+      </c>
+      <c r="N146" s="6">
+        <v>1</v>
+      </c>
+      <c r="O146" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P146" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q146" s="6">
+        <v>0</v>
+      </c>
+      <c r="R146" s="7">
+        <v>0</v>
+      </c>
+      <c r="S146" s="9">
+        <v>0</v>
+      </c>
+      <c r="T146" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U146" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V146" s="11">
+        <v>11</v>
+      </c>
+      <c r="W146" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X146" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y146" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z146" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB146" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD146" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG146" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI146" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ146" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK146" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL146" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM146" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR146" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="147" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>1</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F147" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G147" s="5">
+        <v>35</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L147" s="6">
+        <v>1816</v>
+      </c>
+      <c r="M147" s="7">
+        <v>315711.59999999998</v>
+      </c>
+      <c r="N147" s="6">
+        <v>1</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P147" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>0</v>
+      </c>
+      <c r="R147" s="7">
+        <v>0</v>
+      </c>
+      <c r="S147" s="9">
+        <v>0</v>
+      </c>
+      <c r="T147" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U147" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V147" s="11">
+        <v>11</v>
+      </c>
+      <c r="W147" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X147" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y147" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD147" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE147" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG147" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI147" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ147" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK147" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL147" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM147" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR147" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{386891A6-7C79-4B35-8D89-3289E642CEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{678E7580-9738-4DC3-B0A9-E6797422AB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6146" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6740" uniqueCount="430">
   <si>
     <t>Sel</t>
   </si>
@@ -1027,6 +1027,81 @@
     <t>1858700132840</t>
   </si>
   <si>
+    <t>1858700132841</t>
+  </si>
+  <si>
+    <t>1858700132842</t>
+  </si>
+  <si>
+    <t>1858700132843</t>
+  </si>
+  <si>
+    <t>1858700132844</t>
+  </si>
+  <si>
+    <t>1858700132845</t>
+  </si>
+  <si>
+    <t>1858700132846</t>
+  </si>
+  <si>
+    <t>1858700132847</t>
+  </si>
+  <si>
+    <t>1858700132848</t>
+  </si>
+  <si>
+    <t>1858700132849</t>
+  </si>
+  <si>
+    <t>1858700132850</t>
+  </si>
+  <si>
+    <t>1858700132851</t>
+  </si>
+  <si>
+    <t>1858700132852</t>
+  </si>
+  <si>
+    <t>1858700132853</t>
+  </si>
+  <si>
+    <t>1858700132854</t>
+  </si>
+  <si>
+    <t>1858700132855</t>
+  </si>
+  <si>
+    <t>1858700132856</t>
+  </si>
+  <si>
+    <t>1858700132857</t>
+  </si>
+  <si>
+    <t>1858700132858</t>
+  </si>
+  <si>
+    <t>1858700132859</t>
+  </si>
+  <si>
+    <t>1858700132860</t>
+  </si>
+  <si>
+    <t>1858700132861</t>
+  </si>
+  <si>
+    <t>1858700132862</t>
+  </si>
+  <si>
+    <t>1858700132863</t>
+  </si>
+  <si>
+    <t>1858700132864</t>
+  </si>
+  <si>
+    <t>1858700132865</t>
+  </si>
+  <si>
     <t>10058029</t>
   </si>
   <si>
@@ -1211,6 +1286,30 @@
   </si>
   <si>
     <t>1025000003623</t>
+  </si>
+  <si>
+    <t>1025000003624</t>
+  </si>
+  <si>
+    <t>1025000003625</t>
+  </si>
+  <si>
+    <t>1025000003626</t>
+  </si>
+  <si>
+    <t>1025000003627</t>
+  </si>
+  <si>
+    <t>1025000003628</t>
+  </si>
+  <si>
+    <t>1025000003629</t>
+  </si>
+  <si>
+    <t>1025000003630</t>
+  </si>
+  <si>
+    <t>1025000003631</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR340"/>
+  <dimension ref="A1:AR373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -39454,10 +39553,10 @@
         <v>2</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>46</v>
@@ -39466,7 +39565,7 @@
         <v>46064</v>
       </c>
       <c r="G282" s="5">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="H282" s="3" t="s">
         <v>47</v>
@@ -39481,19 +39580,19 @@
         <v>50</v>
       </c>
       <c r="L282" s="6">
-        <v>1782</v>
+        <v>5537</v>
       </c>
       <c r="M282" s="7">
-        <v>309800.7</v>
+        <v>952141.32</v>
       </c>
       <c r="N282" s="6">
         <v>1</v>
       </c>
       <c r="O282" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P282" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q282" s="6">
         <v>0</v>
@@ -39508,7 +39607,7 @@
         <v>52</v>
       </c>
       <c r="U282" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V282" s="11">
         <v>11</v>
@@ -39517,7 +39616,7 @@
         <v>46064</v>
       </c>
       <c r="X282" s="12">
-        <v>0.3361111</v>
+        <v>0.50416669999999997</v>
       </c>
       <c r="Y282" s="10">
         <v>0</v>
@@ -39577,7 +39676,7 @@
         <v>53</v>
       </c>
       <c r="AR282" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="283" spans="1:44" x14ac:dyDescent="0.3">
@@ -39588,10 +39687,10 @@
         <v>2</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>46</v>
@@ -39600,7 +39699,7 @@
         <v>46064</v>
       </c>
       <c r="G283" s="5">
-        <v>2</v>
+        <v>290</v>
       </c>
       <c r="H283" s="3" t="s">
         <v>47</v>
@@ -39615,19 +39714,19 @@
         <v>50</v>
       </c>
       <c r="L283" s="6">
-        <v>1783</v>
+        <v>5538</v>
       </c>
       <c r="M283" s="7">
-        <v>309974.55</v>
+        <v>952313.28</v>
       </c>
       <c r="N283" s="6">
         <v>1</v>
       </c>
       <c r="O283" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P283" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q283" s="6">
         <v>0</v>
@@ -39642,7 +39741,7 @@
         <v>52</v>
       </c>
       <c r="U283" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V283" s="11">
         <v>11</v>
@@ -39651,7 +39750,7 @@
         <v>46064</v>
       </c>
       <c r="X283" s="12">
-        <v>0.3361111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y283" s="10">
         <v>0</v>
@@ -39711,7 +39810,7 @@
         <v>53</v>
       </c>
       <c r="AR283" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="284" spans="1:44" x14ac:dyDescent="0.3">
@@ -39722,10 +39821,10 @@
         <v>2</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>46</v>
@@ -39734,7 +39833,7 @@
         <v>46064</v>
       </c>
       <c r="G284" s="5">
-        <v>3</v>
+        <v>291</v>
       </c>
       <c r="H284" s="3" t="s">
         <v>47</v>
@@ -39749,19 +39848,19 @@
         <v>50</v>
       </c>
       <c r="L284" s="6">
-        <v>1784</v>
+        <v>5539</v>
       </c>
       <c r="M284" s="7">
-        <v>310148.40000000002</v>
+        <v>952485.24</v>
       </c>
       <c r="N284" s="6">
         <v>1</v>
       </c>
       <c r="O284" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P284" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q284" s="6">
         <v>0</v>
@@ -39776,7 +39875,7 @@
         <v>52</v>
       </c>
       <c r="U284" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V284" s="11">
         <v>11</v>
@@ -39785,7 +39884,7 @@
         <v>46064</v>
       </c>
       <c r="X284" s="12">
-        <v>0.3361111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y284" s="10">
         <v>0</v>
@@ -39845,7 +39944,7 @@
         <v>53</v>
       </c>
       <c r="AR284" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="285" spans="1:44" x14ac:dyDescent="0.3">
@@ -39856,10 +39955,10 @@
         <v>2</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>46</v>
@@ -39868,7 +39967,7 @@
         <v>46064</v>
       </c>
       <c r="G285" s="5">
-        <v>4</v>
+        <v>292</v>
       </c>
       <c r="H285" s="3" t="s">
         <v>47</v>
@@ -39883,19 +39982,19 @@
         <v>50</v>
       </c>
       <c r="L285" s="6">
-        <v>1785</v>
+        <v>5540</v>
       </c>
       <c r="M285" s="7">
-        <v>310322.25</v>
+        <v>952657.2</v>
       </c>
       <c r="N285" s="6">
         <v>1</v>
       </c>
       <c r="O285" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P285" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q285" s="6">
         <v>0</v>
@@ -39910,7 +40009,7 @@
         <v>52</v>
       </c>
       <c r="U285" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V285" s="11">
         <v>11</v>
@@ -39919,7 +40018,7 @@
         <v>46064</v>
       </c>
       <c r="X285" s="12">
-        <v>0.3361111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y285" s="10">
         <v>0</v>
@@ -39979,7 +40078,7 @@
         <v>53</v>
       </c>
       <c r="AR285" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="286" spans="1:44" x14ac:dyDescent="0.3">
@@ -39990,10 +40089,10 @@
         <v>2</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>46</v>
@@ -40002,7 +40101,7 @@
         <v>46064</v>
       </c>
       <c r="G286" s="5">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="H286" s="3" t="s">
         <v>47</v>
@@ -40017,19 +40116,19 @@
         <v>50</v>
       </c>
       <c r="L286" s="6">
-        <v>1786</v>
+        <v>5541</v>
       </c>
       <c r="M286" s="7">
-        <v>310496.09999999998</v>
+        <v>952829.16</v>
       </c>
       <c r="N286" s="6">
         <v>1</v>
       </c>
       <c r="O286" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P286" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q286" s="6">
         <v>0</v>
@@ -40044,7 +40143,7 @@
         <v>52</v>
       </c>
       <c r="U286" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V286" s="11">
         <v>11</v>
@@ -40053,7 +40152,7 @@
         <v>46064</v>
       </c>
       <c r="X286" s="12">
-        <v>0.3361111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y286" s="10">
         <v>0</v>
@@ -40113,7 +40212,7 @@
         <v>53</v>
       </c>
       <c r="AR286" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="287" spans="1:44" x14ac:dyDescent="0.3">
@@ -40124,10 +40223,10 @@
         <v>2</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>46</v>
@@ -40136,7 +40235,7 @@
         <v>46064</v>
       </c>
       <c r="G287" s="5">
-        <v>6</v>
+        <v>294</v>
       </c>
       <c r="H287" s="3" t="s">
         <v>47</v>
@@ -40151,19 +40250,19 @@
         <v>50</v>
       </c>
       <c r="L287" s="6">
-        <v>1787</v>
+        <v>5542</v>
       </c>
       <c r="M287" s="7">
-        <v>310669.95</v>
+        <v>953001.12</v>
       </c>
       <c r="N287" s="6">
         <v>1</v>
       </c>
       <c r="O287" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P287" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q287" s="6">
         <v>0</v>
@@ -40178,7 +40277,7 @@
         <v>52</v>
       </c>
       <c r="U287" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V287" s="11">
         <v>11</v>
@@ -40187,7 +40286,7 @@
         <v>46064</v>
       </c>
       <c r="X287" s="12">
-        <v>0.3361111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y287" s="10">
         <v>0</v>
@@ -40247,7 +40346,7 @@
         <v>53</v>
       </c>
       <c r="AR287" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="288" spans="1:44" x14ac:dyDescent="0.3">
@@ -40258,10 +40357,10 @@
         <v>2</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>46</v>
@@ -40270,7 +40369,7 @@
         <v>46064</v>
       </c>
       <c r="G288" s="5">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="H288" s="3" t="s">
         <v>47</v>
@@ -40285,19 +40384,19 @@
         <v>50</v>
       </c>
       <c r="L288" s="6">
-        <v>1788</v>
+        <v>5543</v>
       </c>
       <c r="M288" s="7">
-        <v>310843.8</v>
+        <v>953173.08</v>
       </c>
       <c r="N288" s="6">
         <v>1</v>
       </c>
       <c r="O288" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P288" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q288" s="6">
         <v>0</v>
@@ -40312,7 +40411,7 @@
         <v>52</v>
       </c>
       <c r="U288" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V288" s="11">
         <v>11</v>
@@ -40321,7 +40420,7 @@
         <v>46064</v>
       </c>
       <c r="X288" s="12">
-        <v>0.3361111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y288" s="10">
         <v>0</v>
@@ -40381,7 +40480,7 @@
         <v>53</v>
       </c>
       <c r="AR288" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="289" spans="1:44" x14ac:dyDescent="0.3">
@@ -40392,10 +40491,10 @@
         <v>2</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>46</v>
@@ -40404,7 +40503,7 @@
         <v>46064</v>
       </c>
       <c r="G289" s="5">
-        <v>8</v>
+        <v>296</v>
       </c>
       <c r="H289" s="3" t="s">
         <v>47</v>
@@ -40419,19 +40518,19 @@
         <v>50</v>
       </c>
       <c r="L289" s="6">
-        <v>1789</v>
+        <v>5544</v>
       </c>
       <c r="M289" s="7">
-        <v>311017.65000000002</v>
+        <v>953345.04</v>
       </c>
       <c r="N289" s="6">
         <v>1</v>
       </c>
       <c r="O289" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P289" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q289" s="6">
         <v>0</v>
@@ -40446,7 +40545,7 @@
         <v>52</v>
       </c>
       <c r="U289" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V289" s="11">
         <v>11</v>
@@ -40455,7 +40554,7 @@
         <v>46064</v>
       </c>
       <c r="X289" s="12">
-        <v>0.3361111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y289" s="10">
         <v>0</v>
@@ -40515,7 +40614,7 @@
         <v>53</v>
       </c>
       <c r="AR289" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="290" spans="1:44" x14ac:dyDescent="0.3">
@@ -40526,10 +40625,10 @@
         <v>2</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>46</v>
@@ -40538,7 +40637,7 @@
         <v>46064</v>
       </c>
       <c r="G290" s="5">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="H290" s="3" t="s">
         <v>47</v>
@@ -40553,19 +40652,19 @@
         <v>50</v>
       </c>
       <c r="L290" s="6">
-        <v>1790</v>
+        <v>5545</v>
       </c>
       <c r="M290" s="7">
-        <v>311191.5</v>
+        <v>953517</v>
       </c>
       <c r="N290" s="6">
         <v>1</v>
       </c>
       <c r="O290" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P290" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q290" s="6">
         <v>0</v>
@@ -40580,7 +40679,7 @@
         <v>52</v>
       </c>
       <c r="U290" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V290" s="11">
         <v>11</v>
@@ -40589,7 +40688,7 @@
         <v>46064</v>
       </c>
       <c r="X290" s="12">
-        <v>0.3361111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y290" s="10">
         <v>0</v>
@@ -40649,7 +40748,7 @@
         <v>53</v>
       </c>
       <c r="AR290" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="291" spans="1:44" x14ac:dyDescent="0.3">
@@ -40660,10 +40759,10 @@
         <v>2</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>46</v>
@@ -40672,7 +40771,7 @@
         <v>46064</v>
       </c>
       <c r="G291" s="5">
-        <v>10</v>
+        <v>298</v>
       </c>
       <c r="H291" s="3" t="s">
         <v>47</v>
@@ -40687,19 +40786,19 @@
         <v>50</v>
       </c>
       <c r="L291" s="6">
-        <v>1791</v>
+        <v>5546</v>
       </c>
       <c r="M291" s="7">
-        <v>311365.34999999998</v>
+        <v>953688.96</v>
       </c>
       <c r="N291" s="6">
         <v>1</v>
       </c>
       <c r="O291" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P291" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q291" s="6">
         <v>0</v>
@@ -40714,7 +40813,7 @@
         <v>52</v>
       </c>
       <c r="U291" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V291" s="11">
         <v>11</v>
@@ -40723,7 +40822,7 @@
         <v>46064</v>
       </c>
       <c r="X291" s="12">
-        <v>0.3361111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y291" s="10">
         <v>0</v>
@@ -40783,7 +40882,7 @@
         <v>53</v>
       </c>
       <c r="AR291" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="292" spans="1:44" x14ac:dyDescent="0.3">
@@ -40794,10 +40893,10 @@
         <v>2</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>46</v>
@@ -40806,7 +40905,7 @@
         <v>46064</v>
       </c>
       <c r="G292" s="5">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="H292" s="3" t="s">
         <v>47</v>
@@ -40821,19 +40920,19 @@
         <v>50</v>
       </c>
       <c r="L292" s="6">
-        <v>1792</v>
+        <v>5547</v>
       </c>
       <c r="M292" s="7">
-        <v>311539.20000000001</v>
+        <v>953860.92</v>
       </c>
       <c r="N292" s="6">
         <v>1</v>
       </c>
       <c r="O292" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P292" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q292" s="6">
         <v>0</v>
@@ -40848,7 +40947,7 @@
         <v>52</v>
       </c>
       <c r="U292" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V292" s="11">
         <v>11</v>
@@ -40857,7 +40956,7 @@
         <v>46064</v>
       </c>
       <c r="X292" s="12">
-        <v>0.3361111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y292" s="10">
         <v>0</v>
@@ -40917,7 +41016,7 @@
         <v>53</v>
       </c>
       <c r="AR292" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="293" spans="1:44" x14ac:dyDescent="0.3">
@@ -40928,10 +41027,10 @@
         <v>2</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>46</v>
@@ -40940,7 +41039,7 @@
         <v>46064</v>
       </c>
       <c r="G293" s="5">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="H293" s="3" t="s">
         <v>47</v>
@@ -40955,19 +41054,19 @@
         <v>50</v>
       </c>
       <c r="L293" s="6">
-        <v>1793</v>
+        <v>5548</v>
       </c>
       <c r="M293" s="7">
-        <v>311713.05</v>
+        <v>954032.88</v>
       </c>
       <c r="N293" s="6">
         <v>1</v>
       </c>
       <c r="O293" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P293" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q293" s="6">
         <v>0</v>
@@ -40982,7 +41081,7 @@
         <v>52</v>
       </c>
       <c r="U293" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V293" s="11">
         <v>11</v>
@@ -40991,7 +41090,7 @@
         <v>46064</v>
       </c>
       <c r="X293" s="12">
-        <v>0.3569444</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y293" s="10">
         <v>0</v>
@@ -41051,7 +41150,7 @@
         <v>53</v>
       </c>
       <c r="AR293" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="294" spans="1:44" x14ac:dyDescent="0.3">
@@ -41062,10 +41161,10 @@
         <v>2</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E294" s="3" t="s">
         <v>46</v>
@@ -41074,7 +41173,7 @@
         <v>46064</v>
       </c>
       <c r="G294" s="5">
-        <v>13</v>
+        <v>301</v>
       </c>
       <c r="H294" s="3" t="s">
         <v>47</v>
@@ -41089,19 +41188,19 @@
         <v>50</v>
       </c>
       <c r="L294" s="6">
-        <v>1794</v>
+        <v>5549</v>
       </c>
       <c r="M294" s="7">
-        <v>311886.90000000002</v>
+        <v>954204.84</v>
       </c>
       <c r="N294" s="6">
         <v>1</v>
       </c>
       <c r="O294" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P294" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q294" s="6">
         <v>0</v>
@@ -41116,7 +41215,7 @@
         <v>52</v>
       </c>
       <c r="U294" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V294" s="11">
         <v>11</v>
@@ -41125,7 +41224,7 @@
         <v>46064</v>
       </c>
       <c r="X294" s="12">
-        <v>0.3569444</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y294" s="10">
         <v>0</v>
@@ -41185,7 +41284,7 @@
         <v>53</v>
       </c>
       <c r="AR294" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="295" spans="1:44" x14ac:dyDescent="0.3">
@@ -41196,10 +41295,10 @@
         <v>2</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>46</v>
@@ -41208,7 +41307,7 @@
         <v>46064</v>
       </c>
       <c r="G295" s="5">
-        <v>14</v>
+        <v>302</v>
       </c>
       <c r="H295" s="3" t="s">
         <v>47</v>
@@ -41223,19 +41322,19 @@
         <v>50</v>
       </c>
       <c r="L295" s="6">
-        <v>1795</v>
+        <v>5550</v>
       </c>
       <c r="M295" s="7">
-        <v>312060.75</v>
+        <v>954376.8</v>
       </c>
       <c r="N295" s="6">
         <v>1</v>
       </c>
       <c r="O295" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P295" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q295" s="6">
         <v>0</v>
@@ -41250,7 +41349,7 @@
         <v>52</v>
       </c>
       <c r="U295" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V295" s="11">
         <v>11</v>
@@ -41259,7 +41358,7 @@
         <v>46064</v>
       </c>
       <c r="X295" s="12">
-        <v>0.3569444</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y295" s="10">
         <v>0</v>
@@ -41319,7 +41418,7 @@
         <v>53</v>
       </c>
       <c r="AR295" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="296" spans="1:44" x14ac:dyDescent="0.3">
@@ -41330,10 +41429,10 @@
         <v>2</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>46</v>
@@ -41342,7 +41441,7 @@
         <v>46064</v>
       </c>
       <c r="G296" s="5">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c r="H296" s="3" t="s">
         <v>47</v>
@@ -41357,19 +41456,19 @@
         <v>50</v>
       </c>
       <c r="L296" s="6">
-        <v>1796</v>
+        <v>5551</v>
       </c>
       <c r="M296" s="7">
-        <v>312234.59999999998</v>
+        <v>954548.76</v>
       </c>
       <c r="N296" s="6">
         <v>1</v>
       </c>
       <c r="O296" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P296" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q296" s="6">
         <v>0</v>
@@ -41384,7 +41483,7 @@
         <v>52</v>
       </c>
       <c r="U296" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V296" s="11">
         <v>11</v>
@@ -41393,7 +41492,7 @@
         <v>46064</v>
       </c>
       <c r="X296" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y296" s="10">
         <v>0</v>
@@ -41453,7 +41552,7 @@
         <v>53</v>
       </c>
       <c r="AR296" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="297" spans="1:44" x14ac:dyDescent="0.3">
@@ -41464,10 +41563,10 @@
         <v>2</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>46</v>
@@ -41476,7 +41575,7 @@
         <v>46064</v>
       </c>
       <c r="G297" s="5">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="H297" s="3" t="s">
         <v>47</v>
@@ -41491,19 +41590,19 @@
         <v>50</v>
       </c>
       <c r="L297" s="6">
-        <v>1797</v>
+        <v>5552</v>
       </c>
       <c r="M297" s="7">
-        <v>312408.45</v>
+        <v>954720.72</v>
       </c>
       <c r="N297" s="6">
         <v>1</v>
       </c>
       <c r="O297" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P297" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q297" s="6">
         <v>0</v>
@@ -41518,7 +41617,7 @@
         <v>52</v>
       </c>
       <c r="U297" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V297" s="11">
         <v>11</v>
@@ -41527,7 +41626,7 @@
         <v>46064</v>
       </c>
       <c r="X297" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y297" s="10">
         <v>0</v>
@@ -41587,7 +41686,7 @@
         <v>53</v>
       </c>
       <c r="AR297" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="298" spans="1:44" x14ac:dyDescent="0.3">
@@ -41598,10 +41697,10 @@
         <v>2</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>46</v>
@@ -41610,7 +41709,7 @@
         <v>46064</v>
       </c>
       <c r="G298" s="5">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="H298" s="3" t="s">
         <v>47</v>
@@ -41625,19 +41724,19 @@
         <v>50</v>
       </c>
       <c r="L298" s="6">
-        <v>1798</v>
+        <v>5553</v>
       </c>
       <c r="M298" s="7">
-        <v>312582.3</v>
+        <v>954892.68</v>
       </c>
       <c r="N298" s="6">
         <v>1</v>
       </c>
       <c r="O298" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P298" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q298" s="6">
         <v>0</v>
@@ -41652,7 +41751,7 @@
         <v>52</v>
       </c>
       <c r="U298" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V298" s="11">
         <v>11</v>
@@ -41661,7 +41760,7 @@
         <v>46064</v>
       </c>
       <c r="X298" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y298" s="10">
         <v>0</v>
@@ -41721,7 +41820,7 @@
         <v>53</v>
       </c>
       <c r="AR298" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="299" spans="1:44" x14ac:dyDescent="0.3">
@@ -41732,10 +41831,10 @@
         <v>2</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>46</v>
@@ -41744,7 +41843,7 @@
         <v>46064</v>
       </c>
       <c r="G299" s="5">
-        <v>18</v>
+        <v>306</v>
       </c>
       <c r="H299" s="3" t="s">
         <v>47</v>
@@ -41759,19 +41858,19 @@
         <v>50</v>
       </c>
       <c r="L299" s="6">
-        <v>1799</v>
+        <v>5554</v>
       </c>
       <c r="M299" s="7">
-        <v>312756.15000000002</v>
+        <v>955064.64</v>
       </c>
       <c r="N299" s="6">
         <v>1</v>
       </c>
       <c r="O299" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P299" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q299" s="6">
         <v>0</v>
@@ -41786,7 +41885,7 @@
         <v>52</v>
       </c>
       <c r="U299" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V299" s="11">
         <v>11</v>
@@ -41795,7 +41894,7 @@
         <v>46064</v>
       </c>
       <c r="X299" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y299" s="10">
         <v>0</v>
@@ -41855,7 +41954,7 @@
         <v>53</v>
       </c>
       <c r="AR299" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="300" spans="1:44" x14ac:dyDescent="0.3">
@@ -41866,10 +41965,10 @@
         <v>2</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E300" s="3" t="s">
         <v>46</v>
@@ -41878,7 +41977,7 @@
         <v>46064</v>
       </c>
       <c r="G300" s="5">
-        <v>19</v>
+        <v>307</v>
       </c>
       <c r="H300" s="3" t="s">
         <v>47</v>
@@ -41893,19 +41992,19 @@
         <v>50</v>
       </c>
       <c r="L300" s="6">
-        <v>1800</v>
+        <v>5555</v>
       </c>
       <c r="M300" s="7">
-        <v>312930</v>
+        <v>955236.6</v>
       </c>
       <c r="N300" s="6">
         <v>1</v>
       </c>
       <c r="O300" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P300" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q300" s="6">
         <v>0</v>
@@ -41920,7 +42019,7 @@
         <v>52</v>
       </c>
       <c r="U300" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V300" s="11">
         <v>11</v>
@@ -41929,7 +42028,7 @@
         <v>46064</v>
       </c>
       <c r="X300" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y300" s="10">
         <v>0</v>
@@ -41989,7 +42088,7 @@
         <v>53</v>
       </c>
       <c r="AR300" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="301" spans="1:44" x14ac:dyDescent="0.3">
@@ -42000,10 +42099,10 @@
         <v>2</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E301" s="3" t="s">
         <v>46</v>
@@ -42012,7 +42111,7 @@
         <v>46064</v>
       </c>
       <c r="G301" s="5">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="H301" s="3" t="s">
         <v>47</v>
@@ -42027,19 +42126,19 @@
         <v>50</v>
       </c>
       <c r="L301" s="6">
-        <v>1801</v>
+        <v>5556</v>
       </c>
       <c r="M301" s="7">
-        <v>313103.84999999998</v>
+        <v>955408.56</v>
       </c>
       <c r="N301" s="6">
         <v>1</v>
       </c>
       <c r="O301" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P301" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q301" s="6">
         <v>0</v>
@@ -42054,7 +42153,7 @@
         <v>52</v>
       </c>
       <c r="U301" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V301" s="11">
         <v>11</v>
@@ -42063,7 +42162,7 @@
         <v>46064</v>
       </c>
       <c r="X301" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y301" s="10">
         <v>0</v>
@@ -42123,7 +42222,7 @@
         <v>53</v>
       </c>
       <c r="AR301" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="302" spans="1:44" x14ac:dyDescent="0.3">
@@ -42134,10 +42233,10 @@
         <v>2</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E302" s="3" t="s">
         <v>46</v>
@@ -42146,7 +42245,7 @@
         <v>46064</v>
       </c>
       <c r="G302" s="5">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="H302" s="3" t="s">
         <v>47</v>
@@ -42161,19 +42260,19 @@
         <v>50</v>
       </c>
       <c r="L302" s="6">
-        <v>1802</v>
+        <v>5557</v>
       </c>
       <c r="M302" s="7">
-        <v>313277.7</v>
+        <v>955580.52</v>
       </c>
       <c r="N302" s="6">
         <v>1</v>
       </c>
       <c r="O302" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P302" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q302" s="6">
         <v>0</v>
@@ -42188,7 +42287,7 @@
         <v>52</v>
       </c>
       <c r="U302" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V302" s="11">
         <v>11</v>
@@ -42197,7 +42296,7 @@
         <v>46064</v>
       </c>
       <c r="X302" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y302" s="10">
         <v>0</v>
@@ -42257,7 +42356,7 @@
         <v>53</v>
       </c>
       <c r="AR302" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="303" spans="1:44" x14ac:dyDescent="0.3">
@@ -42268,10 +42367,10 @@
         <v>2</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>46</v>
@@ -42280,7 +42379,7 @@
         <v>46064</v>
       </c>
       <c r="G303" s="5">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="H303" s="3" t="s">
         <v>47</v>
@@ -42295,19 +42394,19 @@
         <v>50</v>
       </c>
       <c r="L303" s="6">
-        <v>1803</v>
+        <v>5558</v>
       </c>
       <c r="M303" s="7">
-        <v>313451.55</v>
+        <v>955752.48</v>
       </c>
       <c r="N303" s="6">
         <v>1</v>
       </c>
       <c r="O303" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P303" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q303" s="6">
         <v>0</v>
@@ -42322,7 +42421,7 @@
         <v>52</v>
       </c>
       <c r="U303" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V303" s="11">
         <v>11</v>
@@ -42331,7 +42430,7 @@
         <v>46064</v>
       </c>
       <c r="X303" s="12">
-        <v>0.3986111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y303" s="10">
         <v>0</v>
@@ -42391,7 +42490,7 @@
         <v>53</v>
       </c>
       <c r="AR303" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="304" spans="1:44" x14ac:dyDescent="0.3">
@@ -42402,10 +42501,10 @@
         <v>2</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E304" s="3" t="s">
         <v>46</v>
@@ -42414,7 +42513,7 @@
         <v>46064</v>
       </c>
       <c r="G304" s="5">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c r="H304" s="3" t="s">
         <v>47</v>
@@ -42429,19 +42528,19 @@
         <v>50</v>
       </c>
       <c r="L304" s="6">
-        <v>1804</v>
+        <v>5559</v>
       </c>
       <c r="M304" s="7">
-        <v>313625.40000000002</v>
+        <v>955924.44</v>
       </c>
       <c r="N304" s="6">
         <v>1</v>
       </c>
       <c r="O304" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P304" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q304" s="6">
         <v>0</v>
@@ -42456,7 +42555,7 @@
         <v>52</v>
       </c>
       <c r="U304" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V304" s="11">
         <v>11</v>
@@ -42465,7 +42564,7 @@
         <v>46064</v>
       </c>
       <c r="X304" s="12">
-        <v>0.3986111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y304" s="10">
         <v>0</v>
@@ -42525,7 +42624,7 @@
         <v>53</v>
       </c>
       <c r="AR304" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="305" spans="1:44" x14ac:dyDescent="0.3">
@@ -42536,10 +42635,10 @@
         <v>2</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>46</v>
@@ -42548,7 +42647,7 @@
         <v>46064</v>
       </c>
       <c r="G305" s="5">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="H305" s="3" t="s">
         <v>47</v>
@@ -42563,19 +42662,19 @@
         <v>50</v>
       </c>
       <c r="L305" s="6">
-        <v>1805</v>
+        <v>5560</v>
       </c>
       <c r="M305" s="7">
-        <v>313799.25</v>
+        <v>956096.4</v>
       </c>
       <c r="N305" s="6">
         <v>1</v>
       </c>
       <c r="O305" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P305" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q305" s="6">
         <v>0</v>
@@ -42590,7 +42689,7 @@
         <v>52</v>
       </c>
       <c r="U305" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V305" s="11">
         <v>11</v>
@@ -42599,7 +42698,7 @@
         <v>46064</v>
       </c>
       <c r="X305" s="12">
-        <v>0.3986111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y305" s="10">
         <v>0</v>
@@ -42659,7 +42758,7 @@
         <v>53</v>
       </c>
       <c r="AR305" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="306" spans="1:44" x14ac:dyDescent="0.3">
@@ -42670,10 +42769,10 @@
         <v>2</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="E306" s="3" t="s">
         <v>46</v>
@@ -42682,7 +42781,7 @@
         <v>46064</v>
       </c>
       <c r="G306" s="5">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="H306" s="3" t="s">
         <v>47</v>
@@ -42697,19 +42796,19 @@
         <v>50</v>
       </c>
       <c r="L306" s="6">
-        <v>1806</v>
+        <v>5561</v>
       </c>
       <c r="M306" s="7">
-        <v>313973.09999999998</v>
+        <v>956268.36</v>
       </c>
       <c r="N306" s="6">
         <v>1</v>
       </c>
       <c r="O306" s="3" t="s">
-        <v>337</v>
+        <v>51</v>
       </c>
       <c r="P306" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q306" s="6">
         <v>0</v>
@@ -42724,7 +42823,7 @@
         <v>52</v>
       </c>
       <c r="U306" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V306" s="11">
         <v>11</v>
@@ -42733,7 +42832,7 @@
         <v>46064</v>
       </c>
       <c r="X306" s="12">
-        <v>0.3986111</v>
+        <v>0.50486109999999995</v>
       </c>
       <c r="Y306" s="10">
         <v>0</v>
@@ -42793,7 +42892,7 @@
         <v>53</v>
       </c>
       <c r="AR306" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="307" spans="1:44" x14ac:dyDescent="0.3">
@@ -42804,10 +42903,10 @@
         <v>2</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E307" s="3" t="s">
         <v>46</v>
@@ -42816,7 +42915,7 @@
         <v>46064</v>
       </c>
       <c r="G307" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H307" s="3" t="s">
         <v>47</v>
@@ -42831,16 +42930,16 @@
         <v>50</v>
       </c>
       <c r="L307" s="6">
-        <v>1807</v>
+        <v>1782</v>
       </c>
       <c r="M307" s="7">
-        <v>314146.95</v>
+        <v>309800.7</v>
       </c>
       <c r="N307" s="6">
         <v>1</v>
       </c>
       <c r="O307" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P307" s="8">
         <v>173.85</v>
@@ -42858,7 +42957,7 @@
         <v>52</v>
       </c>
       <c r="U307" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V307" s="11">
         <v>11</v>
@@ -42867,7 +42966,7 @@
         <v>46064</v>
       </c>
       <c r="X307" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y307" s="10">
         <v>0</v>
@@ -42938,10 +43037,10 @@
         <v>2</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E308" s="3" t="s">
         <v>46</v>
@@ -42950,7 +43049,7 @@
         <v>46064</v>
       </c>
       <c r="G308" s="5">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H308" s="3" t="s">
         <v>47</v>
@@ -42965,16 +43064,16 @@
         <v>50</v>
       </c>
       <c r="L308" s="6">
-        <v>1808</v>
+        <v>1783</v>
       </c>
       <c r="M308" s="7">
-        <v>314320.8</v>
+        <v>309974.55</v>
       </c>
       <c r="N308" s="6">
         <v>1</v>
       </c>
       <c r="O308" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P308" s="8">
         <v>173.85</v>
@@ -42992,7 +43091,7 @@
         <v>52</v>
       </c>
       <c r="U308" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V308" s="11">
         <v>11</v>
@@ -43001,7 +43100,7 @@
         <v>46064</v>
       </c>
       <c r="X308" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y308" s="10">
         <v>0</v>
@@ -43072,10 +43171,10 @@
         <v>2</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E309" s="3" t="s">
         <v>46</v>
@@ -43084,7 +43183,7 @@
         <v>46064</v>
       </c>
       <c r="G309" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H309" s="3" t="s">
         <v>47</v>
@@ -43099,16 +43198,16 @@
         <v>50</v>
       </c>
       <c r="L309" s="6">
-        <v>1809</v>
+        <v>1784</v>
       </c>
       <c r="M309" s="7">
-        <v>314494.65000000002</v>
+        <v>310148.40000000002</v>
       </c>
       <c r="N309" s="6">
         <v>1</v>
       </c>
       <c r="O309" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P309" s="8">
         <v>173.85</v>
@@ -43126,7 +43225,7 @@
         <v>52</v>
       </c>
       <c r="U309" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V309" s="11">
         <v>11</v>
@@ -43135,7 +43234,7 @@
         <v>46064</v>
       </c>
       <c r="X309" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y309" s="10">
         <v>0</v>
@@ -43206,10 +43305,10 @@
         <v>2</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E310" s="3" t="s">
         <v>46</v>
@@ -43218,7 +43317,7 @@
         <v>46064</v>
       </c>
       <c r="G310" s="5">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H310" s="3" t="s">
         <v>47</v>
@@ -43233,16 +43332,16 @@
         <v>50</v>
       </c>
       <c r="L310" s="6">
-        <v>1810</v>
+        <v>1785</v>
       </c>
       <c r="M310" s="7">
-        <v>314668.5</v>
+        <v>310322.25</v>
       </c>
       <c r="N310" s="6">
         <v>1</v>
       </c>
       <c r="O310" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P310" s="8">
         <v>173.85</v>
@@ -43260,7 +43359,7 @@
         <v>52</v>
       </c>
       <c r="U310" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V310" s="11">
         <v>11</v>
@@ -43269,7 +43368,7 @@
         <v>46064</v>
       </c>
       <c r="X310" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y310" s="10">
         <v>0</v>
@@ -43340,10 +43439,10 @@
         <v>2</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>46</v>
@@ -43352,7 +43451,7 @@
         <v>46064</v>
       </c>
       <c r="G311" s="5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H311" s="3" t="s">
         <v>47</v>
@@ -43367,16 +43466,16 @@
         <v>50</v>
       </c>
       <c r="L311" s="6">
-        <v>1811</v>
+        <v>1786</v>
       </c>
       <c r="M311" s="7">
-        <v>314842.34999999998</v>
+        <v>310496.09999999998</v>
       </c>
       <c r="N311" s="6">
         <v>1</v>
       </c>
       <c r="O311" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P311" s="8">
         <v>173.85</v>
@@ -43394,7 +43493,7 @@
         <v>52</v>
       </c>
       <c r="U311" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V311" s="11">
         <v>11</v>
@@ -43403,7 +43502,7 @@
         <v>46064</v>
       </c>
       <c r="X311" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y311" s="10">
         <v>0</v>
@@ -43474,10 +43573,10 @@
         <v>2</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>46</v>
@@ -43486,7 +43585,7 @@
         <v>46064</v>
       </c>
       <c r="G312" s="5">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="H312" s="3" t="s">
         <v>47</v>
@@ -43501,16 +43600,16 @@
         <v>50</v>
       </c>
       <c r="L312" s="6">
-        <v>1812</v>
+        <v>1787</v>
       </c>
       <c r="M312" s="7">
-        <v>315016.2</v>
+        <v>310669.95</v>
       </c>
       <c r="N312" s="6">
         <v>1</v>
       </c>
       <c r="O312" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P312" s="8">
         <v>173.85</v>
@@ -43528,7 +43627,7 @@
         <v>52</v>
       </c>
       <c r="U312" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V312" s="11">
         <v>11</v>
@@ -43537,7 +43636,7 @@
         <v>46064</v>
       </c>
       <c r="X312" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y312" s="10">
         <v>0</v>
@@ -43608,10 +43707,10 @@
         <v>2</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E313" s="3" t="s">
         <v>46</v>
@@ -43620,7 +43719,7 @@
         <v>46064</v>
       </c>
       <c r="G313" s="5">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="H313" s="3" t="s">
         <v>47</v>
@@ -43635,16 +43734,16 @@
         <v>50</v>
       </c>
       <c r="L313" s="6">
-        <v>1813</v>
+        <v>1788</v>
       </c>
       <c r="M313" s="7">
-        <v>315190.05</v>
+        <v>310843.8</v>
       </c>
       <c r="N313" s="6">
         <v>1</v>
       </c>
       <c r="O313" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P313" s="8">
         <v>173.85</v>
@@ -43662,7 +43761,7 @@
         <v>52</v>
       </c>
       <c r="U313" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V313" s="11">
         <v>11</v>
@@ -43671,7 +43770,7 @@
         <v>46064</v>
       </c>
       <c r="X313" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y313" s="10">
         <v>0</v>
@@ -43742,10 +43841,10 @@
         <v>2</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E314" s="3" t="s">
         <v>46</v>
@@ -43754,7 +43853,7 @@
         <v>46064</v>
       </c>
       <c r="G314" s="5">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="H314" s="3" t="s">
         <v>47</v>
@@ -43769,16 +43868,16 @@
         <v>50</v>
       </c>
       <c r="L314" s="6">
-        <v>1814</v>
+        <v>1789</v>
       </c>
       <c r="M314" s="7">
-        <v>315363.90000000002</v>
+        <v>311017.65000000002</v>
       </c>
       <c r="N314" s="6">
         <v>1</v>
       </c>
       <c r="O314" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P314" s="8">
         <v>173.85</v>
@@ -43796,7 +43895,7 @@
         <v>52</v>
       </c>
       <c r="U314" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V314" s="11">
         <v>11</v>
@@ -43805,7 +43904,7 @@
         <v>46064</v>
       </c>
       <c r="X314" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y314" s="10">
         <v>0</v>
@@ -43876,10 +43975,10 @@
         <v>2</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E315" s="3" t="s">
         <v>46</v>
@@ -43888,7 +43987,7 @@
         <v>46064</v>
       </c>
       <c r="G315" s="5">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="H315" s="3" t="s">
         <v>47</v>
@@ -43903,16 +44002,16 @@
         <v>50</v>
       </c>
       <c r="L315" s="6">
-        <v>1815</v>
+        <v>1790</v>
       </c>
       <c r="M315" s="7">
-        <v>315537.75</v>
+        <v>311191.5</v>
       </c>
       <c r="N315" s="6">
         <v>1</v>
       </c>
       <c r="O315" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P315" s="8">
         <v>173.85</v>
@@ -43930,7 +44029,7 @@
         <v>52</v>
       </c>
       <c r="U315" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V315" s="11">
         <v>11</v>
@@ -43939,7 +44038,7 @@
         <v>46064</v>
       </c>
       <c r="X315" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y315" s="10">
         <v>0</v>
@@ -44010,10 +44109,10 @@
         <v>2</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E316" s="3" t="s">
         <v>46</v>
@@ -44022,7 +44121,7 @@
         <v>46064</v>
       </c>
       <c r="G316" s="5">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H316" s="3" t="s">
         <v>47</v>
@@ -44037,16 +44136,16 @@
         <v>50</v>
       </c>
       <c r="L316" s="6">
-        <v>1816</v>
+        <v>1791</v>
       </c>
       <c r="M316" s="7">
-        <v>315711.59999999998</v>
+        <v>311365.34999999998</v>
       </c>
       <c r="N316" s="6">
         <v>1</v>
       </c>
       <c r="O316" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P316" s="8">
         <v>173.85</v>
@@ -44064,7 +44163,7 @@
         <v>52</v>
       </c>
       <c r="U316" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V316" s="11">
         <v>11</v>
@@ -44073,7 +44172,7 @@
         <v>46064</v>
       </c>
       <c r="X316" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y316" s="10">
         <v>0</v>
@@ -44144,10 +44243,10 @@
         <v>2</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E317" s="3" t="s">
         <v>46</v>
@@ -44156,7 +44255,7 @@
         <v>46064</v>
       </c>
       <c r="G317" s="5">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H317" s="3" t="s">
         <v>47</v>
@@ -44171,16 +44270,16 @@
         <v>50</v>
       </c>
       <c r="L317" s="6">
-        <v>1817</v>
+        <v>1792</v>
       </c>
       <c r="M317" s="7">
-        <v>315885.45</v>
+        <v>311539.20000000001</v>
       </c>
       <c r="N317" s="6">
         <v>1</v>
       </c>
       <c r="O317" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P317" s="8">
         <v>173.85</v>
@@ -44198,7 +44297,7 @@
         <v>52</v>
       </c>
       <c r="U317" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V317" s="11">
         <v>11</v>
@@ -44207,7 +44306,7 @@
         <v>46064</v>
       </c>
       <c r="X317" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y317" s="10">
         <v>0</v>
@@ -44278,10 +44377,10 @@
         <v>2</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E318" s="3" t="s">
         <v>46</v>
@@ -44290,7 +44389,7 @@
         <v>46064</v>
       </c>
       <c r="G318" s="5">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H318" s="3" t="s">
         <v>47</v>
@@ -44305,16 +44404,16 @@
         <v>50</v>
       </c>
       <c r="L318" s="6">
-        <v>1818</v>
+        <v>1793</v>
       </c>
       <c r="M318" s="7">
-        <v>316059.3</v>
+        <v>311713.05</v>
       </c>
       <c r="N318" s="6">
         <v>1</v>
       </c>
       <c r="O318" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P318" s="8">
         <v>173.85</v>
@@ -44332,7 +44431,7 @@
         <v>52</v>
       </c>
       <c r="U318" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V318" s="11">
         <v>11</v>
@@ -44341,7 +44440,7 @@
         <v>46064</v>
       </c>
       <c r="X318" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.3569444</v>
       </c>
       <c r="Y318" s="10">
         <v>0</v>
@@ -44412,10 +44511,10 @@
         <v>2</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>46</v>
@@ -44424,7 +44523,7 @@
         <v>46064</v>
       </c>
       <c r="G319" s="5">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H319" s="3" t="s">
         <v>47</v>
@@ -44439,16 +44538,16 @@
         <v>50</v>
       </c>
       <c r="L319" s="6">
-        <v>1819</v>
+        <v>1794</v>
       </c>
       <c r="M319" s="7">
-        <v>316233.15000000002</v>
+        <v>311886.90000000002</v>
       </c>
       <c r="N319" s="6">
         <v>1</v>
       </c>
       <c r="O319" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P319" s="8">
         <v>173.85</v>
@@ -44466,7 +44565,7 @@
         <v>52</v>
       </c>
       <c r="U319" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V319" s="11">
         <v>11</v>
@@ -44475,7 +44574,7 @@
         <v>46064</v>
       </c>
       <c r="X319" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.3569444</v>
       </c>
       <c r="Y319" s="10">
         <v>0</v>
@@ -44546,10 +44645,10 @@
         <v>2</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>46</v>
@@ -44558,7 +44657,7 @@
         <v>46064</v>
       </c>
       <c r="G320" s="5">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H320" s="3" t="s">
         <v>47</v>
@@ -44573,16 +44672,16 @@
         <v>50</v>
       </c>
       <c r="L320" s="6">
-        <v>1820</v>
+        <v>1795</v>
       </c>
       <c r="M320" s="7">
-        <v>316407</v>
+        <v>312060.75</v>
       </c>
       <c r="N320" s="6">
         <v>1</v>
       </c>
       <c r="O320" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P320" s="8">
         <v>173.85</v>
@@ -44600,7 +44699,7 @@
         <v>52</v>
       </c>
       <c r="U320" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V320" s="11">
         <v>11</v>
@@ -44609,7 +44708,7 @@
         <v>46064</v>
       </c>
       <c r="X320" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.3569444</v>
       </c>
       <c r="Y320" s="10">
         <v>0</v>
@@ -44680,10 +44779,10 @@
         <v>2</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E321" s="3" t="s">
         <v>46</v>
@@ -44692,7 +44791,7 @@
         <v>46064</v>
       </c>
       <c r="G321" s="5">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H321" s="3" t="s">
         <v>47</v>
@@ -44707,16 +44806,16 @@
         <v>50</v>
       </c>
       <c r="L321" s="6">
-        <v>1821</v>
+        <v>1796</v>
       </c>
       <c r="M321" s="7">
-        <v>316580.84999999998</v>
+        <v>312234.59999999998</v>
       </c>
       <c r="N321" s="6">
         <v>1</v>
       </c>
       <c r="O321" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P321" s="8">
         <v>173.85</v>
@@ -44743,7 +44842,7 @@
         <v>46064</v>
       </c>
       <c r="X321" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y321" s="10">
         <v>0</v>
@@ -44814,10 +44913,10 @@
         <v>2</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E322" s="3" t="s">
         <v>46</v>
@@ -44826,7 +44925,7 @@
         <v>46064</v>
       </c>
       <c r="G322" s="5">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H322" s="3" t="s">
         <v>47</v>
@@ -44841,16 +44940,16 @@
         <v>50</v>
       </c>
       <c r="L322" s="6">
-        <v>1822</v>
+        <v>1797</v>
       </c>
       <c r="M322" s="7">
-        <v>316754.7</v>
+        <v>312408.45</v>
       </c>
       <c r="N322" s="6">
         <v>1</v>
       </c>
       <c r="O322" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P322" s="8">
         <v>173.85</v>
@@ -44877,7 +44976,7 @@
         <v>46064</v>
       </c>
       <c r="X322" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y322" s="10">
         <v>0</v>
@@ -44948,10 +45047,10 @@
         <v>2</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>46</v>
@@ -44960,7 +45059,7 @@
         <v>46064</v>
       </c>
       <c r="G323" s="5">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H323" s="3" t="s">
         <v>47</v>
@@ -44975,16 +45074,16 @@
         <v>50</v>
       </c>
       <c r="L323" s="6">
-        <v>1823</v>
+        <v>1798</v>
       </c>
       <c r="M323" s="7">
-        <v>316928.55</v>
+        <v>312582.3</v>
       </c>
       <c r="N323" s="6">
         <v>1</v>
       </c>
       <c r="O323" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P323" s="8">
         <v>173.85</v>
@@ -45011,7 +45110,7 @@
         <v>46064</v>
       </c>
       <c r="X323" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y323" s="10">
         <v>0</v>
@@ -45082,10 +45181,10 @@
         <v>2</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E324" s="3" t="s">
         <v>46</v>
@@ -45094,7 +45193,7 @@
         <v>46064</v>
       </c>
       <c r="G324" s="5">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H324" s="3" t="s">
         <v>47</v>
@@ -45109,16 +45208,16 @@
         <v>50</v>
       </c>
       <c r="L324" s="6">
-        <v>1824</v>
+        <v>1799</v>
       </c>
       <c r="M324" s="7">
-        <v>317102.40000000002</v>
+        <v>312756.15000000002</v>
       </c>
       <c r="N324" s="6">
         <v>1</v>
       </c>
       <c r="O324" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P324" s="8">
         <v>173.85</v>
@@ -45145,7 +45244,7 @@
         <v>46064</v>
       </c>
       <c r="X324" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y324" s="10">
         <v>0</v>
@@ -45216,10 +45315,10 @@
         <v>2</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>46</v>
@@ -45228,7 +45327,7 @@
         <v>46064</v>
       </c>
       <c r="G325" s="5">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="H325" s="3" t="s">
         <v>47</v>
@@ -45243,16 +45342,16 @@
         <v>50</v>
       </c>
       <c r="L325" s="6">
-        <v>1825</v>
+        <v>1800</v>
       </c>
       <c r="M325" s="7">
-        <v>317276.25</v>
+        <v>312930</v>
       </c>
       <c r="N325" s="6">
         <v>1</v>
       </c>
       <c r="O325" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P325" s="8">
         <v>173.85</v>
@@ -45279,7 +45378,7 @@
         <v>46064</v>
       </c>
       <c r="X325" s="12">
-        <v>0.44166670000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y325" s="10">
         <v>0</v>
@@ -45350,10 +45449,10 @@
         <v>2</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E326" s="3" t="s">
         <v>46</v>
@@ -45362,7 +45461,7 @@
         <v>46064</v>
       </c>
       <c r="G326" s="5">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="H326" s="3" t="s">
         <v>47</v>
@@ -45377,16 +45476,16 @@
         <v>50</v>
       </c>
       <c r="L326" s="6">
-        <v>1826</v>
+        <v>1801</v>
       </c>
       <c r="M326" s="7">
-        <v>317450.09999999998</v>
+        <v>313103.84999999998</v>
       </c>
       <c r="N326" s="6">
         <v>1</v>
       </c>
       <c r="O326" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P326" s="8">
         <v>173.85</v>
@@ -45413,7 +45512,7 @@
         <v>46064</v>
       </c>
       <c r="X326" s="12">
-        <v>0.44166670000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y326" s="10">
         <v>0</v>
@@ -45484,10 +45583,10 @@
         <v>2</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>46</v>
@@ -45496,7 +45595,7 @@
         <v>46064</v>
       </c>
       <c r="G327" s="5">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H327" s="3" t="s">
         <v>47</v>
@@ -45511,16 +45610,16 @@
         <v>50</v>
       </c>
       <c r="L327" s="6">
-        <v>1827</v>
+        <v>1802</v>
       </c>
       <c r="M327" s="7">
-        <v>317623.95</v>
+        <v>313277.7</v>
       </c>
       <c r="N327" s="6">
         <v>1</v>
       </c>
       <c r="O327" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P327" s="8">
         <v>173.85</v>
@@ -45547,7 +45646,7 @@
         <v>46064</v>
       </c>
       <c r="X327" s="12">
-        <v>0.44166670000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y327" s="10">
         <v>0</v>
@@ -45618,10 +45717,10 @@
         <v>2</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>46</v>
@@ -45630,7 +45729,7 @@
         <v>46064</v>
       </c>
       <c r="G328" s="5">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H328" s="3" t="s">
         <v>47</v>
@@ -45645,16 +45744,16 @@
         <v>50</v>
       </c>
       <c r="L328" s="6">
-        <v>1828</v>
+        <v>1803</v>
       </c>
       <c r="M328" s="7">
-        <v>317797.8</v>
+        <v>313451.55</v>
       </c>
       <c r="N328" s="6">
         <v>1</v>
       </c>
       <c r="O328" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P328" s="8">
         <v>173.85</v>
@@ -45681,7 +45780,7 @@
         <v>46064</v>
       </c>
       <c r="X328" s="12">
-        <v>0.44166670000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y328" s="10">
         <v>0</v>
@@ -45752,10 +45851,10 @@
         <v>2</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>46</v>
@@ -45764,7 +45863,7 @@
         <v>46064</v>
       </c>
       <c r="G329" s="5">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="H329" s="3" t="s">
         <v>47</v>
@@ -45779,16 +45878,16 @@
         <v>50</v>
       </c>
       <c r="L329" s="6">
-        <v>1829</v>
+        <v>1804</v>
       </c>
       <c r="M329" s="7">
-        <v>317971.65000000002</v>
+        <v>313625.40000000002</v>
       </c>
       <c r="N329" s="6">
         <v>1</v>
       </c>
       <c r="O329" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P329" s="8">
         <v>173.85</v>
@@ -45815,7 +45914,7 @@
         <v>46064</v>
       </c>
       <c r="X329" s="12">
-        <v>0.44166670000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y329" s="10">
         <v>0</v>
@@ -45886,10 +45985,10 @@
         <v>2</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>46</v>
@@ -45898,7 +45997,7 @@
         <v>46064</v>
       </c>
       <c r="G330" s="5">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H330" s="3" t="s">
         <v>47</v>
@@ -45913,16 +46012,16 @@
         <v>50</v>
       </c>
       <c r="L330" s="6">
-        <v>1830</v>
+        <v>1805</v>
       </c>
       <c r="M330" s="7">
-        <v>318145.5</v>
+        <v>313799.25</v>
       </c>
       <c r="N330" s="6">
         <v>1</v>
       </c>
       <c r="O330" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P330" s="8">
         <v>173.85</v>
@@ -45949,7 +46048,7 @@
         <v>46064</v>
       </c>
       <c r="X330" s="12">
-        <v>0.44166670000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y330" s="10">
         <v>0</v>
@@ -46020,10 +46119,10 @@
         <v>2</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E331" s="3" t="s">
         <v>46</v>
@@ -46032,7 +46131,7 @@
         <v>46064</v>
       </c>
       <c r="G331" s="5">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H331" s="3" t="s">
         <v>47</v>
@@ -46047,16 +46146,16 @@
         <v>50</v>
       </c>
       <c r="L331" s="6">
-        <v>1831</v>
+        <v>1806</v>
       </c>
       <c r="M331" s="7">
-        <v>318319.34999999998</v>
+        <v>313973.09999999998</v>
       </c>
       <c r="N331" s="6">
         <v>1</v>
       </c>
       <c r="O331" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P331" s="8">
         <v>173.85</v>
@@ -46083,7 +46182,7 @@
         <v>46064</v>
       </c>
       <c r="X331" s="12">
-        <v>0.46250000000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y331" s="10">
         <v>0</v>
@@ -46154,10 +46253,10 @@
         <v>2</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E332" s="3" t="s">
         <v>46</v>
@@ -46166,7 +46265,7 @@
         <v>46064</v>
       </c>
       <c r="G332" s="5">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H332" s="3" t="s">
         <v>47</v>
@@ -46181,16 +46280,16 @@
         <v>50</v>
       </c>
       <c r="L332" s="6">
-        <v>1832</v>
+        <v>1807</v>
       </c>
       <c r="M332" s="7">
-        <v>318493.2</v>
+        <v>314146.95</v>
       </c>
       <c r="N332" s="6">
         <v>1</v>
       </c>
       <c r="O332" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P332" s="8">
         <v>173.85</v>
@@ -46217,7 +46316,7 @@
         <v>46064</v>
       </c>
       <c r="X332" s="12">
-        <v>0.46250000000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y332" s="10">
         <v>0</v>
@@ -46288,10 +46387,10 @@
         <v>2</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>46</v>
@@ -46300,7 +46399,7 @@
         <v>46064</v>
       </c>
       <c r="G333" s="5">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H333" s="3" t="s">
         <v>47</v>
@@ -46315,16 +46414,16 @@
         <v>50</v>
       </c>
       <c r="L333" s="6">
-        <v>1833</v>
+        <v>1808</v>
       </c>
       <c r="M333" s="7">
-        <v>318667.05</v>
+        <v>314320.8</v>
       </c>
       <c r="N333" s="6">
         <v>1</v>
       </c>
       <c r="O333" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P333" s="8">
         <v>173.85</v>
@@ -46351,7 +46450,7 @@
         <v>46064</v>
       </c>
       <c r="X333" s="12">
-        <v>0.46250000000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y333" s="10">
         <v>0</v>
@@ -46422,10 +46521,10 @@
         <v>2</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>46</v>
@@ -46434,7 +46533,7 @@
         <v>46064</v>
       </c>
       <c r="G334" s="5">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H334" s="3" t="s">
         <v>47</v>
@@ -46449,16 +46548,16 @@
         <v>50</v>
       </c>
       <c r="L334" s="6">
-        <v>1834</v>
+        <v>1809</v>
       </c>
       <c r="M334" s="7">
-        <v>318840.90000000002</v>
+        <v>314494.65000000002</v>
       </c>
       <c r="N334" s="6">
         <v>1</v>
       </c>
       <c r="O334" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P334" s="8">
         <v>173.85</v>
@@ -46485,7 +46584,7 @@
         <v>46064</v>
       </c>
       <c r="X334" s="12">
-        <v>0.46250000000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y334" s="10">
         <v>0</v>
@@ -46556,10 +46655,10 @@
         <v>2</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>46</v>
@@ -46568,7 +46667,7 @@
         <v>46064</v>
       </c>
       <c r="G335" s="5">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H335" s="3" t="s">
         <v>47</v>
@@ -46583,16 +46682,16 @@
         <v>50</v>
       </c>
       <c r="L335" s="6">
-        <v>1835</v>
+        <v>1810</v>
       </c>
       <c r="M335" s="7">
-        <v>319014.75</v>
+        <v>314668.5</v>
       </c>
       <c r="N335" s="6">
         <v>1</v>
       </c>
       <c r="O335" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P335" s="8">
         <v>173.85</v>
@@ -46619,7 +46718,7 @@
         <v>46064</v>
       </c>
       <c r="X335" s="12">
-        <v>0.46250000000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y335" s="10">
         <v>0</v>
@@ -46690,10 +46789,10 @@
         <v>2</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>46</v>
@@ -46702,7 +46801,7 @@
         <v>46064</v>
       </c>
       <c r="G336" s="5">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H336" s="3" t="s">
         <v>47</v>
@@ -46717,16 +46816,16 @@
         <v>50</v>
       </c>
       <c r="L336" s="6">
-        <v>1836</v>
+        <v>1811</v>
       </c>
       <c r="M336" s="7">
-        <v>319188.59999999998</v>
+        <v>314842.34999999998</v>
       </c>
       <c r="N336" s="6">
         <v>1</v>
       </c>
       <c r="O336" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P336" s="8">
         <v>173.85</v>
@@ -46753,7 +46852,7 @@
         <v>46064</v>
       </c>
       <c r="X336" s="12">
-        <v>0.48333330000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y336" s="10">
         <v>0</v>
@@ -46824,10 +46923,10 @@
         <v>2</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>46</v>
@@ -46836,7 +46935,7 @@
         <v>46064</v>
       </c>
       <c r="G337" s="5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H337" s="3" t="s">
         <v>47</v>
@@ -46851,16 +46950,16 @@
         <v>50</v>
       </c>
       <c r="L337" s="6">
-        <v>1837</v>
+        <v>1812</v>
       </c>
       <c r="M337" s="7">
-        <v>319362.45</v>
+        <v>315016.2</v>
       </c>
       <c r="N337" s="6">
         <v>1</v>
       </c>
       <c r="O337" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P337" s="8">
         <v>173.85</v>
@@ -46887,7 +46986,7 @@
         <v>46064</v>
       </c>
       <c r="X337" s="12">
-        <v>0.48333330000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y337" s="10">
         <v>0</v>
@@ -46958,10 +47057,10 @@
         <v>2</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E338" s="3" t="s">
         <v>46</v>
@@ -46970,7 +47069,7 @@
         <v>46064</v>
       </c>
       <c r="G338" s="5">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H338" s="3" t="s">
         <v>47</v>
@@ -46985,16 +47084,16 @@
         <v>50</v>
       </c>
       <c r="L338" s="6">
-        <v>1838</v>
+        <v>1813</v>
       </c>
       <c r="M338" s="7">
-        <v>319536.3</v>
+        <v>315190.05</v>
       </c>
       <c r="N338" s="6">
         <v>1</v>
       </c>
       <c r="O338" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P338" s="8">
         <v>173.85</v>
@@ -47021,7 +47120,7 @@
         <v>46064</v>
       </c>
       <c r="X338" s="12">
-        <v>0.48333330000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y338" s="10">
         <v>0</v>
@@ -47092,10 +47191,10 @@
         <v>2</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E339" s="3" t="s">
         <v>46</v>
@@ -47104,7 +47203,7 @@
         <v>46064</v>
       </c>
       <c r="G339" s="5">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H339" s="3" t="s">
         <v>47</v>
@@ -47119,16 +47218,16 @@
         <v>50</v>
       </c>
       <c r="L339" s="6">
-        <v>1839</v>
+        <v>1814</v>
       </c>
       <c r="M339" s="7">
-        <v>319710.15000000002</v>
+        <v>315363.90000000002</v>
       </c>
       <c r="N339" s="6">
         <v>1</v>
       </c>
       <c r="O339" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P339" s="8">
         <v>173.85</v>
@@ -47155,7 +47254,7 @@
         <v>46064</v>
       </c>
       <c r="X339" s="12">
-        <v>0.48333330000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y339" s="10">
         <v>0</v>
@@ -47226,10 +47325,10 @@
         <v>2</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="E340" s="3" t="s">
         <v>46</v>
@@ -47238,7 +47337,7 @@
         <v>46064</v>
       </c>
       <c r="G340" s="5">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H340" s="3" t="s">
         <v>47</v>
@@ -47253,16 +47352,16 @@
         <v>50</v>
       </c>
       <c r="L340" s="6">
-        <v>1840</v>
+        <v>1815</v>
       </c>
       <c r="M340" s="7">
-        <v>319884</v>
+        <v>315537.75</v>
       </c>
       <c r="N340" s="6">
         <v>1</v>
       </c>
       <c r="O340" s="3" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P340" s="8">
         <v>173.85</v>
@@ -47289,7 +47388,7 @@
         <v>46064</v>
       </c>
       <c r="X340" s="12">
-        <v>0.48333330000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y340" s="10">
         <v>0</v>
@@ -47350,6 +47449,4428 @@
       </c>
       <c r="AR340" s="3" t="s">
         <v>396</v>
+      </c>
+    </row>
+    <row r="341" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>1</v>
+      </c>
+      <c r="B341" s="2">
+        <v>2</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F341" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G341" s="5">
+        <v>35</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K341" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L341" s="6">
+        <v>1816</v>
+      </c>
+      <c r="M341" s="7">
+        <v>315711.59999999998</v>
+      </c>
+      <c r="N341" s="6">
+        <v>1</v>
+      </c>
+      <c r="O341" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P341" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q341" s="6">
+        <v>0</v>
+      </c>
+      <c r="R341" s="7">
+        <v>0</v>
+      </c>
+      <c r="S341" s="9">
+        <v>0</v>
+      </c>
+      <c r="T341" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U341" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V341" s="11">
+        <v>11</v>
+      </c>
+      <c r="W341" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X341" s="12">
+        <v>0.3986111</v>
+      </c>
+      <c r="Y341" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z341" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA341" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB341" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC341" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD341" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE341" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG341" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI341" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ341" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK341" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL341" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM341" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR341" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="342" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>1</v>
+      </c>
+      <c r="B342" s="2">
+        <v>2</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F342" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G342" s="5">
+        <v>36</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J342" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K342" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L342" s="6">
+        <v>1817</v>
+      </c>
+      <c r="M342" s="7">
+        <v>315885.45</v>
+      </c>
+      <c r="N342" s="6">
+        <v>1</v>
+      </c>
+      <c r="O342" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P342" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q342" s="6">
+        <v>0</v>
+      </c>
+      <c r="R342" s="7">
+        <v>0</v>
+      </c>
+      <c r="S342" s="9">
+        <v>0</v>
+      </c>
+      <c r="T342" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U342" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V342" s="11">
+        <v>11</v>
+      </c>
+      <c r="W342" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X342" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y342" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z342" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA342" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB342" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC342" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD342" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE342" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG342" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI342" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ342" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK342" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL342" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM342" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR342" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="343" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>1</v>
+      </c>
+      <c r="B343" s="2">
+        <v>2</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F343" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G343" s="5">
+        <v>37</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J343" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K343" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L343" s="6">
+        <v>1818</v>
+      </c>
+      <c r="M343" s="7">
+        <v>316059.3</v>
+      </c>
+      <c r="N343" s="6">
+        <v>1</v>
+      </c>
+      <c r="O343" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P343" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q343" s="6">
+        <v>0</v>
+      </c>
+      <c r="R343" s="7">
+        <v>0</v>
+      </c>
+      <c r="S343" s="9">
+        <v>0</v>
+      </c>
+      <c r="T343" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U343" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V343" s="11">
+        <v>11</v>
+      </c>
+      <c r="W343" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X343" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y343" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z343" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA343" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB343" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC343" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD343" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE343" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF343" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG343" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH343" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI343" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ343" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK343" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL343" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM343" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN343" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO343" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP343" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ343" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR343" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="344" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>1</v>
+      </c>
+      <c r="B344" s="2">
+        <v>2</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F344" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G344" s="5">
+        <v>38</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J344" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K344" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L344" s="6">
+        <v>1819</v>
+      </c>
+      <c r="M344" s="7">
+        <v>316233.15000000002</v>
+      </c>
+      <c r="N344" s="6">
+        <v>1</v>
+      </c>
+      <c r="O344" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P344" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q344" s="6">
+        <v>0</v>
+      </c>
+      <c r="R344" s="7">
+        <v>0</v>
+      </c>
+      <c r="S344" s="9">
+        <v>0</v>
+      </c>
+      <c r="T344" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U344" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V344" s="11">
+        <v>11</v>
+      </c>
+      <c r="W344" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X344" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y344" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z344" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA344" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB344" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC344" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD344" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE344" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF344" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG344" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH344" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI344" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ344" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK344" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL344" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM344" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN344" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO344" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP344" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ344" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR344" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="345" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>1</v>
+      </c>
+      <c r="B345" s="2">
+        <v>2</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F345" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G345" s="5">
+        <v>39</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J345" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K345" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L345" s="6">
+        <v>1820</v>
+      </c>
+      <c r="M345" s="7">
+        <v>316407</v>
+      </c>
+      <c r="N345" s="6">
+        <v>1</v>
+      </c>
+      <c r="O345" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P345" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q345" s="6">
+        <v>0</v>
+      </c>
+      <c r="R345" s="7">
+        <v>0</v>
+      </c>
+      <c r="S345" s="9">
+        <v>0</v>
+      </c>
+      <c r="T345" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U345" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V345" s="11">
+        <v>11</v>
+      </c>
+      <c r="W345" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X345" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y345" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z345" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA345" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB345" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC345" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD345" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE345" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG345" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI345" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ345" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK345" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL345" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM345" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR345" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="346" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>1</v>
+      </c>
+      <c r="B346" s="2">
+        <v>2</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F346" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G346" s="5">
+        <v>40</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J346" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K346" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L346" s="6">
+        <v>1821</v>
+      </c>
+      <c r="M346" s="7">
+        <v>316580.84999999998</v>
+      </c>
+      <c r="N346" s="6">
+        <v>1</v>
+      </c>
+      <c r="O346" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P346" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q346" s="6">
+        <v>0</v>
+      </c>
+      <c r="R346" s="7">
+        <v>0</v>
+      </c>
+      <c r="S346" s="9">
+        <v>0</v>
+      </c>
+      <c r="T346" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U346" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V346" s="11">
+        <v>11</v>
+      </c>
+      <c r="W346" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X346" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y346" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z346" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA346" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB346" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC346" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD346" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE346" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF346" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG346" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH346" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI346" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ346" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK346" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL346" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM346" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN346" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO346" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP346" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ346" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR346" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="347" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>1</v>
+      </c>
+      <c r="B347" s="2">
+        <v>2</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F347" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G347" s="5">
+        <v>41</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J347" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K347" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L347" s="6">
+        <v>1822</v>
+      </c>
+      <c r="M347" s="7">
+        <v>316754.7</v>
+      </c>
+      <c r="N347" s="6">
+        <v>1</v>
+      </c>
+      <c r="O347" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P347" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q347" s="6">
+        <v>0</v>
+      </c>
+      <c r="R347" s="7">
+        <v>0</v>
+      </c>
+      <c r="S347" s="9">
+        <v>0</v>
+      </c>
+      <c r="T347" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U347" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V347" s="11">
+        <v>11</v>
+      </c>
+      <c r="W347" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X347" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y347" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z347" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA347" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB347" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC347" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD347" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE347" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF347" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG347" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH347" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI347" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ347" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK347" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL347" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM347" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN347" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO347" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP347" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ347" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR347" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="348" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>1</v>
+      </c>
+      <c r="B348" s="2">
+        <v>2</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F348" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G348" s="5">
+        <v>42</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I348" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J348" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K348" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L348" s="6">
+        <v>1823</v>
+      </c>
+      <c r="M348" s="7">
+        <v>316928.55</v>
+      </c>
+      <c r="N348" s="6">
+        <v>1</v>
+      </c>
+      <c r="O348" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P348" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q348" s="6">
+        <v>0</v>
+      </c>
+      <c r="R348" s="7">
+        <v>0</v>
+      </c>
+      <c r="S348" s="9">
+        <v>0</v>
+      </c>
+      <c r="T348" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U348" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V348" s="11">
+        <v>11</v>
+      </c>
+      <c r="W348" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X348" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y348" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z348" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA348" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB348" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC348" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD348" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE348" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG348" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI348" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ348" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK348" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL348" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM348" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR348" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="349" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>1</v>
+      </c>
+      <c r="B349" s="2">
+        <v>2</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F349" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G349" s="5">
+        <v>43</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I349" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K349" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L349" s="6">
+        <v>1824</v>
+      </c>
+      <c r="M349" s="7">
+        <v>317102.40000000002</v>
+      </c>
+      <c r="N349" s="6">
+        <v>1</v>
+      </c>
+      <c r="O349" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P349" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q349" s="6">
+        <v>0</v>
+      </c>
+      <c r="R349" s="7">
+        <v>0</v>
+      </c>
+      <c r="S349" s="9">
+        <v>0</v>
+      </c>
+      <c r="T349" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U349" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V349" s="11">
+        <v>11</v>
+      </c>
+      <c r="W349" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X349" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y349" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z349" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA349" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB349" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC349" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD349" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE349" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF349" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG349" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH349" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI349" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ349" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK349" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL349" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM349" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN349" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO349" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP349" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ349" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR349" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="350" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>1</v>
+      </c>
+      <c r="B350" s="2">
+        <v>2</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F350" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G350" s="5">
+        <v>44</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I350" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J350" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K350" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L350" s="6">
+        <v>1825</v>
+      </c>
+      <c r="M350" s="7">
+        <v>317276.25</v>
+      </c>
+      <c r="N350" s="6">
+        <v>1</v>
+      </c>
+      <c r="O350" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P350" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q350" s="6">
+        <v>0</v>
+      </c>
+      <c r="R350" s="7">
+        <v>0</v>
+      </c>
+      <c r="S350" s="9">
+        <v>0</v>
+      </c>
+      <c r="T350" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U350" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V350" s="11">
+        <v>11</v>
+      </c>
+      <c r="W350" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X350" s="12">
+        <v>0.44166670000000002</v>
+      </c>
+      <c r="Y350" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z350" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA350" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB350" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC350" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD350" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE350" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF350" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG350" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH350" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI350" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ350" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK350" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL350" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM350" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN350" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO350" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP350" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ350" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR350" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="351" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>1</v>
+      </c>
+      <c r="B351" s="2">
+        <v>2</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F351" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G351" s="5">
+        <v>45</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I351" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J351" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K351" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L351" s="6">
+        <v>1826</v>
+      </c>
+      <c r="M351" s="7">
+        <v>317450.09999999998</v>
+      </c>
+      <c r="N351" s="6">
+        <v>1</v>
+      </c>
+      <c r="O351" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P351" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q351" s="6">
+        <v>0</v>
+      </c>
+      <c r="R351" s="7">
+        <v>0</v>
+      </c>
+      <c r="S351" s="9">
+        <v>0</v>
+      </c>
+      <c r="T351" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U351" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V351" s="11">
+        <v>11</v>
+      </c>
+      <c r="W351" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X351" s="12">
+        <v>0.44166670000000002</v>
+      </c>
+      <c r="Y351" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z351" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA351" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB351" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC351" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD351" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE351" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG351" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI351" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ351" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK351" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL351" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM351" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR351" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="352" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>1</v>
+      </c>
+      <c r="B352" s="2">
+        <v>2</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F352" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G352" s="5">
+        <v>46</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I352" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K352" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L352" s="6">
+        <v>1827</v>
+      </c>
+      <c r="M352" s="7">
+        <v>317623.95</v>
+      </c>
+      <c r="N352" s="6">
+        <v>1</v>
+      </c>
+      <c r="O352" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P352" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q352" s="6">
+        <v>0</v>
+      </c>
+      <c r="R352" s="7">
+        <v>0</v>
+      </c>
+      <c r="S352" s="9">
+        <v>0</v>
+      </c>
+      <c r="T352" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U352" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V352" s="11">
+        <v>11</v>
+      </c>
+      <c r="W352" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X352" s="12">
+        <v>0.44166670000000002</v>
+      </c>
+      <c r="Y352" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z352" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA352" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB352" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC352" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD352" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE352" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF352" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG352" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH352" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI352" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ352" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK352" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL352" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM352" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN352" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO352" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP352" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ352" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR352" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="353" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>1</v>
+      </c>
+      <c r="B353" s="2">
+        <v>2</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F353" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G353" s="5">
+        <v>47</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I353" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J353" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K353" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L353" s="6">
+        <v>1828</v>
+      </c>
+      <c r="M353" s="7">
+        <v>317797.8</v>
+      </c>
+      <c r="N353" s="6">
+        <v>1</v>
+      </c>
+      <c r="O353" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P353" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q353" s="6">
+        <v>0</v>
+      </c>
+      <c r="R353" s="7">
+        <v>0</v>
+      </c>
+      <c r="S353" s="9">
+        <v>0</v>
+      </c>
+      <c r="T353" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U353" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V353" s="11">
+        <v>11</v>
+      </c>
+      <c r="W353" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X353" s="12">
+        <v>0.44166670000000002</v>
+      </c>
+      <c r="Y353" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z353" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA353" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB353" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC353" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD353" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE353" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF353" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG353" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH353" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI353" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ353" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK353" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL353" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM353" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN353" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO353" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP353" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ353" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR353" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="354" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>1</v>
+      </c>
+      <c r="B354" s="2">
+        <v>2</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F354" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G354" s="5">
+        <v>48</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I354" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J354" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K354" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L354" s="6">
+        <v>1829</v>
+      </c>
+      <c r="M354" s="7">
+        <v>317971.65000000002</v>
+      </c>
+      <c r="N354" s="6">
+        <v>1</v>
+      </c>
+      <c r="O354" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P354" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q354" s="6">
+        <v>0</v>
+      </c>
+      <c r="R354" s="7">
+        <v>0</v>
+      </c>
+      <c r="S354" s="9">
+        <v>0</v>
+      </c>
+      <c r="T354" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U354" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V354" s="11">
+        <v>11</v>
+      </c>
+      <c r="W354" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X354" s="12">
+        <v>0.44166670000000002</v>
+      </c>
+      <c r="Y354" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB354" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG354" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI354" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ354" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK354" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM354" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR354" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="355" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>1</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F355" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G355" s="5">
+        <v>49</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I355" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J355" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K355" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L355" s="6">
+        <v>1830</v>
+      </c>
+      <c r="M355" s="7">
+        <v>318145.5</v>
+      </c>
+      <c r="N355" s="6">
+        <v>1</v>
+      </c>
+      <c r="O355" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P355" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q355" s="6">
+        <v>0</v>
+      </c>
+      <c r="R355" s="7">
+        <v>0</v>
+      </c>
+      <c r="S355" s="9">
+        <v>0</v>
+      </c>
+      <c r="T355" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U355" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V355" s="11">
+        <v>11</v>
+      </c>
+      <c r="W355" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X355" s="12">
+        <v>0.44166670000000002</v>
+      </c>
+      <c r="Y355" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB355" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG355" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI355" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ355" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK355" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM355" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR355" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="356" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>1</v>
+      </c>
+      <c r="B356" s="2">
+        <v>2</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F356" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G356" s="5">
+        <v>50</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J356" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K356" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L356" s="6">
+        <v>1831</v>
+      </c>
+      <c r="M356" s="7">
+        <v>318319.34999999998</v>
+      </c>
+      <c r="N356" s="6">
+        <v>1</v>
+      </c>
+      <c r="O356" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P356" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q356" s="6">
+        <v>0</v>
+      </c>
+      <c r="R356" s="7">
+        <v>0</v>
+      </c>
+      <c r="S356" s="9">
+        <v>0</v>
+      </c>
+      <c r="T356" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U356" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V356" s="11">
+        <v>11</v>
+      </c>
+      <c r="W356" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X356" s="12">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Y356" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB356" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG356" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI356" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ356" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK356" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM356" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR356" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="357" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>1</v>
+      </c>
+      <c r="B357" s="2">
+        <v>2</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F357" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G357" s="5">
+        <v>51</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I357" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J357" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K357" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L357" s="6">
+        <v>1832</v>
+      </c>
+      <c r="M357" s="7">
+        <v>318493.2</v>
+      </c>
+      <c r="N357" s="6">
+        <v>1</v>
+      </c>
+      <c r="O357" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P357" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q357" s="6">
+        <v>0</v>
+      </c>
+      <c r="R357" s="7">
+        <v>0</v>
+      </c>
+      <c r="S357" s="9">
+        <v>0</v>
+      </c>
+      <c r="T357" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U357" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V357" s="11">
+        <v>11</v>
+      </c>
+      <c r="W357" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X357" s="12">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Y357" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB357" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG357" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI357" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ357" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK357" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM357" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR357" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="358" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>1</v>
+      </c>
+      <c r="B358" s="2">
+        <v>2</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F358" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G358" s="5">
+        <v>52</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I358" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J358" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K358" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L358" s="6">
+        <v>1833</v>
+      </c>
+      <c r="M358" s="7">
+        <v>318667.05</v>
+      </c>
+      <c r="N358" s="6">
+        <v>1</v>
+      </c>
+      <c r="O358" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P358" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q358" s="6">
+        <v>0</v>
+      </c>
+      <c r="R358" s="7">
+        <v>0</v>
+      </c>
+      <c r="S358" s="9">
+        <v>0</v>
+      </c>
+      <c r="T358" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U358" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V358" s="11">
+        <v>11</v>
+      </c>
+      <c r="W358" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X358" s="12">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Y358" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB358" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG358" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI358" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ358" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK358" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM358" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR358" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="359" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>1</v>
+      </c>
+      <c r="B359" s="2">
+        <v>2</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F359" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G359" s="5">
+        <v>53</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I359" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J359" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K359" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L359" s="6">
+        <v>1834</v>
+      </c>
+      <c r="M359" s="7">
+        <v>318840.90000000002</v>
+      </c>
+      <c r="N359" s="6">
+        <v>1</v>
+      </c>
+      <c r="O359" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P359" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q359" s="6">
+        <v>0</v>
+      </c>
+      <c r="R359" s="7">
+        <v>0</v>
+      </c>
+      <c r="S359" s="9">
+        <v>0</v>
+      </c>
+      <c r="T359" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U359" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V359" s="11">
+        <v>11</v>
+      </c>
+      <c r="W359" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X359" s="12">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Y359" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB359" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG359" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI359" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ359" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK359" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM359" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR359" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="360" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>1</v>
+      </c>
+      <c r="B360" s="2">
+        <v>2</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F360" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G360" s="5">
+        <v>54</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I360" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J360" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K360" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L360" s="6">
+        <v>1835</v>
+      </c>
+      <c r="M360" s="7">
+        <v>319014.75</v>
+      </c>
+      <c r="N360" s="6">
+        <v>1</v>
+      </c>
+      <c r="O360" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P360" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q360" s="6">
+        <v>0</v>
+      </c>
+      <c r="R360" s="7">
+        <v>0</v>
+      </c>
+      <c r="S360" s="9">
+        <v>0</v>
+      </c>
+      <c r="T360" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U360" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V360" s="11">
+        <v>11</v>
+      </c>
+      <c r="W360" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X360" s="12">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Y360" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB360" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG360" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI360" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ360" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK360" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM360" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR360" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="361" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>1</v>
+      </c>
+      <c r="B361" s="2">
+        <v>2</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F361" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G361" s="5">
+        <v>55</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I361" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J361" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K361" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L361" s="6">
+        <v>1836</v>
+      </c>
+      <c r="M361" s="7">
+        <v>319188.59999999998</v>
+      </c>
+      <c r="N361" s="6">
+        <v>1</v>
+      </c>
+      <c r="O361" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P361" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q361" s="6">
+        <v>0</v>
+      </c>
+      <c r="R361" s="7">
+        <v>0</v>
+      </c>
+      <c r="S361" s="9">
+        <v>0</v>
+      </c>
+      <c r="T361" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U361" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V361" s="11">
+        <v>11</v>
+      </c>
+      <c r="W361" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X361" s="12">
+        <v>0.48333330000000002</v>
+      </c>
+      <c r="Y361" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB361" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG361" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI361" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ361" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK361" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM361" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR361" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="362" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>1</v>
+      </c>
+      <c r="B362" s="2">
+        <v>2</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F362" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G362" s="5">
+        <v>56</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I362" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J362" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K362" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L362" s="6">
+        <v>1837</v>
+      </c>
+      <c r="M362" s="7">
+        <v>319362.45</v>
+      </c>
+      <c r="N362" s="6">
+        <v>1</v>
+      </c>
+      <c r="O362" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P362" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q362" s="6">
+        <v>0</v>
+      </c>
+      <c r="R362" s="7">
+        <v>0</v>
+      </c>
+      <c r="S362" s="9">
+        <v>0</v>
+      </c>
+      <c r="T362" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U362" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V362" s="11">
+        <v>11</v>
+      </c>
+      <c r="W362" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X362" s="12">
+        <v>0.48333330000000002</v>
+      </c>
+      <c r="Y362" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB362" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG362" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI362" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ362" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK362" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM362" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR362" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="363" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>1</v>
+      </c>
+      <c r="B363" s="2">
+        <v>2</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F363" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G363" s="5">
+        <v>57</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I363" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J363" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K363" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L363" s="6">
+        <v>1838</v>
+      </c>
+      <c r="M363" s="7">
+        <v>319536.3</v>
+      </c>
+      <c r="N363" s="6">
+        <v>1</v>
+      </c>
+      <c r="O363" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P363" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q363" s="6">
+        <v>0</v>
+      </c>
+      <c r="R363" s="7">
+        <v>0</v>
+      </c>
+      <c r="S363" s="9">
+        <v>0</v>
+      </c>
+      <c r="T363" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U363" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V363" s="11">
+        <v>11</v>
+      </c>
+      <c r="W363" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X363" s="12">
+        <v>0.48333330000000002</v>
+      </c>
+      <c r="Y363" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB363" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG363" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI363" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ363" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK363" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM363" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR363" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="364" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>1</v>
+      </c>
+      <c r="B364" s="2">
+        <v>2</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F364" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G364" s="5">
+        <v>58</v>
+      </c>
+      <c r="H364" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I364" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J364" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K364" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L364" s="6">
+        <v>1839</v>
+      </c>
+      <c r="M364" s="7">
+        <v>319710.15000000002</v>
+      </c>
+      <c r="N364" s="6">
+        <v>1</v>
+      </c>
+      <c r="O364" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P364" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q364" s="6">
+        <v>0</v>
+      </c>
+      <c r="R364" s="7">
+        <v>0</v>
+      </c>
+      <c r="S364" s="9">
+        <v>0</v>
+      </c>
+      <c r="T364" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U364" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V364" s="11">
+        <v>11</v>
+      </c>
+      <c r="W364" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X364" s="12">
+        <v>0.48333330000000002</v>
+      </c>
+      <c r="Y364" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB364" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG364" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI364" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ364" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK364" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM364" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR364" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="365" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>1</v>
+      </c>
+      <c r="B365" s="2">
+        <v>2</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F365" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G365" s="5">
+        <v>59</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I365" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J365" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K365" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L365" s="6">
+        <v>1840</v>
+      </c>
+      <c r="M365" s="7">
+        <v>319884</v>
+      </c>
+      <c r="N365" s="6">
+        <v>1</v>
+      </c>
+      <c r="O365" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P365" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q365" s="6">
+        <v>0</v>
+      </c>
+      <c r="R365" s="7">
+        <v>0</v>
+      </c>
+      <c r="S365" s="9">
+        <v>0</v>
+      </c>
+      <c r="T365" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U365" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V365" s="11">
+        <v>11</v>
+      </c>
+      <c r="W365" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X365" s="12">
+        <v>0.48333330000000002</v>
+      </c>
+      <c r="Y365" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB365" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG365" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI365" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ365" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK365" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM365" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR365" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="366" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>1</v>
+      </c>
+      <c r="B366" s="2">
+        <v>2</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F366" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G366" s="5">
+        <v>60</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I366" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J366" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K366" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L366" s="6">
+        <v>1841</v>
+      </c>
+      <c r="M366" s="7">
+        <v>320057.84999999998</v>
+      </c>
+      <c r="N366" s="6">
+        <v>1</v>
+      </c>
+      <c r="O366" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P366" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q366" s="6">
+        <v>0</v>
+      </c>
+      <c r="R366" s="7">
+        <v>0</v>
+      </c>
+      <c r="S366" s="9">
+        <v>0</v>
+      </c>
+      <c r="T366" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U366" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V366" s="11">
+        <v>11</v>
+      </c>
+      <c r="W366" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X366" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y366" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB366" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG366" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI366" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ366" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK366" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM366" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR366" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="367" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>1</v>
+      </c>
+      <c r="B367" s="2">
+        <v>2</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F367" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G367" s="5">
+        <v>61</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I367" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J367" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K367" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L367" s="6">
+        <v>1842</v>
+      </c>
+      <c r="M367" s="7">
+        <v>320231.7</v>
+      </c>
+      <c r="N367" s="6">
+        <v>1</v>
+      </c>
+      <c r="O367" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P367" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q367" s="6">
+        <v>0</v>
+      </c>
+      <c r="R367" s="7">
+        <v>0</v>
+      </c>
+      <c r="S367" s="9">
+        <v>0</v>
+      </c>
+      <c r="T367" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U367" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V367" s="11">
+        <v>11</v>
+      </c>
+      <c r="W367" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X367" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y367" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB367" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG367" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI367" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ367" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK367" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM367" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR367" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="368" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>1</v>
+      </c>
+      <c r="B368" s="2">
+        <v>2</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F368" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G368" s="5">
+        <v>62</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I368" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J368" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K368" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L368" s="6">
+        <v>1843</v>
+      </c>
+      <c r="M368" s="7">
+        <v>320405.55</v>
+      </c>
+      <c r="N368" s="6">
+        <v>1</v>
+      </c>
+      <c r="O368" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P368" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q368" s="6">
+        <v>0</v>
+      </c>
+      <c r="R368" s="7">
+        <v>0</v>
+      </c>
+      <c r="S368" s="9">
+        <v>0</v>
+      </c>
+      <c r="T368" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U368" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V368" s="11">
+        <v>11</v>
+      </c>
+      <c r="W368" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X368" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y368" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB368" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG368" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI368" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ368" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK368" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM368" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR368" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="369" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>1</v>
+      </c>
+      <c r="B369" s="2">
+        <v>2</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F369" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G369" s="5">
+        <v>63</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I369" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J369" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K369" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L369" s="6">
+        <v>1844</v>
+      </c>
+      <c r="M369" s="7">
+        <v>320579.40000000002</v>
+      </c>
+      <c r="N369" s="6">
+        <v>1</v>
+      </c>
+      <c r="O369" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P369" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q369" s="6">
+        <v>0</v>
+      </c>
+      <c r="R369" s="7">
+        <v>0</v>
+      </c>
+      <c r="S369" s="9">
+        <v>0</v>
+      </c>
+      <c r="T369" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U369" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V369" s="11">
+        <v>11</v>
+      </c>
+      <c r="W369" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X369" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y369" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB369" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG369" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI369" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ369" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK369" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM369" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR369" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="370" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>1</v>
+      </c>
+      <c r="B370" s="2">
+        <v>2</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F370" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G370" s="5">
+        <v>64</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I370" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J370" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K370" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L370" s="6">
+        <v>1845</v>
+      </c>
+      <c r="M370" s="7">
+        <v>320753.25</v>
+      </c>
+      <c r="N370" s="6">
+        <v>1</v>
+      </c>
+      <c r="O370" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P370" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q370" s="6">
+        <v>0</v>
+      </c>
+      <c r="R370" s="7">
+        <v>0</v>
+      </c>
+      <c r="S370" s="9">
+        <v>0</v>
+      </c>
+      <c r="T370" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U370" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V370" s="11">
+        <v>11</v>
+      </c>
+      <c r="W370" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X370" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y370" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB370" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG370" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI370" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ370" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK370" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM370" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR370" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="371" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>1</v>
+      </c>
+      <c r="B371" s="2">
+        <v>2</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F371" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G371" s="5">
+        <v>65</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I371" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J371" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K371" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L371" s="6">
+        <v>1846</v>
+      </c>
+      <c r="M371" s="7">
+        <v>320927.09999999998</v>
+      </c>
+      <c r="N371" s="6">
+        <v>1</v>
+      </c>
+      <c r="O371" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P371" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q371" s="6">
+        <v>0</v>
+      </c>
+      <c r="R371" s="7">
+        <v>0</v>
+      </c>
+      <c r="S371" s="9">
+        <v>0</v>
+      </c>
+      <c r="T371" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U371" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V371" s="11">
+        <v>11</v>
+      </c>
+      <c r="W371" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X371" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y371" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB371" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG371" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI371" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ371" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK371" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM371" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR371" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="372" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>1</v>
+      </c>
+      <c r="B372" s="2">
+        <v>2</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F372" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G372" s="5">
+        <v>66</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I372" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J372" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K372" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L372" s="6">
+        <v>1847</v>
+      </c>
+      <c r="M372" s="7">
+        <v>321100.95</v>
+      </c>
+      <c r="N372" s="6">
+        <v>1</v>
+      </c>
+      <c r="O372" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P372" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q372" s="6">
+        <v>0</v>
+      </c>
+      <c r="R372" s="7">
+        <v>0</v>
+      </c>
+      <c r="S372" s="9">
+        <v>0</v>
+      </c>
+      <c r="T372" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U372" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V372" s="11">
+        <v>11</v>
+      </c>
+      <c r="W372" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X372" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y372" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB372" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG372" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI372" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ372" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK372" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM372" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR372" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="373" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>1</v>
+      </c>
+      <c r="B373" s="2">
+        <v>2</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F373" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G373" s="5">
+        <v>67</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I373" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J373" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K373" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L373" s="6">
+        <v>1848</v>
+      </c>
+      <c r="M373" s="7">
+        <v>321274.8</v>
+      </c>
+      <c r="N373" s="6">
+        <v>1</v>
+      </c>
+      <c r="O373" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P373" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q373" s="6">
+        <v>0</v>
+      </c>
+      <c r="R373" s="7">
+        <v>0</v>
+      </c>
+      <c r="S373" s="9">
+        <v>0</v>
+      </c>
+      <c r="T373" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U373" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V373" s="11">
+        <v>11</v>
+      </c>
+      <c r="W373" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X373" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y373" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB373" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG373" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI373" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ373" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK373" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM373" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR373" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{678E7580-9738-4DC3-B0A9-E6797422AB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B39B4F48-B2E4-4CBD-941C-0E62D02BB5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B39B4F48-B2E4-4CBD-941C-0E62D02BB5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F9B1412-2072-4BCE-B2B9-5F27FC3E05A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F9B1412-2072-4BCE-B2B9-5F27FC3E05A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82CF785D-B0D5-41AE-9900-A186ACA43A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D81086A7-91BE-480C-B6D9-1F1E3C2135C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1856DAD-E71F-4B32-9F6D-D1F17B1D4F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1856DAD-E71F-4B32-9F6D-D1F17B1D4F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F56BD7-24F3-4339-8C74-8F7D832B60A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF38D85-50E2-4955-9F21-59466738DE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B21AEA2-A240-48A4-A6D1-1103326F2C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11492" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12068" uniqueCount="726">
   <si>
     <t>Sel</t>
   </si>
@@ -1891,6 +1891,102 @@
     <t>1858700133128</t>
   </si>
   <si>
+    <t>1858700133129</t>
+  </si>
+  <si>
+    <t>1858700133130</t>
+  </si>
+  <si>
+    <t>1858700133131</t>
+  </si>
+  <si>
+    <t>1858700133132</t>
+  </si>
+  <si>
+    <t>1858700133133</t>
+  </si>
+  <si>
+    <t>1858700133134</t>
+  </si>
+  <si>
+    <t>1858700133135</t>
+  </si>
+  <si>
+    <t>1858700133136</t>
+  </si>
+  <si>
+    <t>1858700133137</t>
+  </si>
+  <si>
+    <t>1858700133138</t>
+  </si>
+  <si>
+    <t>1858700133139</t>
+  </si>
+  <si>
+    <t>1858700133140</t>
+  </si>
+  <si>
+    <t>1858700133141</t>
+  </si>
+  <si>
+    <t>1858700133142</t>
+  </si>
+  <si>
+    <t>1858700133143</t>
+  </si>
+  <si>
+    <t>1858700133144</t>
+  </si>
+  <si>
+    <t>1858700133145</t>
+  </si>
+  <si>
+    <t>1858700133146</t>
+  </si>
+  <si>
+    <t>1858700133147</t>
+  </si>
+  <si>
+    <t>1858700133148</t>
+  </si>
+  <si>
+    <t>1858700133149</t>
+  </si>
+  <si>
+    <t>1858700133150</t>
+  </si>
+  <si>
+    <t>1858700133151</t>
+  </si>
+  <si>
+    <t>1858700133152</t>
+  </si>
+  <si>
+    <t>1858700133153</t>
+  </si>
+  <si>
+    <t>1858700133154</t>
+  </si>
+  <si>
+    <t>1858700133155</t>
+  </si>
+  <si>
+    <t>1858700133156</t>
+  </si>
+  <si>
+    <t>1858700133157</t>
+  </si>
+  <si>
+    <t>1858700133158</t>
+  </si>
+  <si>
+    <t>1858700133159</t>
+  </si>
+  <si>
+    <t>1858700133160</t>
+  </si>
+  <si>
     <t>10058029</t>
   </si>
   <si>
@@ -2677,7 +2773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR637"/>
+  <dimension ref="A1:AR669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -78937,10 +79033,10 @@
         <v>2</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>46</v>
@@ -78949,7 +79045,7 @@
         <v>46064</v>
       </c>
       <c r="G570" s="5">
-        <v>1</v>
+        <v>914</v>
       </c>
       <c r="H570" s="3" t="s">
         <v>47</v>
@@ -78964,19 +79060,19 @@
         <v>50</v>
       </c>
       <c r="L570" s="6">
-        <v>1782</v>
+        <v>5825</v>
       </c>
       <c r="M570" s="7">
-        <v>309800.7</v>
+        <v>1001665.74</v>
       </c>
       <c r="N570" s="6">
         <v>1</v>
       </c>
       <c r="O570" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P570" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q570" s="6">
         <v>0</v>
@@ -78991,7 +79087,7 @@
         <v>52</v>
       </c>
       <c r="U570" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V570" s="11">
         <v>11</v>
@@ -79000,7 +79096,7 @@
         <v>46064</v>
       </c>
       <c r="X570" s="12">
-        <v>0.3361111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y570" s="10">
         <v>0</v>
@@ -79060,7 +79156,7 @@
         <v>53</v>
       </c>
       <c r="AR570" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="571" spans="1:44" x14ac:dyDescent="0.3">
@@ -79071,10 +79167,10 @@
         <v>2</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E571" s="3" t="s">
         <v>46</v>
@@ -79083,7 +79179,7 @@
         <v>46064</v>
       </c>
       <c r="G571" s="5">
-        <v>2</v>
+        <v>915</v>
       </c>
       <c r="H571" s="3" t="s">
         <v>47</v>
@@ -79098,19 +79194,19 @@
         <v>50</v>
       </c>
       <c r="L571" s="6">
-        <v>1783</v>
+        <v>5826</v>
       </c>
       <c r="M571" s="7">
-        <v>309974.55</v>
+        <v>1001837.7</v>
       </c>
       <c r="N571" s="6">
         <v>1</v>
       </c>
       <c r="O571" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P571" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q571" s="6">
         <v>0</v>
@@ -79125,7 +79221,7 @@
         <v>52</v>
       </c>
       <c r="U571" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V571" s="11">
         <v>11</v>
@@ -79134,7 +79230,7 @@
         <v>46064</v>
       </c>
       <c r="X571" s="12">
-        <v>0.3361111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y571" s="10">
         <v>0</v>
@@ -79194,7 +79290,7 @@
         <v>53</v>
       </c>
       <c r="AR571" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="572" spans="1:44" x14ac:dyDescent="0.3">
@@ -79205,10 +79301,10 @@
         <v>2</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>46</v>
@@ -79217,7 +79313,7 @@
         <v>46064</v>
       </c>
       <c r="G572" s="5">
-        <v>3</v>
+        <v>916</v>
       </c>
       <c r="H572" s="3" t="s">
         <v>47</v>
@@ -79232,19 +79328,19 @@
         <v>50</v>
       </c>
       <c r="L572" s="6">
-        <v>1784</v>
+        <v>5827</v>
       </c>
       <c r="M572" s="7">
-        <v>310148.40000000002</v>
+        <v>1002009.66</v>
       </c>
       <c r="N572" s="6">
         <v>1</v>
       </c>
       <c r="O572" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P572" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q572" s="6">
         <v>0</v>
@@ -79259,7 +79355,7 @@
         <v>52</v>
       </c>
       <c r="U572" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V572" s="11">
         <v>11</v>
@@ -79268,7 +79364,7 @@
         <v>46064</v>
       </c>
       <c r="X572" s="12">
-        <v>0.3361111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y572" s="10">
         <v>0</v>
@@ -79328,7 +79424,7 @@
         <v>53</v>
       </c>
       <c r="AR572" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="573" spans="1:44" x14ac:dyDescent="0.3">
@@ -79339,10 +79435,10 @@
         <v>2</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E573" s="3" t="s">
         <v>46</v>
@@ -79351,7 +79447,7 @@
         <v>46064</v>
       </c>
       <c r="G573" s="5">
-        <v>4</v>
+        <v>917</v>
       </c>
       <c r="H573" s="3" t="s">
         <v>47</v>
@@ -79366,19 +79462,19 @@
         <v>50</v>
       </c>
       <c r="L573" s="6">
-        <v>1785</v>
+        <v>5828</v>
       </c>
       <c r="M573" s="7">
-        <v>310322.25</v>
+        <v>1002181.62</v>
       </c>
       <c r="N573" s="6">
         <v>1</v>
       </c>
       <c r="O573" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P573" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q573" s="6">
         <v>0</v>
@@ -79393,7 +79489,7 @@
         <v>52</v>
       </c>
       <c r="U573" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V573" s="11">
         <v>11</v>
@@ -79402,7 +79498,7 @@
         <v>46064</v>
       </c>
       <c r="X573" s="12">
-        <v>0.3361111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y573" s="10">
         <v>0</v>
@@ -79462,7 +79558,7 @@
         <v>53</v>
       </c>
       <c r="AR573" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="574" spans="1:44" x14ac:dyDescent="0.3">
@@ -79473,10 +79569,10 @@
         <v>2</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E574" s="3" t="s">
         <v>46</v>
@@ -79485,7 +79581,7 @@
         <v>46064</v>
       </c>
       <c r="G574" s="5">
-        <v>5</v>
+        <v>918</v>
       </c>
       <c r="H574" s="3" t="s">
         <v>47</v>
@@ -79500,19 +79596,19 @@
         <v>50</v>
       </c>
       <c r="L574" s="6">
-        <v>1786</v>
+        <v>5829</v>
       </c>
       <c r="M574" s="7">
-        <v>310496.09999999998</v>
+        <v>1002353.58</v>
       </c>
       <c r="N574" s="6">
         <v>1</v>
       </c>
       <c r="O574" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P574" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q574" s="6">
         <v>0</v>
@@ -79527,7 +79623,7 @@
         <v>52</v>
       </c>
       <c r="U574" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V574" s="11">
         <v>11</v>
@@ -79536,7 +79632,7 @@
         <v>46064</v>
       </c>
       <c r="X574" s="12">
-        <v>0.3361111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y574" s="10">
         <v>0</v>
@@ -79596,7 +79692,7 @@
         <v>53</v>
       </c>
       <c r="AR574" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="575" spans="1:44" x14ac:dyDescent="0.3">
@@ -79607,10 +79703,10 @@
         <v>2</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>46</v>
@@ -79619,7 +79715,7 @@
         <v>46064</v>
       </c>
       <c r="G575" s="5">
-        <v>6</v>
+        <v>919</v>
       </c>
       <c r="H575" s="3" t="s">
         <v>47</v>
@@ -79634,19 +79730,19 @@
         <v>50</v>
       </c>
       <c r="L575" s="6">
-        <v>1787</v>
+        <v>5830</v>
       </c>
       <c r="M575" s="7">
-        <v>310669.95</v>
+        <v>1002525.54</v>
       </c>
       <c r="N575" s="6">
         <v>1</v>
       </c>
       <c r="O575" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P575" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q575" s="6">
         <v>0</v>
@@ -79661,7 +79757,7 @@
         <v>52</v>
       </c>
       <c r="U575" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V575" s="11">
         <v>11</v>
@@ -79670,7 +79766,7 @@
         <v>46064</v>
       </c>
       <c r="X575" s="12">
-        <v>0.3361111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y575" s="10">
         <v>0</v>
@@ -79730,7 +79826,7 @@
         <v>53</v>
       </c>
       <c r="AR575" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="576" spans="1:44" x14ac:dyDescent="0.3">
@@ -79741,10 +79837,10 @@
         <v>2</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E576" s="3" t="s">
         <v>46</v>
@@ -79753,7 +79849,7 @@
         <v>46064</v>
       </c>
       <c r="G576" s="5">
-        <v>7</v>
+        <v>920</v>
       </c>
       <c r="H576" s="3" t="s">
         <v>47</v>
@@ -79768,19 +79864,19 @@
         <v>50</v>
       </c>
       <c r="L576" s="6">
-        <v>1788</v>
+        <v>5831</v>
       </c>
       <c r="M576" s="7">
-        <v>310843.8</v>
+        <v>1002697.5</v>
       </c>
       <c r="N576" s="6">
         <v>1</v>
       </c>
       <c r="O576" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P576" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q576" s="6">
         <v>0</v>
@@ -79795,7 +79891,7 @@
         <v>52</v>
       </c>
       <c r="U576" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V576" s="11">
         <v>11</v>
@@ -79804,7 +79900,7 @@
         <v>46064</v>
       </c>
       <c r="X576" s="12">
-        <v>0.3361111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y576" s="10">
         <v>0</v>
@@ -79864,7 +79960,7 @@
         <v>53</v>
       </c>
       <c r="AR576" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="577" spans="1:44" x14ac:dyDescent="0.3">
@@ -79875,10 +79971,10 @@
         <v>2</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>46</v>
@@ -79887,7 +79983,7 @@
         <v>46064</v>
       </c>
       <c r="G577" s="5">
-        <v>8</v>
+        <v>921</v>
       </c>
       <c r="H577" s="3" t="s">
         <v>47</v>
@@ -79902,19 +79998,19 @@
         <v>50</v>
       </c>
       <c r="L577" s="6">
-        <v>1789</v>
+        <v>5832</v>
       </c>
       <c r="M577" s="7">
-        <v>311017.65000000002</v>
+        <v>1002869.46</v>
       </c>
       <c r="N577" s="6">
         <v>1</v>
       </c>
       <c r="O577" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P577" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q577" s="6">
         <v>0</v>
@@ -79929,7 +80025,7 @@
         <v>52</v>
       </c>
       <c r="U577" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V577" s="11">
         <v>11</v>
@@ -79938,7 +80034,7 @@
         <v>46064</v>
       </c>
       <c r="X577" s="12">
-        <v>0.3361111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y577" s="10">
         <v>0</v>
@@ -79998,7 +80094,7 @@
         <v>53</v>
       </c>
       <c r="AR577" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="578" spans="1:44" x14ac:dyDescent="0.3">
@@ -80009,10 +80105,10 @@
         <v>2</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>46</v>
@@ -80021,7 +80117,7 @@
         <v>46064</v>
       </c>
       <c r="G578" s="5">
-        <v>9</v>
+        <v>922</v>
       </c>
       <c r="H578" s="3" t="s">
         <v>47</v>
@@ -80036,19 +80132,19 @@
         <v>50</v>
       </c>
       <c r="L578" s="6">
-        <v>1790</v>
+        <v>5833</v>
       </c>
       <c r="M578" s="7">
-        <v>311191.5</v>
+        <v>1003041.42</v>
       </c>
       <c r="N578" s="6">
         <v>1</v>
       </c>
       <c r="O578" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P578" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q578" s="6">
         <v>0</v>
@@ -80063,7 +80159,7 @@
         <v>52</v>
       </c>
       <c r="U578" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V578" s="11">
         <v>11</v>
@@ -80072,7 +80168,7 @@
         <v>46064</v>
       </c>
       <c r="X578" s="12">
-        <v>0.3361111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y578" s="10">
         <v>0</v>
@@ -80132,7 +80228,7 @@
         <v>53</v>
       </c>
       <c r="AR578" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="579" spans="1:44" x14ac:dyDescent="0.3">
@@ -80143,10 +80239,10 @@
         <v>2</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E579" s="3" t="s">
         <v>46</v>
@@ -80155,7 +80251,7 @@
         <v>46064</v>
       </c>
       <c r="G579" s="5">
-        <v>10</v>
+        <v>923</v>
       </c>
       <c r="H579" s="3" t="s">
         <v>47</v>
@@ -80170,19 +80266,19 @@
         <v>50</v>
       </c>
       <c r="L579" s="6">
-        <v>1791</v>
+        <v>5834</v>
       </c>
       <c r="M579" s="7">
-        <v>311365.34999999998</v>
+        <v>1003213.38</v>
       </c>
       <c r="N579" s="6">
         <v>1</v>
       </c>
       <c r="O579" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P579" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q579" s="6">
         <v>0</v>
@@ -80197,7 +80293,7 @@
         <v>52</v>
       </c>
       <c r="U579" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V579" s="11">
         <v>11</v>
@@ -80206,7 +80302,7 @@
         <v>46064</v>
       </c>
       <c r="X579" s="12">
-        <v>0.3361111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y579" s="10">
         <v>0</v>
@@ -80266,7 +80362,7 @@
         <v>53</v>
       </c>
       <c r="AR579" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="580" spans="1:44" x14ac:dyDescent="0.3">
@@ -80277,10 +80373,10 @@
         <v>2</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E580" s="3" t="s">
         <v>46</v>
@@ -80289,7 +80385,7 @@
         <v>46064</v>
       </c>
       <c r="G580" s="5">
-        <v>11</v>
+        <v>924</v>
       </c>
       <c r="H580" s="3" t="s">
         <v>47</v>
@@ -80304,19 +80400,19 @@
         <v>50</v>
       </c>
       <c r="L580" s="6">
-        <v>1792</v>
+        <v>5835</v>
       </c>
       <c r="M580" s="7">
-        <v>311539.20000000001</v>
+        <v>1003385.34</v>
       </c>
       <c r="N580" s="6">
         <v>1</v>
       </c>
       <c r="O580" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P580" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q580" s="6">
         <v>0</v>
@@ -80331,7 +80427,7 @@
         <v>52</v>
       </c>
       <c r="U580" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V580" s="11">
         <v>11</v>
@@ -80340,7 +80436,7 @@
         <v>46064</v>
       </c>
       <c r="X580" s="12">
-        <v>0.3361111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y580" s="10">
         <v>0</v>
@@ -80400,7 +80496,7 @@
         <v>53</v>
       </c>
       <c r="AR580" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="581" spans="1:44" x14ac:dyDescent="0.3">
@@ -80411,10 +80507,10 @@
         <v>2</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E581" s="3" t="s">
         <v>46</v>
@@ -80423,7 +80519,7 @@
         <v>46064</v>
       </c>
       <c r="G581" s="5">
-        <v>12</v>
+        <v>925</v>
       </c>
       <c r="H581" s="3" t="s">
         <v>47</v>
@@ -80438,19 +80534,19 @@
         <v>50</v>
       </c>
       <c r="L581" s="6">
-        <v>1793</v>
+        <v>5836</v>
       </c>
       <c r="M581" s="7">
-        <v>311713.05</v>
+        <v>1003557.3</v>
       </c>
       <c r="N581" s="6">
         <v>1</v>
       </c>
       <c r="O581" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P581" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q581" s="6">
         <v>0</v>
@@ -80465,7 +80561,7 @@
         <v>52</v>
       </c>
       <c r="U581" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V581" s="11">
         <v>11</v>
@@ -80474,7 +80570,7 @@
         <v>46064</v>
       </c>
       <c r="X581" s="12">
-        <v>0.3569444</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y581" s="10">
         <v>0</v>
@@ -80534,7 +80630,7 @@
         <v>53</v>
       </c>
       <c r="AR581" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="582" spans="1:44" x14ac:dyDescent="0.3">
@@ -80545,10 +80641,10 @@
         <v>2</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E582" s="3" t="s">
         <v>46</v>
@@ -80557,7 +80653,7 @@
         <v>46064</v>
       </c>
       <c r="G582" s="5">
-        <v>13</v>
+        <v>926</v>
       </c>
       <c r="H582" s="3" t="s">
         <v>47</v>
@@ -80572,19 +80668,19 @@
         <v>50</v>
       </c>
       <c r="L582" s="6">
-        <v>1794</v>
+        <v>5837</v>
       </c>
       <c r="M582" s="7">
-        <v>311886.90000000002</v>
+        <v>1003729.26</v>
       </c>
       <c r="N582" s="6">
         <v>1</v>
       </c>
       <c r="O582" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P582" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q582" s="6">
         <v>0</v>
@@ -80599,7 +80695,7 @@
         <v>52</v>
       </c>
       <c r="U582" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V582" s="11">
         <v>11</v>
@@ -80608,7 +80704,7 @@
         <v>46064</v>
       </c>
       <c r="X582" s="12">
-        <v>0.3569444</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y582" s="10">
         <v>0</v>
@@ -80668,7 +80764,7 @@
         <v>53</v>
       </c>
       <c r="AR582" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="583" spans="1:44" x14ac:dyDescent="0.3">
@@ -80679,10 +80775,10 @@
         <v>2</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>46</v>
@@ -80691,7 +80787,7 @@
         <v>46064</v>
       </c>
       <c r="G583" s="5">
-        <v>14</v>
+        <v>927</v>
       </c>
       <c r="H583" s="3" t="s">
         <v>47</v>
@@ -80706,19 +80802,19 @@
         <v>50</v>
       </c>
       <c r="L583" s="6">
-        <v>1795</v>
+        <v>5838</v>
       </c>
       <c r="M583" s="7">
-        <v>312060.75</v>
+        <v>1003901.22</v>
       </c>
       <c r="N583" s="6">
         <v>1</v>
       </c>
       <c r="O583" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P583" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q583" s="6">
         <v>0</v>
@@ -80733,7 +80829,7 @@
         <v>52</v>
       </c>
       <c r="U583" s="10">
-        <v>62386</v>
+        <v>62427</v>
       </c>
       <c r="V583" s="11">
         <v>11</v>
@@ -80742,7 +80838,7 @@
         <v>46064</v>
       </c>
       <c r="X583" s="12">
-        <v>0.3569444</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y583" s="10">
         <v>0</v>
@@ -80802,7 +80898,7 @@
         <v>53</v>
       </c>
       <c r="AR583" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="584" spans="1:44" x14ac:dyDescent="0.3">
@@ -80813,10 +80909,10 @@
         <v>2</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>46</v>
@@ -80825,7 +80921,7 @@
         <v>46064</v>
       </c>
       <c r="G584" s="5">
-        <v>15</v>
+        <v>928</v>
       </c>
       <c r="H584" s="3" t="s">
         <v>47</v>
@@ -80840,19 +80936,19 @@
         <v>50</v>
       </c>
       <c r="L584" s="6">
-        <v>1796</v>
+        <v>5839</v>
       </c>
       <c r="M584" s="7">
-        <v>312234.59999999998</v>
+        <v>1004073.18</v>
       </c>
       <c r="N584" s="6">
         <v>1</v>
       </c>
       <c r="O584" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P584" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q584" s="6">
         <v>0</v>
@@ -80867,7 +80963,7 @@
         <v>52</v>
       </c>
       <c r="U584" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V584" s="11">
         <v>11</v>
@@ -80876,7 +80972,7 @@
         <v>46064</v>
       </c>
       <c r="X584" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y584" s="10">
         <v>0</v>
@@ -80936,7 +81032,7 @@
         <v>53</v>
       </c>
       <c r="AR584" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="585" spans="1:44" x14ac:dyDescent="0.3">
@@ -80947,10 +81043,10 @@
         <v>2</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E585" s="3" t="s">
         <v>46</v>
@@ -80959,7 +81055,7 @@
         <v>46064</v>
       </c>
       <c r="G585" s="5">
-        <v>16</v>
+        <v>929</v>
       </c>
       <c r="H585" s="3" t="s">
         <v>47</v>
@@ -80974,19 +81070,19 @@
         <v>50</v>
       </c>
       <c r="L585" s="6">
-        <v>1797</v>
+        <v>5840</v>
       </c>
       <c r="M585" s="7">
-        <v>312408.45</v>
+        <v>1004245.14</v>
       </c>
       <c r="N585" s="6">
         <v>1</v>
       </c>
       <c r="O585" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P585" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q585" s="6">
         <v>0</v>
@@ -81001,7 +81097,7 @@
         <v>52</v>
       </c>
       <c r="U585" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V585" s="11">
         <v>11</v>
@@ -81010,7 +81106,7 @@
         <v>46064</v>
       </c>
       <c r="X585" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y585" s="10">
         <v>0</v>
@@ -81070,7 +81166,7 @@
         <v>53</v>
       </c>
       <c r="AR585" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="586" spans="1:44" x14ac:dyDescent="0.3">
@@ -81081,10 +81177,10 @@
         <v>2</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E586" s="3" t="s">
         <v>46</v>
@@ -81093,7 +81189,7 @@
         <v>46064</v>
       </c>
       <c r="G586" s="5">
-        <v>17</v>
+        <v>930</v>
       </c>
       <c r="H586" s="3" t="s">
         <v>47</v>
@@ -81108,19 +81204,19 @@
         <v>50</v>
       </c>
       <c r="L586" s="6">
-        <v>1798</v>
+        <v>5841</v>
       </c>
       <c r="M586" s="7">
-        <v>312582.3</v>
+        <v>1004417.1</v>
       </c>
       <c r="N586" s="6">
         <v>1</v>
       </c>
       <c r="O586" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P586" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q586" s="6">
         <v>0</v>
@@ -81135,7 +81231,7 @@
         <v>52</v>
       </c>
       <c r="U586" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V586" s="11">
         <v>11</v>
@@ -81144,7 +81240,7 @@
         <v>46064</v>
       </c>
       <c r="X586" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y586" s="10">
         <v>0</v>
@@ -81204,7 +81300,7 @@
         <v>53</v>
       </c>
       <c r="AR586" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="587" spans="1:44" x14ac:dyDescent="0.3">
@@ -81215,10 +81311,10 @@
         <v>2</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>46</v>
@@ -81227,7 +81323,7 @@
         <v>46064</v>
       </c>
       <c r="G587" s="5">
-        <v>18</v>
+        <v>931</v>
       </c>
       <c r="H587" s="3" t="s">
         <v>47</v>
@@ -81242,19 +81338,19 @@
         <v>50</v>
       </c>
       <c r="L587" s="6">
-        <v>1799</v>
+        <v>5842</v>
       </c>
       <c r="M587" s="7">
-        <v>312756.15000000002</v>
+        <v>1004589.06</v>
       </c>
       <c r="N587" s="6">
         <v>1</v>
       </c>
       <c r="O587" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P587" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q587" s="6">
         <v>0</v>
@@ -81269,7 +81365,7 @@
         <v>52</v>
       </c>
       <c r="U587" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V587" s="11">
         <v>11</v>
@@ -81278,7 +81374,7 @@
         <v>46064</v>
       </c>
       <c r="X587" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y587" s="10">
         <v>0</v>
@@ -81338,7 +81434,7 @@
         <v>53</v>
       </c>
       <c r="AR587" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="588" spans="1:44" x14ac:dyDescent="0.3">
@@ -81349,10 +81445,10 @@
         <v>2</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E588" s="3" t="s">
         <v>46</v>
@@ -81361,7 +81457,7 @@
         <v>46064</v>
       </c>
       <c r="G588" s="5">
-        <v>19</v>
+        <v>932</v>
       </c>
       <c r="H588" s="3" t="s">
         <v>47</v>
@@ -81376,19 +81472,19 @@
         <v>50</v>
       </c>
       <c r="L588" s="6">
-        <v>1800</v>
+        <v>5843</v>
       </c>
       <c r="M588" s="7">
-        <v>312930</v>
+        <v>1004761.02</v>
       </c>
       <c r="N588" s="6">
         <v>1</v>
       </c>
       <c r="O588" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P588" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q588" s="6">
         <v>0</v>
@@ -81403,7 +81499,7 @@
         <v>52</v>
       </c>
       <c r="U588" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V588" s="11">
         <v>11</v>
@@ -81412,7 +81508,7 @@
         <v>46064</v>
       </c>
       <c r="X588" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y588" s="10">
         <v>0</v>
@@ -81472,7 +81568,7 @@
         <v>53</v>
       </c>
       <c r="AR588" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="589" spans="1:44" x14ac:dyDescent="0.3">
@@ -81483,10 +81579,10 @@
         <v>2</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>46</v>
@@ -81495,7 +81591,7 @@
         <v>46064</v>
       </c>
       <c r="G589" s="5">
-        <v>20</v>
+        <v>933</v>
       </c>
       <c r="H589" s="3" t="s">
         <v>47</v>
@@ -81510,19 +81606,19 @@
         <v>50</v>
       </c>
       <c r="L589" s="6">
-        <v>1801</v>
+        <v>5844</v>
       </c>
       <c r="M589" s="7">
-        <v>313103.84999999998</v>
+        <v>1004932.98</v>
       </c>
       <c r="N589" s="6">
         <v>1</v>
       </c>
       <c r="O589" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P589" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q589" s="6">
         <v>0</v>
@@ -81537,7 +81633,7 @@
         <v>52</v>
       </c>
       <c r="U589" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V589" s="11">
         <v>11</v>
@@ -81546,7 +81642,7 @@
         <v>46064</v>
       </c>
       <c r="X589" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y589" s="10">
         <v>0</v>
@@ -81606,7 +81702,7 @@
         <v>53</v>
       </c>
       <c r="AR589" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="590" spans="1:44" x14ac:dyDescent="0.3">
@@ -81617,10 +81713,10 @@
         <v>2</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>46</v>
@@ -81629,7 +81725,7 @@
         <v>46064</v>
       </c>
       <c r="G590" s="5">
-        <v>21</v>
+        <v>934</v>
       </c>
       <c r="H590" s="3" t="s">
         <v>47</v>
@@ -81644,19 +81740,19 @@
         <v>50</v>
       </c>
       <c r="L590" s="6">
-        <v>1802</v>
+        <v>5845</v>
       </c>
       <c r="M590" s="7">
-        <v>313277.7</v>
+        <v>1005104.94</v>
       </c>
       <c r="N590" s="6">
         <v>1</v>
       </c>
       <c r="O590" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P590" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q590" s="6">
         <v>0</v>
@@ -81671,7 +81767,7 @@
         <v>52</v>
       </c>
       <c r="U590" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V590" s="11">
         <v>11</v>
@@ -81680,7 +81776,7 @@
         <v>46064</v>
       </c>
       <c r="X590" s="12">
-        <v>0.35902780000000001</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y590" s="10">
         <v>0</v>
@@ -81740,7 +81836,7 @@
         <v>53</v>
       </c>
       <c r="AR590" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="591" spans="1:44" x14ac:dyDescent="0.3">
@@ -81751,10 +81847,10 @@
         <v>2</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>46</v>
@@ -81763,7 +81859,7 @@
         <v>46064</v>
       </c>
       <c r="G591" s="5">
-        <v>22</v>
+        <v>935</v>
       </c>
       <c r="H591" s="3" t="s">
         <v>47</v>
@@ -81778,19 +81874,19 @@
         <v>50</v>
       </c>
       <c r="L591" s="6">
-        <v>1803</v>
+        <v>5846</v>
       </c>
       <c r="M591" s="7">
-        <v>313451.55</v>
+        <v>1005276.9</v>
       </c>
       <c r="N591" s="6">
         <v>1</v>
       </c>
       <c r="O591" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P591" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q591" s="6">
         <v>0</v>
@@ -81805,7 +81901,7 @@
         <v>52</v>
       </c>
       <c r="U591" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V591" s="11">
         <v>11</v>
@@ -81814,7 +81910,7 @@
         <v>46064</v>
       </c>
       <c r="X591" s="12">
-        <v>0.3986111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y591" s="10">
         <v>0</v>
@@ -81874,7 +81970,7 @@
         <v>53</v>
       </c>
       <c r="AR591" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="592" spans="1:44" x14ac:dyDescent="0.3">
@@ -81885,10 +81981,10 @@
         <v>2</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E592" s="3" t="s">
         <v>46</v>
@@ -81897,7 +81993,7 @@
         <v>46064</v>
       </c>
       <c r="G592" s="5">
-        <v>23</v>
+        <v>936</v>
       </c>
       <c r="H592" s="3" t="s">
         <v>47</v>
@@ -81912,19 +82008,19 @@
         <v>50</v>
       </c>
       <c r="L592" s="6">
-        <v>1804</v>
+        <v>5847</v>
       </c>
       <c r="M592" s="7">
-        <v>313625.40000000002</v>
+        <v>1005448.86</v>
       </c>
       <c r="N592" s="6">
         <v>1</v>
       </c>
       <c r="O592" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P592" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q592" s="6">
         <v>0</v>
@@ -81939,7 +82035,7 @@
         <v>52</v>
       </c>
       <c r="U592" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V592" s="11">
         <v>11</v>
@@ -81948,7 +82044,7 @@
         <v>46064</v>
       </c>
       <c r="X592" s="12">
-        <v>0.3986111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y592" s="10">
         <v>0</v>
@@ -82008,7 +82104,7 @@
         <v>53</v>
       </c>
       <c r="AR592" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="593" spans="1:44" x14ac:dyDescent="0.3">
@@ -82019,10 +82115,10 @@
         <v>2</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E593" s="3" t="s">
         <v>46</v>
@@ -82031,7 +82127,7 @@
         <v>46064</v>
       </c>
       <c r="G593" s="5">
-        <v>24</v>
+        <v>937</v>
       </c>
       <c r="H593" s="3" t="s">
         <v>47</v>
@@ -82046,19 +82142,19 @@
         <v>50</v>
       </c>
       <c r="L593" s="6">
-        <v>1805</v>
+        <v>5848</v>
       </c>
       <c r="M593" s="7">
-        <v>313799.25</v>
+        <v>1005620.82</v>
       </c>
       <c r="N593" s="6">
         <v>1</v>
       </c>
       <c r="O593" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P593" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q593" s="6">
         <v>0</v>
@@ -82073,7 +82169,7 @@
         <v>52</v>
       </c>
       <c r="U593" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V593" s="11">
         <v>11</v>
@@ -82082,7 +82178,7 @@
         <v>46064</v>
       </c>
       <c r="X593" s="12">
-        <v>0.3986111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y593" s="10">
         <v>0</v>
@@ -82142,7 +82238,7 @@
         <v>53</v>
       </c>
       <c r="AR593" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="594" spans="1:44" x14ac:dyDescent="0.3">
@@ -82153,10 +82249,10 @@
         <v>2</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E594" s="3" t="s">
         <v>46</v>
@@ -82165,7 +82261,7 @@
         <v>46064</v>
       </c>
       <c r="G594" s="5">
-        <v>25</v>
+        <v>938</v>
       </c>
       <c r="H594" s="3" t="s">
         <v>47</v>
@@ -82180,19 +82276,19 @@
         <v>50</v>
       </c>
       <c r="L594" s="6">
-        <v>1806</v>
+        <v>5849</v>
       </c>
       <c r="M594" s="7">
-        <v>313973.09999999998</v>
+        <v>1005792.78</v>
       </c>
       <c r="N594" s="6">
         <v>1</v>
       </c>
       <c r="O594" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P594" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q594" s="6">
         <v>0</v>
@@ -82207,7 +82303,7 @@
         <v>52</v>
       </c>
       <c r="U594" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V594" s="11">
         <v>11</v>
@@ -82216,7 +82312,7 @@
         <v>46064</v>
       </c>
       <c r="X594" s="12">
-        <v>0.3986111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y594" s="10">
         <v>0</v>
@@ -82276,7 +82372,7 @@
         <v>53</v>
       </c>
       <c r="AR594" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="595" spans="1:44" x14ac:dyDescent="0.3">
@@ -82287,10 +82383,10 @@
         <v>2</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E595" s="3" t="s">
         <v>46</v>
@@ -82299,7 +82395,7 @@
         <v>46064</v>
       </c>
       <c r="G595" s="5">
-        <v>26</v>
+        <v>939</v>
       </c>
       <c r="H595" s="3" t="s">
         <v>47</v>
@@ -82314,19 +82410,19 @@
         <v>50</v>
       </c>
       <c r="L595" s="6">
-        <v>1807</v>
+        <v>5850</v>
       </c>
       <c r="M595" s="7">
-        <v>314146.95</v>
+        <v>1005964.74</v>
       </c>
       <c r="N595" s="6">
         <v>1</v>
       </c>
       <c r="O595" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P595" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q595" s="6">
         <v>0</v>
@@ -82341,7 +82437,7 @@
         <v>52</v>
       </c>
       <c r="U595" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V595" s="11">
         <v>11</v>
@@ -82350,7 +82446,7 @@
         <v>46064</v>
       </c>
       <c r="X595" s="12">
-        <v>0.3986111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y595" s="10">
         <v>0</v>
@@ -82410,7 +82506,7 @@
         <v>53</v>
       </c>
       <c r="AR595" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="596" spans="1:44" x14ac:dyDescent="0.3">
@@ -82421,10 +82517,10 @@
         <v>2</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>46</v>
@@ -82433,7 +82529,7 @@
         <v>46064</v>
       </c>
       <c r="G596" s="5">
-        <v>27</v>
+        <v>940</v>
       </c>
       <c r="H596" s="3" t="s">
         <v>47</v>
@@ -82448,19 +82544,19 @@
         <v>50</v>
       </c>
       <c r="L596" s="6">
-        <v>1808</v>
+        <v>5851</v>
       </c>
       <c r="M596" s="7">
-        <v>314320.8</v>
+        <v>1006136.7</v>
       </c>
       <c r="N596" s="6">
         <v>1</v>
       </c>
       <c r="O596" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P596" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q596" s="6">
         <v>0</v>
@@ -82475,7 +82571,7 @@
         <v>52</v>
       </c>
       <c r="U596" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V596" s="11">
         <v>11</v>
@@ -82484,7 +82580,7 @@
         <v>46064</v>
       </c>
       <c r="X596" s="12">
-        <v>0.3986111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y596" s="10">
         <v>0</v>
@@ -82544,7 +82640,7 @@
         <v>53</v>
       </c>
       <c r="AR596" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="597" spans="1:44" x14ac:dyDescent="0.3">
@@ -82555,10 +82651,10 @@
         <v>2</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E597" s="3" t="s">
         <v>46</v>
@@ -82567,7 +82663,7 @@
         <v>46064</v>
       </c>
       <c r="G597" s="5">
-        <v>28</v>
+        <v>941</v>
       </c>
       <c r="H597" s="3" t="s">
         <v>47</v>
@@ -82582,19 +82678,19 @@
         <v>50</v>
       </c>
       <c r="L597" s="6">
-        <v>1809</v>
+        <v>5852</v>
       </c>
       <c r="M597" s="7">
-        <v>314494.65000000002</v>
+        <v>1006308.66</v>
       </c>
       <c r="N597" s="6">
         <v>1</v>
       </c>
       <c r="O597" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P597" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q597" s="6">
         <v>0</v>
@@ -82609,7 +82705,7 @@
         <v>52</v>
       </c>
       <c r="U597" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V597" s="11">
         <v>11</v>
@@ -82618,7 +82714,7 @@
         <v>46064</v>
       </c>
       <c r="X597" s="12">
-        <v>0.3986111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y597" s="10">
         <v>0</v>
@@ -82678,7 +82774,7 @@
         <v>53</v>
       </c>
       <c r="AR597" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="598" spans="1:44" x14ac:dyDescent="0.3">
@@ -82689,10 +82785,10 @@
         <v>2</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E598" s="3" t="s">
         <v>46</v>
@@ -82701,7 +82797,7 @@
         <v>46064</v>
       </c>
       <c r="G598" s="5">
-        <v>29</v>
+        <v>942</v>
       </c>
       <c r="H598" s="3" t="s">
         <v>47</v>
@@ -82716,19 +82812,19 @@
         <v>50</v>
       </c>
       <c r="L598" s="6">
-        <v>1810</v>
+        <v>5853</v>
       </c>
       <c r="M598" s="7">
-        <v>314668.5</v>
+        <v>1006480.62</v>
       </c>
       <c r="N598" s="6">
         <v>1</v>
       </c>
       <c r="O598" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P598" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q598" s="6">
         <v>0</v>
@@ -82743,7 +82839,7 @@
         <v>52</v>
       </c>
       <c r="U598" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V598" s="11">
         <v>11</v>
@@ -82752,7 +82848,7 @@
         <v>46064</v>
       </c>
       <c r="X598" s="12">
-        <v>0.3986111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y598" s="10">
         <v>0</v>
@@ -82812,7 +82908,7 @@
         <v>53</v>
       </c>
       <c r="AR598" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="599" spans="1:44" x14ac:dyDescent="0.3">
@@ -82823,10 +82919,10 @@
         <v>2</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>46</v>
@@ -82835,7 +82931,7 @@
         <v>46064</v>
       </c>
       <c r="G599" s="5">
-        <v>30</v>
+        <v>943</v>
       </c>
       <c r="H599" s="3" t="s">
         <v>47</v>
@@ -82850,19 +82946,19 @@
         <v>50</v>
       </c>
       <c r="L599" s="6">
-        <v>1811</v>
+        <v>5854</v>
       </c>
       <c r="M599" s="7">
-        <v>314842.34999999998</v>
+        <v>1006652.58</v>
       </c>
       <c r="N599" s="6">
         <v>1</v>
       </c>
       <c r="O599" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P599" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q599" s="6">
         <v>0</v>
@@ -82877,7 +82973,7 @@
         <v>52</v>
       </c>
       <c r="U599" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V599" s="11">
         <v>11</v>
@@ -82886,7 +82982,7 @@
         <v>46064</v>
       </c>
       <c r="X599" s="12">
-        <v>0.3986111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y599" s="10">
         <v>0</v>
@@ -82946,7 +83042,7 @@
         <v>53</v>
       </c>
       <c r="AR599" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="600" spans="1:44" x14ac:dyDescent="0.3">
@@ -82957,10 +83053,10 @@
         <v>2</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E600" s="3" t="s">
         <v>46</v>
@@ -82969,7 +83065,7 @@
         <v>46064</v>
       </c>
       <c r="G600" s="5">
-        <v>31</v>
+        <v>944</v>
       </c>
       <c r="H600" s="3" t="s">
         <v>47</v>
@@ -82984,19 +83080,19 @@
         <v>50</v>
       </c>
       <c r="L600" s="6">
-        <v>1812</v>
+        <v>5855</v>
       </c>
       <c r="M600" s="7">
-        <v>315016.2</v>
+        <v>1006824.54</v>
       </c>
       <c r="N600" s="6">
         <v>1</v>
       </c>
       <c r="O600" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P600" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q600" s="6">
         <v>0</v>
@@ -83011,7 +83107,7 @@
         <v>52</v>
       </c>
       <c r="U600" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V600" s="11">
         <v>11</v>
@@ -83020,7 +83116,7 @@
         <v>46064</v>
       </c>
       <c r="X600" s="12">
-        <v>0.3986111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y600" s="10">
         <v>0</v>
@@ -83080,7 +83176,7 @@
         <v>53</v>
       </c>
       <c r="AR600" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="601" spans="1:44" x14ac:dyDescent="0.3">
@@ -83091,10 +83187,10 @@
         <v>2</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>624</v>
+        <v>45</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>46</v>
@@ -83103,7 +83199,7 @@
         <v>46064</v>
       </c>
       <c r="G601" s="5">
-        <v>32</v>
+        <v>945</v>
       </c>
       <c r="H601" s="3" t="s">
         <v>47</v>
@@ -83118,19 +83214,19 @@
         <v>50</v>
       </c>
       <c r="L601" s="6">
-        <v>1813</v>
+        <v>5856</v>
       </c>
       <c r="M601" s="7">
-        <v>315190.05</v>
+        <v>1006996.5</v>
       </c>
       <c r="N601" s="6">
         <v>1</v>
       </c>
       <c r="O601" s="3" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="P601" s="8">
-        <v>173.85</v>
+        <v>171.96</v>
       </c>
       <c r="Q601" s="6">
         <v>0</v>
@@ -83145,7 +83241,7 @@
         <v>52</v>
       </c>
       <c r="U601" s="10">
-        <v>62418</v>
+        <v>62427</v>
       </c>
       <c r="V601" s="11">
         <v>11</v>
@@ -83154,7 +83250,7 @@
         <v>46064</v>
       </c>
       <c r="X601" s="12">
-        <v>0.3986111</v>
+        <v>0.71388890000000005</v>
       </c>
       <c r="Y601" s="10">
         <v>0</v>
@@ -83214,7 +83310,7 @@
         <v>53</v>
       </c>
       <c r="AR601" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="602" spans="1:44" x14ac:dyDescent="0.3">
@@ -83225,10 +83321,10 @@
         <v>2</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E602" s="3" t="s">
         <v>46</v>
@@ -83237,7 +83333,7 @@
         <v>46064</v>
       </c>
       <c r="G602" s="5">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="H602" s="3" t="s">
         <v>47</v>
@@ -83252,16 +83348,16 @@
         <v>50</v>
       </c>
       <c r="L602" s="6">
-        <v>1814</v>
+        <v>1782</v>
       </c>
       <c r="M602" s="7">
-        <v>315363.90000000002</v>
+        <v>309800.7</v>
       </c>
       <c r="N602" s="6">
         <v>1</v>
       </c>
       <c r="O602" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P602" s="8">
         <v>173.85</v>
@@ -83279,7 +83375,7 @@
         <v>52</v>
       </c>
       <c r="U602" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V602" s="11">
         <v>11</v>
@@ -83288,7 +83384,7 @@
         <v>46064</v>
       </c>
       <c r="X602" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y602" s="10">
         <v>0</v>
@@ -83359,10 +83455,10 @@
         <v>2</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D603" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E603" s="3" t="s">
         <v>46</v>
@@ -83371,7 +83467,7 @@
         <v>46064</v>
       </c>
       <c r="G603" s="5">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="H603" s="3" t="s">
         <v>47</v>
@@ -83386,16 +83482,16 @@
         <v>50</v>
       </c>
       <c r="L603" s="6">
-        <v>1815</v>
+        <v>1783</v>
       </c>
       <c r="M603" s="7">
-        <v>315537.75</v>
+        <v>309974.55</v>
       </c>
       <c r="N603" s="6">
         <v>1</v>
       </c>
       <c r="O603" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P603" s="8">
         <v>173.85</v>
@@ -83413,7 +83509,7 @@
         <v>52</v>
       </c>
       <c r="U603" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V603" s="11">
         <v>11</v>
@@ -83422,7 +83518,7 @@
         <v>46064</v>
       </c>
       <c r="X603" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y603" s="10">
         <v>0</v>
@@ -83493,10 +83589,10 @@
         <v>2</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E604" s="3" t="s">
         <v>46</v>
@@ -83505,7 +83601,7 @@
         <v>46064</v>
       </c>
       <c r="G604" s="5">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="H604" s="3" t="s">
         <v>47</v>
@@ -83520,16 +83616,16 @@
         <v>50</v>
       </c>
       <c r="L604" s="6">
-        <v>1816</v>
+        <v>1784</v>
       </c>
       <c r="M604" s="7">
-        <v>315711.59999999998</v>
+        <v>310148.40000000002</v>
       </c>
       <c r="N604" s="6">
         <v>1</v>
       </c>
       <c r="O604" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P604" s="8">
         <v>173.85</v>
@@ -83547,7 +83643,7 @@
         <v>52</v>
       </c>
       <c r="U604" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V604" s="11">
         <v>11</v>
@@ -83556,7 +83652,7 @@
         <v>46064</v>
       </c>
       <c r="X604" s="12">
-        <v>0.3986111</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y604" s="10">
         <v>0</v>
@@ -83627,10 +83723,10 @@
         <v>2</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E605" s="3" t="s">
         <v>46</v>
@@ -83639,7 +83735,7 @@
         <v>46064</v>
       </c>
       <c r="G605" s="5">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H605" s="3" t="s">
         <v>47</v>
@@ -83654,16 +83750,16 @@
         <v>50</v>
       </c>
       <c r="L605" s="6">
-        <v>1817</v>
+        <v>1785</v>
       </c>
       <c r="M605" s="7">
-        <v>315885.45</v>
+        <v>310322.25</v>
       </c>
       <c r="N605" s="6">
         <v>1</v>
       </c>
       <c r="O605" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P605" s="8">
         <v>173.85</v>
@@ -83681,7 +83777,7 @@
         <v>52</v>
       </c>
       <c r="U605" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V605" s="11">
         <v>11</v>
@@ -83690,7 +83786,7 @@
         <v>46064</v>
       </c>
       <c r="X605" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y605" s="10">
         <v>0</v>
@@ -83761,10 +83857,10 @@
         <v>2</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E606" s="3" t="s">
         <v>46</v>
@@ -83773,7 +83869,7 @@
         <v>46064</v>
       </c>
       <c r="G606" s="5">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H606" s="3" t="s">
         <v>47</v>
@@ -83788,16 +83884,16 @@
         <v>50</v>
       </c>
       <c r="L606" s="6">
-        <v>1818</v>
+        <v>1786</v>
       </c>
       <c r="M606" s="7">
-        <v>316059.3</v>
+        <v>310496.09999999998</v>
       </c>
       <c r="N606" s="6">
         <v>1</v>
       </c>
       <c r="O606" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P606" s="8">
         <v>173.85</v>
@@ -83815,7 +83911,7 @@
         <v>52</v>
       </c>
       <c r="U606" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V606" s="11">
         <v>11</v>
@@ -83824,7 +83920,7 @@
         <v>46064</v>
       </c>
       <c r="X606" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y606" s="10">
         <v>0</v>
@@ -83895,10 +83991,10 @@
         <v>2</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>46</v>
@@ -83907,7 +84003,7 @@
         <v>46064</v>
       </c>
       <c r="G607" s="5">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H607" s="3" t="s">
         <v>47</v>
@@ -83922,16 +84018,16 @@
         <v>50</v>
       </c>
       <c r="L607" s="6">
-        <v>1819</v>
+        <v>1787</v>
       </c>
       <c r="M607" s="7">
-        <v>316233.15000000002</v>
+        <v>310669.95</v>
       </c>
       <c r="N607" s="6">
         <v>1</v>
       </c>
       <c r="O607" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P607" s="8">
         <v>173.85</v>
@@ -83949,7 +84045,7 @@
         <v>52</v>
       </c>
       <c r="U607" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V607" s="11">
         <v>11</v>
@@ -83958,7 +84054,7 @@
         <v>46064</v>
       </c>
       <c r="X607" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y607" s="10">
         <v>0</v>
@@ -84029,10 +84125,10 @@
         <v>2</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E608" s="3" t="s">
         <v>46</v>
@@ -84041,7 +84137,7 @@
         <v>46064</v>
       </c>
       <c r="G608" s="5">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H608" s="3" t="s">
         <v>47</v>
@@ -84056,16 +84152,16 @@
         <v>50</v>
       </c>
       <c r="L608" s="6">
-        <v>1820</v>
+        <v>1788</v>
       </c>
       <c r="M608" s="7">
-        <v>316407</v>
+        <v>310843.8</v>
       </c>
       <c r="N608" s="6">
         <v>1</v>
       </c>
       <c r="O608" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P608" s="8">
         <v>173.85</v>
@@ -84083,7 +84179,7 @@
         <v>52</v>
       </c>
       <c r="U608" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V608" s="11">
         <v>11</v>
@@ -84092,7 +84188,7 @@
         <v>46064</v>
       </c>
       <c r="X608" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y608" s="10">
         <v>0</v>
@@ -84163,10 +84259,10 @@
         <v>2</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E609" s="3" t="s">
         <v>46</v>
@@ -84175,7 +84271,7 @@
         <v>46064</v>
       </c>
       <c r="G609" s="5">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H609" s="3" t="s">
         <v>47</v>
@@ -84190,16 +84286,16 @@
         <v>50</v>
       </c>
       <c r="L609" s="6">
-        <v>1821</v>
+        <v>1789</v>
       </c>
       <c r="M609" s="7">
-        <v>316580.84999999998</v>
+        <v>311017.65000000002</v>
       </c>
       <c r="N609" s="6">
         <v>1</v>
       </c>
       <c r="O609" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P609" s="8">
         <v>173.85</v>
@@ -84217,7 +84313,7 @@
         <v>52</v>
       </c>
       <c r="U609" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V609" s="11">
         <v>11</v>
@@ -84226,7 +84322,7 @@
         <v>46064</v>
       </c>
       <c r="X609" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y609" s="10">
         <v>0</v>
@@ -84297,10 +84393,10 @@
         <v>2</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E610" s="3" t="s">
         <v>46</v>
@@ -84309,7 +84405,7 @@
         <v>46064</v>
       </c>
       <c r="G610" s="5">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="H610" s="3" t="s">
         <v>47</v>
@@ -84324,16 +84420,16 @@
         <v>50</v>
       </c>
       <c r="L610" s="6">
-        <v>1822</v>
+        <v>1790</v>
       </c>
       <c r="M610" s="7">
-        <v>316754.7</v>
+        <v>311191.5</v>
       </c>
       <c r="N610" s="6">
         <v>1</v>
       </c>
       <c r="O610" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P610" s="8">
         <v>173.85</v>
@@ -84351,7 +84447,7 @@
         <v>52</v>
       </c>
       <c r="U610" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V610" s="11">
         <v>11</v>
@@ -84360,7 +84456,7 @@
         <v>46064</v>
       </c>
       <c r="X610" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y610" s="10">
         <v>0</v>
@@ -84431,10 +84527,10 @@
         <v>2</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>46</v>
@@ -84443,7 +84539,7 @@
         <v>46064</v>
       </c>
       <c r="G611" s="5">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="H611" s="3" t="s">
         <v>47</v>
@@ -84458,16 +84554,16 @@
         <v>50</v>
       </c>
       <c r="L611" s="6">
-        <v>1823</v>
+        <v>1791</v>
       </c>
       <c r="M611" s="7">
-        <v>316928.55</v>
+        <v>311365.34999999998</v>
       </c>
       <c r="N611" s="6">
         <v>1</v>
       </c>
       <c r="O611" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P611" s="8">
         <v>173.85</v>
@@ -84485,7 +84581,7 @@
         <v>52</v>
       </c>
       <c r="U611" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V611" s="11">
         <v>11</v>
@@ -84494,7 +84590,7 @@
         <v>46064</v>
       </c>
       <c r="X611" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y611" s="10">
         <v>0</v>
@@ -84565,10 +84661,10 @@
         <v>2</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E612" s="3" t="s">
         <v>46</v>
@@ -84577,7 +84673,7 @@
         <v>46064</v>
       </c>
       <c r="G612" s="5">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H612" s="3" t="s">
         <v>47</v>
@@ -84592,16 +84688,16 @@
         <v>50</v>
       </c>
       <c r="L612" s="6">
-        <v>1824</v>
+        <v>1792</v>
       </c>
       <c r="M612" s="7">
-        <v>317102.40000000002</v>
+        <v>311539.20000000001</v>
       </c>
       <c r="N612" s="6">
         <v>1</v>
       </c>
       <c r="O612" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P612" s="8">
         <v>173.85</v>
@@ -84619,7 +84715,7 @@
         <v>52</v>
       </c>
       <c r="U612" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V612" s="11">
         <v>11</v>
@@ -84628,7 +84724,7 @@
         <v>46064</v>
       </c>
       <c r="X612" s="12">
-        <v>0.42083330000000002</v>
+        <v>0.3361111</v>
       </c>
       <c r="Y612" s="10">
         <v>0</v>
@@ -84699,10 +84795,10 @@
         <v>2</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E613" s="3" t="s">
         <v>46</v>
@@ -84711,7 +84807,7 @@
         <v>46064</v>
       </c>
       <c r="G613" s="5">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H613" s="3" t="s">
         <v>47</v>
@@ -84726,16 +84822,16 @@
         <v>50</v>
       </c>
       <c r="L613" s="6">
-        <v>1825</v>
+        <v>1793</v>
       </c>
       <c r="M613" s="7">
-        <v>317276.25</v>
+        <v>311713.05</v>
       </c>
       <c r="N613" s="6">
         <v>1</v>
       </c>
       <c r="O613" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P613" s="8">
         <v>173.85</v>
@@ -84753,7 +84849,7 @@
         <v>52</v>
       </c>
       <c r="U613" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V613" s="11">
         <v>11</v>
@@ -84762,7 +84858,7 @@
         <v>46064</v>
       </c>
       <c r="X613" s="12">
-        <v>0.44166670000000002</v>
+        <v>0.3569444</v>
       </c>
       <c r="Y613" s="10">
         <v>0</v>
@@ -84833,10 +84929,10 @@
         <v>2</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E614" s="3" t="s">
         <v>46</v>
@@ -84845,7 +84941,7 @@
         <v>46064</v>
       </c>
       <c r="G614" s="5">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H614" s="3" t="s">
         <v>47</v>
@@ -84860,16 +84956,16 @@
         <v>50</v>
       </c>
       <c r="L614" s="6">
-        <v>1826</v>
+        <v>1794</v>
       </c>
       <c r="M614" s="7">
-        <v>317450.09999999998</v>
+        <v>311886.90000000002</v>
       </c>
       <c r="N614" s="6">
         <v>1</v>
       </c>
       <c r="O614" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P614" s="8">
         <v>173.85</v>
@@ -84887,7 +84983,7 @@
         <v>52</v>
       </c>
       <c r="U614" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V614" s="11">
         <v>11</v>
@@ -84896,7 +84992,7 @@
         <v>46064</v>
       </c>
       <c r="X614" s="12">
-        <v>0.44166670000000002</v>
+        <v>0.3569444</v>
       </c>
       <c r="Y614" s="10">
         <v>0</v>
@@ -84967,10 +85063,10 @@
         <v>2</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>46</v>
@@ -84979,7 +85075,7 @@
         <v>46064</v>
       </c>
       <c r="G615" s="5">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H615" s="3" t="s">
         <v>47</v>
@@ -84994,16 +85090,16 @@
         <v>50</v>
       </c>
       <c r="L615" s="6">
-        <v>1827</v>
+        <v>1795</v>
       </c>
       <c r="M615" s="7">
-        <v>317623.95</v>
+        <v>312060.75</v>
       </c>
       <c r="N615" s="6">
         <v>1</v>
       </c>
       <c r="O615" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P615" s="8">
         <v>173.85</v>
@@ -85021,7 +85117,7 @@
         <v>52</v>
       </c>
       <c r="U615" s="10">
-        <v>62418</v>
+        <v>62386</v>
       </c>
       <c r="V615" s="11">
         <v>11</v>
@@ -85030,7 +85126,7 @@
         <v>46064</v>
       </c>
       <c r="X615" s="12">
-        <v>0.44166670000000002</v>
+        <v>0.3569444</v>
       </c>
       <c r="Y615" s="10">
         <v>0</v>
@@ -85101,10 +85197,10 @@
         <v>2</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E616" s="3" t="s">
         <v>46</v>
@@ -85113,7 +85209,7 @@
         <v>46064</v>
       </c>
       <c r="G616" s="5">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H616" s="3" t="s">
         <v>47</v>
@@ -85128,16 +85224,16 @@
         <v>50</v>
       </c>
       <c r="L616" s="6">
-        <v>1828</v>
+        <v>1796</v>
       </c>
       <c r="M616" s="7">
-        <v>317797.8</v>
+        <v>312234.59999999998</v>
       </c>
       <c r="N616" s="6">
         <v>1</v>
       </c>
       <c r="O616" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P616" s="8">
         <v>173.85</v>
@@ -85164,7 +85260,7 @@
         <v>46064</v>
       </c>
       <c r="X616" s="12">
-        <v>0.44166670000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y616" s="10">
         <v>0</v>
@@ -85235,10 +85331,10 @@
         <v>2</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E617" s="3" t="s">
         <v>46</v>
@@ -85247,7 +85343,7 @@
         <v>46064</v>
       </c>
       <c r="G617" s="5">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="H617" s="3" t="s">
         <v>47</v>
@@ -85262,16 +85358,16 @@
         <v>50</v>
       </c>
       <c r="L617" s="6">
-        <v>1829</v>
+        <v>1797</v>
       </c>
       <c r="M617" s="7">
-        <v>317971.65000000002</v>
+        <v>312408.45</v>
       </c>
       <c r="N617" s="6">
         <v>1</v>
       </c>
       <c r="O617" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P617" s="8">
         <v>173.85</v>
@@ -85298,7 +85394,7 @@
         <v>46064</v>
       </c>
       <c r="X617" s="12">
-        <v>0.44166670000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y617" s="10">
         <v>0</v>
@@ -85369,10 +85465,10 @@
         <v>2</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E618" s="3" t="s">
         <v>46</v>
@@ -85381,7 +85477,7 @@
         <v>46064</v>
       </c>
       <c r="G618" s="5">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="H618" s="3" t="s">
         <v>47</v>
@@ -85396,16 +85492,16 @@
         <v>50</v>
       </c>
       <c r="L618" s="6">
-        <v>1830</v>
+        <v>1798</v>
       </c>
       <c r="M618" s="7">
-        <v>318145.5</v>
+        <v>312582.3</v>
       </c>
       <c r="N618" s="6">
         <v>1</v>
       </c>
       <c r="O618" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P618" s="8">
         <v>173.85</v>
@@ -85432,7 +85528,7 @@
         <v>46064</v>
       </c>
       <c r="X618" s="12">
-        <v>0.44166670000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y618" s="10">
         <v>0</v>
@@ -85503,10 +85599,10 @@
         <v>2</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E619" s="3" t="s">
         <v>46</v>
@@ -85515,7 +85611,7 @@
         <v>46064</v>
       </c>
       <c r="G619" s="5">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H619" s="3" t="s">
         <v>47</v>
@@ -85530,16 +85626,16 @@
         <v>50</v>
       </c>
       <c r="L619" s="6">
-        <v>1831</v>
+        <v>1799</v>
       </c>
       <c r="M619" s="7">
-        <v>318319.34999999998</v>
+        <v>312756.15000000002</v>
       </c>
       <c r="N619" s="6">
         <v>1</v>
       </c>
       <c r="O619" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P619" s="8">
         <v>173.85</v>
@@ -85566,7 +85662,7 @@
         <v>46064</v>
       </c>
       <c r="X619" s="12">
-        <v>0.46250000000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y619" s="10">
         <v>0</v>
@@ -85637,10 +85733,10 @@
         <v>2</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E620" s="3" t="s">
         <v>46</v>
@@ -85649,7 +85745,7 @@
         <v>46064</v>
       </c>
       <c r="G620" s="5">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H620" s="3" t="s">
         <v>47</v>
@@ -85664,16 +85760,16 @@
         <v>50</v>
       </c>
       <c r="L620" s="6">
-        <v>1832</v>
+        <v>1800</v>
       </c>
       <c r="M620" s="7">
-        <v>318493.2</v>
+        <v>312930</v>
       </c>
       <c r="N620" s="6">
         <v>1</v>
       </c>
       <c r="O620" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P620" s="8">
         <v>173.85</v>
@@ -85700,7 +85796,7 @@
         <v>46064</v>
       </c>
       <c r="X620" s="12">
-        <v>0.46250000000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y620" s="10">
         <v>0</v>
@@ -85771,10 +85867,10 @@
         <v>2</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>46</v>
@@ -85783,7 +85879,7 @@
         <v>46064</v>
       </c>
       <c r="G621" s="5">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H621" s="3" t="s">
         <v>47</v>
@@ -85798,16 +85894,16 @@
         <v>50</v>
       </c>
       <c r="L621" s="6">
-        <v>1833</v>
+        <v>1801</v>
       </c>
       <c r="M621" s="7">
-        <v>318667.05</v>
+        <v>313103.84999999998</v>
       </c>
       <c r="N621" s="6">
         <v>1</v>
       </c>
       <c r="O621" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P621" s="8">
         <v>173.85</v>
@@ -85834,7 +85930,7 @@
         <v>46064</v>
       </c>
       <c r="X621" s="12">
-        <v>0.46250000000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y621" s="10">
         <v>0</v>
@@ -85905,10 +86001,10 @@
         <v>2</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E622" s="3" t="s">
         <v>46</v>
@@ -85917,7 +86013,7 @@
         <v>46064</v>
       </c>
       <c r="G622" s="5">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H622" s="3" t="s">
         <v>47</v>
@@ -85932,16 +86028,16 @@
         <v>50</v>
       </c>
       <c r="L622" s="6">
-        <v>1834</v>
+        <v>1802</v>
       </c>
       <c r="M622" s="7">
-        <v>318840.90000000002</v>
+        <v>313277.7</v>
       </c>
       <c r="N622" s="6">
         <v>1</v>
       </c>
       <c r="O622" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P622" s="8">
         <v>173.85</v>
@@ -85968,7 +86064,7 @@
         <v>46064</v>
       </c>
       <c r="X622" s="12">
-        <v>0.46250000000000002</v>
+        <v>0.35902780000000001</v>
       </c>
       <c r="Y622" s="10">
         <v>0</v>
@@ -86039,10 +86135,10 @@
         <v>2</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E623" s="3" t="s">
         <v>46</v>
@@ -86051,7 +86147,7 @@
         <v>46064</v>
       </c>
       <c r="G623" s="5">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="H623" s="3" t="s">
         <v>47</v>
@@ -86066,16 +86162,16 @@
         <v>50</v>
       </c>
       <c r="L623" s="6">
-        <v>1835</v>
+        <v>1803</v>
       </c>
       <c r="M623" s="7">
-        <v>319014.75</v>
+        <v>313451.55</v>
       </c>
       <c r="N623" s="6">
         <v>1</v>
       </c>
       <c r="O623" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P623" s="8">
         <v>173.85</v>
@@ -86102,7 +86198,7 @@
         <v>46064</v>
       </c>
       <c r="X623" s="12">
-        <v>0.46250000000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y623" s="10">
         <v>0</v>
@@ -86173,10 +86269,10 @@
         <v>2</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E624" s="3" t="s">
         <v>46</v>
@@ -86185,7 +86281,7 @@
         <v>46064</v>
       </c>
       <c r="G624" s="5">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H624" s="3" t="s">
         <v>47</v>
@@ -86200,16 +86296,16 @@
         <v>50</v>
       </c>
       <c r="L624" s="6">
-        <v>1836</v>
+        <v>1804</v>
       </c>
       <c r="M624" s="7">
-        <v>319188.59999999998</v>
+        <v>313625.40000000002</v>
       </c>
       <c r="N624" s="6">
         <v>1</v>
       </c>
       <c r="O624" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P624" s="8">
         <v>173.85</v>
@@ -86236,7 +86332,7 @@
         <v>46064</v>
       </c>
       <c r="X624" s="12">
-        <v>0.48333330000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y624" s="10">
         <v>0</v>
@@ -86307,10 +86403,10 @@
         <v>2</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E625" s="3" t="s">
         <v>46</v>
@@ -86319,7 +86415,7 @@
         <v>46064</v>
       </c>
       <c r="G625" s="5">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H625" s="3" t="s">
         <v>47</v>
@@ -86334,16 +86430,16 @@
         <v>50</v>
       </c>
       <c r="L625" s="6">
-        <v>1837</v>
+        <v>1805</v>
       </c>
       <c r="M625" s="7">
-        <v>319362.45</v>
+        <v>313799.25</v>
       </c>
       <c r="N625" s="6">
         <v>1</v>
       </c>
       <c r="O625" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P625" s="8">
         <v>173.85</v>
@@ -86370,7 +86466,7 @@
         <v>46064</v>
       </c>
       <c r="X625" s="12">
-        <v>0.48333330000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y625" s="10">
         <v>0</v>
@@ -86441,10 +86537,10 @@
         <v>2</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>46</v>
@@ -86453,7 +86549,7 @@
         <v>46064</v>
       </c>
       <c r="G626" s="5">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H626" s="3" t="s">
         <v>47</v>
@@ -86468,16 +86564,16 @@
         <v>50</v>
       </c>
       <c r="L626" s="6">
-        <v>1838</v>
+        <v>1806</v>
       </c>
       <c r="M626" s="7">
-        <v>319536.3</v>
+        <v>313973.09999999998</v>
       </c>
       <c r="N626" s="6">
         <v>1</v>
       </c>
       <c r="O626" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P626" s="8">
         <v>173.85</v>
@@ -86504,7 +86600,7 @@
         <v>46064</v>
       </c>
       <c r="X626" s="12">
-        <v>0.48333330000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y626" s="10">
         <v>0</v>
@@ -86575,10 +86671,10 @@
         <v>2</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>46</v>
@@ -86587,7 +86683,7 @@
         <v>46064</v>
       </c>
       <c r="G627" s="5">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="H627" s="3" t="s">
         <v>47</v>
@@ -86602,16 +86698,16 @@
         <v>50</v>
       </c>
       <c r="L627" s="6">
-        <v>1839</v>
+        <v>1807</v>
       </c>
       <c r="M627" s="7">
-        <v>319710.15000000002</v>
+        <v>314146.95</v>
       </c>
       <c r="N627" s="6">
         <v>1</v>
       </c>
       <c r="O627" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P627" s="8">
         <v>173.85</v>
@@ -86638,7 +86734,7 @@
         <v>46064</v>
       </c>
       <c r="X627" s="12">
-        <v>0.48333330000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y627" s="10">
         <v>0</v>
@@ -86709,10 +86805,10 @@
         <v>2</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E628" s="3" t="s">
         <v>46</v>
@@ -86721,7 +86817,7 @@
         <v>46064</v>
       </c>
       <c r="G628" s="5">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="H628" s="3" t="s">
         <v>47</v>
@@ -86736,16 +86832,16 @@
         <v>50</v>
       </c>
       <c r="L628" s="6">
-        <v>1840</v>
+        <v>1808</v>
       </c>
       <c r="M628" s="7">
-        <v>319884</v>
+        <v>314320.8</v>
       </c>
       <c r="N628" s="6">
         <v>1</v>
       </c>
       <c r="O628" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P628" s="8">
         <v>173.85</v>
@@ -86772,7 +86868,7 @@
         <v>46064</v>
       </c>
       <c r="X628" s="12">
-        <v>0.48333330000000002</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y628" s="10">
         <v>0</v>
@@ -86843,10 +86939,10 @@
         <v>2</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E629" s="3" t="s">
         <v>46</v>
@@ -86855,7 +86951,7 @@
         <v>46064</v>
       </c>
       <c r="G629" s="5">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H629" s="3" t="s">
         <v>47</v>
@@ -86870,16 +86966,16 @@
         <v>50</v>
       </c>
       <c r="L629" s="6">
-        <v>1841</v>
+        <v>1809</v>
       </c>
       <c r="M629" s="7">
-        <v>320057.84999999998</v>
+        <v>314494.65000000002</v>
       </c>
       <c r="N629" s="6">
         <v>1</v>
       </c>
       <c r="O629" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P629" s="8">
         <v>173.85</v>
@@ -86906,7 +87002,7 @@
         <v>46064</v>
       </c>
       <c r="X629" s="12">
-        <v>0.50416669999999997</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y629" s="10">
         <v>0</v>
@@ -86977,10 +87073,10 @@
         <v>2</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E630" s="3" t="s">
         <v>46</v>
@@ -86989,7 +87085,7 @@
         <v>46064</v>
       </c>
       <c r="G630" s="5">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H630" s="3" t="s">
         <v>47</v>
@@ -87004,16 +87100,16 @@
         <v>50</v>
       </c>
       <c r="L630" s="6">
-        <v>1842</v>
+        <v>1810</v>
       </c>
       <c r="M630" s="7">
-        <v>320231.7</v>
+        <v>314668.5</v>
       </c>
       <c r="N630" s="6">
         <v>1</v>
       </c>
       <c r="O630" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P630" s="8">
         <v>173.85</v>
@@ -87040,7 +87136,7 @@
         <v>46064</v>
       </c>
       <c r="X630" s="12">
-        <v>0.50416669999999997</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y630" s="10">
         <v>0</v>
@@ -87111,10 +87207,10 @@
         <v>2</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D631" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E631" s="3" t="s">
         <v>46</v>
@@ -87123,7 +87219,7 @@
         <v>46064</v>
       </c>
       <c r="G631" s="5">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H631" s="3" t="s">
         <v>47</v>
@@ -87138,16 +87234,16 @@
         <v>50</v>
       </c>
       <c r="L631" s="6">
-        <v>1843</v>
+        <v>1811</v>
       </c>
       <c r="M631" s="7">
-        <v>320405.55</v>
+        <v>314842.34999999998</v>
       </c>
       <c r="N631" s="6">
         <v>1</v>
       </c>
       <c r="O631" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P631" s="8">
         <v>173.85</v>
@@ -87174,7 +87270,7 @@
         <v>46064</v>
       </c>
       <c r="X631" s="12">
-        <v>0.50416669999999997</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y631" s="10">
         <v>0</v>
@@ -87245,10 +87341,10 @@
         <v>2</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E632" s="3" t="s">
         <v>46</v>
@@ -87257,7 +87353,7 @@
         <v>46064</v>
       </c>
       <c r="G632" s="5">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H632" s="3" t="s">
         <v>47</v>
@@ -87272,16 +87368,16 @@
         <v>50</v>
       </c>
       <c r="L632" s="6">
-        <v>1844</v>
+        <v>1812</v>
       </c>
       <c r="M632" s="7">
-        <v>320579.40000000002</v>
+        <v>315016.2</v>
       </c>
       <c r="N632" s="6">
         <v>1</v>
       </c>
       <c r="O632" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P632" s="8">
         <v>173.85</v>
@@ -87308,7 +87404,7 @@
         <v>46064</v>
       </c>
       <c r="X632" s="12">
-        <v>0.50416669999999997</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y632" s="10">
         <v>0</v>
@@ -87379,10 +87475,10 @@
         <v>2</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E633" s="3" t="s">
         <v>46</v>
@@ -87391,7 +87487,7 @@
         <v>46064</v>
       </c>
       <c r="G633" s="5">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="H633" s="3" t="s">
         <v>47</v>
@@ -87406,16 +87502,16 @@
         <v>50</v>
       </c>
       <c r="L633" s="6">
-        <v>1845</v>
+        <v>1813</v>
       </c>
       <c r="M633" s="7">
-        <v>320753.25</v>
+        <v>315190.05</v>
       </c>
       <c r="N633" s="6">
         <v>1</v>
       </c>
       <c r="O633" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P633" s="8">
         <v>173.85</v>
@@ -87442,7 +87538,7 @@
         <v>46064</v>
       </c>
       <c r="X633" s="12">
-        <v>0.50416669999999997</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y633" s="10">
         <v>0</v>
@@ -87513,10 +87609,10 @@
         <v>2</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E634" s="3" t="s">
         <v>46</v>
@@ -87525,7 +87621,7 @@
         <v>46064</v>
       </c>
       <c r="G634" s="5">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="H634" s="3" t="s">
         <v>47</v>
@@ -87540,16 +87636,16 @@
         <v>50</v>
       </c>
       <c r="L634" s="6">
-        <v>1846</v>
+        <v>1814</v>
       </c>
       <c r="M634" s="7">
-        <v>320927.09999999998</v>
+        <v>315363.90000000002</v>
       </c>
       <c r="N634" s="6">
         <v>1</v>
       </c>
       <c r="O634" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P634" s="8">
         <v>173.85</v>
@@ -87576,7 +87672,7 @@
         <v>46064</v>
       </c>
       <c r="X634" s="12">
-        <v>0.50416669999999997</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y634" s="10">
         <v>0</v>
@@ -87647,10 +87743,10 @@
         <v>2</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E635" s="3" t="s">
         <v>46</v>
@@ -87659,7 +87755,7 @@
         <v>46064</v>
       </c>
       <c r="G635" s="5">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="H635" s="3" t="s">
         <v>47</v>
@@ -87674,16 +87770,16 @@
         <v>50</v>
       </c>
       <c r="L635" s="6">
-        <v>1847</v>
+        <v>1815</v>
       </c>
       <c r="M635" s="7">
-        <v>321100.95</v>
+        <v>315537.75</v>
       </c>
       <c r="N635" s="6">
         <v>1</v>
       </c>
       <c r="O635" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P635" s="8">
         <v>173.85</v>
@@ -87710,7 +87806,7 @@
         <v>46064</v>
       </c>
       <c r="X635" s="12">
-        <v>0.50416669999999997</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y635" s="10">
         <v>0</v>
@@ -87781,10 +87877,10 @@
         <v>2</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E636" s="3" t="s">
         <v>46</v>
@@ -87793,7 +87889,7 @@
         <v>46064</v>
       </c>
       <c r="G636" s="5">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="H636" s="3" t="s">
         <v>47</v>
@@ -87808,16 +87904,16 @@
         <v>50</v>
       </c>
       <c r="L636" s="6">
-        <v>1848</v>
+        <v>1816</v>
       </c>
       <c r="M636" s="7">
-        <v>321274.8</v>
+        <v>315711.59999999998</v>
       </c>
       <c r="N636" s="6">
         <v>1</v>
       </c>
       <c r="O636" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P636" s="8">
         <v>173.85</v>
@@ -87844,7 +87940,7 @@
         <v>46064</v>
       </c>
       <c r="X636" s="12">
-        <v>0.50416669999999997</v>
+        <v>0.3986111</v>
       </c>
       <c r="Y636" s="10">
         <v>0</v>
@@ -87915,10 +88011,10 @@
         <v>2</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="E637" s="3" t="s">
         <v>46</v>
@@ -87927,7 +88023,7 @@
         <v>46064</v>
       </c>
       <c r="G637" s="5">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="H637" s="3" t="s">
         <v>47</v>
@@ -87942,16 +88038,16 @@
         <v>50</v>
       </c>
       <c r="L637" s="6">
-        <v>1849</v>
+        <v>1817</v>
       </c>
       <c r="M637" s="7">
-        <v>321448.65000000002</v>
+        <v>315885.45</v>
       </c>
       <c r="N637" s="6">
         <v>1</v>
       </c>
       <c r="O637" s="3" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="P637" s="8">
         <v>173.85</v>
@@ -87978,7 +88074,7 @@
         <v>46064</v>
       </c>
       <c r="X637" s="12">
-        <v>0.56666669999999997</v>
+        <v>0.42083330000000002</v>
       </c>
       <c r="Y637" s="10">
         <v>0</v>
@@ -88039,6 +88135,4294 @@
       </c>
       <c r="AR637" s="3" t="s">
         <v>693</v>
+      </c>
+    </row>
+    <row r="638" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A638" s="1">
+        <v>1</v>
+      </c>
+      <c r="B638" s="2">
+        <v>2</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F638" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G638" s="5">
+        <v>37</v>
+      </c>
+      <c r="H638" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I638" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J638" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K638" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L638" s="6">
+        <v>1818</v>
+      </c>
+      <c r="M638" s="7">
+        <v>316059.3</v>
+      </c>
+      <c r="N638" s="6">
+        <v>1</v>
+      </c>
+      <c r="O638" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P638" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q638" s="6">
+        <v>0</v>
+      </c>
+      <c r="R638" s="7">
+        <v>0</v>
+      </c>
+      <c r="S638" s="9">
+        <v>0</v>
+      </c>
+      <c r="T638" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U638" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V638" s="11">
+        <v>11</v>
+      </c>
+      <c r="W638" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X638" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y638" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z638" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA638" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB638" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC638" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD638" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE638" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF638" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG638" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH638" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI638" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ638" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK638" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL638" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM638" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN638" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO638" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP638" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ638" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR638" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="639" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A639" s="1">
+        <v>1</v>
+      </c>
+      <c r="B639" s="2">
+        <v>2</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F639" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G639" s="5">
+        <v>38</v>
+      </c>
+      <c r="H639" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I639" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J639" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K639" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L639" s="6">
+        <v>1819</v>
+      </c>
+      <c r="M639" s="7">
+        <v>316233.15000000002</v>
+      </c>
+      <c r="N639" s="6">
+        <v>1</v>
+      </c>
+      <c r="O639" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P639" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q639" s="6">
+        <v>0</v>
+      </c>
+      <c r="R639" s="7">
+        <v>0</v>
+      </c>
+      <c r="S639" s="9">
+        <v>0</v>
+      </c>
+      <c r="T639" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U639" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V639" s="11">
+        <v>11</v>
+      </c>
+      <c r="W639" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X639" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y639" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z639" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA639" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB639" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC639" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD639" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE639" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF639" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG639" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH639" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI639" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ639" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK639" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL639" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM639" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN639" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO639" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP639" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ639" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR639" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="640" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A640" s="1">
+        <v>1</v>
+      </c>
+      <c r="B640" s="2">
+        <v>2</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F640" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G640" s="5">
+        <v>39</v>
+      </c>
+      <c r="H640" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I640" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J640" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K640" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L640" s="6">
+        <v>1820</v>
+      </c>
+      <c r="M640" s="7">
+        <v>316407</v>
+      </c>
+      <c r="N640" s="6">
+        <v>1</v>
+      </c>
+      <c r="O640" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P640" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q640" s="6">
+        <v>0</v>
+      </c>
+      <c r="R640" s="7">
+        <v>0</v>
+      </c>
+      <c r="S640" s="9">
+        <v>0</v>
+      </c>
+      <c r="T640" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U640" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V640" s="11">
+        <v>11</v>
+      </c>
+      <c r="W640" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X640" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y640" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z640" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA640" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB640" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC640" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD640" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE640" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF640" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG640" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH640" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI640" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ640" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK640" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL640" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM640" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN640" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO640" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP640" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ640" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR640" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="641" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A641" s="1">
+        <v>1</v>
+      </c>
+      <c r="B641" s="2">
+        <v>2</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F641" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G641" s="5">
+        <v>40</v>
+      </c>
+      <c r="H641" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I641" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J641" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K641" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L641" s="6">
+        <v>1821</v>
+      </c>
+      <c r="M641" s="7">
+        <v>316580.84999999998</v>
+      </c>
+      <c r="N641" s="6">
+        <v>1</v>
+      </c>
+      <c r="O641" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P641" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q641" s="6">
+        <v>0</v>
+      </c>
+      <c r="R641" s="7">
+        <v>0</v>
+      </c>
+      <c r="S641" s="9">
+        <v>0</v>
+      </c>
+      <c r="T641" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U641" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V641" s="11">
+        <v>11</v>
+      </c>
+      <c r="W641" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X641" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y641" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z641" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA641" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB641" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC641" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD641" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE641" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF641" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG641" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH641" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI641" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ641" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK641" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL641" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM641" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN641" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO641" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP641" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ641" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR641" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="642" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A642" s="1">
+        <v>1</v>
+      </c>
+      <c r="B642" s="2">
+        <v>2</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F642" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G642" s="5">
+        <v>41</v>
+      </c>
+      <c r="H642" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I642" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J642" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K642" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L642" s="6">
+        <v>1822</v>
+      </c>
+      <c r="M642" s="7">
+        <v>316754.7</v>
+      </c>
+      <c r="N642" s="6">
+        <v>1</v>
+      </c>
+      <c r="O642" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P642" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q642" s="6">
+        <v>0</v>
+      </c>
+      <c r="R642" s="7">
+        <v>0</v>
+      </c>
+      <c r="S642" s="9">
+        <v>0</v>
+      </c>
+      <c r="T642" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U642" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V642" s="11">
+        <v>11</v>
+      </c>
+      <c r="W642" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X642" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y642" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z642" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA642" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB642" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC642" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD642" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE642" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF642" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG642" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH642" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI642" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ642" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK642" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL642" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM642" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN642" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO642" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP642" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ642" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR642" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="643" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A643" s="1">
+        <v>1</v>
+      </c>
+      <c r="B643" s="2">
+        <v>2</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F643" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G643" s="5">
+        <v>42</v>
+      </c>
+      <c r="H643" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I643" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J643" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K643" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L643" s="6">
+        <v>1823</v>
+      </c>
+      <c r="M643" s="7">
+        <v>316928.55</v>
+      </c>
+      <c r="N643" s="6">
+        <v>1</v>
+      </c>
+      <c r="O643" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P643" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q643" s="6">
+        <v>0</v>
+      </c>
+      <c r="R643" s="7">
+        <v>0</v>
+      </c>
+      <c r="S643" s="9">
+        <v>0</v>
+      </c>
+      <c r="T643" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U643" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V643" s="11">
+        <v>11</v>
+      </c>
+      <c r="W643" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X643" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y643" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z643" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA643" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB643" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC643" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD643" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE643" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF643" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG643" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH643" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI643" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ643" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK643" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL643" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM643" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN643" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO643" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP643" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ643" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR643" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="644" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A644" s="1">
+        <v>1</v>
+      </c>
+      <c r="B644" s="2">
+        <v>2</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F644" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G644" s="5">
+        <v>43</v>
+      </c>
+      <c r="H644" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I644" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J644" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K644" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L644" s="6">
+        <v>1824</v>
+      </c>
+      <c r="M644" s="7">
+        <v>317102.40000000002</v>
+      </c>
+      <c r="N644" s="6">
+        <v>1</v>
+      </c>
+      <c r="O644" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P644" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q644" s="6">
+        <v>0</v>
+      </c>
+      <c r="R644" s="7">
+        <v>0</v>
+      </c>
+      <c r="S644" s="9">
+        <v>0</v>
+      </c>
+      <c r="T644" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U644" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V644" s="11">
+        <v>11</v>
+      </c>
+      <c r="W644" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X644" s="12">
+        <v>0.42083330000000002</v>
+      </c>
+      <c r="Y644" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z644" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA644" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB644" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC644" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD644" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE644" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF644" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG644" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH644" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI644" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ644" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK644" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL644" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM644" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN644" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO644" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP644" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ644" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR644" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="645" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A645" s="1">
+        <v>1</v>
+      </c>
+      <c r="B645" s="2">
+        <v>2</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F645" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G645" s="5">
+        <v>44</v>
+      </c>
+      <c r="H645" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I645" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J645" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K645" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L645" s="6">
+        <v>1825</v>
+      </c>
+      <c r="M645" s="7">
+        <v>317276.25</v>
+      </c>
+      <c r="N645" s="6">
+        <v>1</v>
+      </c>
+      <c r="O645" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P645" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q645" s="6">
+        <v>0</v>
+      </c>
+      <c r="R645" s="7">
+        <v>0</v>
+      </c>
+      <c r="S645" s="9">
+        <v>0</v>
+      </c>
+      <c r="T645" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U645" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V645" s="11">
+        <v>11</v>
+      </c>
+      <c r="W645" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X645" s="12">
+        <v>0.44166670000000002</v>
+      </c>
+      <c r="Y645" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z645" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA645" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB645" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC645" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD645" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE645" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF645" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG645" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH645" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI645" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ645" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK645" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL645" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM645" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN645" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO645" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP645" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ645" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR645" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="646" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A646" s="1">
+        <v>1</v>
+      </c>
+      <c r="B646" s="2">
+        <v>2</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F646" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G646" s="5">
+        <v>45</v>
+      </c>
+      <c r="H646" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I646" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J646" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K646" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L646" s="6">
+        <v>1826</v>
+      </c>
+      <c r="M646" s="7">
+        <v>317450.09999999998</v>
+      </c>
+      <c r="N646" s="6">
+        <v>1</v>
+      </c>
+      <c r="O646" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P646" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q646" s="6">
+        <v>0</v>
+      </c>
+      <c r="R646" s="7">
+        <v>0</v>
+      </c>
+      <c r="S646" s="9">
+        <v>0</v>
+      </c>
+      <c r="T646" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U646" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V646" s="11">
+        <v>11</v>
+      </c>
+      <c r="W646" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X646" s="12">
+        <v>0.44166670000000002</v>
+      </c>
+      <c r="Y646" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z646" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA646" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB646" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC646" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD646" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE646" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF646" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG646" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH646" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI646" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ646" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK646" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL646" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM646" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN646" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO646" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP646" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ646" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR646" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="647" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A647" s="1">
+        <v>1</v>
+      </c>
+      <c r="B647" s="2">
+        <v>2</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F647" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G647" s="5">
+        <v>46</v>
+      </c>
+      <c r="H647" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I647" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J647" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K647" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L647" s="6">
+        <v>1827</v>
+      </c>
+      <c r="M647" s="7">
+        <v>317623.95</v>
+      </c>
+      <c r="N647" s="6">
+        <v>1</v>
+      </c>
+      <c r="O647" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P647" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q647" s="6">
+        <v>0</v>
+      </c>
+      <c r="R647" s="7">
+        <v>0</v>
+      </c>
+      <c r="S647" s="9">
+        <v>0</v>
+      </c>
+      <c r="T647" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U647" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V647" s="11">
+        <v>11</v>
+      </c>
+      <c r="W647" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X647" s="12">
+        <v>0.44166670000000002</v>
+      </c>
+      <c r="Y647" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z647" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA647" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB647" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC647" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD647" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE647" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF647" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG647" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH647" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI647" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ647" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK647" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL647" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM647" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN647" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO647" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP647" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ647" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR647" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="648" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A648" s="1">
+        <v>1</v>
+      </c>
+      <c r="B648" s="2">
+        <v>2</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D648" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F648" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G648" s="5">
+        <v>47</v>
+      </c>
+      <c r="H648" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I648" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J648" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K648" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L648" s="6">
+        <v>1828</v>
+      </c>
+      <c r="M648" s="7">
+        <v>317797.8</v>
+      </c>
+      <c r="N648" s="6">
+        <v>1</v>
+      </c>
+      <c r="O648" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P648" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q648" s="6">
+        <v>0</v>
+      </c>
+      <c r="R648" s="7">
+        <v>0</v>
+      </c>
+      <c r="S648" s="9">
+        <v>0</v>
+      </c>
+      <c r="T648" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U648" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V648" s="11">
+        <v>11</v>
+      </c>
+      <c r="W648" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X648" s="12">
+        <v>0.44166670000000002</v>
+      </c>
+      <c r="Y648" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z648" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA648" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB648" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC648" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD648" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE648" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF648" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG648" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH648" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI648" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ648" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK648" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL648" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM648" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN648" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO648" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP648" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ648" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR648" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="649" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A649" s="1">
+        <v>1</v>
+      </c>
+      <c r="B649" s="2">
+        <v>2</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F649" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G649" s="5">
+        <v>48</v>
+      </c>
+      <c r="H649" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I649" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J649" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K649" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L649" s="6">
+        <v>1829</v>
+      </c>
+      <c r="M649" s="7">
+        <v>317971.65000000002</v>
+      </c>
+      <c r="N649" s="6">
+        <v>1</v>
+      </c>
+      <c r="O649" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P649" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q649" s="6">
+        <v>0</v>
+      </c>
+      <c r="R649" s="7">
+        <v>0</v>
+      </c>
+      <c r="S649" s="9">
+        <v>0</v>
+      </c>
+      <c r="T649" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U649" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V649" s="11">
+        <v>11</v>
+      </c>
+      <c r="W649" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X649" s="12">
+        <v>0.44166670000000002</v>
+      </c>
+      <c r="Y649" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z649" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA649" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB649" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC649" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD649" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE649" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF649" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG649" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH649" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI649" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ649" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK649" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL649" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM649" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN649" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO649" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP649" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ649" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR649" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="650" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A650" s="1">
+        <v>1</v>
+      </c>
+      <c r="B650" s="2">
+        <v>2</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D650" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F650" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G650" s="5">
+        <v>49</v>
+      </c>
+      <c r="H650" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I650" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J650" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K650" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L650" s="6">
+        <v>1830</v>
+      </c>
+      <c r="M650" s="7">
+        <v>318145.5</v>
+      </c>
+      <c r="N650" s="6">
+        <v>1</v>
+      </c>
+      <c r="O650" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P650" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q650" s="6">
+        <v>0</v>
+      </c>
+      <c r="R650" s="7">
+        <v>0</v>
+      </c>
+      <c r="S650" s="9">
+        <v>0</v>
+      </c>
+      <c r="T650" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U650" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V650" s="11">
+        <v>11</v>
+      </c>
+      <c r="W650" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X650" s="12">
+        <v>0.44166670000000002</v>
+      </c>
+      <c r="Y650" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z650" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA650" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB650" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC650" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD650" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE650" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF650" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG650" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH650" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI650" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ650" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK650" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL650" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM650" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN650" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO650" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP650" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ650" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR650" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="651" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A651" s="1">
+        <v>1</v>
+      </c>
+      <c r="B651" s="2">
+        <v>2</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F651" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G651" s="5">
+        <v>50</v>
+      </c>
+      <c r="H651" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I651" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J651" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K651" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L651" s="6">
+        <v>1831</v>
+      </c>
+      <c r="M651" s="7">
+        <v>318319.34999999998</v>
+      </c>
+      <c r="N651" s="6">
+        <v>1</v>
+      </c>
+      <c r="O651" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P651" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q651" s="6">
+        <v>0</v>
+      </c>
+      <c r="R651" s="7">
+        <v>0</v>
+      </c>
+      <c r="S651" s="9">
+        <v>0</v>
+      </c>
+      <c r="T651" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U651" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V651" s="11">
+        <v>11</v>
+      </c>
+      <c r="W651" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X651" s="12">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Y651" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z651" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA651" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB651" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC651" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD651" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE651" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF651" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG651" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH651" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI651" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ651" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK651" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL651" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM651" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN651" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO651" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP651" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ651" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR651" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="652" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A652" s="1">
+        <v>1</v>
+      </c>
+      <c r="B652" s="2">
+        <v>2</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F652" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G652" s="5">
+        <v>51</v>
+      </c>
+      <c r="H652" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I652" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J652" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K652" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L652" s="6">
+        <v>1832</v>
+      </c>
+      <c r="M652" s="7">
+        <v>318493.2</v>
+      </c>
+      <c r="N652" s="6">
+        <v>1</v>
+      </c>
+      <c r="O652" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P652" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q652" s="6">
+        <v>0</v>
+      </c>
+      <c r="R652" s="7">
+        <v>0</v>
+      </c>
+      <c r="S652" s="9">
+        <v>0</v>
+      </c>
+      <c r="T652" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U652" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V652" s="11">
+        <v>11</v>
+      </c>
+      <c r="W652" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X652" s="12">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Y652" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z652" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA652" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB652" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC652" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD652" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE652" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF652" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG652" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH652" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI652" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ652" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK652" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL652" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM652" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN652" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO652" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP652" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ652" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR652" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="653" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A653" s="1">
+        <v>1</v>
+      </c>
+      <c r="B653" s="2">
+        <v>2</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F653" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G653" s="5">
+        <v>52</v>
+      </c>
+      <c r="H653" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I653" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J653" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K653" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L653" s="6">
+        <v>1833</v>
+      </c>
+      <c r="M653" s="7">
+        <v>318667.05</v>
+      </c>
+      <c r="N653" s="6">
+        <v>1</v>
+      </c>
+      <c r="O653" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P653" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q653" s="6">
+        <v>0</v>
+      </c>
+      <c r="R653" s="7">
+        <v>0</v>
+      </c>
+      <c r="S653" s="9">
+        <v>0</v>
+      </c>
+      <c r="T653" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U653" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V653" s="11">
+        <v>11</v>
+      </c>
+      <c r="W653" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X653" s="12">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Y653" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z653" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA653" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB653" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC653" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD653" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE653" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF653" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG653" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH653" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI653" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ653" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK653" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL653" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM653" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN653" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO653" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP653" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ653" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR653" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="654" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A654" s="1">
+        <v>1</v>
+      </c>
+      <c r="B654" s="2">
+        <v>2</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F654" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G654" s="5">
+        <v>53</v>
+      </c>
+      <c r="H654" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I654" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J654" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K654" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L654" s="6">
+        <v>1834</v>
+      </c>
+      <c r="M654" s="7">
+        <v>318840.90000000002</v>
+      </c>
+      <c r="N654" s="6">
+        <v>1</v>
+      </c>
+      <c r="O654" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P654" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q654" s="6">
+        <v>0</v>
+      </c>
+      <c r="R654" s="7">
+        <v>0</v>
+      </c>
+      <c r="S654" s="9">
+        <v>0</v>
+      </c>
+      <c r="T654" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U654" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V654" s="11">
+        <v>11</v>
+      </c>
+      <c r="W654" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X654" s="12">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Y654" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z654" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA654" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB654" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC654" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD654" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE654" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF654" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG654" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH654" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI654" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ654" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK654" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL654" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM654" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN654" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO654" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP654" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ654" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR654" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="655" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A655" s="1">
+        <v>1</v>
+      </c>
+      <c r="B655" s="2">
+        <v>2</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F655" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G655" s="5">
+        <v>54</v>
+      </c>
+      <c r="H655" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I655" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J655" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K655" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L655" s="6">
+        <v>1835</v>
+      </c>
+      <c r="M655" s="7">
+        <v>319014.75</v>
+      </c>
+      <c r="N655" s="6">
+        <v>1</v>
+      </c>
+      <c r="O655" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P655" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q655" s="6">
+        <v>0</v>
+      </c>
+      <c r="R655" s="7">
+        <v>0</v>
+      </c>
+      <c r="S655" s="9">
+        <v>0</v>
+      </c>
+      <c r="T655" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U655" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V655" s="11">
+        <v>11</v>
+      </c>
+      <c r="W655" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X655" s="12">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="Y655" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z655" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA655" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB655" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC655" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD655" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE655" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF655" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG655" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH655" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI655" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ655" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK655" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL655" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM655" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN655" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO655" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP655" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ655" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR655" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="656" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A656" s="1">
+        <v>1</v>
+      </c>
+      <c r="B656" s="2">
+        <v>2</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F656" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G656" s="5">
+        <v>55</v>
+      </c>
+      <c r="H656" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I656" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J656" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K656" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L656" s="6">
+        <v>1836</v>
+      </c>
+      <c r="M656" s="7">
+        <v>319188.59999999998</v>
+      </c>
+      <c r="N656" s="6">
+        <v>1</v>
+      </c>
+      <c r="O656" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P656" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q656" s="6">
+        <v>0</v>
+      </c>
+      <c r="R656" s="7">
+        <v>0</v>
+      </c>
+      <c r="S656" s="9">
+        <v>0</v>
+      </c>
+      <c r="T656" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U656" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V656" s="11">
+        <v>11</v>
+      </c>
+      <c r="W656" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X656" s="12">
+        <v>0.48333330000000002</v>
+      </c>
+      <c r="Y656" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z656" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA656" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB656" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC656" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD656" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE656" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF656" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG656" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH656" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI656" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ656" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK656" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL656" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM656" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN656" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO656" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP656" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ656" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR656" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="657" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A657" s="1">
+        <v>1</v>
+      </c>
+      <c r="B657" s="2">
+        <v>2</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F657" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G657" s="5">
+        <v>56</v>
+      </c>
+      <c r="H657" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I657" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J657" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K657" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L657" s="6">
+        <v>1837</v>
+      </c>
+      <c r="M657" s="7">
+        <v>319362.45</v>
+      </c>
+      <c r="N657" s="6">
+        <v>1</v>
+      </c>
+      <c r="O657" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P657" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q657" s="6">
+        <v>0</v>
+      </c>
+      <c r="R657" s="7">
+        <v>0</v>
+      </c>
+      <c r="S657" s="9">
+        <v>0</v>
+      </c>
+      <c r="T657" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U657" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V657" s="11">
+        <v>11</v>
+      </c>
+      <c r="W657" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X657" s="12">
+        <v>0.48333330000000002</v>
+      </c>
+      <c r="Y657" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z657" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA657" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB657" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC657" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD657" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE657" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF657" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG657" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH657" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI657" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ657" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK657" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL657" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM657" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN657" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO657" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP657" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ657" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR657" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="658" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A658" s="1">
+        <v>1</v>
+      </c>
+      <c r="B658" s="2">
+        <v>2</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D658" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F658" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G658" s="5">
+        <v>57</v>
+      </c>
+      <c r="H658" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I658" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J658" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K658" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L658" s="6">
+        <v>1838</v>
+      </c>
+      <c r="M658" s="7">
+        <v>319536.3</v>
+      </c>
+      <c r="N658" s="6">
+        <v>1</v>
+      </c>
+      <c r="O658" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P658" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q658" s="6">
+        <v>0</v>
+      </c>
+      <c r="R658" s="7">
+        <v>0</v>
+      </c>
+      <c r="S658" s="9">
+        <v>0</v>
+      </c>
+      <c r="T658" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U658" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V658" s="11">
+        <v>11</v>
+      </c>
+      <c r="W658" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X658" s="12">
+        <v>0.48333330000000002</v>
+      </c>
+      <c r="Y658" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z658" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA658" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB658" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC658" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD658" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE658" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF658" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG658" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH658" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI658" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ658" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK658" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL658" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM658" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN658" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO658" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP658" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ658" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR658" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="659" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A659" s="1">
+        <v>1</v>
+      </c>
+      <c r="B659" s="2">
+        <v>2</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D659" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F659" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G659" s="5">
+        <v>58</v>
+      </c>
+      <c r="H659" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I659" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J659" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K659" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L659" s="6">
+        <v>1839</v>
+      </c>
+      <c r="M659" s="7">
+        <v>319710.15000000002</v>
+      </c>
+      <c r="N659" s="6">
+        <v>1</v>
+      </c>
+      <c r="O659" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P659" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q659" s="6">
+        <v>0</v>
+      </c>
+      <c r="R659" s="7">
+        <v>0</v>
+      </c>
+      <c r="S659" s="9">
+        <v>0</v>
+      </c>
+      <c r="T659" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U659" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V659" s="11">
+        <v>11</v>
+      </c>
+      <c r="W659" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X659" s="12">
+        <v>0.48333330000000002</v>
+      </c>
+      <c r="Y659" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z659" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA659" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB659" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC659" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD659" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE659" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF659" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG659" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH659" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI659" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ659" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK659" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL659" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM659" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN659" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO659" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP659" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ659" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR659" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="660" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A660" s="1">
+        <v>1</v>
+      </c>
+      <c r="B660" s="2">
+        <v>2</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F660" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G660" s="5">
+        <v>59</v>
+      </c>
+      <c r="H660" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I660" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J660" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K660" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L660" s="6">
+        <v>1840</v>
+      </c>
+      <c r="M660" s="7">
+        <v>319884</v>
+      </c>
+      <c r="N660" s="6">
+        <v>1</v>
+      </c>
+      <c r="O660" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P660" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q660" s="6">
+        <v>0</v>
+      </c>
+      <c r="R660" s="7">
+        <v>0</v>
+      </c>
+      <c r="S660" s="9">
+        <v>0</v>
+      </c>
+      <c r="T660" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U660" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V660" s="11">
+        <v>11</v>
+      </c>
+      <c r="W660" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X660" s="12">
+        <v>0.48333330000000002</v>
+      </c>
+      <c r="Y660" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z660" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA660" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB660" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC660" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD660" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE660" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF660" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG660" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH660" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI660" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ660" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK660" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL660" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM660" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN660" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO660" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP660" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ660" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR660" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="661" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A661" s="1">
+        <v>1</v>
+      </c>
+      <c r="B661" s="2">
+        <v>2</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F661" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G661" s="5">
+        <v>60</v>
+      </c>
+      <c r="H661" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I661" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J661" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K661" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L661" s="6">
+        <v>1841</v>
+      </c>
+      <c r="M661" s="7">
+        <v>320057.84999999998</v>
+      </c>
+      <c r="N661" s="6">
+        <v>1</v>
+      </c>
+      <c r="O661" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P661" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q661" s="6">
+        <v>0</v>
+      </c>
+      <c r="R661" s="7">
+        <v>0</v>
+      </c>
+      <c r="S661" s="9">
+        <v>0</v>
+      </c>
+      <c r="T661" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U661" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V661" s="11">
+        <v>11</v>
+      </c>
+      <c r="W661" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X661" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y661" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z661" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA661" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB661" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC661" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD661" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE661" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF661" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG661" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH661" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI661" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ661" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK661" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL661" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM661" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN661" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO661" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP661" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ661" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR661" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="662" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A662" s="1">
+        <v>1</v>
+      </c>
+      <c r="B662" s="2">
+        <v>2</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F662" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G662" s="5">
+        <v>61</v>
+      </c>
+      <c r="H662" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I662" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J662" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K662" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L662" s="6">
+        <v>1842</v>
+      </c>
+      <c r="M662" s="7">
+        <v>320231.7</v>
+      </c>
+      <c r="N662" s="6">
+        <v>1</v>
+      </c>
+      <c r="O662" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P662" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q662" s="6">
+        <v>0</v>
+      </c>
+      <c r="R662" s="7">
+        <v>0</v>
+      </c>
+      <c r="S662" s="9">
+        <v>0</v>
+      </c>
+      <c r="T662" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U662" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V662" s="11">
+        <v>11</v>
+      </c>
+      <c r="W662" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X662" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y662" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z662" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA662" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB662" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC662" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD662" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE662" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF662" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG662" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH662" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI662" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ662" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK662" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL662" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM662" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN662" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO662" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP662" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ662" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR662" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="663" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A663" s="1">
+        <v>1</v>
+      </c>
+      <c r="B663" s="2">
+        <v>2</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F663" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G663" s="5">
+        <v>62</v>
+      </c>
+      <c r="H663" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I663" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J663" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K663" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L663" s="6">
+        <v>1843</v>
+      </c>
+      <c r="M663" s="7">
+        <v>320405.55</v>
+      </c>
+      <c r="N663" s="6">
+        <v>1</v>
+      </c>
+      <c r="O663" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P663" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q663" s="6">
+        <v>0</v>
+      </c>
+      <c r="R663" s="7">
+        <v>0</v>
+      </c>
+      <c r="S663" s="9">
+        <v>0</v>
+      </c>
+      <c r="T663" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U663" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V663" s="11">
+        <v>11</v>
+      </c>
+      <c r="W663" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X663" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y663" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z663" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA663" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB663" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC663" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD663" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE663" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF663" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG663" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH663" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI663" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ663" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK663" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL663" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM663" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN663" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO663" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP663" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ663" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR663" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="664" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A664" s="1">
+        <v>1</v>
+      </c>
+      <c r="B664" s="2">
+        <v>2</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F664" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G664" s="5">
+        <v>63</v>
+      </c>
+      <c r="H664" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I664" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J664" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K664" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L664" s="6">
+        <v>1844</v>
+      </c>
+      <c r="M664" s="7">
+        <v>320579.40000000002</v>
+      </c>
+      <c r="N664" s="6">
+        <v>1</v>
+      </c>
+      <c r="O664" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P664" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q664" s="6">
+        <v>0</v>
+      </c>
+      <c r="R664" s="7">
+        <v>0</v>
+      </c>
+      <c r="S664" s="9">
+        <v>0</v>
+      </c>
+      <c r="T664" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U664" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V664" s="11">
+        <v>11</v>
+      </c>
+      <c r="W664" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X664" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y664" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z664" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA664" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB664" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC664" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD664" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE664" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF664" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG664" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH664" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI664" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ664" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK664" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL664" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM664" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN664" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO664" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP664" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ664" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR664" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="665" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A665" s="1">
+        <v>1</v>
+      </c>
+      <c r="B665" s="2">
+        <v>2</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D665" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F665" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G665" s="5">
+        <v>64</v>
+      </c>
+      <c r="H665" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I665" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J665" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K665" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L665" s="6">
+        <v>1845</v>
+      </c>
+      <c r="M665" s="7">
+        <v>320753.25</v>
+      </c>
+      <c r="N665" s="6">
+        <v>1</v>
+      </c>
+      <c r="O665" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P665" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q665" s="6">
+        <v>0</v>
+      </c>
+      <c r="R665" s="7">
+        <v>0</v>
+      </c>
+      <c r="S665" s="9">
+        <v>0</v>
+      </c>
+      <c r="T665" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U665" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V665" s="11">
+        <v>11</v>
+      </c>
+      <c r="W665" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X665" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y665" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z665" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA665" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB665" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC665" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD665" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE665" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF665" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG665" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH665" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI665" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ665" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK665" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL665" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM665" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN665" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO665" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP665" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ665" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR665" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="666" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A666" s="1">
+        <v>1</v>
+      </c>
+      <c r="B666" s="2">
+        <v>2</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D666" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F666" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G666" s="5">
+        <v>65</v>
+      </c>
+      <c r="H666" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I666" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J666" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K666" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L666" s="6">
+        <v>1846</v>
+      </c>
+      <c r="M666" s="7">
+        <v>320927.09999999998</v>
+      </c>
+      <c r="N666" s="6">
+        <v>1</v>
+      </c>
+      <c r="O666" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P666" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q666" s="6">
+        <v>0</v>
+      </c>
+      <c r="R666" s="7">
+        <v>0</v>
+      </c>
+      <c r="S666" s="9">
+        <v>0</v>
+      </c>
+      <c r="T666" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U666" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V666" s="11">
+        <v>11</v>
+      </c>
+      <c r="W666" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X666" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y666" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z666" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA666" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB666" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC666" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD666" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE666" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF666" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG666" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH666" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI666" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ666" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK666" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL666" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM666" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN666" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO666" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP666" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ666" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR666" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="667" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A667" s="1">
+        <v>1</v>
+      </c>
+      <c r="B667" s="2">
+        <v>2</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D667" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F667" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G667" s="5">
+        <v>66</v>
+      </c>
+      <c r="H667" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I667" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J667" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K667" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L667" s="6">
+        <v>1847</v>
+      </c>
+      <c r="M667" s="7">
+        <v>321100.95</v>
+      </c>
+      <c r="N667" s="6">
+        <v>1</v>
+      </c>
+      <c r="O667" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P667" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q667" s="6">
+        <v>0</v>
+      </c>
+      <c r="R667" s="7">
+        <v>0</v>
+      </c>
+      <c r="S667" s="9">
+        <v>0</v>
+      </c>
+      <c r="T667" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U667" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V667" s="11">
+        <v>11</v>
+      </c>
+      <c r="W667" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X667" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y667" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z667" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA667" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB667" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC667" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD667" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE667" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF667" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG667" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH667" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI667" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ667" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK667" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL667" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM667" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN667" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO667" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP667" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ667" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR667" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="668" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A668" s="1">
+        <v>1</v>
+      </c>
+      <c r="B668" s="2">
+        <v>2</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F668" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G668" s="5">
+        <v>67</v>
+      </c>
+      <c r="H668" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I668" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J668" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K668" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L668" s="6">
+        <v>1848</v>
+      </c>
+      <c r="M668" s="7">
+        <v>321274.8</v>
+      </c>
+      <c r="N668" s="6">
+        <v>1</v>
+      </c>
+      <c r="O668" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P668" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q668" s="6">
+        <v>0</v>
+      </c>
+      <c r="R668" s="7">
+        <v>0</v>
+      </c>
+      <c r="S668" s="9">
+        <v>0</v>
+      </c>
+      <c r="T668" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U668" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V668" s="11">
+        <v>11</v>
+      </c>
+      <c r="W668" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X668" s="12">
+        <v>0.50416669999999997</v>
+      </c>
+      <c r="Y668" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z668" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA668" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB668" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC668" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD668" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE668" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF668" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG668" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH668" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI668" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ668" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK668" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL668" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM668" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN668" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO668" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP668" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ668" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR668" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="669" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A669" s="1">
+        <v>1</v>
+      </c>
+      <c r="B669" s="2">
+        <v>2</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D669" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F669" s="4">
+        <v>46064</v>
+      </c>
+      <c r="G669" s="5">
+        <v>68</v>
+      </c>
+      <c r="H669" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I669" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J669" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K669" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L669" s="6">
+        <v>1849</v>
+      </c>
+      <c r="M669" s="7">
+        <v>321448.65000000002</v>
+      </c>
+      <c r="N669" s="6">
+        <v>1</v>
+      </c>
+      <c r="O669" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="P669" s="8">
+        <v>173.85</v>
+      </c>
+      <c r="Q669" s="6">
+        <v>0</v>
+      </c>
+      <c r="R669" s="7">
+        <v>0</v>
+      </c>
+      <c r="S669" s="9">
+        <v>0</v>
+      </c>
+      <c r="T669" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U669" s="10">
+        <v>62418</v>
+      </c>
+      <c r="V669" s="11">
+        <v>11</v>
+      </c>
+      <c r="W669" s="4">
+        <v>46064</v>
+      </c>
+      <c r="X669" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y669" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z669" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA669" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB669" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC669" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD669" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE669" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF669" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG669" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH669" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI669" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ669" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK669" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL669" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM669" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN669" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO669" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP669" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ669" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR669" s="3" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{923557F4-5910-4023-97E0-CF1C21FA72FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE887AE-E24B-48E7-A378-3631A44997A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EE9F6A8-D7A2-443F-AE75-99892F883DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{611EE860-A5D9-46DA-910E-154CD6DED4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6380" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="488">
   <si>
     <t>Sel</t>
   </si>
@@ -1255,6 +1255,207 @@
     <t>7627600028433</t>
   </si>
   <si>
+    <t>7627600028434</t>
+  </si>
+  <si>
+    <t>7627600028435</t>
+  </si>
+  <si>
+    <t>7627600028436</t>
+  </si>
+  <si>
+    <t>7627600028437</t>
+  </si>
+  <si>
+    <t>7627600028438</t>
+  </si>
+  <si>
+    <t>7627600028439</t>
+  </si>
+  <si>
+    <t>7627600028440</t>
+  </si>
+  <si>
+    <t>7627600028441</t>
+  </si>
+  <si>
+    <t>7627600028442</t>
+  </si>
+  <si>
+    <t>7627600028443</t>
+  </si>
+  <si>
+    <t>7627600028444</t>
+  </si>
+  <si>
+    <t>7627600028445</t>
+  </si>
+  <si>
+    <t>7627600028446</t>
+  </si>
+  <si>
+    <t>7627600028447</t>
+  </si>
+  <si>
+    <t>7627600028448</t>
+  </si>
+  <si>
+    <t>7627600028449</t>
+  </si>
+  <si>
+    <t>7627600028450</t>
+  </si>
+  <si>
+    <t>7627600028451</t>
+  </si>
+  <si>
+    <t>7627600028452</t>
+  </si>
+  <si>
+    <t>7627600028453</t>
+  </si>
+  <si>
+    <t>7627600028454</t>
+  </si>
+  <si>
+    <t>7627600028455</t>
+  </si>
+  <si>
+    <t>7627600028456</t>
+  </si>
+  <si>
+    <t>7627600028457</t>
+  </si>
+  <si>
+    <t>7627600028458</t>
+  </si>
+  <si>
+    <t>7627600028459</t>
+  </si>
+  <si>
+    <t>7627600028460</t>
+  </si>
+  <si>
+    <t>7627600028461</t>
+  </si>
+  <si>
+    <t>7627600028462</t>
+  </si>
+  <si>
+    <t>7627600028463</t>
+  </si>
+  <si>
+    <t>7627600028464</t>
+  </si>
+  <si>
+    <t>7627600028465</t>
+  </si>
+  <si>
+    <t>7627600028466</t>
+  </si>
+  <si>
+    <t>7627600028467</t>
+  </si>
+  <si>
+    <t>7627600028468</t>
+  </si>
+  <si>
+    <t>7627600028469</t>
+  </si>
+  <si>
+    <t>7627600028470</t>
+  </si>
+  <si>
+    <t>7627600028471</t>
+  </si>
+  <si>
+    <t>7627600028472</t>
+  </si>
+  <si>
+    <t>7627600028473</t>
+  </si>
+  <si>
+    <t>7627600028474</t>
+  </si>
+  <si>
+    <t>7627600028475</t>
+  </si>
+  <si>
+    <t>7627600028476</t>
+  </si>
+  <si>
+    <t>7627600028477</t>
+  </si>
+  <si>
+    <t>7627600028478</t>
+  </si>
+  <si>
+    <t>7627600028479</t>
+  </si>
+  <si>
+    <t>7627600028480</t>
+  </si>
+  <si>
+    <t>7627600028481</t>
+  </si>
+  <si>
+    <t>7627600028482</t>
+  </si>
+  <si>
+    <t>7627600028483</t>
+  </si>
+  <si>
+    <t>7627600028484</t>
+  </si>
+  <si>
+    <t>7627600028485</t>
+  </si>
+  <si>
+    <t>7627600028486</t>
+  </si>
+  <si>
+    <t>7627600028487</t>
+  </si>
+  <si>
+    <t>7627600028488</t>
+  </si>
+  <si>
+    <t>7627600028489</t>
+  </si>
+  <si>
+    <t>7627600028490</t>
+  </si>
+  <si>
+    <t>7627600028491</t>
+  </si>
+  <si>
+    <t>7627600028492</t>
+  </si>
+  <si>
+    <t>7627600028493</t>
+  </si>
+  <si>
+    <t>7627600028494</t>
+  </si>
+  <si>
+    <t>7627600028495</t>
+  </si>
+  <si>
+    <t>7627600028496</t>
+  </si>
+  <si>
+    <t>7627600028497</t>
+  </si>
+  <si>
+    <t>7627600028498</t>
+  </si>
+  <si>
+    <t>7627600028499</t>
+  </si>
+  <si>
+    <t>7627600028500</t>
+  </si>
+  <si>
     <t>10059264</t>
   </si>
   <si>
@@ -1858,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR353"/>
+  <dimension ref="A1:AR420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -48638,10 +48839,10 @@
         <v>2</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>411</v>
+        <v>167</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E350" s="3" t="s">
         <v>46</v>
@@ -48650,7 +48851,7 @@
         <v>46065</v>
       </c>
       <c r="G350" s="5">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="H350" s="3" t="s">
         <v>47</v>
@@ -48665,19 +48866,19 @@
         <v>50</v>
       </c>
       <c r="L350" s="6">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="M350" s="7">
-        <v>0</v>
+        <v>79439.7</v>
       </c>
       <c r="N350" s="6">
         <v>1</v>
       </c>
       <c r="O350" s="3" t="s">
-        <v>412</v>
+        <v>168</v>
       </c>
       <c r="P350" s="8">
-        <v>0</v>
+        <v>178.52</v>
       </c>
       <c r="Q350" s="6">
         <v>0</v>
@@ -48692,7 +48893,7 @@
         <v>52</v>
       </c>
       <c r="U350" s="10">
-        <v>62472</v>
+        <v>62437</v>
       </c>
       <c r="V350" s="11">
         <v>11</v>
@@ -48701,7 +48902,7 @@
         <v>46065</v>
       </c>
       <c r="X350" s="12">
-        <v>0.34027780000000002</v>
+        <v>0.58958330000000003</v>
       </c>
       <c r="Y350" s="10">
         <v>0</v>
@@ -48761,7 +48962,7 @@
         <v>53</v>
       </c>
       <c r="AR350" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="351" spans="1:44" x14ac:dyDescent="0.3">
@@ -48772,7 +48973,7 @@
         <v>2</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>411</v>
+        <v>167</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>59</v>
@@ -48784,7 +48985,7 @@
         <v>46065</v>
       </c>
       <c r="G351" s="5">
-        <v>1</v>
+        <v>286</v>
       </c>
       <c r="H351" s="3" t="s">
         <v>47</v>
@@ -48799,19 +49000,19 @@
         <v>50</v>
       </c>
       <c r="L351" s="6">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="M351" s="7">
-        <v>0</v>
+        <v>79618.22</v>
       </c>
       <c r="N351" s="6">
         <v>1</v>
       </c>
       <c r="O351" s="3" t="s">
-        <v>414</v>
+        <v>168</v>
       </c>
       <c r="P351" s="8">
-        <v>0</v>
+        <v>178.52</v>
       </c>
       <c r="Q351" s="6">
         <v>0</v>
@@ -48826,7 +49027,7 @@
         <v>52</v>
       </c>
       <c r="U351" s="10">
-        <v>62473</v>
+        <v>62437</v>
       </c>
       <c r="V351" s="11">
         <v>11</v>
@@ -48835,7 +49036,7 @@
         <v>46065</v>
       </c>
       <c r="X351" s="12">
-        <v>0.34027780000000002</v>
+        <v>0.58958330000000003</v>
       </c>
       <c r="Y351" s="10">
         <v>0</v>
@@ -48895,7 +49096,7 @@
         <v>53</v>
       </c>
       <c r="AR351" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="352" spans="1:44" x14ac:dyDescent="0.3">
@@ -48906,10 +49107,10 @@
         <v>2</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>416</v>
+        <v>167</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E352" s="3" t="s">
         <v>46</v>
@@ -48918,7 +49119,7 @@
         <v>46065</v>
       </c>
       <c r="G352" s="5">
-        <v>1</v>
+        <v>287</v>
       </c>
       <c r="H352" s="3" t="s">
         <v>47</v>
@@ -48933,19 +49134,19 @@
         <v>50</v>
       </c>
       <c r="L352" s="6">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="M352" s="7">
-        <v>0</v>
+        <v>79796.740000000005</v>
       </c>
       <c r="N352" s="6">
         <v>1</v>
       </c>
       <c r="O352" s="3" t="s">
-        <v>417</v>
+        <v>168</v>
       </c>
       <c r="P352" s="8">
-        <v>0</v>
+        <v>178.52</v>
       </c>
       <c r="Q352" s="6">
         <v>0</v>
@@ -48960,7 +49161,7 @@
         <v>52</v>
       </c>
       <c r="U352" s="10">
-        <v>62474</v>
+        <v>62437</v>
       </c>
       <c r="V352" s="11">
         <v>11</v>
@@ -48969,7 +49170,7 @@
         <v>46065</v>
       </c>
       <c r="X352" s="12">
-        <v>0.34027780000000002</v>
+        <v>0.58958330000000003</v>
       </c>
       <c r="Y352" s="10">
         <v>0</v>
@@ -49029,7 +49230,7 @@
         <v>53</v>
       </c>
       <c r="AR352" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="353" spans="1:44" x14ac:dyDescent="0.3">
@@ -49040,7 +49241,7 @@
         <v>2</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>416</v>
+        <v>167</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>59</v>
@@ -49052,7 +49253,7 @@
         <v>46065</v>
       </c>
       <c r="G353" s="5">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="H353" s="3" t="s">
         <v>47</v>
@@ -49067,19 +49268,19 @@
         <v>50</v>
       </c>
       <c r="L353" s="6">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="M353" s="7">
-        <v>0</v>
+        <v>79975.25</v>
       </c>
       <c r="N353" s="6">
         <v>1</v>
       </c>
       <c r="O353" s="3" t="s">
-        <v>419</v>
+        <v>168</v>
       </c>
       <c r="P353" s="8">
-        <v>0</v>
+        <v>178.52</v>
       </c>
       <c r="Q353" s="6">
         <v>0</v>
@@ -49094,7 +49295,7 @@
         <v>52</v>
       </c>
       <c r="U353" s="10">
-        <v>62475</v>
+        <v>62437</v>
       </c>
       <c r="V353" s="11">
         <v>11</v>
@@ -49103,7 +49304,7 @@
         <v>46065</v>
       </c>
       <c r="X353" s="12">
-        <v>0.34027780000000002</v>
+        <v>0.58958330000000003</v>
       </c>
       <c r="Y353" s="10">
         <v>0</v>
@@ -49163,7 +49364,8985 @@
         <v>53</v>
       </c>
       <c r="AR353" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="354" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>1</v>
+      </c>
+      <c r="B354" s="2">
+        <v>2</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F354" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G354" s="5">
+        <v>289</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I354" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J354" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K354" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L354" s="6">
+        <v>449</v>
+      </c>
+      <c r="M354" s="7">
+        <v>80153.77</v>
+      </c>
+      <c r="N354" s="6">
+        <v>1</v>
+      </c>
+      <c r="O354" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P354" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q354" s="6">
+        <v>0</v>
+      </c>
+      <c r="R354" s="7">
+        <v>0</v>
+      </c>
+      <c r="S354" s="9">
+        <v>0</v>
+      </c>
+      <c r="T354" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U354" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V354" s="11">
+        <v>11</v>
+      </c>
+      <c r="W354" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X354" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y354" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB354" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG354" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI354" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ354" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK354" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM354" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR354" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="355" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>1</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F355" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G355" s="5">
+        <v>290</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I355" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J355" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K355" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L355" s="6">
+        <v>450</v>
+      </c>
+      <c r="M355" s="7">
+        <v>80332.28</v>
+      </c>
+      <c r="N355" s="6">
+        <v>1</v>
+      </c>
+      <c r="O355" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P355" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q355" s="6">
+        <v>0</v>
+      </c>
+      <c r="R355" s="7">
+        <v>0</v>
+      </c>
+      <c r="S355" s="9">
+        <v>0</v>
+      </c>
+      <c r="T355" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U355" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V355" s="11">
+        <v>11</v>
+      </c>
+      <c r="W355" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X355" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y355" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB355" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG355" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI355" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ355" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK355" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM355" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR355" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="356" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>1</v>
+      </c>
+      <c r="B356" s="2">
+        <v>2</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F356" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G356" s="5">
+        <v>291</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J356" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K356" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L356" s="6">
+        <v>451</v>
+      </c>
+      <c r="M356" s="7">
+        <v>80510.8</v>
+      </c>
+      <c r="N356" s="6">
+        <v>1</v>
+      </c>
+      <c r="O356" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P356" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q356" s="6">
+        <v>0</v>
+      </c>
+      <c r="R356" s="7">
+        <v>0</v>
+      </c>
+      <c r="S356" s="9">
+        <v>0</v>
+      </c>
+      <c r="T356" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U356" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V356" s="11">
+        <v>11</v>
+      </c>
+      <c r="W356" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X356" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y356" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB356" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG356" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI356" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ356" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK356" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM356" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR356" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="357" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>1</v>
+      </c>
+      <c r="B357" s="2">
+        <v>2</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F357" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G357" s="5">
+        <v>292</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I357" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J357" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K357" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L357" s="6">
+        <v>452</v>
+      </c>
+      <c r="M357" s="7">
+        <v>80689.320000000007</v>
+      </c>
+      <c r="N357" s="6">
+        <v>1</v>
+      </c>
+      <c r="O357" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P357" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q357" s="6">
+        <v>0</v>
+      </c>
+      <c r="R357" s="7">
+        <v>0</v>
+      </c>
+      <c r="S357" s="9">
+        <v>0</v>
+      </c>
+      <c r="T357" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U357" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V357" s="11">
+        <v>11</v>
+      </c>
+      <c r="W357" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X357" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y357" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB357" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG357" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI357" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ357" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK357" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM357" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR357" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="358" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>1</v>
+      </c>
+      <c r="B358" s="2">
+        <v>2</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F358" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G358" s="5">
+        <v>293</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I358" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J358" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K358" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L358" s="6">
+        <v>453</v>
+      </c>
+      <c r="M358" s="7">
+        <v>80867.83</v>
+      </c>
+      <c r="N358" s="6">
+        <v>1</v>
+      </c>
+      <c r="O358" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P358" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q358" s="6">
+        <v>0</v>
+      </c>
+      <c r="R358" s="7">
+        <v>0</v>
+      </c>
+      <c r="S358" s="9">
+        <v>0</v>
+      </c>
+      <c r="T358" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U358" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V358" s="11">
+        <v>11</v>
+      </c>
+      <c r="W358" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X358" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y358" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB358" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG358" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI358" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ358" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK358" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM358" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR358" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="359" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>1</v>
+      </c>
+      <c r="B359" s="2">
+        <v>2</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F359" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G359" s="5">
+        <v>294</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I359" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J359" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K359" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L359" s="6">
+        <v>454</v>
+      </c>
+      <c r="M359" s="7">
+        <v>81046.350000000006</v>
+      </c>
+      <c r="N359" s="6">
+        <v>1</v>
+      </c>
+      <c r="O359" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P359" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q359" s="6">
+        <v>0</v>
+      </c>
+      <c r="R359" s="7">
+        <v>0</v>
+      </c>
+      <c r="S359" s="9">
+        <v>0</v>
+      </c>
+      <c r="T359" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U359" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V359" s="11">
+        <v>11</v>
+      </c>
+      <c r="W359" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X359" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y359" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB359" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG359" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI359" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ359" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK359" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM359" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR359" s="3" t="s">
         <v>420</v>
+      </c>
+    </row>
+    <row r="360" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>1</v>
+      </c>
+      <c r="B360" s="2">
+        <v>2</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F360" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G360" s="5">
+        <v>295</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I360" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J360" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K360" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L360" s="6">
+        <v>455</v>
+      </c>
+      <c r="M360" s="7">
+        <v>81224.87</v>
+      </c>
+      <c r="N360" s="6">
+        <v>1</v>
+      </c>
+      <c r="O360" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P360" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q360" s="6">
+        <v>0</v>
+      </c>
+      <c r="R360" s="7">
+        <v>0</v>
+      </c>
+      <c r="S360" s="9">
+        <v>0</v>
+      </c>
+      <c r="T360" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U360" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V360" s="11">
+        <v>11</v>
+      </c>
+      <c r="W360" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X360" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y360" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB360" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG360" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI360" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ360" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK360" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM360" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR360" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="361" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>1</v>
+      </c>
+      <c r="B361" s="2">
+        <v>2</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F361" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G361" s="5">
+        <v>296</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I361" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J361" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K361" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L361" s="6">
+        <v>456</v>
+      </c>
+      <c r="M361" s="7">
+        <v>81403.38</v>
+      </c>
+      <c r="N361" s="6">
+        <v>1</v>
+      </c>
+      <c r="O361" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P361" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q361" s="6">
+        <v>0</v>
+      </c>
+      <c r="R361" s="7">
+        <v>0</v>
+      </c>
+      <c r="S361" s="9">
+        <v>0</v>
+      </c>
+      <c r="T361" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U361" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V361" s="11">
+        <v>11</v>
+      </c>
+      <c r="W361" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X361" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y361" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB361" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG361" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI361" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ361" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK361" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM361" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR361" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="362" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>1</v>
+      </c>
+      <c r="B362" s="2">
+        <v>2</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F362" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G362" s="5">
+        <v>297</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I362" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J362" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K362" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L362" s="6">
+        <v>457</v>
+      </c>
+      <c r="M362" s="7">
+        <v>81581.899999999994</v>
+      </c>
+      <c r="N362" s="6">
+        <v>1</v>
+      </c>
+      <c r="O362" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P362" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q362" s="6">
+        <v>0</v>
+      </c>
+      <c r="R362" s="7">
+        <v>0</v>
+      </c>
+      <c r="S362" s="9">
+        <v>0</v>
+      </c>
+      <c r="T362" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U362" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V362" s="11">
+        <v>11</v>
+      </c>
+      <c r="W362" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X362" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y362" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB362" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG362" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI362" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ362" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK362" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM362" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR362" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="363" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>1</v>
+      </c>
+      <c r="B363" s="2">
+        <v>2</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F363" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G363" s="5">
+        <v>298</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I363" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J363" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K363" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L363" s="6">
+        <v>458</v>
+      </c>
+      <c r="M363" s="7">
+        <v>81760.41</v>
+      </c>
+      <c r="N363" s="6">
+        <v>1</v>
+      </c>
+      <c r="O363" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P363" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q363" s="6">
+        <v>0</v>
+      </c>
+      <c r="R363" s="7">
+        <v>0</v>
+      </c>
+      <c r="S363" s="9">
+        <v>0</v>
+      </c>
+      <c r="T363" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U363" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V363" s="11">
+        <v>11</v>
+      </c>
+      <c r="W363" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X363" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y363" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB363" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG363" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI363" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ363" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK363" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM363" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR363" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="364" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>1</v>
+      </c>
+      <c r="B364" s="2">
+        <v>2</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F364" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G364" s="5">
+        <v>299</v>
+      </c>
+      <c r="H364" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I364" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J364" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K364" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L364" s="6">
+        <v>459</v>
+      </c>
+      <c r="M364" s="7">
+        <v>81938.929999999993</v>
+      </c>
+      <c r="N364" s="6">
+        <v>1</v>
+      </c>
+      <c r="O364" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P364" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q364" s="6">
+        <v>0</v>
+      </c>
+      <c r="R364" s="7">
+        <v>0</v>
+      </c>
+      <c r="S364" s="9">
+        <v>0</v>
+      </c>
+      <c r="T364" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U364" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V364" s="11">
+        <v>11</v>
+      </c>
+      <c r="W364" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X364" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y364" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB364" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG364" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI364" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ364" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK364" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM364" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR364" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="365" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>1</v>
+      </c>
+      <c r="B365" s="2">
+        <v>2</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F365" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G365" s="5">
+        <v>300</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I365" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J365" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K365" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L365" s="6">
+        <v>460</v>
+      </c>
+      <c r="M365" s="7">
+        <v>82117.45</v>
+      </c>
+      <c r="N365" s="6">
+        <v>1</v>
+      </c>
+      <c r="O365" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P365" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q365" s="6">
+        <v>0</v>
+      </c>
+      <c r="R365" s="7">
+        <v>0</v>
+      </c>
+      <c r="S365" s="9">
+        <v>0</v>
+      </c>
+      <c r="T365" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U365" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V365" s="11">
+        <v>11</v>
+      </c>
+      <c r="W365" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X365" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y365" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB365" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG365" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI365" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ365" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK365" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM365" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR365" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="366" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>1</v>
+      </c>
+      <c r="B366" s="2">
+        <v>2</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F366" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G366" s="5">
+        <v>301</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I366" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J366" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K366" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L366" s="6">
+        <v>461</v>
+      </c>
+      <c r="M366" s="7">
+        <v>82295.960000000006</v>
+      </c>
+      <c r="N366" s="6">
+        <v>1</v>
+      </c>
+      <c r="O366" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P366" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q366" s="6">
+        <v>0</v>
+      </c>
+      <c r="R366" s="7">
+        <v>0</v>
+      </c>
+      <c r="S366" s="9">
+        <v>0</v>
+      </c>
+      <c r="T366" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U366" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V366" s="11">
+        <v>11</v>
+      </c>
+      <c r="W366" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X366" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y366" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB366" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG366" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI366" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ366" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK366" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM366" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR366" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="367" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>1</v>
+      </c>
+      <c r="B367" s="2">
+        <v>2</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F367" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G367" s="5">
+        <v>302</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I367" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J367" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K367" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L367" s="6">
+        <v>462</v>
+      </c>
+      <c r="M367" s="7">
+        <v>82474.48</v>
+      </c>
+      <c r="N367" s="6">
+        <v>1</v>
+      </c>
+      <c r="O367" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P367" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q367" s="6">
+        <v>0</v>
+      </c>
+      <c r="R367" s="7">
+        <v>0</v>
+      </c>
+      <c r="S367" s="9">
+        <v>0</v>
+      </c>
+      <c r="T367" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U367" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V367" s="11">
+        <v>11</v>
+      </c>
+      <c r="W367" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X367" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y367" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB367" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG367" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI367" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ367" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK367" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM367" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR367" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="368" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>1</v>
+      </c>
+      <c r="B368" s="2">
+        <v>2</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F368" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G368" s="5">
+        <v>303</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I368" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J368" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K368" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L368" s="6">
+        <v>463</v>
+      </c>
+      <c r="M368" s="7">
+        <v>82653</v>
+      </c>
+      <c r="N368" s="6">
+        <v>1</v>
+      </c>
+      <c r="O368" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P368" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q368" s="6">
+        <v>0</v>
+      </c>
+      <c r="R368" s="7">
+        <v>0</v>
+      </c>
+      <c r="S368" s="9">
+        <v>0</v>
+      </c>
+      <c r="T368" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U368" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V368" s="11">
+        <v>11</v>
+      </c>
+      <c r="W368" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X368" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y368" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB368" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG368" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI368" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ368" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK368" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM368" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR368" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="369" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>1</v>
+      </c>
+      <c r="B369" s="2">
+        <v>2</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F369" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G369" s="5">
+        <v>304</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I369" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J369" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K369" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L369" s="6">
+        <v>464</v>
+      </c>
+      <c r="M369" s="7">
+        <v>82831.509999999995</v>
+      </c>
+      <c r="N369" s="6">
+        <v>1</v>
+      </c>
+      <c r="O369" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P369" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q369" s="6">
+        <v>0</v>
+      </c>
+      <c r="R369" s="7">
+        <v>0</v>
+      </c>
+      <c r="S369" s="9">
+        <v>0</v>
+      </c>
+      <c r="T369" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U369" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V369" s="11">
+        <v>11</v>
+      </c>
+      <c r="W369" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X369" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y369" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB369" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG369" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI369" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ369" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK369" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM369" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR369" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="370" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>1</v>
+      </c>
+      <c r="B370" s="2">
+        <v>2</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F370" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G370" s="5">
+        <v>305</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I370" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J370" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K370" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L370" s="6">
+        <v>465</v>
+      </c>
+      <c r="M370" s="7">
+        <v>83010.03</v>
+      </c>
+      <c r="N370" s="6">
+        <v>1</v>
+      </c>
+      <c r="O370" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P370" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q370" s="6">
+        <v>0</v>
+      </c>
+      <c r="R370" s="7">
+        <v>0</v>
+      </c>
+      <c r="S370" s="9">
+        <v>0</v>
+      </c>
+      <c r="T370" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U370" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V370" s="11">
+        <v>11</v>
+      </c>
+      <c r="W370" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X370" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y370" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB370" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG370" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI370" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ370" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK370" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM370" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR370" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="371" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>1</v>
+      </c>
+      <c r="B371" s="2">
+        <v>2</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F371" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G371" s="5">
+        <v>306</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I371" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J371" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K371" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L371" s="6">
+        <v>466</v>
+      </c>
+      <c r="M371" s="7">
+        <v>83188.539999999994</v>
+      </c>
+      <c r="N371" s="6">
+        <v>1</v>
+      </c>
+      <c r="O371" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P371" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q371" s="6">
+        <v>0</v>
+      </c>
+      <c r="R371" s="7">
+        <v>0</v>
+      </c>
+      <c r="S371" s="9">
+        <v>0</v>
+      </c>
+      <c r="T371" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U371" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V371" s="11">
+        <v>11</v>
+      </c>
+      <c r="W371" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X371" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y371" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB371" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG371" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI371" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ371" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK371" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM371" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR371" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="372" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>1</v>
+      </c>
+      <c r="B372" s="2">
+        <v>2</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F372" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G372" s="5">
+        <v>307</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I372" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J372" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K372" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L372" s="6">
+        <v>467</v>
+      </c>
+      <c r="M372" s="7">
+        <v>83367.06</v>
+      </c>
+      <c r="N372" s="6">
+        <v>1</v>
+      </c>
+      <c r="O372" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P372" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q372" s="6">
+        <v>0</v>
+      </c>
+      <c r="R372" s="7">
+        <v>0</v>
+      </c>
+      <c r="S372" s="9">
+        <v>0</v>
+      </c>
+      <c r="T372" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U372" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V372" s="11">
+        <v>11</v>
+      </c>
+      <c r="W372" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X372" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y372" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB372" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG372" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI372" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ372" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK372" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM372" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR372" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="373" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>1</v>
+      </c>
+      <c r="B373" s="2">
+        <v>2</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F373" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G373" s="5">
+        <v>308</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I373" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J373" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K373" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L373" s="6">
+        <v>468</v>
+      </c>
+      <c r="M373" s="7">
+        <v>83545.58</v>
+      </c>
+      <c r="N373" s="6">
+        <v>1</v>
+      </c>
+      <c r="O373" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P373" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q373" s="6">
+        <v>0</v>
+      </c>
+      <c r="R373" s="7">
+        <v>0</v>
+      </c>
+      <c r="S373" s="9">
+        <v>0</v>
+      </c>
+      <c r="T373" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U373" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V373" s="11">
+        <v>11</v>
+      </c>
+      <c r="W373" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X373" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y373" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB373" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG373" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI373" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ373" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK373" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM373" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR373" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="374" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>1</v>
+      </c>
+      <c r="B374" s="2">
+        <v>2</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F374" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G374" s="5">
+        <v>309</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I374" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J374" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K374" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L374" s="6">
+        <v>469</v>
+      </c>
+      <c r="M374" s="7">
+        <v>83724.09</v>
+      </c>
+      <c r="N374" s="6">
+        <v>1</v>
+      </c>
+      <c r="O374" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P374" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q374" s="6">
+        <v>0</v>
+      </c>
+      <c r="R374" s="7">
+        <v>0</v>
+      </c>
+      <c r="S374" s="9">
+        <v>0</v>
+      </c>
+      <c r="T374" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U374" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V374" s="11">
+        <v>11</v>
+      </c>
+      <c r="W374" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X374" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y374" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z374" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA374" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB374" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC374" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD374" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE374" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF374" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG374" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH374" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI374" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ374" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK374" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL374" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM374" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN374" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO374" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP374" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ374" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR374" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="375" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>1</v>
+      </c>
+      <c r="B375" s="2">
+        <v>2</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F375" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G375" s="5">
+        <v>310</v>
+      </c>
+      <c r="H375" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I375" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J375" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K375" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L375" s="6">
+        <v>470</v>
+      </c>
+      <c r="M375" s="7">
+        <v>83902.61</v>
+      </c>
+      <c r="N375" s="6">
+        <v>1</v>
+      </c>
+      <c r="O375" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P375" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q375" s="6">
+        <v>0</v>
+      </c>
+      <c r="R375" s="7">
+        <v>0</v>
+      </c>
+      <c r="S375" s="9">
+        <v>0</v>
+      </c>
+      <c r="T375" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U375" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V375" s="11">
+        <v>11</v>
+      </c>
+      <c r="W375" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X375" s="12">
+        <v>0.58958330000000003</v>
+      </c>
+      <c r="Y375" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z375" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA375" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB375" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC375" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD375" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE375" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF375" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG375" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH375" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI375" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ375" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK375" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL375" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM375" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN375" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO375" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP375" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ375" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR375" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="376" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>1</v>
+      </c>
+      <c r="B376" s="2">
+        <v>2</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F376" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G376" s="5">
+        <v>311</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I376" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J376" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K376" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L376" s="6">
+        <v>471</v>
+      </c>
+      <c r="M376" s="7">
+        <v>84081.12</v>
+      </c>
+      <c r="N376" s="6">
+        <v>1</v>
+      </c>
+      <c r="O376" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P376" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q376" s="6">
+        <v>0</v>
+      </c>
+      <c r="R376" s="7">
+        <v>0</v>
+      </c>
+      <c r="S376" s="9">
+        <v>0</v>
+      </c>
+      <c r="T376" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U376" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V376" s="11">
+        <v>11</v>
+      </c>
+      <c r="W376" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X376" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y376" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z376" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA376" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB376" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC376" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD376" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE376" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF376" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG376" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH376" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI376" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ376" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK376" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL376" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM376" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN376" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO376" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP376" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ376" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR376" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="377" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>1</v>
+      </c>
+      <c r="B377" s="2">
+        <v>2</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F377" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G377" s="5">
+        <v>312</v>
+      </c>
+      <c r="H377" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I377" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J377" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K377" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L377" s="6">
+        <v>472</v>
+      </c>
+      <c r="M377" s="7">
+        <v>84259.64</v>
+      </c>
+      <c r="N377" s="6">
+        <v>1</v>
+      </c>
+      <c r="O377" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P377" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q377" s="6">
+        <v>0</v>
+      </c>
+      <c r="R377" s="7">
+        <v>0</v>
+      </c>
+      <c r="S377" s="9">
+        <v>0</v>
+      </c>
+      <c r="T377" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U377" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V377" s="11">
+        <v>11</v>
+      </c>
+      <c r="W377" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X377" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y377" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z377" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA377" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB377" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC377" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD377" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE377" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF377" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG377" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH377" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI377" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ377" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK377" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL377" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM377" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN377" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO377" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP377" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ377" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR377" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="378" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>1</v>
+      </c>
+      <c r="B378" s="2">
+        <v>2</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F378" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G378" s="5">
+        <v>313</v>
+      </c>
+      <c r="H378" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I378" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J378" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K378" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L378" s="6">
+        <v>473</v>
+      </c>
+      <c r="M378" s="7">
+        <v>84438.16</v>
+      </c>
+      <c r="N378" s="6">
+        <v>1</v>
+      </c>
+      <c r="O378" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P378" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q378" s="6">
+        <v>0</v>
+      </c>
+      <c r="R378" s="7">
+        <v>0</v>
+      </c>
+      <c r="S378" s="9">
+        <v>0</v>
+      </c>
+      <c r="T378" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U378" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V378" s="11">
+        <v>11</v>
+      </c>
+      <c r="W378" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X378" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y378" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z378" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA378" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB378" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC378" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD378" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE378" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF378" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG378" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH378" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI378" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ378" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK378" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL378" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM378" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN378" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO378" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP378" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ378" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR378" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="379" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>1</v>
+      </c>
+      <c r="B379" s="2">
+        <v>2</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F379" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G379" s="5">
+        <v>314</v>
+      </c>
+      <c r="H379" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I379" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J379" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K379" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L379" s="6">
+        <v>474</v>
+      </c>
+      <c r="M379" s="7">
+        <v>84616.67</v>
+      </c>
+      <c r="N379" s="6">
+        <v>1</v>
+      </c>
+      <c r="O379" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P379" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q379" s="6">
+        <v>0</v>
+      </c>
+      <c r="R379" s="7">
+        <v>0</v>
+      </c>
+      <c r="S379" s="9">
+        <v>0</v>
+      </c>
+      <c r="T379" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U379" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V379" s="11">
+        <v>11</v>
+      </c>
+      <c r="W379" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X379" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y379" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z379" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA379" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB379" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC379" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD379" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE379" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF379" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG379" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH379" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI379" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ379" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK379" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL379" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM379" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN379" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO379" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP379" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ379" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR379" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="380" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>1</v>
+      </c>
+      <c r="B380" s="2">
+        <v>2</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F380" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G380" s="5">
+        <v>315</v>
+      </c>
+      <c r="H380" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I380" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J380" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K380" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L380" s="6">
+        <v>475</v>
+      </c>
+      <c r="M380" s="7">
+        <v>84795.19</v>
+      </c>
+      <c r="N380" s="6">
+        <v>1</v>
+      </c>
+      <c r="O380" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P380" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q380" s="6">
+        <v>0</v>
+      </c>
+      <c r="R380" s="7">
+        <v>0</v>
+      </c>
+      <c r="S380" s="9">
+        <v>0</v>
+      </c>
+      <c r="T380" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U380" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V380" s="11">
+        <v>11</v>
+      </c>
+      <c r="W380" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X380" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y380" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z380" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA380" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB380" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC380" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD380" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE380" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF380" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG380" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH380" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI380" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ380" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK380" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL380" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM380" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN380" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO380" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP380" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ380" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR380" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="381" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>1</v>
+      </c>
+      <c r="B381" s="2">
+        <v>2</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F381" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G381" s="5">
+        <v>316</v>
+      </c>
+      <c r="H381" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I381" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J381" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K381" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L381" s="6">
+        <v>476</v>
+      </c>
+      <c r="M381" s="7">
+        <v>84973.71</v>
+      </c>
+      <c r="N381" s="6">
+        <v>1</v>
+      </c>
+      <c r="O381" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P381" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q381" s="6">
+        <v>0</v>
+      </c>
+      <c r="R381" s="7">
+        <v>0</v>
+      </c>
+      <c r="S381" s="9">
+        <v>0</v>
+      </c>
+      <c r="T381" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U381" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V381" s="11">
+        <v>11</v>
+      </c>
+      <c r="W381" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X381" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y381" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z381" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA381" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB381" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC381" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD381" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE381" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF381" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG381" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH381" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI381" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ381" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK381" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL381" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM381" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN381" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO381" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP381" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ381" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR381" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="382" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>1</v>
+      </c>
+      <c r="B382" s="2">
+        <v>2</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F382" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G382" s="5">
+        <v>317</v>
+      </c>
+      <c r="H382" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I382" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J382" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K382" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L382" s="6">
+        <v>477</v>
+      </c>
+      <c r="M382" s="7">
+        <v>85152.22</v>
+      </c>
+      <c r="N382" s="6">
+        <v>1</v>
+      </c>
+      <c r="O382" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P382" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q382" s="6">
+        <v>0</v>
+      </c>
+      <c r="R382" s="7">
+        <v>0</v>
+      </c>
+      <c r="S382" s="9">
+        <v>0</v>
+      </c>
+      <c r="T382" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U382" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V382" s="11">
+        <v>11</v>
+      </c>
+      <c r="W382" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X382" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y382" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z382" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA382" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB382" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC382" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD382" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE382" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF382" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG382" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH382" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI382" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ382" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK382" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL382" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM382" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN382" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO382" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP382" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ382" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR382" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="383" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>1</v>
+      </c>
+      <c r="B383" s="2">
+        <v>2</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F383" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G383" s="5">
+        <v>318</v>
+      </c>
+      <c r="H383" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I383" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J383" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K383" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L383" s="6">
+        <v>478</v>
+      </c>
+      <c r="M383" s="7">
+        <v>85330.74</v>
+      </c>
+      <c r="N383" s="6">
+        <v>1</v>
+      </c>
+      <c r="O383" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P383" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q383" s="6">
+        <v>0</v>
+      </c>
+      <c r="R383" s="7">
+        <v>0</v>
+      </c>
+      <c r="S383" s="9">
+        <v>0</v>
+      </c>
+      <c r="T383" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U383" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V383" s="11">
+        <v>11</v>
+      </c>
+      <c r="W383" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X383" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y383" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z383" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA383" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB383" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC383" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD383" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE383" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF383" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG383" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH383" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI383" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ383" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK383" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL383" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM383" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN383" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO383" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP383" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ383" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR383" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="384" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>1</v>
+      </c>
+      <c r="B384" s="2">
+        <v>2</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F384" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G384" s="5">
+        <v>319</v>
+      </c>
+      <c r="H384" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I384" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J384" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K384" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L384" s="6">
+        <v>479</v>
+      </c>
+      <c r="M384" s="7">
+        <v>85509.25</v>
+      </c>
+      <c r="N384" s="6">
+        <v>1</v>
+      </c>
+      <c r="O384" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P384" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q384" s="6">
+        <v>0</v>
+      </c>
+      <c r="R384" s="7">
+        <v>0</v>
+      </c>
+      <c r="S384" s="9">
+        <v>0</v>
+      </c>
+      <c r="T384" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U384" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V384" s="11">
+        <v>11</v>
+      </c>
+      <c r="W384" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X384" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y384" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z384" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA384" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB384" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC384" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD384" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE384" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF384" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG384" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH384" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI384" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ384" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK384" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL384" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM384" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN384" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO384" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP384" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ384" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR384" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="385" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>1</v>
+      </c>
+      <c r="B385" s="2">
+        <v>2</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F385" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G385" s="5">
+        <v>320</v>
+      </c>
+      <c r="H385" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I385" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J385" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K385" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L385" s="6">
+        <v>480</v>
+      </c>
+      <c r="M385" s="7">
+        <v>85687.77</v>
+      </c>
+      <c r="N385" s="6">
+        <v>1</v>
+      </c>
+      <c r="O385" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P385" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q385" s="6">
+        <v>0</v>
+      </c>
+      <c r="R385" s="7">
+        <v>0</v>
+      </c>
+      <c r="S385" s="9">
+        <v>0</v>
+      </c>
+      <c r="T385" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U385" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V385" s="11">
+        <v>11</v>
+      </c>
+      <c r="W385" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X385" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y385" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z385" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA385" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB385" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC385" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD385" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE385" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF385" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG385" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH385" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI385" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ385" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK385" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL385" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM385" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN385" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO385" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP385" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ385" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR385" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="386" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>1</v>
+      </c>
+      <c r="B386" s="2">
+        <v>2</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F386" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G386" s="5">
+        <v>321</v>
+      </c>
+      <c r="H386" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I386" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J386" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K386" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L386" s="6">
+        <v>481</v>
+      </c>
+      <c r="M386" s="7">
+        <v>85866.29</v>
+      </c>
+      <c r="N386" s="6">
+        <v>1</v>
+      </c>
+      <c r="O386" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P386" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q386" s="6">
+        <v>0</v>
+      </c>
+      <c r="R386" s="7">
+        <v>0</v>
+      </c>
+      <c r="S386" s="9">
+        <v>0</v>
+      </c>
+      <c r="T386" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U386" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V386" s="11">
+        <v>11</v>
+      </c>
+      <c r="W386" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X386" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y386" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z386" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA386" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB386" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC386" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD386" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE386" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF386" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG386" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH386" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI386" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ386" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK386" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL386" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM386" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN386" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO386" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP386" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ386" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR386" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="387" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>1</v>
+      </c>
+      <c r="B387" s="2">
+        <v>2</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F387" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G387" s="5">
+        <v>322</v>
+      </c>
+      <c r="H387" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I387" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J387" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K387" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L387" s="6">
+        <v>482</v>
+      </c>
+      <c r="M387" s="7">
+        <v>86044.800000000003</v>
+      </c>
+      <c r="N387" s="6">
+        <v>1</v>
+      </c>
+      <c r="O387" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P387" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q387" s="6">
+        <v>0</v>
+      </c>
+      <c r="R387" s="7">
+        <v>0</v>
+      </c>
+      <c r="S387" s="9">
+        <v>0</v>
+      </c>
+      <c r="T387" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U387" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V387" s="11">
+        <v>11</v>
+      </c>
+      <c r="W387" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X387" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y387" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z387" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA387" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB387" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC387" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD387" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE387" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF387" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG387" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH387" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI387" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ387" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK387" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL387" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM387" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN387" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO387" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP387" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ387" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR387" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="388" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>1</v>
+      </c>
+      <c r="B388" s="2">
+        <v>2</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F388" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G388" s="5">
+        <v>323</v>
+      </c>
+      <c r="H388" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I388" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J388" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K388" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L388" s="6">
+        <v>483</v>
+      </c>
+      <c r="M388" s="7">
+        <v>86223.32</v>
+      </c>
+      <c r="N388" s="6">
+        <v>1</v>
+      </c>
+      <c r="O388" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P388" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q388" s="6">
+        <v>0</v>
+      </c>
+      <c r="R388" s="7">
+        <v>0</v>
+      </c>
+      <c r="S388" s="9">
+        <v>0</v>
+      </c>
+      <c r="T388" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U388" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V388" s="11">
+        <v>11</v>
+      </c>
+      <c r="W388" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X388" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y388" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z388" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA388" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB388" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC388" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD388" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE388" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF388" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG388" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH388" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI388" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ388" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK388" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL388" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM388" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN388" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO388" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP388" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ388" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR388" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="389" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>1</v>
+      </c>
+      <c r="B389" s="2">
+        <v>2</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F389" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G389" s="5">
+        <v>324</v>
+      </c>
+      <c r="H389" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I389" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J389" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K389" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L389" s="6">
+        <v>484</v>
+      </c>
+      <c r="M389" s="7">
+        <v>86401.84</v>
+      </c>
+      <c r="N389" s="6">
+        <v>1</v>
+      </c>
+      <c r="O389" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P389" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q389" s="6">
+        <v>0</v>
+      </c>
+      <c r="R389" s="7">
+        <v>0</v>
+      </c>
+      <c r="S389" s="9">
+        <v>0</v>
+      </c>
+      <c r="T389" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U389" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V389" s="11">
+        <v>11</v>
+      </c>
+      <c r="W389" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X389" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y389" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z389" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA389" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB389" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC389" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD389" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE389" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF389" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG389" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH389" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI389" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ389" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK389" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL389" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM389" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN389" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO389" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP389" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ389" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR389" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="390" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>1</v>
+      </c>
+      <c r="B390" s="2">
+        <v>2</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F390" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G390" s="5">
+        <v>325</v>
+      </c>
+      <c r="H390" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I390" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J390" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K390" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L390" s="6">
+        <v>485</v>
+      </c>
+      <c r="M390" s="7">
+        <v>86580.35</v>
+      </c>
+      <c r="N390" s="6">
+        <v>1</v>
+      </c>
+      <c r="O390" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P390" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q390" s="6">
+        <v>0</v>
+      </c>
+      <c r="R390" s="7">
+        <v>0</v>
+      </c>
+      <c r="S390" s="9">
+        <v>0</v>
+      </c>
+      <c r="T390" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U390" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V390" s="11">
+        <v>11</v>
+      </c>
+      <c r="W390" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X390" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y390" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z390" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA390" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB390" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC390" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD390" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE390" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF390" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG390" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH390" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI390" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ390" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK390" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL390" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM390" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN390" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO390" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP390" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ390" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR390" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="391" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>1</v>
+      </c>
+      <c r="B391" s="2">
+        <v>2</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F391" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G391" s="5">
+        <v>326</v>
+      </c>
+      <c r="H391" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I391" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J391" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K391" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L391" s="6">
+        <v>486</v>
+      </c>
+      <c r="M391" s="7">
+        <v>86758.87</v>
+      </c>
+      <c r="N391" s="6">
+        <v>1</v>
+      </c>
+      <c r="O391" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P391" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q391" s="6">
+        <v>0</v>
+      </c>
+      <c r="R391" s="7">
+        <v>0</v>
+      </c>
+      <c r="S391" s="9">
+        <v>0</v>
+      </c>
+      <c r="T391" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U391" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V391" s="11">
+        <v>11</v>
+      </c>
+      <c r="W391" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X391" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y391" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z391" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA391" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB391" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC391" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD391" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE391" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF391" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG391" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH391" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI391" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ391" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK391" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL391" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM391" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN391" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO391" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP391" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ391" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR391" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="392" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>1</v>
+      </c>
+      <c r="B392" s="2">
+        <v>2</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F392" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G392" s="5">
+        <v>327</v>
+      </c>
+      <c r="H392" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I392" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J392" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K392" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L392" s="6">
+        <v>487</v>
+      </c>
+      <c r="M392" s="7">
+        <v>86937.38</v>
+      </c>
+      <c r="N392" s="6">
+        <v>1</v>
+      </c>
+      <c r="O392" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P392" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q392" s="6">
+        <v>0</v>
+      </c>
+      <c r="R392" s="7">
+        <v>0</v>
+      </c>
+      <c r="S392" s="9">
+        <v>0</v>
+      </c>
+      <c r="T392" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U392" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V392" s="11">
+        <v>11</v>
+      </c>
+      <c r="W392" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X392" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y392" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z392" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA392" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB392" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC392" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD392" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE392" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF392" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG392" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH392" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI392" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ392" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK392" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL392" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM392" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN392" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO392" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP392" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ392" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR392" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="393" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>1</v>
+      </c>
+      <c r="B393" s="2">
+        <v>2</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F393" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G393" s="5">
+        <v>328</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I393" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J393" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K393" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L393" s="6">
+        <v>488</v>
+      </c>
+      <c r="M393" s="7">
+        <v>87115.9</v>
+      </c>
+      <c r="N393" s="6">
+        <v>1</v>
+      </c>
+      <c r="O393" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P393" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q393" s="6">
+        <v>0</v>
+      </c>
+      <c r="R393" s="7">
+        <v>0</v>
+      </c>
+      <c r="S393" s="9">
+        <v>0</v>
+      </c>
+      <c r="T393" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U393" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V393" s="11">
+        <v>11</v>
+      </c>
+      <c r="W393" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X393" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y393" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z393" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA393" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB393" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC393" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD393" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE393" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF393" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG393" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH393" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI393" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ393" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK393" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL393" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM393" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN393" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO393" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP393" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ393" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR393" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="394" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>1</v>
+      </c>
+      <c r="B394" s="2">
+        <v>2</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F394" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G394" s="5">
+        <v>329</v>
+      </c>
+      <c r="H394" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I394" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J394" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K394" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L394" s="6">
+        <v>489</v>
+      </c>
+      <c r="M394" s="7">
+        <v>87294.42</v>
+      </c>
+      <c r="N394" s="6">
+        <v>1</v>
+      </c>
+      <c r="O394" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P394" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q394" s="6">
+        <v>0</v>
+      </c>
+      <c r="R394" s="7">
+        <v>0</v>
+      </c>
+      <c r="S394" s="9">
+        <v>0</v>
+      </c>
+      <c r="T394" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U394" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V394" s="11">
+        <v>11</v>
+      </c>
+      <c r="W394" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X394" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y394" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z394" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA394" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB394" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC394" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD394" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE394" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF394" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG394" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH394" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI394" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ394" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK394" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL394" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM394" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN394" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO394" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP394" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ394" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR394" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="395" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>1</v>
+      </c>
+      <c r="B395" s="2">
+        <v>2</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F395" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G395" s="5">
+        <v>330</v>
+      </c>
+      <c r="H395" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I395" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J395" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K395" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L395" s="6">
+        <v>490</v>
+      </c>
+      <c r="M395" s="7">
+        <v>87472.93</v>
+      </c>
+      <c r="N395" s="6">
+        <v>1</v>
+      </c>
+      <c r="O395" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P395" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q395" s="6">
+        <v>0</v>
+      </c>
+      <c r="R395" s="7">
+        <v>0</v>
+      </c>
+      <c r="S395" s="9">
+        <v>0</v>
+      </c>
+      <c r="T395" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U395" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V395" s="11">
+        <v>11</v>
+      </c>
+      <c r="W395" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X395" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y395" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z395" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA395" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB395" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC395" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD395" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE395" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF395" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG395" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH395" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI395" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ395" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK395" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL395" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM395" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN395" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO395" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP395" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ395" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR395" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="396" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>1</v>
+      </c>
+      <c r="B396" s="2">
+        <v>2</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F396" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G396" s="5">
+        <v>331</v>
+      </c>
+      <c r="H396" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I396" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J396" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K396" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L396" s="6">
+        <v>491</v>
+      </c>
+      <c r="M396" s="7">
+        <v>87651.45</v>
+      </c>
+      <c r="N396" s="6">
+        <v>1</v>
+      </c>
+      <c r="O396" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P396" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q396" s="6">
+        <v>0</v>
+      </c>
+      <c r="R396" s="7">
+        <v>0</v>
+      </c>
+      <c r="S396" s="9">
+        <v>0</v>
+      </c>
+      <c r="T396" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U396" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V396" s="11">
+        <v>11</v>
+      </c>
+      <c r="W396" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X396" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y396" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z396" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA396" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB396" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC396" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD396" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE396" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF396" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG396" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH396" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI396" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ396" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK396" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL396" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM396" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN396" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO396" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP396" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ396" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR396" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="397" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>1</v>
+      </c>
+      <c r="B397" s="2">
+        <v>2</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F397" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G397" s="5">
+        <v>332</v>
+      </c>
+      <c r="H397" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I397" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J397" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K397" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L397" s="6">
+        <v>492</v>
+      </c>
+      <c r="M397" s="7">
+        <v>87829.96</v>
+      </c>
+      <c r="N397" s="6">
+        <v>1</v>
+      </c>
+      <c r="O397" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P397" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q397" s="6">
+        <v>0</v>
+      </c>
+      <c r="R397" s="7">
+        <v>0</v>
+      </c>
+      <c r="S397" s="9">
+        <v>0</v>
+      </c>
+      <c r="T397" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U397" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V397" s="11">
+        <v>11</v>
+      </c>
+      <c r="W397" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X397" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y397" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z397" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA397" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB397" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC397" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD397" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE397" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF397" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG397" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH397" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI397" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ397" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK397" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL397" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM397" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN397" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO397" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP397" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ397" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR397" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="398" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>1</v>
+      </c>
+      <c r="B398" s="2">
+        <v>2</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F398" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G398" s="5">
+        <v>333</v>
+      </c>
+      <c r="H398" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I398" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J398" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K398" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L398" s="6">
+        <v>493</v>
+      </c>
+      <c r="M398" s="7">
+        <v>88008.48</v>
+      </c>
+      <c r="N398" s="6">
+        <v>1</v>
+      </c>
+      <c r="O398" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P398" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q398" s="6">
+        <v>0</v>
+      </c>
+      <c r="R398" s="7">
+        <v>0</v>
+      </c>
+      <c r="S398" s="9">
+        <v>0</v>
+      </c>
+      <c r="T398" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U398" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V398" s="11">
+        <v>11</v>
+      </c>
+      <c r="W398" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X398" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y398" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z398" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA398" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB398" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC398" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD398" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE398" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF398" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG398" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH398" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI398" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ398" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK398" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL398" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM398" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN398" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO398" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP398" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ398" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR398" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="399" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>1</v>
+      </c>
+      <c r="B399" s="2">
+        <v>2</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F399" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G399" s="5">
+        <v>334</v>
+      </c>
+      <c r="H399" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I399" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J399" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K399" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L399" s="6">
+        <v>494</v>
+      </c>
+      <c r="M399" s="7">
+        <v>88187</v>
+      </c>
+      <c r="N399" s="6">
+        <v>1</v>
+      </c>
+      <c r="O399" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P399" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q399" s="6">
+        <v>0</v>
+      </c>
+      <c r="R399" s="7">
+        <v>0</v>
+      </c>
+      <c r="S399" s="9">
+        <v>0</v>
+      </c>
+      <c r="T399" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U399" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V399" s="11">
+        <v>11</v>
+      </c>
+      <c r="W399" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X399" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y399" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z399" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA399" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB399" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC399" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD399" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE399" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF399" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG399" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH399" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI399" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ399" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK399" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL399" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM399" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN399" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO399" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP399" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ399" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR399" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="400" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>1</v>
+      </c>
+      <c r="B400" s="2">
+        <v>2</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F400" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G400" s="5">
+        <v>335</v>
+      </c>
+      <c r="H400" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I400" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J400" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K400" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L400" s="6">
+        <v>495</v>
+      </c>
+      <c r="M400" s="7">
+        <v>88365.51</v>
+      </c>
+      <c r="N400" s="6">
+        <v>1</v>
+      </c>
+      <c r="O400" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P400" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q400" s="6">
+        <v>0</v>
+      </c>
+      <c r="R400" s="7">
+        <v>0</v>
+      </c>
+      <c r="S400" s="9">
+        <v>0</v>
+      </c>
+      <c r="T400" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U400" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V400" s="11">
+        <v>11</v>
+      </c>
+      <c r="W400" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X400" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y400" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z400" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA400" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB400" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC400" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD400" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE400" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF400" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG400" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH400" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI400" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ400" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK400" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL400" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM400" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN400" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO400" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP400" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ400" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR400" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="401" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>1</v>
+      </c>
+      <c r="B401" s="2">
+        <v>2</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F401" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G401" s="5">
+        <v>336</v>
+      </c>
+      <c r="H401" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I401" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J401" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K401" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L401" s="6">
+        <v>496</v>
+      </c>
+      <c r="M401" s="7">
+        <v>88544.03</v>
+      </c>
+      <c r="N401" s="6">
+        <v>1</v>
+      </c>
+      <c r="O401" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P401" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q401" s="6">
+        <v>0</v>
+      </c>
+      <c r="R401" s="7">
+        <v>0</v>
+      </c>
+      <c r="S401" s="9">
+        <v>0</v>
+      </c>
+      <c r="T401" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U401" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V401" s="11">
+        <v>11</v>
+      </c>
+      <c r="W401" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X401" s="12">
+        <v>0.61041670000000003</v>
+      </c>
+      <c r="Y401" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z401" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA401" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB401" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC401" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD401" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE401" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF401" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG401" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH401" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI401" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ401" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK401" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL401" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM401" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN401" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO401" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP401" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ401" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR401" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="402" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>1</v>
+      </c>
+      <c r="B402" s="2">
+        <v>2</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F402" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G402" s="5">
+        <v>337</v>
+      </c>
+      <c r="H402" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I402" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J402" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K402" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L402" s="6">
+        <v>497</v>
+      </c>
+      <c r="M402" s="7">
+        <v>88722.55</v>
+      </c>
+      <c r="N402" s="6">
+        <v>1</v>
+      </c>
+      <c r="O402" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P402" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q402" s="6">
+        <v>0</v>
+      </c>
+      <c r="R402" s="7">
+        <v>0</v>
+      </c>
+      <c r="S402" s="9">
+        <v>0</v>
+      </c>
+      <c r="T402" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U402" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V402" s="11">
+        <v>11</v>
+      </c>
+      <c r="W402" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X402" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y402" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z402" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA402" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB402" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC402" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD402" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE402" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF402" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG402" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH402" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI402" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ402" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK402" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL402" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM402" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN402" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO402" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP402" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ402" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR402" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="403" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>1</v>
+      </c>
+      <c r="B403" s="2">
+        <v>2</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F403" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G403" s="5">
+        <v>338</v>
+      </c>
+      <c r="H403" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I403" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J403" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K403" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L403" s="6">
+        <v>498</v>
+      </c>
+      <c r="M403" s="7">
+        <v>88901.06</v>
+      </c>
+      <c r="N403" s="6">
+        <v>1</v>
+      </c>
+      <c r="O403" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P403" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q403" s="6">
+        <v>0</v>
+      </c>
+      <c r="R403" s="7">
+        <v>0</v>
+      </c>
+      <c r="S403" s="9">
+        <v>0</v>
+      </c>
+      <c r="T403" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U403" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V403" s="11">
+        <v>11</v>
+      </c>
+      <c r="W403" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X403" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y403" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z403" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA403" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB403" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC403" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD403" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE403" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF403" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG403" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH403" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI403" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ403" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK403" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL403" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM403" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN403" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO403" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP403" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ403" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR403" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="404" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>1</v>
+      </c>
+      <c r="B404" s="2">
+        <v>2</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F404" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G404" s="5">
+        <v>339</v>
+      </c>
+      <c r="H404" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I404" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J404" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K404" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L404" s="6">
+        <v>499</v>
+      </c>
+      <c r="M404" s="7">
+        <v>89079.58</v>
+      </c>
+      <c r="N404" s="6">
+        <v>1</v>
+      </c>
+      <c r="O404" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P404" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q404" s="6">
+        <v>0</v>
+      </c>
+      <c r="R404" s="7">
+        <v>0</v>
+      </c>
+      <c r="S404" s="9">
+        <v>0</v>
+      </c>
+      <c r="T404" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U404" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V404" s="11">
+        <v>11</v>
+      </c>
+      <c r="W404" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X404" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y404" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z404" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA404" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB404" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC404" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD404" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE404" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF404" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG404" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH404" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI404" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ404" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK404" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL404" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM404" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN404" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO404" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP404" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ404" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR404" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="405" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>1</v>
+      </c>
+      <c r="B405" s="2">
+        <v>2</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F405" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G405" s="5">
+        <v>340</v>
+      </c>
+      <c r="H405" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I405" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J405" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K405" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L405" s="6">
+        <v>500</v>
+      </c>
+      <c r="M405" s="7">
+        <v>89258.09</v>
+      </c>
+      <c r="N405" s="6">
+        <v>1</v>
+      </c>
+      <c r="O405" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P405" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q405" s="6">
+        <v>0</v>
+      </c>
+      <c r="R405" s="7">
+        <v>0</v>
+      </c>
+      <c r="S405" s="9">
+        <v>0</v>
+      </c>
+      <c r="T405" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U405" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V405" s="11">
+        <v>11</v>
+      </c>
+      <c r="W405" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X405" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y405" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z405" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA405" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB405" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC405" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD405" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE405" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF405" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG405" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH405" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI405" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ405" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK405" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL405" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM405" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN405" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO405" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP405" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ405" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR405" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="406" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>1</v>
+      </c>
+      <c r="B406" s="2">
+        <v>2</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F406" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G406" s="5">
+        <v>341</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I406" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J406" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K406" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L406" s="6">
+        <v>501</v>
+      </c>
+      <c r="M406" s="7">
+        <v>89436.61</v>
+      </c>
+      <c r="N406" s="6">
+        <v>1</v>
+      </c>
+      <c r="O406" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P406" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q406" s="6">
+        <v>0</v>
+      </c>
+      <c r="R406" s="7">
+        <v>0</v>
+      </c>
+      <c r="S406" s="9">
+        <v>0</v>
+      </c>
+      <c r="T406" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U406" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V406" s="11">
+        <v>11</v>
+      </c>
+      <c r="W406" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X406" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y406" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z406" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA406" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB406" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC406" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD406" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE406" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF406" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG406" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH406" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI406" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ406" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK406" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL406" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM406" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN406" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO406" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP406" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ406" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR406" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="407" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>1</v>
+      </c>
+      <c r="B407" s="2">
+        <v>2</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F407" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G407" s="5">
+        <v>342</v>
+      </c>
+      <c r="H407" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I407" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J407" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K407" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L407" s="6">
+        <v>502</v>
+      </c>
+      <c r="M407" s="7">
+        <v>89615.13</v>
+      </c>
+      <c r="N407" s="6">
+        <v>1</v>
+      </c>
+      <c r="O407" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P407" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q407" s="6">
+        <v>0</v>
+      </c>
+      <c r="R407" s="7">
+        <v>0</v>
+      </c>
+      <c r="S407" s="9">
+        <v>0</v>
+      </c>
+      <c r="T407" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U407" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V407" s="11">
+        <v>11</v>
+      </c>
+      <c r="W407" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X407" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y407" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z407" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA407" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB407" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC407" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD407" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE407" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF407" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG407" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH407" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI407" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ407" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK407" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL407" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM407" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN407" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO407" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP407" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ407" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR407" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="408" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>1</v>
+      </c>
+      <c r="B408" s="2">
+        <v>2</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F408" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G408" s="5">
+        <v>343</v>
+      </c>
+      <c r="H408" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I408" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J408" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K408" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L408" s="6">
+        <v>503</v>
+      </c>
+      <c r="M408" s="7">
+        <v>89793.64</v>
+      </c>
+      <c r="N408" s="6">
+        <v>1</v>
+      </c>
+      <c r="O408" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P408" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q408" s="6">
+        <v>0</v>
+      </c>
+      <c r="R408" s="7">
+        <v>0</v>
+      </c>
+      <c r="S408" s="9">
+        <v>0</v>
+      </c>
+      <c r="T408" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U408" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V408" s="11">
+        <v>11</v>
+      </c>
+      <c r="W408" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X408" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y408" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z408" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA408" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB408" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC408" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD408" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE408" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF408" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG408" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH408" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI408" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ408" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK408" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL408" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM408" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN408" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO408" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP408" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ408" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR408" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="409" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>1</v>
+      </c>
+      <c r="B409" s="2">
+        <v>2</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F409" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G409" s="5">
+        <v>344</v>
+      </c>
+      <c r="H409" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I409" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J409" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K409" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L409" s="6">
+        <v>504</v>
+      </c>
+      <c r="M409" s="7">
+        <v>89972.160000000003</v>
+      </c>
+      <c r="N409" s="6">
+        <v>1</v>
+      </c>
+      <c r="O409" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P409" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q409" s="6">
+        <v>0</v>
+      </c>
+      <c r="R409" s="7">
+        <v>0</v>
+      </c>
+      <c r="S409" s="9">
+        <v>0</v>
+      </c>
+      <c r="T409" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U409" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V409" s="11">
+        <v>11</v>
+      </c>
+      <c r="W409" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X409" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y409" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z409" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA409" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB409" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC409" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD409" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE409" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF409" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG409" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH409" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI409" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ409" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK409" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL409" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM409" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN409" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO409" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP409" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ409" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR409" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="410" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>1</v>
+      </c>
+      <c r="B410" s="2">
+        <v>2</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F410" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G410" s="5">
+        <v>345</v>
+      </c>
+      <c r="H410" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I410" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J410" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K410" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L410" s="6">
+        <v>505</v>
+      </c>
+      <c r="M410" s="7">
+        <v>90150.68</v>
+      </c>
+      <c r="N410" s="6">
+        <v>1</v>
+      </c>
+      <c r="O410" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P410" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q410" s="6">
+        <v>0</v>
+      </c>
+      <c r="R410" s="7">
+        <v>0</v>
+      </c>
+      <c r="S410" s="9">
+        <v>0</v>
+      </c>
+      <c r="T410" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U410" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V410" s="11">
+        <v>11</v>
+      </c>
+      <c r="W410" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X410" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y410" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z410" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA410" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB410" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC410" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD410" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE410" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF410" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG410" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH410" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI410" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ410" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK410" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL410" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM410" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN410" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO410" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP410" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ410" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR410" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="411" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>1</v>
+      </c>
+      <c r="B411" s="2">
+        <v>2</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F411" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G411" s="5">
+        <v>346</v>
+      </c>
+      <c r="H411" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I411" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J411" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K411" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L411" s="6">
+        <v>506</v>
+      </c>
+      <c r="M411" s="7">
+        <v>90329.19</v>
+      </c>
+      <c r="N411" s="6">
+        <v>1</v>
+      </c>
+      <c r="O411" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P411" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q411" s="6">
+        <v>0</v>
+      </c>
+      <c r="R411" s="7">
+        <v>0</v>
+      </c>
+      <c r="S411" s="9">
+        <v>0</v>
+      </c>
+      <c r="T411" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U411" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V411" s="11">
+        <v>11</v>
+      </c>
+      <c r="W411" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X411" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y411" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z411" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA411" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB411" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC411" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD411" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE411" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF411" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG411" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH411" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI411" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ411" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK411" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL411" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM411" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN411" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO411" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP411" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ411" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR411" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="412" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>1</v>
+      </c>
+      <c r="B412" s="2">
+        <v>2</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F412" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G412" s="5">
+        <v>347</v>
+      </c>
+      <c r="H412" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I412" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J412" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K412" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L412" s="6">
+        <v>507</v>
+      </c>
+      <c r="M412" s="7">
+        <v>90507.71</v>
+      </c>
+      <c r="N412" s="6">
+        <v>1</v>
+      </c>
+      <c r="O412" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P412" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q412" s="6">
+        <v>0</v>
+      </c>
+      <c r="R412" s="7">
+        <v>0</v>
+      </c>
+      <c r="S412" s="9">
+        <v>0</v>
+      </c>
+      <c r="T412" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U412" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V412" s="11">
+        <v>11</v>
+      </c>
+      <c r="W412" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X412" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y412" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z412" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA412" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB412" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC412" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD412" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE412" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF412" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG412" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH412" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI412" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ412" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK412" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL412" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM412" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN412" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO412" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP412" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ412" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR412" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="413" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>1</v>
+      </c>
+      <c r="B413" s="2">
+        <v>2</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F413" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G413" s="5">
+        <v>348</v>
+      </c>
+      <c r="H413" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I413" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J413" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K413" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L413" s="6">
+        <v>508</v>
+      </c>
+      <c r="M413" s="7">
+        <v>90686.22</v>
+      </c>
+      <c r="N413" s="6">
+        <v>1</v>
+      </c>
+      <c r="O413" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P413" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q413" s="6">
+        <v>0</v>
+      </c>
+      <c r="R413" s="7">
+        <v>0</v>
+      </c>
+      <c r="S413" s="9">
+        <v>0</v>
+      </c>
+      <c r="T413" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U413" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V413" s="11">
+        <v>11</v>
+      </c>
+      <c r="W413" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X413" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y413" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z413" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA413" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB413" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC413" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD413" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE413" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF413" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG413" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH413" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI413" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ413" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK413" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL413" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM413" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN413" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO413" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP413" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ413" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR413" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="414" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>1</v>
+      </c>
+      <c r="B414" s="2">
+        <v>2</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F414" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G414" s="5">
+        <v>349</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I414" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J414" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K414" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L414" s="6">
+        <v>509</v>
+      </c>
+      <c r="M414" s="7">
+        <v>90864.74</v>
+      </c>
+      <c r="N414" s="6">
+        <v>1</v>
+      </c>
+      <c r="O414" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P414" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q414" s="6">
+        <v>0</v>
+      </c>
+      <c r="R414" s="7">
+        <v>0</v>
+      </c>
+      <c r="S414" s="9">
+        <v>0</v>
+      </c>
+      <c r="T414" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U414" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V414" s="11">
+        <v>11</v>
+      </c>
+      <c r="W414" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X414" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y414" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA414" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB414" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC414" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD414" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE414" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF414" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG414" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH414" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI414" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ414" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK414" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL414" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM414" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN414" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO414" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP414" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ414" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR414" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="415" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>1</v>
+      </c>
+      <c r="B415" s="2">
+        <v>2</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F415" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G415" s="5">
+        <v>350</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I415" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J415" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K415" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L415" s="6">
+        <v>510</v>
+      </c>
+      <c r="M415" s="7">
+        <v>91043.26</v>
+      </c>
+      <c r="N415" s="6">
+        <v>1</v>
+      </c>
+      <c r="O415" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P415" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q415" s="6">
+        <v>0</v>
+      </c>
+      <c r="R415" s="7">
+        <v>0</v>
+      </c>
+      <c r="S415" s="9">
+        <v>0</v>
+      </c>
+      <c r="T415" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U415" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V415" s="11">
+        <v>11</v>
+      </c>
+      <c r="W415" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X415" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y415" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z415" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA415" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB415" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC415" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD415" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE415" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF415" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG415" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH415" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI415" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ415" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK415" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL415" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM415" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN415" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO415" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP415" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ415" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR415" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="416" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>1</v>
+      </c>
+      <c r="B416" s="2">
+        <v>2</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F416" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G416" s="5">
+        <v>351</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I416" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J416" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K416" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L416" s="6">
+        <v>511</v>
+      </c>
+      <c r="M416" s="7">
+        <v>91221.77</v>
+      </c>
+      <c r="N416" s="6">
+        <v>1</v>
+      </c>
+      <c r="O416" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P416" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q416" s="6">
+        <v>0</v>
+      </c>
+      <c r="R416" s="7">
+        <v>0</v>
+      </c>
+      <c r="S416" s="9">
+        <v>0</v>
+      </c>
+      <c r="T416" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U416" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V416" s="11">
+        <v>11</v>
+      </c>
+      <c r="W416" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X416" s="12">
+        <v>0.61111110000000002</v>
+      </c>
+      <c r="Y416" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z416" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA416" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB416" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC416" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD416" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE416" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF416" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG416" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH416" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI416" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ416" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK416" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL416" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM416" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN416" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO416" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP416" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ416" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR416" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="417" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>1</v>
+      </c>
+      <c r="B417" s="2">
+        <v>2</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F417" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G417" s="5">
+        <v>1</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I417" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J417" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K417" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L417" s="6">
+        <v>0</v>
+      </c>
+      <c r="M417" s="7">
+        <v>0</v>
+      </c>
+      <c r="N417" s="6">
+        <v>1</v>
+      </c>
+      <c r="O417" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="P417" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q417" s="6">
+        <v>0</v>
+      </c>
+      <c r="R417" s="7">
+        <v>0</v>
+      </c>
+      <c r="S417" s="9">
+        <v>0</v>
+      </c>
+      <c r="T417" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U417" s="10">
+        <v>62472</v>
+      </c>
+      <c r="V417" s="11">
+        <v>11</v>
+      </c>
+      <c r="W417" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X417" s="12">
+        <v>0.34027780000000002</v>
+      </c>
+      <c r="Y417" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z417" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA417" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB417" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC417" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD417" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE417" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF417" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG417" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH417" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI417" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ417" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK417" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL417" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM417" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN417" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO417" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP417" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ417" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR417" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="418" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>1</v>
+      </c>
+      <c r="B418" s="2">
+        <v>2</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F418" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G418" s="5">
+        <v>1</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I418" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J418" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K418" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L418" s="6">
+        <v>0</v>
+      </c>
+      <c r="M418" s="7">
+        <v>0</v>
+      </c>
+      <c r="N418" s="6">
+        <v>1</v>
+      </c>
+      <c r="O418" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="P418" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q418" s="6">
+        <v>0</v>
+      </c>
+      <c r="R418" s="7">
+        <v>0</v>
+      </c>
+      <c r="S418" s="9">
+        <v>0</v>
+      </c>
+      <c r="T418" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U418" s="10">
+        <v>62473</v>
+      </c>
+      <c r="V418" s="11">
+        <v>11</v>
+      </c>
+      <c r="W418" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X418" s="12">
+        <v>0.34027780000000002</v>
+      </c>
+      <c r="Y418" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z418" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA418" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB418" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC418" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD418" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE418" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF418" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG418" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH418" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI418" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ418" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK418" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL418" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM418" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN418" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO418" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP418" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ418" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR418" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="419" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>1</v>
+      </c>
+      <c r="B419" s="2">
+        <v>2</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F419" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G419" s="5">
+        <v>1</v>
+      </c>
+      <c r="H419" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I419" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J419" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K419" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L419" s="6">
+        <v>0</v>
+      </c>
+      <c r="M419" s="7">
+        <v>0</v>
+      </c>
+      <c r="N419" s="6">
+        <v>1</v>
+      </c>
+      <c r="O419" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="P419" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q419" s="6">
+        <v>0</v>
+      </c>
+      <c r="R419" s="7">
+        <v>0</v>
+      </c>
+      <c r="S419" s="9">
+        <v>0</v>
+      </c>
+      <c r="T419" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U419" s="10">
+        <v>62474</v>
+      </c>
+      <c r="V419" s="11">
+        <v>11</v>
+      </c>
+      <c r="W419" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X419" s="12">
+        <v>0.34027780000000002</v>
+      </c>
+      <c r="Y419" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z419" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA419" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB419" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC419" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD419" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE419" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF419" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG419" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH419" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI419" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ419" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK419" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL419" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM419" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN419" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO419" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP419" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ419" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR419" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="420" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>1</v>
+      </c>
+      <c r="B420" s="2">
+        <v>2</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F420" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G420" s="5">
+        <v>1</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I420" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J420" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K420" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L420" s="6">
+        <v>0</v>
+      </c>
+      <c r="M420" s="7">
+        <v>0</v>
+      </c>
+      <c r="N420" s="6">
+        <v>1</v>
+      </c>
+      <c r="O420" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="P420" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q420" s="6">
+        <v>0</v>
+      </c>
+      <c r="R420" s="7">
+        <v>0</v>
+      </c>
+      <c r="S420" s="9">
+        <v>0</v>
+      </c>
+      <c r="T420" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U420" s="10">
+        <v>62475</v>
+      </c>
+      <c r="V420" s="11">
+        <v>11</v>
+      </c>
+      <c r="W420" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X420" s="12">
+        <v>0.34027780000000002</v>
+      </c>
+      <c r="Y420" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z420" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA420" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB420" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC420" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD420" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE420" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF420" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG420" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH420" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI420" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ420" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK420" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL420" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM420" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN420" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO420" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP420" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ420" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR420" s="3" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A9E2B8B-22F6-4B2F-93DB-4B6BDFE66081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1975A3DE-1BB9-4B40-970B-75A9EDB23C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9386" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10412" uniqueCount="645">
   <si>
     <t>Sel</t>
   </si>
@@ -1756,6 +1756,177 @@
     <t>7627600028600</t>
   </si>
   <si>
+    <t>7627600028601</t>
+  </si>
+  <si>
+    <t>7627600028602</t>
+  </si>
+  <si>
+    <t>7627600028603</t>
+  </si>
+  <si>
+    <t>7627600028604</t>
+  </si>
+  <si>
+    <t>7627600028605</t>
+  </si>
+  <si>
+    <t>7627600028606</t>
+  </si>
+  <si>
+    <t>7627600028607</t>
+  </si>
+  <si>
+    <t>7627600028608</t>
+  </si>
+  <si>
+    <t>7627600028609</t>
+  </si>
+  <si>
+    <t>7627600028610</t>
+  </si>
+  <si>
+    <t>7627600028611</t>
+  </si>
+  <si>
+    <t>7627600028612</t>
+  </si>
+  <si>
+    <t>7627600028613</t>
+  </si>
+  <si>
+    <t>7627600028614</t>
+  </si>
+  <si>
+    <t>7627600028615</t>
+  </si>
+  <si>
+    <t>7627600028616</t>
+  </si>
+  <si>
+    <t>7627600028617</t>
+  </si>
+  <si>
+    <t>7627600028618</t>
+  </si>
+  <si>
+    <t>7627600028619</t>
+  </si>
+  <si>
+    <t>7627600028620</t>
+  </si>
+  <si>
+    <t>7627600028621</t>
+  </si>
+  <si>
+    <t>7627600028622</t>
+  </si>
+  <si>
+    <t>7627600028623</t>
+  </si>
+  <si>
+    <t>7627600028624</t>
+  </si>
+  <si>
+    <t>7627600028625</t>
+  </si>
+  <si>
+    <t>7627600028626</t>
+  </si>
+  <si>
+    <t>7627600028627</t>
+  </si>
+  <si>
+    <t>7627600028628</t>
+  </si>
+  <si>
+    <t>7627600028629</t>
+  </si>
+  <si>
+    <t>7627600028630</t>
+  </si>
+  <si>
+    <t>7627600028631</t>
+  </si>
+  <si>
+    <t>7627600028632</t>
+  </si>
+  <si>
+    <t>7627600028633</t>
+  </si>
+  <si>
+    <t>7627600028634</t>
+  </si>
+  <si>
+    <t>7627600028635</t>
+  </si>
+  <si>
+    <t>7627600028636</t>
+  </si>
+  <si>
+    <t>7627600028637</t>
+  </si>
+  <si>
+    <t>7627600028638</t>
+  </si>
+  <si>
+    <t>7627600028639</t>
+  </si>
+  <si>
+    <t>7627600028640</t>
+  </si>
+  <si>
+    <t>7627600028641</t>
+  </si>
+  <si>
+    <t>7627600028642</t>
+  </si>
+  <si>
+    <t>7627600028643</t>
+  </si>
+  <si>
+    <t>7627600028644</t>
+  </si>
+  <si>
+    <t>7627600028645</t>
+  </si>
+  <si>
+    <t>7627600028646</t>
+  </si>
+  <si>
+    <t>7627600028647</t>
+  </si>
+  <si>
+    <t>7627600028648</t>
+  </si>
+  <si>
+    <t>7627600028649</t>
+  </si>
+  <si>
+    <t>7627600028650</t>
+  </si>
+  <si>
+    <t>7627600028651</t>
+  </si>
+  <si>
+    <t>7627600028652</t>
+  </si>
+  <si>
+    <t>7627600028653</t>
+  </si>
+  <si>
+    <t>7627600028654</t>
+  </si>
+  <si>
+    <t>7627600028655</t>
+  </si>
+  <si>
+    <t>7627600028656</t>
+  </si>
+  <si>
+    <t>7627600028657</t>
+  </si>
+  <si>
     <t>10059264</t>
   </si>
   <si>
@@ -2359,7 +2530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR520"/>
+  <dimension ref="A1:AR577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -71517,10 +71688,10 @@
         <v>2</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>578</v>
+        <v>167</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E517" s="3" t="s">
         <v>46</v>
@@ -71529,7 +71700,7 @@
         <v>46065</v>
       </c>
       <c r="G517" s="5">
-        <v>1</v>
+        <v>452</v>
       </c>
       <c r="H517" s="3" t="s">
         <v>47</v>
@@ -71544,19 +71715,19 @@
         <v>50</v>
       </c>
       <c r="L517" s="6">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="M517" s="7">
-        <v>0</v>
+        <v>109251.91</v>
       </c>
       <c r="N517" s="6">
         <v>1</v>
       </c>
       <c r="O517" s="3" t="s">
-        <v>579</v>
+        <v>168</v>
       </c>
       <c r="P517" s="8">
-        <v>0</v>
+        <v>178.52</v>
       </c>
       <c r="Q517" s="6">
         <v>0</v>
@@ -71571,7 +71742,7 @@
         <v>52</v>
       </c>
       <c r="U517" s="10">
-        <v>62472</v>
+        <v>62437</v>
       </c>
       <c r="V517" s="11">
         <v>11</v>
@@ -71580,7 +71751,7 @@
         <v>46065</v>
       </c>
       <c r="X517" s="12">
-        <v>0.34027780000000002</v>
+        <v>0.6951389</v>
       </c>
       <c r="Y517" s="10">
         <v>0</v>
@@ -71640,7 +71811,7 @@
         <v>53</v>
       </c>
       <c r="AR517" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="518" spans="1:44" x14ac:dyDescent="0.3">
@@ -71651,7 +71822,7 @@
         <v>2</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>578</v>
+        <v>167</v>
       </c>
       <c r="D518" s="3" t="s">
         <v>59</v>
@@ -71663,7 +71834,7 @@
         <v>46065</v>
       </c>
       <c r="G518" s="5">
-        <v>1</v>
+        <v>453</v>
       </c>
       <c r="H518" s="3" t="s">
         <v>47</v>
@@ -71678,19 +71849,19 @@
         <v>50</v>
       </c>
       <c r="L518" s="6">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="M518" s="7">
-        <v>0</v>
+        <v>109430.42</v>
       </c>
       <c r="N518" s="6">
         <v>1</v>
       </c>
       <c r="O518" s="3" t="s">
-        <v>581</v>
+        <v>168</v>
       </c>
       <c r="P518" s="8">
-        <v>0</v>
+        <v>178.52</v>
       </c>
       <c r="Q518" s="6">
         <v>0</v>
@@ -71705,7 +71876,7 @@
         <v>52</v>
       </c>
       <c r="U518" s="10">
-        <v>62473</v>
+        <v>62437</v>
       </c>
       <c r="V518" s="11">
         <v>11</v>
@@ -71714,7 +71885,7 @@
         <v>46065</v>
       </c>
       <c r="X518" s="12">
-        <v>0.34027780000000002</v>
+        <v>0.6951389</v>
       </c>
       <c r="Y518" s="10">
         <v>0</v>
@@ -71774,7 +71945,7 @@
         <v>53</v>
       </c>
       <c r="AR518" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="519" spans="1:44" x14ac:dyDescent="0.3">
@@ -71785,10 +71956,10 @@
         <v>2</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>583</v>
+        <v>167</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E519" s="3" t="s">
         <v>46</v>
@@ -71797,7 +71968,7 @@
         <v>46065</v>
       </c>
       <c r="G519" s="5">
-        <v>1</v>
+        <v>454</v>
       </c>
       <c r="H519" s="3" t="s">
         <v>47</v>
@@ -71812,19 +71983,19 @@
         <v>50</v>
       </c>
       <c r="L519" s="6">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="M519" s="7">
-        <v>0</v>
+        <v>109608.94</v>
       </c>
       <c r="N519" s="6">
         <v>1</v>
       </c>
       <c r="O519" s="3" t="s">
-        <v>584</v>
+        <v>168</v>
       </c>
       <c r="P519" s="8">
-        <v>0</v>
+        <v>178.52</v>
       </c>
       <c r="Q519" s="6">
         <v>0</v>
@@ -71839,7 +72010,7 @@
         <v>52</v>
       </c>
       <c r="U519" s="10">
-        <v>62474</v>
+        <v>62437</v>
       </c>
       <c r="V519" s="11">
         <v>11</v>
@@ -71848,7 +72019,7 @@
         <v>46065</v>
       </c>
       <c r="X519" s="12">
-        <v>0.34027780000000002</v>
+        <v>0.6951389</v>
       </c>
       <c r="Y519" s="10">
         <v>0</v>
@@ -71908,7 +72079,7 @@
         <v>53</v>
       </c>
       <c r="AR519" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="520" spans="1:44" x14ac:dyDescent="0.3">
@@ -71919,7 +72090,7 @@
         <v>2</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>583</v>
+        <v>167</v>
       </c>
       <c r="D520" s="3" t="s">
         <v>59</v>
@@ -71931,7 +72102,7 @@
         <v>46065</v>
       </c>
       <c r="G520" s="5">
-        <v>1</v>
+        <v>455</v>
       </c>
       <c r="H520" s="3" t="s">
         <v>47</v>
@@ -71946,19 +72117,19 @@
         <v>50</v>
       </c>
       <c r="L520" s="6">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="M520" s="7">
-        <v>0</v>
+        <v>109787.46</v>
       </c>
       <c r="N520" s="6">
         <v>1</v>
       </c>
       <c r="O520" s="3" t="s">
-        <v>586</v>
+        <v>168</v>
       </c>
       <c r="P520" s="8">
-        <v>0</v>
+        <v>178.52</v>
       </c>
       <c r="Q520" s="6">
         <v>0</v>
@@ -71973,7 +72144,7 @@
         <v>52</v>
       </c>
       <c r="U520" s="10">
-        <v>62475</v>
+        <v>62437</v>
       </c>
       <c r="V520" s="11">
         <v>11</v>
@@ -71982,7 +72153,7 @@
         <v>46065</v>
       </c>
       <c r="X520" s="12">
-        <v>0.34027780000000002</v>
+        <v>0.6951389</v>
       </c>
       <c r="Y520" s="10">
         <v>0</v>
@@ -72042,7 +72213,7645 @@
         <v>53</v>
       </c>
       <c r="AR520" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="521" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>1</v>
+      </c>
+      <c r="B521" s="2">
+        <v>2</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F521" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G521" s="5">
+        <v>456</v>
+      </c>
+      <c r="H521" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I521" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J521" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K521" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L521" s="6">
+        <v>616</v>
+      </c>
+      <c r="M521" s="7">
+        <v>109965.97</v>
+      </c>
+      <c r="N521" s="6">
+        <v>1</v>
+      </c>
+      <c r="O521" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P521" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q521" s="6">
+        <v>0</v>
+      </c>
+      <c r="R521" s="7">
+        <v>0</v>
+      </c>
+      <c r="S521" s="9">
+        <v>0</v>
+      </c>
+      <c r="T521" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U521" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V521" s="11">
+        <v>11</v>
+      </c>
+      <c r="W521" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X521" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y521" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z521" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA521" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB521" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC521" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD521" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE521" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF521" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG521" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH521" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI521" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ521" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK521" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL521" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM521" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN521" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO521" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP521" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ521" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR521" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="522" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>1</v>
+      </c>
+      <c r="B522" s="2">
+        <v>2</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F522" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G522" s="5">
+        <v>457</v>
+      </c>
+      <c r="H522" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I522" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J522" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K522" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L522" s="6">
+        <v>617</v>
+      </c>
+      <c r="M522" s="7">
+        <v>110144.49</v>
+      </c>
+      <c r="N522" s="6">
+        <v>1</v>
+      </c>
+      <c r="O522" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P522" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q522" s="6">
+        <v>0</v>
+      </c>
+      <c r="R522" s="7">
+        <v>0</v>
+      </c>
+      <c r="S522" s="9">
+        <v>0</v>
+      </c>
+      <c r="T522" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U522" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V522" s="11">
+        <v>11</v>
+      </c>
+      <c r="W522" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X522" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y522" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z522" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA522" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB522" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC522" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD522" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE522" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF522" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG522" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH522" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI522" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ522" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK522" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL522" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM522" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN522" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO522" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP522" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ522" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR522" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="523" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>1</v>
+      </c>
+      <c r="B523" s="2">
+        <v>2</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F523" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G523" s="5">
+        <v>458</v>
+      </c>
+      <c r="H523" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I523" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J523" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K523" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L523" s="6">
+        <v>618</v>
+      </c>
+      <c r="M523" s="7">
+        <v>110323</v>
+      </c>
+      <c r="N523" s="6">
+        <v>1</v>
+      </c>
+      <c r="O523" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P523" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q523" s="6">
+        <v>0</v>
+      </c>
+      <c r="R523" s="7">
+        <v>0</v>
+      </c>
+      <c r="S523" s="9">
+        <v>0</v>
+      </c>
+      <c r="T523" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U523" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V523" s="11">
+        <v>11</v>
+      </c>
+      <c r="W523" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X523" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y523" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z523" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA523" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB523" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC523" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD523" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE523" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF523" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG523" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH523" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI523" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ523" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK523" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL523" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM523" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN523" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO523" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP523" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ523" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR523" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="524" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>1</v>
+      </c>
+      <c r="B524" s="2">
+        <v>2</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F524" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G524" s="5">
+        <v>459</v>
+      </c>
+      <c r="H524" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I524" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J524" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K524" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L524" s="6">
+        <v>619</v>
+      </c>
+      <c r="M524" s="7">
+        <v>110501.52</v>
+      </c>
+      <c r="N524" s="6">
+        <v>1</v>
+      </c>
+      <c r="O524" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P524" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q524" s="6">
+        <v>0</v>
+      </c>
+      <c r="R524" s="7">
+        <v>0</v>
+      </c>
+      <c r="S524" s="9">
+        <v>0</v>
+      </c>
+      <c r="T524" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U524" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V524" s="11">
+        <v>11</v>
+      </c>
+      <c r="W524" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X524" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y524" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z524" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA524" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB524" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC524" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD524" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE524" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF524" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG524" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH524" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI524" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ524" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK524" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL524" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM524" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN524" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO524" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP524" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ524" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR524" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="525" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>1</v>
+      </c>
+      <c r="B525" s="2">
+        <v>2</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F525" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G525" s="5">
+        <v>460</v>
+      </c>
+      <c r="H525" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I525" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J525" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K525" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L525" s="6">
+        <v>620</v>
+      </c>
+      <c r="M525" s="7">
+        <v>110680.04</v>
+      </c>
+      <c r="N525" s="6">
+        <v>1</v>
+      </c>
+      <c r="O525" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P525" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q525" s="6">
+        <v>0</v>
+      </c>
+      <c r="R525" s="7">
+        <v>0</v>
+      </c>
+      <c r="S525" s="9">
+        <v>0</v>
+      </c>
+      <c r="T525" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U525" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V525" s="11">
+        <v>11</v>
+      </c>
+      <c r="W525" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X525" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y525" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z525" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA525" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB525" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC525" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD525" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE525" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF525" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG525" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH525" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI525" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ525" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK525" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL525" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM525" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN525" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO525" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP525" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ525" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR525" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="526" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>1</v>
+      </c>
+      <c r="B526" s="2">
+        <v>2</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F526" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G526" s="5">
+        <v>461</v>
+      </c>
+      <c r="H526" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I526" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J526" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K526" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L526" s="6">
+        <v>621</v>
+      </c>
+      <c r="M526" s="7">
+        <v>110858.55</v>
+      </c>
+      <c r="N526" s="6">
+        <v>1</v>
+      </c>
+      <c r="O526" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P526" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q526" s="6">
+        <v>0</v>
+      </c>
+      <c r="R526" s="7">
+        <v>0</v>
+      </c>
+      <c r="S526" s="9">
+        <v>0</v>
+      </c>
+      <c r="T526" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U526" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V526" s="11">
+        <v>11</v>
+      </c>
+      <c r="W526" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X526" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y526" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z526" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA526" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB526" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC526" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD526" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE526" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF526" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG526" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH526" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI526" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ526" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK526" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL526" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM526" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN526" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO526" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP526" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ526" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR526" s="3" t="s">
         <v>587</v>
+      </c>
+    </row>
+    <row r="527" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>1</v>
+      </c>
+      <c r="B527" s="2">
+        <v>2</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F527" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G527" s="5">
+        <v>462</v>
+      </c>
+      <c r="H527" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I527" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J527" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K527" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L527" s="6">
+        <v>622</v>
+      </c>
+      <c r="M527" s="7">
+        <v>111037.07</v>
+      </c>
+      <c r="N527" s="6">
+        <v>1</v>
+      </c>
+      <c r="O527" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P527" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q527" s="6">
+        <v>0</v>
+      </c>
+      <c r="R527" s="7">
+        <v>0</v>
+      </c>
+      <c r="S527" s="9">
+        <v>0</v>
+      </c>
+      <c r="T527" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U527" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V527" s="11">
+        <v>11</v>
+      </c>
+      <c r="W527" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X527" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y527" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z527" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA527" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB527" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC527" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD527" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE527" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF527" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG527" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH527" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI527" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ527" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK527" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL527" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM527" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN527" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO527" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP527" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ527" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR527" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="528" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>1</v>
+      </c>
+      <c r="B528" s="2">
+        <v>2</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F528" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G528" s="5">
+        <v>463</v>
+      </c>
+      <c r="H528" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I528" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J528" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K528" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L528" s="6">
+        <v>623</v>
+      </c>
+      <c r="M528" s="7">
+        <v>111215.59</v>
+      </c>
+      <c r="N528" s="6">
+        <v>1</v>
+      </c>
+      <c r="O528" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P528" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q528" s="6">
+        <v>0</v>
+      </c>
+      <c r="R528" s="7">
+        <v>0</v>
+      </c>
+      <c r="S528" s="9">
+        <v>0</v>
+      </c>
+      <c r="T528" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U528" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V528" s="11">
+        <v>11</v>
+      </c>
+      <c r="W528" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X528" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y528" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z528" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA528" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB528" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC528" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD528" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE528" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF528" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG528" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH528" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI528" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ528" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK528" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL528" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM528" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN528" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO528" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP528" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ528" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR528" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="529" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>1</v>
+      </c>
+      <c r="B529" s="2">
+        <v>2</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F529" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G529" s="5">
+        <v>464</v>
+      </c>
+      <c r="H529" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I529" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J529" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K529" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L529" s="6">
+        <v>624</v>
+      </c>
+      <c r="M529" s="7">
+        <v>111394.1</v>
+      </c>
+      <c r="N529" s="6">
+        <v>1</v>
+      </c>
+      <c r="O529" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P529" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q529" s="6">
+        <v>0</v>
+      </c>
+      <c r="R529" s="7">
+        <v>0</v>
+      </c>
+      <c r="S529" s="9">
+        <v>0</v>
+      </c>
+      <c r="T529" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U529" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V529" s="11">
+        <v>11</v>
+      </c>
+      <c r="W529" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X529" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y529" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z529" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA529" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB529" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC529" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD529" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE529" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF529" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG529" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH529" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI529" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ529" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK529" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL529" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM529" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN529" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO529" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP529" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ529" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR529" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="530" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>1</v>
+      </c>
+      <c r="B530" s="2">
+        <v>2</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F530" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G530" s="5">
+        <v>465</v>
+      </c>
+      <c r="H530" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I530" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J530" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K530" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L530" s="6">
+        <v>625</v>
+      </c>
+      <c r="M530" s="7">
+        <v>111572.62</v>
+      </c>
+      <c r="N530" s="6">
+        <v>1</v>
+      </c>
+      <c r="O530" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P530" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q530" s="6">
+        <v>0</v>
+      </c>
+      <c r="R530" s="7">
+        <v>0</v>
+      </c>
+      <c r="S530" s="9">
+        <v>0</v>
+      </c>
+      <c r="T530" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U530" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V530" s="11">
+        <v>11</v>
+      </c>
+      <c r="W530" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X530" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y530" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z530" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA530" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB530" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC530" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD530" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE530" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF530" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG530" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH530" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI530" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ530" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK530" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL530" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM530" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN530" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO530" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP530" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ530" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR530" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="531" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>1</v>
+      </c>
+      <c r="B531" s="2">
+        <v>2</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F531" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G531" s="5">
+        <v>466</v>
+      </c>
+      <c r="H531" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I531" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J531" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K531" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L531" s="6">
+        <v>626</v>
+      </c>
+      <c r="M531" s="7">
+        <v>111751.13</v>
+      </c>
+      <c r="N531" s="6">
+        <v>1</v>
+      </c>
+      <c r="O531" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P531" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q531" s="6">
+        <v>0</v>
+      </c>
+      <c r="R531" s="7">
+        <v>0</v>
+      </c>
+      <c r="S531" s="9">
+        <v>0</v>
+      </c>
+      <c r="T531" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U531" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V531" s="11">
+        <v>11</v>
+      </c>
+      <c r="W531" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X531" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y531" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z531" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA531" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB531" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC531" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD531" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE531" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF531" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG531" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH531" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI531" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ531" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK531" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL531" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM531" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN531" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO531" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP531" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ531" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR531" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="532" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>1</v>
+      </c>
+      <c r="B532" s="2">
+        <v>2</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F532" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G532" s="5">
+        <v>467</v>
+      </c>
+      <c r="H532" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I532" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J532" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K532" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L532" s="6">
+        <v>627</v>
+      </c>
+      <c r="M532" s="7">
+        <v>111929.65</v>
+      </c>
+      <c r="N532" s="6">
+        <v>1</v>
+      </c>
+      <c r="O532" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P532" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q532" s="6">
+        <v>0</v>
+      </c>
+      <c r="R532" s="7">
+        <v>0</v>
+      </c>
+      <c r="S532" s="9">
+        <v>0</v>
+      </c>
+      <c r="T532" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U532" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V532" s="11">
+        <v>11</v>
+      </c>
+      <c r="W532" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X532" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y532" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z532" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA532" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB532" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC532" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD532" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE532" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF532" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG532" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH532" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI532" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ532" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK532" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL532" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM532" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN532" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO532" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP532" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ532" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR532" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="533" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>1</v>
+      </c>
+      <c r="B533" s="2">
+        <v>2</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F533" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G533" s="5">
+        <v>468</v>
+      </c>
+      <c r="H533" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I533" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J533" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K533" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L533" s="6">
+        <v>628</v>
+      </c>
+      <c r="M533" s="7">
+        <v>112108.17</v>
+      </c>
+      <c r="N533" s="6">
+        <v>1</v>
+      </c>
+      <c r="O533" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P533" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q533" s="6">
+        <v>0</v>
+      </c>
+      <c r="R533" s="7">
+        <v>0</v>
+      </c>
+      <c r="S533" s="9">
+        <v>0</v>
+      </c>
+      <c r="T533" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U533" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V533" s="11">
+        <v>11</v>
+      </c>
+      <c r="W533" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X533" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y533" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z533" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA533" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB533" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC533" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD533" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE533" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF533" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG533" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH533" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI533" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ533" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK533" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL533" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM533" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN533" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO533" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP533" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ533" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR533" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="534" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>1</v>
+      </c>
+      <c r="B534" s="2">
+        <v>2</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F534" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G534" s="5">
+        <v>469</v>
+      </c>
+      <c r="H534" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I534" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J534" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K534" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L534" s="6">
+        <v>629</v>
+      </c>
+      <c r="M534" s="7">
+        <v>112286.68</v>
+      </c>
+      <c r="N534" s="6">
+        <v>1</v>
+      </c>
+      <c r="O534" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P534" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q534" s="6">
+        <v>0</v>
+      </c>
+      <c r="R534" s="7">
+        <v>0</v>
+      </c>
+      <c r="S534" s="9">
+        <v>0</v>
+      </c>
+      <c r="T534" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U534" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V534" s="11">
+        <v>11</v>
+      </c>
+      <c r="W534" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X534" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y534" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z534" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA534" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB534" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC534" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD534" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE534" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF534" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG534" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH534" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI534" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ534" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK534" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL534" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM534" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN534" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO534" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP534" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ534" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR534" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="535" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>1</v>
+      </c>
+      <c r="B535" s="2">
+        <v>2</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F535" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G535" s="5">
+        <v>470</v>
+      </c>
+      <c r="H535" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I535" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J535" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K535" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L535" s="6">
+        <v>630</v>
+      </c>
+      <c r="M535" s="7">
+        <v>112465.2</v>
+      </c>
+      <c r="N535" s="6">
+        <v>1</v>
+      </c>
+      <c r="O535" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P535" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q535" s="6">
+        <v>0</v>
+      </c>
+      <c r="R535" s="7">
+        <v>0</v>
+      </c>
+      <c r="S535" s="9">
+        <v>0</v>
+      </c>
+      <c r="T535" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U535" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V535" s="11">
+        <v>11</v>
+      </c>
+      <c r="W535" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X535" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y535" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z535" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA535" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB535" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC535" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD535" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE535" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF535" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG535" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH535" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI535" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ535" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK535" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL535" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM535" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN535" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO535" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP535" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ535" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR535" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="536" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>1</v>
+      </c>
+      <c r="B536" s="2">
+        <v>2</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F536" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G536" s="5">
+        <v>471</v>
+      </c>
+      <c r="H536" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I536" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J536" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K536" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L536" s="6">
+        <v>631</v>
+      </c>
+      <c r="M536" s="7">
+        <v>112643.72</v>
+      </c>
+      <c r="N536" s="6">
+        <v>1</v>
+      </c>
+      <c r="O536" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P536" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q536" s="6">
+        <v>0</v>
+      </c>
+      <c r="R536" s="7">
+        <v>0</v>
+      </c>
+      <c r="S536" s="9">
+        <v>0</v>
+      </c>
+      <c r="T536" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U536" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V536" s="11">
+        <v>11</v>
+      </c>
+      <c r="W536" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X536" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y536" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z536" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA536" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB536" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC536" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD536" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE536" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF536" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG536" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH536" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI536" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ536" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK536" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL536" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM536" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN536" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO536" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP536" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ536" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR536" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="537" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>1</v>
+      </c>
+      <c r="B537" s="2">
+        <v>2</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F537" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G537" s="5">
+        <v>472</v>
+      </c>
+      <c r="H537" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I537" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J537" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K537" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L537" s="6">
+        <v>632</v>
+      </c>
+      <c r="M537" s="7">
+        <v>112822.23</v>
+      </c>
+      <c r="N537" s="6">
+        <v>1</v>
+      </c>
+      <c r="O537" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P537" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q537" s="6">
+        <v>0</v>
+      </c>
+      <c r="R537" s="7">
+        <v>0</v>
+      </c>
+      <c r="S537" s="9">
+        <v>0</v>
+      </c>
+      <c r="T537" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U537" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V537" s="11">
+        <v>11</v>
+      </c>
+      <c r="W537" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X537" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y537" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z537" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA537" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB537" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC537" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD537" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE537" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF537" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG537" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH537" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI537" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ537" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK537" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL537" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM537" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN537" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO537" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP537" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ537" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR537" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="538" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>1</v>
+      </c>
+      <c r="B538" s="2">
+        <v>2</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F538" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G538" s="5">
+        <v>473</v>
+      </c>
+      <c r="H538" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I538" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J538" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K538" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L538" s="6">
+        <v>633</v>
+      </c>
+      <c r="M538" s="7">
+        <v>113000.75</v>
+      </c>
+      <c r="N538" s="6">
+        <v>1</v>
+      </c>
+      <c r="O538" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P538" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q538" s="6">
+        <v>0</v>
+      </c>
+      <c r="R538" s="7">
+        <v>0</v>
+      </c>
+      <c r="S538" s="9">
+        <v>0</v>
+      </c>
+      <c r="T538" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U538" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V538" s="11">
+        <v>11</v>
+      </c>
+      <c r="W538" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X538" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y538" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z538" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA538" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB538" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC538" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD538" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE538" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF538" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG538" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH538" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI538" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ538" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK538" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL538" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM538" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN538" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO538" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP538" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ538" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR538" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="539" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>1</v>
+      </c>
+      <c r="B539" s="2">
+        <v>2</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F539" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G539" s="5">
+        <v>474</v>
+      </c>
+      <c r="H539" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I539" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J539" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K539" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L539" s="6">
+        <v>634</v>
+      </c>
+      <c r="M539" s="7">
+        <v>113179.26</v>
+      </c>
+      <c r="N539" s="6">
+        <v>1</v>
+      </c>
+      <c r="O539" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P539" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q539" s="6">
+        <v>0</v>
+      </c>
+      <c r="R539" s="7">
+        <v>0</v>
+      </c>
+      <c r="S539" s="9">
+        <v>0</v>
+      </c>
+      <c r="T539" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U539" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V539" s="11">
+        <v>11</v>
+      </c>
+      <c r="W539" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X539" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y539" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z539" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA539" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB539" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC539" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD539" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE539" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF539" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG539" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH539" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI539" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ539" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK539" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL539" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM539" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN539" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO539" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP539" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ539" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR539" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="540" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>1</v>
+      </c>
+      <c r="B540" s="2">
+        <v>2</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F540" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G540" s="5">
+        <v>475</v>
+      </c>
+      <c r="H540" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I540" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J540" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K540" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L540" s="6">
+        <v>635</v>
+      </c>
+      <c r="M540" s="7">
+        <v>113357.78</v>
+      </c>
+      <c r="N540" s="6">
+        <v>1</v>
+      </c>
+      <c r="O540" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P540" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q540" s="6">
+        <v>0</v>
+      </c>
+      <c r="R540" s="7">
+        <v>0</v>
+      </c>
+      <c r="S540" s="9">
+        <v>0</v>
+      </c>
+      <c r="T540" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U540" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V540" s="11">
+        <v>11</v>
+      </c>
+      <c r="W540" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X540" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y540" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z540" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA540" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB540" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC540" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD540" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE540" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF540" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG540" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH540" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI540" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ540" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK540" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL540" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM540" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN540" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO540" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP540" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ540" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR540" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="541" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>1</v>
+      </c>
+      <c r="B541" s="2">
+        <v>2</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F541" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G541" s="5">
+        <v>476</v>
+      </c>
+      <c r="H541" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I541" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J541" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K541" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L541" s="6">
+        <v>636</v>
+      </c>
+      <c r="M541" s="7">
+        <v>113536.3</v>
+      </c>
+      <c r="N541" s="6">
+        <v>1</v>
+      </c>
+      <c r="O541" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P541" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q541" s="6">
+        <v>0</v>
+      </c>
+      <c r="R541" s="7">
+        <v>0</v>
+      </c>
+      <c r="S541" s="9">
+        <v>0</v>
+      </c>
+      <c r="T541" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U541" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V541" s="11">
+        <v>11</v>
+      </c>
+      <c r="W541" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X541" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y541" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z541" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA541" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB541" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC541" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD541" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE541" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF541" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG541" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH541" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI541" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ541" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK541" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL541" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM541" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN541" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO541" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP541" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ541" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR541" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="542" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>1</v>
+      </c>
+      <c r="B542" s="2">
+        <v>2</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F542" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G542" s="5">
+        <v>477</v>
+      </c>
+      <c r="H542" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I542" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J542" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K542" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L542" s="6">
+        <v>637</v>
+      </c>
+      <c r="M542" s="7">
+        <v>113714.81</v>
+      </c>
+      <c r="N542" s="6">
+        <v>1</v>
+      </c>
+      <c r="O542" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P542" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q542" s="6">
+        <v>0</v>
+      </c>
+      <c r="R542" s="7">
+        <v>0</v>
+      </c>
+      <c r="S542" s="9">
+        <v>0</v>
+      </c>
+      <c r="T542" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U542" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V542" s="11">
+        <v>11</v>
+      </c>
+      <c r="W542" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X542" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y542" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z542" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA542" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB542" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC542" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD542" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE542" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF542" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG542" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH542" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI542" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ542" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK542" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL542" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM542" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN542" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO542" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP542" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ542" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR542" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="543" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>1</v>
+      </c>
+      <c r="B543" s="2">
+        <v>2</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F543" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G543" s="5">
+        <v>478</v>
+      </c>
+      <c r="H543" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I543" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J543" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K543" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L543" s="6">
+        <v>638</v>
+      </c>
+      <c r="M543" s="7">
+        <v>113893.33</v>
+      </c>
+      <c r="N543" s="6">
+        <v>1</v>
+      </c>
+      <c r="O543" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P543" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q543" s="6">
+        <v>0</v>
+      </c>
+      <c r="R543" s="7">
+        <v>0</v>
+      </c>
+      <c r="S543" s="9">
+        <v>0</v>
+      </c>
+      <c r="T543" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U543" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V543" s="11">
+        <v>11</v>
+      </c>
+      <c r="W543" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X543" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y543" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z543" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA543" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB543" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC543" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD543" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE543" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF543" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG543" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH543" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI543" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ543" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK543" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL543" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM543" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN543" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO543" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP543" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ543" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR543" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="544" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <v>1</v>
+      </c>
+      <c r="B544" s="2">
+        <v>2</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F544" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G544" s="5">
+        <v>479</v>
+      </c>
+      <c r="H544" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I544" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J544" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K544" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L544" s="6">
+        <v>639</v>
+      </c>
+      <c r="M544" s="7">
+        <v>114071.84</v>
+      </c>
+      <c r="N544" s="6">
+        <v>1</v>
+      </c>
+      <c r="O544" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P544" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q544" s="6">
+        <v>0</v>
+      </c>
+      <c r="R544" s="7">
+        <v>0</v>
+      </c>
+      <c r="S544" s="9">
+        <v>0</v>
+      </c>
+      <c r="T544" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U544" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V544" s="11">
+        <v>11</v>
+      </c>
+      <c r="W544" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X544" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y544" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z544" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA544" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB544" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC544" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD544" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE544" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF544" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG544" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH544" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI544" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ544" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK544" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL544" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM544" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN544" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO544" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP544" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ544" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR544" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="545" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>1</v>
+      </c>
+      <c r="B545" s="2">
+        <v>2</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F545" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G545" s="5">
+        <v>480</v>
+      </c>
+      <c r="H545" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I545" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J545" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K545" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L545" s="6">
+        <v>640</v>
+      </c>
+      <c r="M545" s="7">
+        <v>114250.36</v>
+      </c>
+      <c r="N545" s="6">
+        <v>1</v>
+      </c>
+      <c r="O545" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P545" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q545" s="6">
+        <v>0</v>
+      </c>
+      <c r="R545" s="7">
+        <v>0</v>
+      </c>
+      <c r="S545" s="9">
+        <v>0</v>
+      </c>
+      <c r="T545" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U545" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V545" s="11">
+        <v>11</v>
+      </c>
+      <c r="W545" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X545" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y545" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z545" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA545" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB545" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC545" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD545" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE545" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF545" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG545" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH545" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI545" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ545" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK545" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL545" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM545" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN545" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO545" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP545" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ545" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR545" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="546" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>1</v>
+      </c>
+      <c r="B546" s="2">
+        <v>2</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F546" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G546" s="5">
+        <v>481</v>
+      </c>
+      <c r="H546" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I546" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J546" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K546" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L546" s="6">
+        <v>641</v>
+      </c>
+      <c r="M546" s="7">
+        <v>114428.88</v>
+      </c>
+      <c r="N546" s="6">
+        <v>1</v>
+      </c>
+      <c r="O546" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P546" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q546" s="6">
+        <v>0</v>
+      </c>
+      <c r="R546" s="7">
+        <v>0</v>
+      </c>
+      <c r="S546" s="9">
+        <v>0</v>
+      </c>
+      <c r="T546" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U546" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V546" s="11">
+        <v>11</v>
+      </c>
+      <c r="W546" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X546" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y546" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z546" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA546" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB546" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC546" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD546" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE546" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF546" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG546" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH546" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI546" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ546" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK546" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL546" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM546" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN546" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO546" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP546" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ546" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR546" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="547" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>1</v>
+      </c>
+      <c r="B547" s="2">
+        <v>2</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F547" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G547" s="5">
+        <v>482</v>
+      </c>
+      <c r="H547" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I547" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J547" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K547" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L547" s="6">
+        <v>642</v>
+      </c>
+      <c r="M547" s="7">
+        <v>114607.39</v>
+      </c>
+      <c r="N547" s="6">
+        <v>1</v>
+      </c>
+      <c r="O547" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P547" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q547" s="6">
+        <v>0</v>
+      </c>
+      <c r="R547" s="7">
+        <v>0</v>
+      </c>
+      <c r="S547" s="9">
+        <v>0</v>
+      </c>
+      <c r="T547" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U547" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V547" s="11">
+        <v>11</v>
+      </c>
+      <c r="W547" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X547" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y547" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z547" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA547" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB547" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC547" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD547" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE547" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF547" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG547" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH547" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI547" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ547" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK547" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL547" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM547" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN547" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO547" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP547" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ547" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR547" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="548" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>1</v>
+      </c>
+      <c r="B548" s="2">
+        <v>2</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F548" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G548" s="5">
+        <v>483</v>
+      </c>
+      <c r="H548" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I548" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J548" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K548" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L548" s="6">
+        <v>643</v>
+      </c>
+      <c r="M548" s="7">
+        <v>114785.91</v>
+      </c>
+      <c r="N548" s="6">
+        <v>1</v>
+      </c>
+      <c r="O548" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P548" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q548" s="6">
+        <v>0</v>
+      </c>
+      <c r="R548" s="7">
+        <v>0</v>
+      </c>
+      <c r="S548" s="9">
+        <v>0</v>
+      </c>
+      <c r="T548" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U548" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V548" s="11">
+        <v>11</v>
+      </c>
+      <c r="W548" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X548" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y548" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z548" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA548" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB548" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC548" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD548" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE548" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF548" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG548" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH548" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI548" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ548" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK548" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL548" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM548" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN548" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO548" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP548" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ548" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR548" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="549" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>1</v>
+      </c>
+      <c r="B549" s="2">
+        <v>2</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F549" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G549" s="5">
+        <v>484</v>
+      </c>
+      <c r="H549" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I549" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J549" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K549" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L549" s="6">
+        <v>644</v>
+      </c>
+      <c r="M549" s="7">
+        <v>114964.43</v>
+      </c>
+      <c r="N549" s="6">
+        <v>1</v>
+      </c>
+      <c r="O549" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P549" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q549" s="6">
+        <v>0</v>
+      </c>
+      <c r="R549" s="7">
+        <v>0</v>
+      </c>
+      <c r="S549" s="9">
+        <v>0</v>
+      </c>
+      <c r="T549" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U549" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V549" s="11">
+        <v>11</v>
+      </c>
+      <c r="W549" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X549" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y549" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z549" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA549" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB549" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC549" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD549" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE549" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF549" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG549" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH549" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI549" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ549" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK549" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL549" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM549" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN549" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO549" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP549" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ549" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR549" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="550" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>1</v>
+      </c>
+      <c r="B550" s="2">
+        <v>2</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F550" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G550" s="5">
+        <v>485</v>
+      </c>
+      <c r="H550" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I550" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J550" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K550" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L550" s="6">
+        <v>645</v>
+      </c>
+      <c r="M550" s="7">
+        <v>115142.94</v>
+      </c>
+      <c r="N550" s="6">
+        <v>1</v>
+      </c>
+      <c r="O550" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P550" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q550" s="6">
+        <v>0</v>
+      </c>
+      <c r="R550" s="7">
+        <v>0</v>
+      </c>
+      <c r="S550" s="9">
+        <v>0</v>
+      </c>
+      <c r="T550" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U550" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V550" s="11">
+        <v>11</v>
+      </c>
+      <c r="W550" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X550" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y550" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z550" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA550" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB550" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC550" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD550" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE550" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF550" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG550" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH550" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI550" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ550" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK550" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL550" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM550" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN550" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO550" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP550" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ550" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR550" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="551" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>1</v>
+      </c>
+      <c r="B551" s="2">
+        <v>2</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F551" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G551" s="5">
+        <v>486</v>
+      </c>
+      <c r="H551" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I551" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J551" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K551" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L551" s="6">
+        <v>646</v>
+      </c>
+      <c r="M551" s="7">
+        <v>115321.46</v>
+      </c>
+      <c r="N551" s="6">
+        <v>1</v>
+      </c>
+      <c r="O551" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P551" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q551" s="6">
+        <v>0</v>
+      </c>
+      <c r="R551" s="7">
+        <v>0</v>
+      </c>
+      <c r="S551" s="9">
+        <v>0</v>
+      </c>
+      <c r="T551" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U551" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V551" s="11">
+        <v>11</v>
+      </c>
+      <c r="W551" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X551" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y551" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z551" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA551" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB551" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC551" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD551" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE551" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF551" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG551" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH551" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI551" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ551" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK551" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL551" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM551" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN551" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO551" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP551" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ551" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR551" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="552" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>1</v>
+      </c>
+      <c r="B552" s="2">
+        <v>2</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F552" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G552" s="5">
+        <v>487</v>
+      </c>
+      <c r="H552" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I552" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J552" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K552" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L552" s="6">
+        <v>647</v>
+      </c>
+      <c r="M552" s="7">
+        <v>115499.97</v>
+      </c>
+      <c r="N552" s="6">
+        <v>1</v>
+      </c>
+      <c r="O552" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P552" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q552" s="6">
+        <v>0</v>
+      </c>
+      <c r="R552" s="7">
+        <v>0</v>
+      </c>
+      <c r="S552" s="9">
+        <v>0</v>
+      </c>
+      <c r="T552" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U552" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V552" s="11">
+        <v>11</v>
+      </c>
+      <c r="W552" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X552" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y552" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z552" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA552" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB552" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC552" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD552" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE552" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF552" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG552" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH552" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI552" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ552" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK552" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL552" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM552" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN552" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO552" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP552" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ552" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR552" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="553" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>1</v>
+      </c>
+      <c r="B553" s="2">
+        <v>2</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F553" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G553" s="5">
+        <v>488</v>
+      </c>
+      <c r="H553" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I553" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J553" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K553" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L553" s="6">
+        <v>648</v>
+      </c>
+      <c r="M553" s="7">
+        <v>115678.49</v>
+      </c>
+      <c r="N553" s="6">
+        <v>1</v>
+      </c>
+      <c r="O553" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P553" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q553" s="6">
+        <v>0</v>
+      </c>
+      <c r="R553" s="7">
+        <v>0</v>
+      </c>
+      <c r="S553" s="9">
+        <v>0</v>
+      </c>
+      <c r="T553" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U553" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V553" s="11">
+        <v>11</v>
+      </c>
+      <c r="W553" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X553" s="12">
+        <v>0.6951389</v>
+      </c>
+      <c r="Y553" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z553" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA553" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB553" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC553" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD553" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE553" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF553" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG553" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH553" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI553" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ553" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK553" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL553" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM553" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN553" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO553" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP553" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ553" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR553" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="554" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>1</v>
+      </c>
+      <c r="B554" s="2">
+        <v>2</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F554" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G554" s="5">
+        <v>489</v>
+      </c>
+      <c r="H554" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I554" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J554" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K554" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L554" s="6">
+        <v>649</v>
+      </c>
+      <c r="M554" s="7">
+        <v>115857.01</v>
+      </c>
+      <c r="N554" s="6">
+        <v>1</v>
+      </c>
+      <c r="O554" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P554" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q554" s="6">
+        <v>0</v>
+      </c>
+      <c r="R554" s="7">
+        <v>0</v>
+      </c>
+      <c r="S554" s="9">
+        <v>0</v>
+      </c>
+      <c r="T554" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U554" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V554" s="11">
+        <v>11</v>
+      </c>
+      <c r="W554" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X554" s="12">
+        <v>0.69583329999999999</v>
+      </c>
+      <c r="Y554" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z554" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA554" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB554" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC554" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD554" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE554" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF554" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG554" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH554" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI554" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ554" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK554" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL554" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM554" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN554" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO554" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP554" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ554" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR554" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="555" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <v>1</v>
+      </c>
+      <c r="B555" s="2">
+        <v>2</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F555" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G555" s="5">
+        <v>490</v>
+      </c>
+      <c r="H555" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I555" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J555" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K555" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L555" s="6">
+        <v>650</v>
+      </c>
+      <c r="M555" s="7">
+        <v>116035.52</v>
+      </c>
+      <c r="N555" s="6">
+        <v>1</v>
+      </c>
+      <c r="O555" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P555" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q555" s="6">
+        <v>0</v>
+      </c>
+      <c r="R555" s="7">
+        <v>0</v>
+      </c>
+      <c r="S555" s="9">
+        <v>0</v>
+      </c>
+      <c r="T555" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U555" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V555" s="11">
+        <v>11</v>
+      </c>
+      <c r="W555" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X555" s="12">
+        <v>0.69583329999999999</v>
+      </c>
+      <c r="Y555" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z555" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA555" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB555" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC555" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD555" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE555" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF555" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG555" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH555" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI555" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ555" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK555" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL555" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM555" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN555" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO555" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP555" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ555" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR555" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="556" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <v>1</v>
+      </c>
+      <c r="B556" s="2">
+        <v>2</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F556" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G556" s="5">
+        <v>491</v>
+      </c>
+      <c r="H556" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I556" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J556" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K556" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L556" s="6">
+        <v>651</v>
+      </c>
+      <c r="M556" s="7">
+        <v>116214.04</v>
+      </c>
+      <c r="N556" s="6">
+        <v>1</v>
+      </c>
+      <c r="O556" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P556" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q556" s="6">
+        <v>0</v>
+      </c>
+      <c r="R556" s="7">
+        <v>0</v>
+      </c>
+      <c r="S556" s="9">
+        <v>0</v>
+      </c>
+      <c r="T556" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U556" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V556" s="11">
+        <v>11</v>
+      </c>
+      <c r="W556" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X556" s="12">
+        <v>0.69583329999999999</v>
+      </c>
+      <c r="Y556" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z556" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA556" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB556" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC556" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD556" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE556" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF556" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG556" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH556" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI556" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ556" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK556" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL556" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM556" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN556" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO556" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP556" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ556" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR556" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="557" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <v>1</v>
+      </c>
+      <c r="B557" s="2">
+        <v>2</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F557" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G557" s="5">
+        <v>492</v>
+      </c>
+      <c r="H557" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I557" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J557" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K557" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L557" s="6">
+        <v>652</v>
+      </c>
+      <c r="M557" s="7">
+        <v>116392.55</v>
+      </c>
+      <c r="N557" s="6">
+        <v>1</v>
+      </c>
+      <c r="O557" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P557" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q557" s="6">
+        <v>0</v>
+      </c>
+      <c r="R557" s="7">
+        <v>0</v>
+      </c>
+      <c r="S557" s="9">
+        <v>0</v>
+      </c>
+      <c r="T557" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U557" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V557" s="11">
+        <v>11</v>
+      </c>
+      <c r="W557" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X557" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y557" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z557" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA557" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB557" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC557" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD557" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE557" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF557" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG557" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH557" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI557" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ557" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK557" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL557" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM557" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN557" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO557" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP557" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ557" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR557" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="558" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <v>1</v>
+      </c>
+      <c r="B558" s="2">
+        <v>2</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F558" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G558" s="5">
+        <v>493</v>
+      </c>
+      <c r="H558" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I558" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J558" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K558" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L558" s="6">
+        <v>653</v>
+      </c>
+      <c r="M558" s="7">
+        <v>116571.07</v>
+      </c>
+      <c r="N558" s="6">
+        <v>1</v>
+      </c>
+      <c r="O558" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P558" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q558" s="6">
+        <v>0</v>
+      </c>
+      <c r="R558" s="7">
+        <v>0</v>
+      </c>
+      <c r="S558" s="9">
+        <v>0</v>
+      </c>
+      <c r="T558" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U558" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V558" s="11">
+        <v>11</v>
+      </c>
+      <c r="W558" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X558" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y558" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z558" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA558" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB558" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC558" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD558" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE558" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF558" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG558" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH558" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI558" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ558" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK558" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL558" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM558" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN558" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO558" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP558" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ558" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR558" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="559" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <v>1</v>
+      </c>
+      <c r="B559" s="2">
+        <v>2</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F559" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G559" s="5">
+        <v>494</v>
+      </c>
+      <c r="H559" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I559" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J559" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K559" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L559" s="6">
+        <v>654</v>
+      </c>
+      <c r="M559" s="7">
+        <v>116749.59</v>
+      </c>
+      <c r="N559" s="6">
+        <v>1</v>
+      </c>
+      <c r="O559" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P559" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q559" s="6">
+        <v>0</v>
+      </c>
+      <c r="R559" s="7">
+        <v>0</v>
+      </c>
+      <c r="S559" s="9">
+        <v>0</v>
+      </c>
+      <c r="T559" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U559" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V559" s="11">
+        <v>11</v>
+      </c>
+      <c r="W559" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X559" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y559" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z559" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA559" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB559" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC559" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD559" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE559" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF559" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG559" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH559" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI559" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ559" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK559" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL559" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM559" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN559" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO559" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP559" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ559" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR559" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="560" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>1</v>
+      </c>
+      <c r="B560" s="2">
+        <v>2</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F560" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G560" s="5">
+        <v>495</v>
+      </c>
+      <c r="H560" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I560" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J560" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K560" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L560" s="6">
+        <v>655</v>
+      </c>
+      <c r="M560" s="7">
+        <v>116928.1</v>
+      </c>
+      <c r="N560" s="6">
+        <v>1</v>
+      </c>
+      <c r="O560" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P560" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q560" s="6">
+        <v>0</v>
+      </c>
+      <c r="R560" s="7">
+        <v>0</v>
+      </c>
+      <c r="S560" s="9">
+        <v>0</v>
+      </c>
+      <c r="T560" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U560" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V560" s="11">
+        <v>11</v>
+      </c>
+      <c r="W560" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X560" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y560" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z560" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA560" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB560" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC560" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD560" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE560" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF560" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG560" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH560" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI560" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ560" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK560" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL560" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM560" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN560" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO560" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP560" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ560" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR560" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="561" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>1</v>
+      </c>
+      <c r="B561" s="2">
+        <v>2</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F561" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G561" s="5">
+        <v>496</v>
+      </c>
+      <c r="H561" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I561" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J561" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K561" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L561" s="6">
+        <v>656</v>
+      </c>
+      <c r="M561" s="7">
+        <v>117106.62</v>
+      </c>
+      <c r="N561" s="6">
+        <v>1</v>
+      </c>
+      <c r="O561" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P561" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q561" s="6">
+        <v>0</v>
+      </c>
+      <c r="R561" s="7">
+        <v>0</v>
+      </c>
+      <c r="S561" s="9">
+        <v>0</v>
+      </c>
+      <c r="T561" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U561" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V561" s="11">
+        <v>11</v>
+      </c>
+      <c r="W561" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X561" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y561" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z561" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA561" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB561" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC561" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD561" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE561" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF561" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG561" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH561" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI561" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ561" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK561" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL561" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM561" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN561" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO561" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP561" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ561" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR561" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="562" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>1</v>
+      </c>
+      <c r="B562" s="2">
+        <v>2</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F562" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G562" s="5">
+        <v>497</v>
+      </c>
+      <c r="H562" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I562" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J562" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K562" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L562" s="6">
+        <v>657</v>
+      </c>
+      <c r="M562" s="7">
+        <v>117285.14</v>
+      </c>
+      <c r="N562" s="6">
+        <v>1</v>
+      </c>
+      <c r="O562" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P562" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q562" s="6">
+        <v>0</v>
+      </c>
+      <c r="R562" s="7">
+        <v>0</v>
+      </c>
+      <c r="S562" s="9">
+        <v>0</v>
+      </c>
+      <c r="T562" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U562" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V562" s="11">
+        <v>11</v>
+      </c>
+      <c r="W562" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X562" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y562" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z562" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA562" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB562" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC562" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD562" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE562" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF562" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG562" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH562" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI562" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ562" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK562" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL562" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM562" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN562" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO562" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP562" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ562" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR562" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="563" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>1</v>
+      </c>
+      <c r="B563" s="2">
+        <v>2</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F563" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G563" s="5">
+        <v>498</v>
+      </c>
+      <c r="H563" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I563" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J563" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K563" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L563" s="6">
+        <v>658</v>
+      </c>
+      <c r="M563" s="7">
+        <v>117463.65</v>
+      </c>
+      <c r="N563" s="6">
+        <v>1</v>
+      </c>
+      <c r="O563" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P563" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q563" s="6">
+        <v>0</v>
+      </c>
+      <c r="R563" s="7">
+        <v>0</v>
+      </c>
+      <c r="S563" s="9">
+        <v>0</v>
+      </c>
+      <c r="T563" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U563" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V563" s="11">
+        <v>11</v>
+      </c>
+      <c r="W563" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X563" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y563" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z563" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA563" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB563" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC563" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD563" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE563" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF563" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG563" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH563" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI563" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ563" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK563" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL563" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM563" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN563" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO563" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP563" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ563" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR563" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="564" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>1</v>
+      </c>
+      <c r="B564" s="2">
+        <v>2</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F564" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G564" s="5">
+        <v>499</v>
+      </c>
+      <c r="H564" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I564" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J564" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K564" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L564" s="6">
+        <v>659</v>
+      </c>
+      <c r="M564" s="7">
+        <v>117642.17</v>
+      </c>
+      <c r="N564" s="6">
+        <v>1</v>
+      </c>
+      <c r="O564" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P564" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q564" s="6">
+        <v>0</v>
+      </c>
+      <c r="R564" s="7">
+        <v>0</v>
+      </c>
+      <c r="S564" s="9">
+        <v>0</v>
+      </c>
+      <c r="T564" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U564" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V564" s="11">
+        <v>11</v>
+      </c>
+      <c r="W564" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X564" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y564" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z564" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA564" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB564" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC564" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD564" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE564" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF564" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG564" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH564" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI564" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ564" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK564" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL564" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM564" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN564" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO564" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP564" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ564" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR564" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="565" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>1</v>
+      </c>
+      <c r="B565" s="2">
+        <v>2</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F565" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G565" s="5">
+        <v>500</v>
+      </c>
+      <c r="H565" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I565" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J565" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K565" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L565" s="6">
+        <v>660</v>
+      </c>
+      <c r="M565" s="7">
+        <v>117820.68</v>
+      </c>
+      <c r="N565" s="6">
+        <v>1</v>
+      </c>
+      <c r="O565" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P565" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q565" s="6">
+        <v>0</v>
+      </c>
+      <c r="R565" s="7">
+        <v>0</v>
+      </c>
+      <c r="S565" s="9">
+        <v>0</v>
+      </c>
+      <c r="T565" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U565" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V565" s="11">
+        <v>11</v>
+      </c>
+      <c r="W565" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X565" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y565" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z565" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA565" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB565" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC565" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD565" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE565" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF565" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG565" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH565" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI565" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ565" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK565" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL565" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM565" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN565" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO565" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP565" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ565" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR565" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="566" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>1</v>
+      </c>
+      <c r="B566" s="2">
+        <v>2</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F566" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G566" s="5">
+        <v>501</v>
+      </c>
+      <c r="H566" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I566" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J566" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K566" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L566" s="6">
+        <v>661</v>
+      </c>
+      <c r="M566" s="7">
+        <v>117999.2</v>
+      </c>
+      <c r="N566" s="6">
+        <v>1</v>
+      </c>
+      <c r="O566" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P566" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q566" s="6">
+        <v>0</v>
+      </c>
+      <c r="R566" s="7">
+        <v>0</v>
+      </c>
+      <c r="S566" s="9">
+        <v>0</v>
+      </c>
+      <c r="T566" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U566" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V566" s="11">
+        <v>11</v>
+      </c>
+      <c r="W566" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X566" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y566" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z566" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA566" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB566" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC566" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD566" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE566" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF566" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG566" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH566" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI566" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ566" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK566" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL566" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM566" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN566" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO566" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP566" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ566" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR566" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="567" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>1</v>
+      </c>
+      <c r="B567" s="2">
+        <v>2</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F567" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G567" s="5">
+        <v>502</v>
+      </c>
+      <c r="H567" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I567" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J567" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K567" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L567" s="6">
+        <v>662</v>
+      </c>
+      <c r="M567" s="7">
+        <v>118177.72</v>
+      </c>
+      <c r="N567" s="6">
+        <v>1</v>
+      </c>
+      <c r="O567" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P567" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q567" s="6">
+        <v>0</v>
+      </c>
+      <c r="R567" s="7">
+        <v>0</v>
+      </c>
+      <c r="S567" s="9">
+        <v>0</v>
+      </c>
+      <c r="T567" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U567" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V567" s="11">
+        <v>11</v>
+      </c>
+      <c r="W567" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X567" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y567" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z567" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA567" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB567" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC567" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD567" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE567" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF567" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG567" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH567" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI567" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ567" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK567" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL567" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM567" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN567" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO567" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP567" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ567" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR567" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="568" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>1</v>
+      </c>
+      <c r="B568" s="2">
+        <v>2</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F568" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G568" s="5">
+        <v>503</v>
+      </c>
+      <c r="H568" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I568" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J568" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K568" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L568" s="6">
+        <v>663</v>
+      </c>
+      <c r="M568" s="7">
+        <v>118356.23</v>
+      </c>
+      <c r="N568" s="6">
+        <v>1</v>
+      </c>
+      <c r="O568" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P568" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q568" s="6">
+        <v>0</v>
+      </c>
+      <c r="R568" s="7">
+        <v>0</v>
+      </c>
+      <c r="S568" s="9">
+        <v>0</v>
+      </c>
+      <c r="T568" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U568" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V568" s="11">
+        <v>11</v>
+      </c>
+      <c r="W568" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X568" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y568" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z568" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA568" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB568" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC568" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD568" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE568" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF568" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG568" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH568" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI568" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ568" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK568" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL568" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM568" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN568" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO568" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP568" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ568" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR568" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="569" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>1</v>
+      </c>
+      <c r="B569" s="2">
+        <v>2</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F569" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G569" s="5">
+        <v>504</v>
+      </c>
+      <c r="H569" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I569" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J569" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K569" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L569" s="6">
+        <v>664</v>
+      </c>
+      <c r="M569" s="7">
+        <v>118534.75</v>
+      </c>
+      <c r="N569" s="6">
+        <v>1</v>
+      </c>
+      <c r="O569" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P569" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q569" s="6">
+        <v>0</v>
+      </c>
+      <c r="R569" s="7">
+        <v>0</v>
+      </c>
+      <c r="S569" s="9">
+        <v>0</v>
+      </c>
+      <c r="T569" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U569" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V569" s="11">
+        <v>11</v>
+      </c>
+      <c r="W569" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X569" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y569" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z569" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA569" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB569" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC569" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD569" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE569" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF569" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG569" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH569" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI569" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ569" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK569" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL569" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM569" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN569" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO569" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP569" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ569" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR569" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="570" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>1</v>
+      </c>
+      <c r="B570" s="2">
+        <v>2</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F570" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G570" s="5">
+        <v>505</v>
+      </c>
+      <c r="H570" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I570" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J570" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K570" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L570" s="6">
+        <v>665</v>
+      </c>
+      <c r="M570" s="7">
+        <v>118713.27</v>
+      </c>
+      <c r="N570" s="6">
+        <v>1</v>
+      </c>
+      <c r="O570" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P570" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q570" s="6">
+        <v>0</v>
+      </c>
+      <c r="R570" s="7">
+        <v>0</v>
+      </c>
+      <c r="S570" s="9">
+        <v>0</v>
+      </c>
+      <c r="T570" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U570" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V570" s="11">
+        <v>11</v>
+      </c>
+      <c r="W570" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X570" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y570" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z570" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA570" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB570" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC570" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD570" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE570" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF570" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG570" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH570" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI570" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ570" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK570" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL570" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM570" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN570" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO570" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP570" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ570" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR570" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="571" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>1</v>
+      </c>
+      <c r="B571" s="2">
+        <v>2</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F571" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G571" s="5">
+        <v>506</v>
+      </c>
+      <c r="H571" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I571" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J571" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K571" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L571" s="6">
+        <v>666</v>
+      </c>
+      <c r="M571" s="7">
+        <v>118891.78</v>
+      </c>
+      <c r="N571" s="6">
+        <v>1</v>
+      </c>
+      <c r="O571" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P571" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q571" s="6">
+        <v>0</v>
+      </c>
+      <c r="R571" s="7">
+        <v>0</v>
+      </c>
+      <c r="S571" s="9">
+        <v>0</v>
+      </c>
+      <c r="T571" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U571" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V571" s="11">
+        <v>11</v>
+      </c>
+      <c r="W571" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X571" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y571" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z571" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA571" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB571" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC571" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD571" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE571" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF571" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG571" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH571" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI571" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ571" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK571" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL571" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM571" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN571" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO571" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP571" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ571" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR571" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="572" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>1</v>
+      </c>
+      <c r="B572" s="2">
+        <v>2</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F572" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G572" s="5">
+        <v>507</v>
+      </c>
+      <c r="H572" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I572" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J572" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K572" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L572" s="6">
+        <v>667</v>
+      </c>
+      <c r="M572" s="7">
+        <v>119070.3</v>
+      </c>
+      <c r="N572" s="6">
+        <v>1</v>
+      </c>
+      <c r="O572" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P572" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q572" s="6">
+        <v>0</v>
+      </c>
+      <c r="R572" s="7">
+        <v>0</v>
+      </c>
+      <c r="S572" s="9">
+        <v>0</v>
+      </c>
+      <c r="T572" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U572" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V572" s="11">
+        <v>11</v>
+      </c>
+      <c r="W572" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X572" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y572" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z572" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA572" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB572" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC572" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD572" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE572" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF572" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG572" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH572" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI572" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ572" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK572" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL572" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM572" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN572" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO572" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP572" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ572" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR572" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="573" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>1</v>
+      </c>
+      <c r="B573" s="2">
+        <v>2</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F573" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G573" s="5">
+        <v>508</v>
+      </c>
+      <c r="H573" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I573" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J573" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K573" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L573" s="6">
+        <v>668</v>
+      </c>
+      <c r="M573" s="7">
+        <v>119248.81</v>
+      </c>
+      <c r="N573" s="6">
+        <v>1</v>
+      </c>
+      <c r="O573" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P573" s="8">
+        <v>178.52</v>
+      </c>
+      <c r="Q573" s="6">
+        <v>0</v>
+      </c>
+      <c r="R573" s="7">
+        <v>0</v>
+      </c>
+      <c r="S573" s="9">
+        <v>0</v>
+      </c>
+      <c r="T573" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U573" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V573" s="11">
+        <v>11</v>
+      </c>
+      <c r="W573" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X573" s="12">
+        <v>0.71597219999999995</v>
+      </c>
+      <c r="Y573" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z573" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA573" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB573" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC573" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD573" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE573" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF573" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG573" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH573" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI573" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ573" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK573" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL573" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM573" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN573" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO573" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP573" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ573" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR573" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="574" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>1</v>
+      </c>
+      <c r="B574" s="2">
+        <v>2</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F574" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G574" s="5">
+        <v>1</v>
+      </c>
+      <c r="H574" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I574" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J574" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K574" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L574" s="6">
+        <v>0</v>
+      </c>
+      <c r="M574" s="7">
+        <v>0</v>
+      </c>
+      <c r="N574" s="6">
+        <v>1</v>
+      </c>
+      <c r="O574" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="P574" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q574" s="6">
+        <v>0</v>
+      </c>
+      <c r="R574" s="7">
+        <v>0</v>
+      </c>
+      <c r="S574" s="9">
+        <v>0</v>
+      </c>
+      <c r="T574" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U574" s="10">
+        <v>62472</v>
+      </c>
+      <c r="V574" s="11">
+        <v>11</v>
+      </c>
+      <c r="W574" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X574" s="12">
+        <v>0.34027780000000002</v>
+      </c>
+      <c r="Y574" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z574" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA574" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB574" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC574" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD574" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE574" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF574" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG574" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH574" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI574" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ574" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK574" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL574" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM574" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN574" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO574" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP574" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ574" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR574" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="575" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>1</v>
+      </c>
+      <c r="B575" s="2">
+        <v>2</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F575" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G575" s="5">
+        <v>1</v>
+      </c>
+      <c r="H575" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I575" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J575" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K575" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L575" s="6">
+        <v>0</v>
+      </c>
+      <c r="M575" s="7">
+        <v>0</v>
+      </c>
+      <c r="N575" s="6">
+        <v>1</v>
+      </c>
+      <c r="O575" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="P575" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q575" s="6">
+        <v>0</v>
+      </c>
+      <c r="R575" s="7">
+        <v>0</v>
+      </c>
+      <c r="S575" s="9">
+        <v>0</v>
+      </c>
+      <c r="T575" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U575" s="10">
+        <v>62473</v>
+      </c>
+      <c r="V575" s="11">
+        <v>11</v>
+      </c>
+      <c r="W575" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X575" s="12">
+        <v>0.34027780000000002</v>
+      </c>
+      <c r="Y575" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z575" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA575" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB575" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC575" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD575" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE575" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF575" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG575" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH575" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI575" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ575" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK575" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL575" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM575" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN575" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO575" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP575" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ575" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR575" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="576" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>1</v>
+      </c>
+      <c r="B576" s="2">
+        <v>2</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F576" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G576" s="5">
+        <v>1</v>
+      </c>
+      <c r="H576" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I576" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J576" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K576" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L576" s="6">
+        <v>0</v>
+      </c>
+      <c r="M576" s="7">
+        <v>0</v>
+      </c>
+      <c r="N576" s="6">
+        <v>1</v>
+      </c>
+      <c r="O576" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="P576" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q576" s="6">
+        <v>0</v>
+      </c>
+      <c r="R576" s="7">
+        <v>0</v>
+      </c>
+      <c r="S576" s="9">
+        <v>0</v>
+      </c>
+      <c r="T576" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U576" s="10">
+        <v>62474</v>
+      </c>
+      <c r="V576" s="11">
+        <v>11</v>
+      </c>
+      <c r="W576" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X576" s="12">
+        <v>0.34027780000000002</v>
+      </c>
+      <c r="Y576" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z576" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA576" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB576" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC576" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD576" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE576" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF576" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG576" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH576" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI576" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ576" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK576" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL576" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM576" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN576" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO576" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP576" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ576" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR576" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="577" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>1</v>
+      </c>
+      <c r="B577" s="2">
+        <v>2</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F577" s="4">
+        <v>46065</v>
+      </c>
+      <c r="G577" s="5">
+        <v>1</v>
+      </c>
+      <c r="H577" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I577" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J577" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K577" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L577" s="6">
+        <v>0</v>
+      </c>
+      <c r="M577" s="7">
+        <v>0</v>
+      </c>
+      <c r="N577" s="6">
+        <v>1</v>
+      </c>
+      <c r="O577" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="P577" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q577" s="6">
+        <v>0</v>
+      </c>
+      <c r="R577" s="7">
+        <v>0</v>
+      </c>
+      <c r="S577" s="9">
+        <v>0</v>
+      </c>
+      <c r="T577" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U577" s="10">
+        <v>62475</v>
+      </c>
+      <c r="V577" s="11">
+        <v>11</v>
+      </c>
+      <c r="W577" s="4">
+        <v>46065</v>
+      </c>
+      <c r="X577" s="12">
+        <v>0.34027780000000002</v>
+      </c>
+      <c r="Y577" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z577" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA577" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB577" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC577" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD577" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE577" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF577" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG577" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH577" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI577" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ577" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK577" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL577" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM577" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN577" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO577" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP577" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ577" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR577" s="3" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21B7827-6AF1-4324-9C86-9BE7D3886B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBA9D53-0795-4C6E-BEF3-7491979E5DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="142">
   <si>
     <t>Sel</t>
   </si>
@@ -251,6 +251,201 @@
   </si>
   <si>
     <t>7627600028687</t>
+  </si>
+  <si>
+    <t>7627600028688</t>
+  </si>
+  <si>
+    <t>7627600028689</t>
+  </si>
+  <si>
+    <t>7627600028690</t>
+  </si>
+  <si>
+    <t>7627600028691</t>
+  </si>
+  <si>
+    <t>7627600028692</t>
+  </si>
+  <si>
+    <t>7627600028693</t>
+  </si>
+  <si>
+    <t>7627600028694</t>
+  </si>
+  <si>
+    <t>7627600028695</t>
+  </si>
+  <si>
+    <t>7627600028696</t>
+  </si>
+  <si>
+    <t>7627600028697</t>
+  </si>
+  <si>
+    <t>7627600028698</t>
+  </si>
+  <si>
+    <t>7627600028699</t>
+  </si>
+  <si>
+    <t>7627600028700</t>
+  </si>
+  <si>
+    <t>7627600028701</t>
+  </si>
+  <si>
+    <t>7627600028702</t>
+  </si>
+  <si>
+    <t>7627600028703</t>
+  </si>
+  <si>
+    <t>7627600028704</t>
+  </si>
+  <si>
+    <t>7627600028705</t>
+  </si>
+  <si>
+    <t>7627600028706</t>
+  </si>
+  <si>
+    <t>7627600028707</t>
+  </si>
+  <si>
+    <t>7627600028708</t>
+  </si>
+  <si>
+    <t>7627600028709</t>
+  </si>
+  <si>
+    <t>7627600028710</t>
+  </si>
+  <si>
+    <t>7627600028711</t>
+  </si>
+  <si>
+    <t>7627600028712</t>
+  </si>
+  <si>
+    <t>7627600028713</t>
+  </si>
+  <si>
+    <t>7627600028714</t>
+  </si>
+  <si>
+    <t>7627600028715</t>
+  </si>
+  <si>
+    <t>7627600028716</t>
+  </si>
+  <si>
+    <t>7627600028717</t>
+  </si>
+  <si>
+    <t>7627600028718</t>
+  </si>
+  <si>
+    <t>7627600028719</t>
+  </si>
+  <si>
+    <t>7627600028720</t>
+  </si>
+  <si>
+    <t>7627600028721</t>
+  </si>
+  <si>
+    <t>7627600028722</t>
+  </si>
+  <si>
+    <t>7627600028723</t>
+  </si>
+  <si>
+    <t>7627600028724</t>
+  </si>
+  <si>
+    <t>7627600028725</t>
+  </si>
+  <si>
+    <t>7627600028726</t>
+  </si>
+  <si>
+    <t>7627600028727</t>
+  </si>
+  <si>
+    <t>7627600028728</t>
+  </si>
+  <si>
+    <t>7627600028729</t>
+  </si>
+  <si>
+    <t>7627600028730</t>
+  </si>
+  <si>
+    <t>7627600028731</t>
+  </si>
+  <si>
+    <t>7627600028732</t>
+  </si>
+  <si>
+    <t>7627600028733</t>
+  </si>
+  <si>
+    <t>7627600028734</t>
+  </si>
+  <si>
+    <t>7627600028735</t>
+  </si>
+  <si>
+    <t>7627600028736</t>
+  </si>
+  <si>
+    <t>7627600028737</t>
+  </si>
+  <si>
+    <t>7627600028738</t>
+  </si>
+  <si>
+    <t>7627600028739</t>
+  </si>
+  <si>
+    <t>7627600028740</t>
+  </si>
+  <si>
+    <t>7627600028741</t>
+  </si>
+  <si>
+    <t>7627600028742</t>
+  </si>
+  <si>
+    <t>7627600028743</t>
+  </si>
+  <si>
+    <t>7627600028744</t>
+  </si>
+  <si>
+    <t>7627600028745</t>
+  </si>
+  <si>
+    <t>7627600028746</t>
+  </si>
+  <si>
+    <t>7627600028747</t>
+  </si>
+  <si>
+    <t>7627600028748</t>
+  </si>
+  <si>
+    <t>7627600028749</t>
+  </si>
+  <si>
+    <t>7627600028750</t>
+  </si>
+  <si>
+    <t>7627600028751</t>
+  </si>
+  <si>
+    <t>7627600028752</t>
   </si>
 </sst>
 </file>
@@ -826,7 +1021,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR23"/>
+  <dimension ref="A1:AR88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3914,6 +4109,8716 @@
         <v>76</v>
       </c>
     </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G24" s="5">
+        <v>23</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="6">
+        <v>699</v>
+      </c>
+      <c r="M24" s="7">
+        <v>121903.48</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U24" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V24" s="11">
+        <v>11</v>
+      </c>
+      <c r="W24" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X24" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR24" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G25" s="5">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="6">
+        <v>700</v>
+      </c>
+      <c r="M25" s="7">
+        <v>122077.87</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V25" s="11">
+        <v>11</v>
+      </c>
+      <c r="W25" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X25" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR25" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G26" s="5">
+        <v>25</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="6">
+        <v>701</v>
+      </c>
+      <c r="M26" s="7">
+        <v>122252.27</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V26" s="11">
+        <v>11</v>
+      </c>
+      <c r="W26" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X26" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR26" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G27" s="5">
+        <v>26</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="6">
+        <v>702</v>
+      </c>
+      <c r="M27" s="7">
+        <v>122426.67</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U27" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V27" s="11">
+        <v>11</v>
+      </c>
+      <c r="W27" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X27" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR27" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G28" s="5">
+        <v>27</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="6">
+        <v>703</v>
+      </c>
+      <c r="M28" s="7">
+        <v>122601.07</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U28" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V28" s="11">
+        <v>11</v>
+      </c>
+      <c r="W28" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X28" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR28" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G29" s="5">
+        <v>28</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="6">
+        <v>704</v>
+      </c>
+      <c r="M29" s="7">
+        <v>122775.46</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U29" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V29" s="11">
+        <v>11</v>
+      </c>
+      <c r="W29" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X29" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR29" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G30" s="5">
+        <v>29</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="6">
+        <v>705</v>
+      </c>
+      <c r="M30" s="7">
+        <v>122949.86</v>
+      </c>
+      <c r="N30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>0</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U30" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V30" s="11">
+        <v>11</v>
+      </c>
+      <c r="W30" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X30" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR30" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G31" s="5">
+        <v>30</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="6">
+        <v>706</v>
+      </c>
+      <c r="M31" s="7">
+        <v>123124.26</v>
+      </c>
+      <c r="N31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U31" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V31" s="11">
+        <v>11</v>
+      </c>
+      <c r="W31" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X31" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR31" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G32" s="5">
+        <v>31</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="6">
+        <v>707</v>
+      </c>
+      <c r="M32" s="7">
+        <v>123298.65</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U32" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V32" s="11">
+        <v>11</v>
+      </c>
+      <c r="W32" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X32" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR32" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G33" s="5">
+        <v>32</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="6">
+        <v>708</v>
+      </c>
+      <c r="M33" s="7">
+        <v>123473.05</v>
+      </c>
+      <c r="N33" s="6">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U33" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V33" s="11">
+        <v>11</v>
+      </c>
+      <c r="W33" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X33" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR33" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G34" s="5">
+        <v>33</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="6">
+        <v>709</v>
+      </c>
+      <c r="M34" s="7">
+        <v>123647.45</v>
+      </c>
+      <c r="N34" s="6">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V34" s="11">
+        <v>11</v>
+      </c>
+      <c r="W34" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X34" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR34" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G35" s="5">
+        <v>34</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" s="6">
+        <v>710</v>
+      </c>
+      <c r="M35" s="7">
+        <v>123821.84</v>
+      </c>
+      <c r="N35" s="6">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U35" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V35" s="11">
+        <v>11</v>
+      </c>
+      <c r="W35" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X35" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR35" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G36" s="5">
+        <v>35</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L36" s="6">
+        <v>711</v>
+      </c>
+      <c r="M36" s="7">
+        <v>123996.24</v>
+      </c>
+      <c r="N36" s="6">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U36" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V36" s="11">
+        <v>11</v>
+      </c>
+      <c r="W36" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X36" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR36" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G37" s="5">
+        <v>36</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="6">
+        <v>712</v>
+      </c>
+      <c r="M37" s="7">
+        <v>124170.64</v>
+      </c>
+      <c r="N37" s="6">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>0</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U37" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V37" s="11">
+        <v>11</v>
+      </c>
+      <c r="W37" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X37" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR37" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G38" s="5">
+        <v>37</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="6">
+        <v>713</v>
+      </c>
+      <c r="M38" s="7">
+        <v>124345.04</v>
+      </c>
+      <c r="N38" s="6">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P38" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U38" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V38" s="11">
+        <v>11</v>
+      </c>
+      <c r="W38" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X38" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR38" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G39" s="5">
+        <v>38</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="6">
+        <v>714</v>
+      </c>
+      <c r="M39" s="7">
+        <v>124519.43</v>
+      </c>
+      <c r="N39" s="6">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+      <c r="S39" s="9">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U39" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V39" s="11">
+        <v>11</v>
+      </c>
+      <c r="W39" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X39" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G40" s="5">
+        <v>39</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L40" s="6">
+        <v>715</v>
+      </c>
+      <c r="M40" s="7">
+        <v>124693.83</v>
+      </c>
+      <c r="N40" s="6">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+      <c r="S40" s="9">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V40" s="11">
+        <v>11</v>
+      </c>
+      <c r="W40" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X40" s="12">
+        <v>0.33888889999999999</v>
+      </c>
+      <c r="Y40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR40" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G41" s="5">
+        <v>40</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" s="6">
+        <v>716</v>
+      </c>
+      <c r="M41" s="7">
+        <v>124868.23</v>
+      </c>
+      <c r="N41" s="6">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U41" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V41" s="11">
+        <v>11</v>
+      </c>
+      <c r="W41" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X41" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR41" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G42" s="5">
+        <v>41</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L42" s="6">
+        <v>717</v>
+      </c>
+      <c r="M42" s="7">
+        <v>125042.62</v>
+      </c>
+      <c r="N42" s="6">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U42" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V42" s="11">
+        <v>11</v>
+      </c>
+      <c r="W42" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X42" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR42" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G43" s="5">
+        <v>42</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="6">
+        <v>718</v>
+      </c>
+      <c r="M43" s="7">
+        <v>125217.02</v>
+      </c>
+      <c r="N43" s="6">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P43" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="S43" s="9">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U43" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V43" s="11">
+        <v>11</v>
+      </c>
+      <c r="W43" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X43" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR43" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G44" s="5">
+        <v>43</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" s="6">
+        <v>719</v>
+      </c>
+      <c r="M44" s="7">
+        <v>125391.42</v>
+      </c>
+      <c r="N44" s="6">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0</v>
+      </c>
+      <c r="S44" s="9">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U44" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V44" s="11">
+        <v>11</v>
+      </c>
+      <c r="W44" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X44" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR44" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G45" s="5">
+        <v>44</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L45" s="6">
+        <v>720</v>
+      </c>
+      <c r="M45" s="7">
+        <v>125565.81</v>
+      </c>
+      <c r="N45" s="6">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P45" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="9">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U45" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V45" s="11">
+        <v>11</v>
+      </c>
+      <c r="W45" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X45" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR45" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G46" s="5">
+        <v>45</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L46" s="6">
+        <v>721</v>
+      </c>
+      <c r="M46" s="7">
+        <v>125740.21</v>
+      </c>
+      <c r="N46" s="6">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+      <c r="S46" s="9">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U46" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V46" s="11">
+        <v>11</v>
+      </c>
+      <c r="W46" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X46" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y46" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR46" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G47" s="5">
+        <v>46</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L47" s="6">
+        <v>722</v>
+      </c>
+      <c r="M47" s="7">
+        <v>125914.61</v>
+      </c>
+      <c r="N47" s="6">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P47" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>0</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="S47" s="9">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U47" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V47" s="11">
+        <v>11</v>
+      </c>
+      <c r="W47" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X47" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR47" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G48" s="5">
+        <v>47</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L48" s="6">
+        <v>723</v>
+      </c>
+      <c r="M48" s="7">
+        <v>126089</v>
+      </c>
+      <c r="N48" s="6">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P48" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>0</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0</v>
+      </c>
+      <c r="S48" s="9">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U48" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V48" s="11">
+        <v>11</v>
+      </c>
+      <c r="W48" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X48" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR48" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G49" s="5">
+        <v>48</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L49" s="6">
+        <v>724</v>
+      </c>
+      <c r="M49" s="7">
+        <v>126263.4</v>
+      </c>
+      <c r="N49" s="6">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P49" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>0</v>
+      </c>
+      <c r="R49" s="7">
+        <v>0</v>
+      </c>
+      <c r="S49" s="9">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U49" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V49" s="11">
+        <v>11</v>
+      </c>
+      <c r="W49" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X49" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR49" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G50" s="5">
+        <v>49</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L50" s="6">
+        <v>725</v>
+      </c>
+      <c r="M50" s="7">
+        <v>126437.8</v>
+      </c>
+      <c r="N50" s="6">
+        <v>1</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>0</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0</v>
+      </c>
+      <c r="S50" s="9">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U50" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V50" s="11">
+        <v>11</v>
+      </c>
+      <c r="W50" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X50" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR50" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G51" s="5">
+        <v>50</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" s="6">
+        <v>726</v>
+      </c>
+      <c r="M51" s="7">
+        <v>126612.2</v>
+      </c>
+      <c r="N51" s="6">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P51" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>0</v>
+      </c>
+      <c r="R51" s="7">
+        <v>0</v>
+      </c>
+      <c r="S51" s="9">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U51" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V51" s="11">
+        <v>11</v>
+      </c>
+      <c r="W51" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X51" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR51" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G52" s="5">
+        <v>51</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L52" s="6">
+        <v>727</v>
+      </c>
+      <c r="M52" s="7">
+        <v>126786.59</v>
+      </c>
+      <c r="N52" s="6">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P52" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>0</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0</v>
+      </c>
+      <c r="S52" s="9">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U52" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V52" s="11">
+        <v>11</v>
+      </c>
+      <c r="W52" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X52" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y52" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR52" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G53" s="5">
+        <v>52</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" s="6">
+        <v>728</v>
+      </c>
+      <c r="M53" s="7">
+        <v>126960.99</v>
+      </c>
+      <c r="N53" s="6">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>0</v>
+      </c>
+      <c r="R53" s="7">
+        <v>0</v>
+      </c>
+      <c r="S53" s="9">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U53" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V53" s="11">
+        <v>11</v>
+      </c>
+      <c r="W53" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X53" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y53" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR53" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G54" s="5">
+        <v>53</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="6">
+        <v>729</v>
+      </c>
+      <c r="M54" s="7">
+        <v>127135.39</v>
+      </c>
+      <c r="N54" s="6">
+        <v>1</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P54" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>0</v>
+      </c>
+      <c r="R54" s="7">
+        <v>0</v>
+      </c>
+      <c r="S54" s="9">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U54" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V54" s="11">
+        <v>11</v>
+      </c>
+      <c r="W54" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X54" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR54" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G55" s="5">
+        <v>54</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L55" s="6">
+        <v>730</v>
+      </c>
+      <c r="M55" s="7">
+        <v>127309.78</v>
+      </c>
+      <c r="N55" s="6">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P55" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>0</v>
+      </c>
+      <c r="R55" s="7">
+        <v>0</v>
+      </c>
+      <c r="S55" s="9">
+        <v>0</v>
+      </c>
+      <c r="T55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U55" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V55" s="11">
+        <v>11</v>
+      </c>
+      <c r="W55" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X55" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR55" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G56" s="5">
+        <v>55</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L56" s="6">
+        <v>731</v>
+      </c>
+      <c r="M56" s="7">
+        <v>127484.18</v>
+      </c>
+      <c r="N56" s="6">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>0</v>
+      </c>
+      <c r="R56" s="7">
+        <v>0</v>
+      </c>
+      <c r="S56" s="9">
+        <v>0</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U56" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V56" s="11">
+        <v>11</v>
+      </c>
+      <c r="W56" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X56" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR56" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G57" s="5">
+        <v>56</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57" s="6">
+        <v>732</v>
+      </c>
+      <c r="M57" s="7">
+        <v>127658.58</v>
+      </c>
+      <c r="N57" s="6">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>0</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+      <c r="S57" s="9">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U57" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V57" s="11">
+        <v>11</v>
+      </c>
+      <c r="W57" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X57" s="12">
+        <v>0.33958329999999998</v>
+      </c>
+      <c r="Y57" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR57" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G58" s="5">
+        <v>57</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L58" s="6">
+        <v>733</v>
+      </c>
+      <c r="M58" s="7">
+        <v>127832.97</v>
+      </c>
+      <c r="N58" s="6">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P58" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>0</v>
+      </c>
+      <c r="R58" s="7">
+        <v>0</v>
+      </c>
+      <c r="S58" s="9">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U58" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V58" s="11">
+        <v>11</v>
+      </c>
+      <c r="W58" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X58" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR58" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G59" s="5">
+        <v>58</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L59" s="6">
+        <v>734</v>
+      </c>
+      <c r="M59" s="7">
+        <v>128007.37</v>
+      </c>
+      <c r="N59" s="6">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P59" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>0</v>
+      </c>
+      <c r="R59" s="7">
+        <v>0</v>
+      </c>
+      <c r="S59" s="9">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U59" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V59" s="11">
+        <v>11</v>
+      </c>
+      <c r="W59" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X59" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y59" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR59" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G60" s="5">
+        <v>59</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L60" s="6">
+        <v>735</v>
+      </c>
+      <c r="M60" s="7">
+        <v>128181.77</v>
+      </c>
+      <c r="N60" s="6">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P60" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>0</v>
+      </c>
+      <c r="R60" s="7">
+        <v>0</v>
+      </c>
+      <c r="S60" s="9">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U60" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V60" s="11">
+        <v>11</v>
+      </c>
+      <c r="W60" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X60" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y60" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR60" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G61" s="5">
+        <v>60</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" s="6">
+        <v>736</v>
+      </c>
+      <c r="M61" s="7">
+        <v>128356.17</v>
+      </c>
+      <c r="N61" s="6">
+        <v>1</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P61" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>0</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="S61" s="9">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U61" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V61" s="11">
+        <v>11</v>
+      </c>
+      <c r="W61" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X61" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y61" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR61" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G62" s="5">
+        <v>61</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" s="6">
+        <v>737</v>
+      </c>
+      <c r="M62" s="7">
+        <v>128530.56</v>
+      </c>
+      <c r="N62" s="6">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P62" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>0</v>
+      </c>
+      <c r="R62" s="7">
+        <v>0</v>
+      </c>
+      <c r="S62" s="9">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U62" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V62" s="11">
+        <v>11</v>
+      </c>
+      <c r="W62" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X62" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y62" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI62" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR62" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G63" s="5">
+        <v>62</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" s="6">
+        <v>738</v>
+      </c>
+      <c r="M63" s="7">
+        <v>128704.96000000001</v>
+      </c>
+      <c r="N63" s="6">
+        <v>1</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>0</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+      <c r="S63" s="9">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U63" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V63" s="11">
+        <v>11</v>
+      </c>
+      <c r="W63" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X63" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y63" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI63" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR63" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G64" s="5">
+        <v>63</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L64" s="6">
+        <v>739</v>
+      </c>
+      <c r="M64" s="7">
+        <v>128879.36</v>
+      </c>
+      <c r="N64" s="6">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P64" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>0</v>
+      </c>
+      <c r="R64" s="7">
+        <v>0</v>
+      </c>
+      <c r="S64" s="9">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U64" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V64" s="11">
+        <v>11</v>
+      </c>
+      <c r="W64" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X64" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y64" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR64" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G65" s="5">
+        <v>64</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L65" s="6">
+        <v>740</v>
+      </c>
+      <c r="M65" s="7">
+        <v>129053.75</v>
+      </c>
+      <c r="N65" s="6">
+        <v>1</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P65" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>0</v>
+      </c>
+      <c r="R65" s="7">
+        <v>0</v>
+      </c>
+      <c r="S65" s="9">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U65" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V65" s="11">
+        <v>11</v>
+      </c>
+      <c r="W65" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X65" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y65" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR65" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G66" s="5">
+        <v>65</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L66" s="6">
+        <v>741</v>
+      </c>
+      <c r="M66" s="7">
+        <v>129228.15</v>
+      </c>
+      <c r="N66" s="6">
+        <v>1</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P66" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>0</v>
+      </c>
+      <c r="R66" s="7">
+        <v>0</v>
+      </c>
+      <c r="S66" s="9">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U66" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V66" s="11">
+        <v>11</v>
+      </c>
+      <c r="W66" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X66" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y66" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG66" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR66" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G67" s="5">
+        <v>66</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L67" s="6">
+        <v>742</v>
+      </c>
+      <c r="M67" s="7">
+        <v>129402.55</v>
+      </c>
+      <c r="N67" s="6">
+        <v>1</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P67" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>0</v>
+      </c>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="9">
+        <v>0</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U67" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V67" s="11">
+        <v>11</v>
+      </c>
+      <c r="W67" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X67" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y67" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG67" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI67" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK67" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR67" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G68" s="5">
+        <v>67</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L68" s="6">
+        <v>743</v>
+      </c>
+      <c r="M68" s="7">
+        <v>129576.94</v>
+      </c>
+      <c r="N68" s="6">
+        <v>1</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P68" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0</v>
+      </c>
+      <c r="S68" s="9">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U68" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V68" s="11">
+        <v>11</v>
+      </c>
+      <c r="W68" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X68" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y68" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG68" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR68" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G69" s="5">
+        <v>68</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L69" s="6">
+        <v>744</v>
+      </c>
+      <c r="M69" s="7">
+        <v>129751.34</v>
+      </c>
+      <c r="N69" s="6">
+        <v>1</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P69" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>0</v>
+      </c>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69" s="9">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U69" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V69" s="11">
+        <v>11</v>
+      </c>
+      <c r="W69" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X69" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y69" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG69" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR69" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G70" s="5">
+        <v>69</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L70" s="6">
+        <v>745</v>
+      </c>
+      <c r="M70" s="7">
+        <v>129925.74</v>
+      </c>
+      <c r="N70" s="6">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P70" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>0</v>
+      </c>
+      <c r="R70" s="7">
+        <v>0</v>
+      </c>
+      <c r="S70" s="9">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U70" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V70" s="11">
+        <v>11</v>
+      </c>
+      <c r="W70" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X70" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y70" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG70" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI70" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR70" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G71" s="5">
+        <v>70</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L71" s="6">
+        <v>746</v>
+      </c>
+      <c r="M71" s="7">
+        <v>130100.13</v>
+      </c>
+      <c r="N71" s="6">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P71" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>0</v>
+      </c>
+      <c r="R71" s="7">
+        <v>0</v>
+      </c>
+      <c r="S71" s="9">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U71" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V71" s="11">
+        <v>11</v>
+      </c>
+      <c r="W71" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X71" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y71" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG71" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR71" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G72" s="5">
+        <v>71</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L72" s="6">
+        <v>747</v>
+      </c>
+      <c r="M72" s="7">
+        <v>130274.53</v>
+      </c>
+      <c r="N72" s="6">
+        <v>1</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P72" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q72" s="6">
+        <v>0</v>
+      </c>
+      <c r="R72" s="7">
+        <v>0</v>
+      </c>
+      <c r="S72" s="9">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U72" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V72" s="11">
+        <v>11</v>
+      </c>
+      <c r="W72" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X72" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y72" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI72" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR72" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G73" s="5">
+        <v>72</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L73" s="6">
+        <v>748</v>
+      </c>
+      <c r="M73" s="7">
+        <v>130448.93</v>
+      </c>
+      <c r="N73" s="6">
+        <v>1</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P73" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q73" s="6">
+        <v>0</v>
+      </c>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73" s="9">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U73" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V73" s="11">
+        <v>11</v>
+      </c>
+      <c r="W73" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X73" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y73" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG73" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI73" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR73" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G74" s="5">
+        <v>73</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L74" s="6">
+        <v>749</v>
+      </c>
+      <c r="M74" s="7">
+        <v>130623.33</v>
+      </c>
+      <c r="N74" s="6">
+        <v>1</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P74" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>0</v>
+      </c>
+      <c r="R74" s="7">
+        <v>0</v>
+      </c>
+      <c r="S74" s="9">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U74" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V74" s="11">
+        <v>11</v>
+      </c>
+      <c r="W74" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X74" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y74" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG74" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK74" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR74" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G75" s="5">
+        <v>74</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L75" s="6">
+        <v>750</v>
+      </c>
+      <c r="M75" s="7">
+        <v>130797.72</v>
+      </c>
+      <c r="N75" s="6">
+        <v>1</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P75" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>0</v>
+      </c>
+      <c r="R75" s="7">
+        <v>0</v>
+      </c>
+      <c r="S75" s="9">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U75" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V75" s="11">
+        <v>11</v>
+      </c>
+      <c r="W75" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X75" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y75" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG75" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK75" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM75" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR75" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G76" s="5">
+        <v>75</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L76" s="6">
+        <v>751</v>
+      </c>
+      <c r="M76" s="7">
+        <v>130972.12</v>
+      </c>
+      <c r="N76" s="6">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P76" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>0</v>
+      </c>
+      <c r="R76" s="7">
+        <v>0</v>
+      </c>
+      <c r="S76" s="9">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U76" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V76" s="11">
+        <v>11</v>
+      </c>
+      <c r="W76" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X76" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y76" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG76" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR76" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G77" s="5">
+        <v>76</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L77" s="6">
+        <v>752</v>
+      </c>
+      <c r="M77" s="7">
+        <v>131146.51999999999</v>
+      </c>
+      <c r="N77" s="6">
+        <v>1</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P77" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q77" s="6">
+        <v>0</v>
+      </c>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="9">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U77" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V77" s="11">
+        <v>11</v>
+      </c>
+      <c r="W77" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X77" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y77" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG77" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ77" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR77" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G78" s="5">
+        <v>77</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L78" s="6">
+        <v>753</v>
+      </c>
+      <c r="M78" s="7">
+        <v>131320.91</v>
+      </c>
+      <c r="N78" s="6">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P78" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q78" s="6">
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="9">
+        <v>0</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U78" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V78" s="11">
+        <v>11</v>
+      </c>
+      <c r="W78" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X78" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y78" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG78" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK78" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR78" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G79" s="5">
+        <v>78</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L79" s="6">
+        <v>754</v>
+      </c>
+      <c r="M79" s="7">
+        <v>131495.31</v>
+      </c>
+      <c r="N79" s="6">
+        <v>1</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P79" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q79" s="6">
+        <v>0</v>
+      </c>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="9">
+        <v>0</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U79" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V79" s="11">
+        <v>11</v>
+      </c>
+      <c r="W79" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X79" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y79" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG79" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI79" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ79" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK79" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM79" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR79" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G80" s="5">
+        <v>79</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L80" s="6">
+        <v>755</v>
+      </c>
+      <c r="M80" s="7">
+        <v>131669.71</v>
+      </c>
+      <c r="N80" s="6">
+        <v>1</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P80" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q80" s="6">
+        <v>0</v>
+      </c>
+      <c r="R80" s="7">
+        <v>0</v>
+      </c>
+      <c r="S80" s="9">
+        <v>0</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U80" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V80" s="11">
+        <v>11</v>
+      </c>
+      <c r="W80" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X80" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y80" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG80" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ80" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK80" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM80" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR80" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G81" s="5">
+        <v>80</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L81" s="6">
+        <v>756</v>
+      </c>
+      <c r="M81" s="7">
+        <v>131844.1</v>
+      </c>
+      <c r="N81" s="6">
+        <v>1</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P81" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q81" s="6">
+        <v>0</v>
+      </c>
+      <c r="R81" s="7">
+        <v>0</v>
+      </c>
+      <c r="S81" s="9">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U81" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V81" s="11">
+        <v>11</v>
+      </c>
+      <c r="W81" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X81" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y81" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG81" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK81" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM81" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR81" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G82" s="5">
+        <v>81</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L82" s="6">
+        <v>757</v>
+      </c>
+      <c r="M82" s="7">
+        <v>132018.5</v>
+      </c>
+      <c r="N82" s="6">
+        <v>1</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P82" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>0</v>
+      </c>
+      <c r="R82" s="7">
+        <v>0</v>
+      </c>
+      <c r="S82" s="9">
+        <v>0</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U82" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V82" s="11">
+        <v>11</v>
+      </c>
+      <c r="W82" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X82" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y82" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG82" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI82" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK82" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR82" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G83" s="5">
+        <v>82</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L83" s="6">
+        <v>758</v>
+      </c>
+      <c r="M83" s="7">
+        <v>132192.9</v>
+      </c>
+      <c r="N83" s="6">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P83" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>0</v>
+      </c>
+      <c r="R83" s="7">
+        <v>0</v>
+      </c>
+      <c r="S83" s="9">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U83" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V83" s="11">
+        <v>11</v>
+      </c>
+      <c r="W83" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X83" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y83" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG83" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI83" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ83" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK83" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR83" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G84" s="5">
+        <v>83</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L84" s="6">
+        <v>759</v>
+      </c>
+      <c r="M84" s="7">
+        <v>132367.29999999999</v>
+      </c>
+      <c r="N84" s="6">
+        <v>1</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P84" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>0</v>
+      </c>
+      <c r="R84" s="7">
+        <v>0</v>
+      </c>
+      <c r="S84" s="9">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U84" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V84" s="11">
+        <v>11</v>
+      </c>
+      <c r="W84" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X84" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y84" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK84" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM84" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR84" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G85" s="5">
+        <v>84</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L85" s="6">
+        <v>760</v>
+      </c>
+      <c r="M85" s="7">
+        <v>132541.69</v>
+      </c>
+      <c r="N85" s="6">
+        <v>1</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P85" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q85" s="6">
+        <v>0</v>
+      </c>
+      <c r="R85" s="7">
+        <v>0</v>
+      </c>
+      <c r="S85" s="9">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U85" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V85" s="11">
+        <v>11</v>
+      </c>
+      <c r="W85" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X85" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y85" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ85" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR85" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G86" s="5">
+        <v>85</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L86" s="6">
+        <v>761</v>
+      </c>
+      <c r="M86" s="7">
+        <v>132716.09</v>
+      </c>
+      <c r="N86" s="6">
+        <v>1</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P86" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>0</v>
+      </c>
+      <c r="R86" s="7">
+        <v>0</v>
+      </c>
+      <c r="S86" s="9">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U86" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V86" s="11">
+        <v>11</v>
+      </c>
+      <c r="W86" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X86" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y86" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG86" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ86" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR86" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>1</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G87" s="5">
+        <v>86</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L87" s="6">
+        <v>762</v>
+      </c>
+      <c r="M87" s="7">
+        <v>132890.49</v>
+      </c>
+      <c r="N87" s="6">
+        <v>1</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P87" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q87" s="6">
+        <v>0</v>
+      </c>
+      <c r="R87" s="7">
+        <v>0</v>
+      </c>
+      <c r="S87" s="9">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U87" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V87" s="11">
+        <v>11</v>
+      </c>
+      <c r="W87" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X87" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y87" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ87" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK87" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM87" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR87" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="4">
+        <v>46066</v>
+      </c>
+      <c r="G88" s="5">
+        <v>87</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L88" s="6">
+        <v>763</v>
+      </c>
+      <c r="M88" s="7">
+        <v>133064.88</v>
+      </c>
+      <c r="N88" s="6">
+        <v>1</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P88" s="8">
+        <v>174.4</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>0</v>
+      </c>
+      <c r="R88" s="7">
+        <v>0</v>
+      </c>
+      <c r="S88" s="9">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U88" s="10">
+        <v>62437</v>
+      </c>
+      <c r="V88" s="11">
+        <v>11</v>
+      </c>
+      <c r="W88" s="4">
+        <v>46066</v>
+      </c>
+      <c r="X88" s="12">
+        <v>0.36041669999999998</v>
+      </c>
+      <c r="Y88" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG88" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI88" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ88" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK88" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM88" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR88" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCBC516E-5EE1-4B0B-B99D-A00C62D45D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBFE27B7-AAE9-45C7-A51D-E34072737F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA749F32-6F32-49D4-AB65-38F0B34232E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DBCE38-9181-40D8-8642-957787891774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DBCE38-9181-40D8-8642-957787891774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{296001BE-28A7-4C5A-81DC-857F0EF51079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{296001BE-28A7-4C5A-81DC-857F0EF51079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26A65201-C82E-4421-B65D-1DB1108E692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3113D62-8B16-4819-87B7-33F73B1E4472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D697E650-136F-489C-A722-E8B2E167766B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5372" uniqueCount="356">
   <si>
     <t>Sel</t>
   </si>
@@ -880,6 +880,150 @@
     <t>7627600028914</t>
   </si>
   <si>
+    <t>7627600028915</t>
+  </si>
+  <si>
+    <t>7627600028916</t>
+  </si>
+  <si>
+    <t>7627600028917</t>
+  </si>
+  <si>
+    <t>7627600028918</t>
+  </si>
+  <si>
+    <t>7627600028919</t>
+  </si>
+  <si>
+    <t>7627600028920</t>
+  </si>
+  <si>
+    <t>7627600028921</t>
+  </si>
+  <si>
+    <t>7627600028922</t>
+  </si>
+  <si>
+    <t>7627600028923</t>
+  </si>
+  <si>
+    <t>7627600028924</t>
+  </si>
+  <si>
+    <t>7627600028925</t>
+  </si>
+  <si>
+    <t>7627600028926</t>
+  </si>
+  <si>
+    <t>7627600028927</t>
+  </si>
+  <si>
+    <t>7627600028928</t>
+  </si>
+  <si>
+    <t>7627600028929</t>
+  </si>
+  <si>
+    <t>7627600028930</t>
+  </si>
+  <si>
+    <t>7627600028931</t>
+  </si>
+  <si>
+    <t>7627600028932</t>
+  </si>
+  <si>
+    <t>7627600028933</t>
+  </si>
+  <si>
+    <t>7627600028934</t>
+  </si>
+  <si>
+    <t>7627600028935</t>
+  </si>
+  <si>
+    <t>7627600028936</t>
+  </si>
+  <si>
+    <t>7627600028937</t>
+  </si>
+  <si>
+    <t>7627600028938</t>
+  </si>
+  <si>
+    <t>7627600028939</t>
+  </si>
+  <si>
+    <t>7627600028940</t>
+  </si>
+  <si>
+    <t>7627600028941</t>
+  </si>
+  <si>
+    <t>7627600028942</t>
+  </si>
+  <si>
+    <t>7627600028943</t>
+  </si>
+  <si>
+    <t>7627600028944</t>
+  </si>
+  <si>
+    <t>7627600028945</t>
+  </si>
+  <si>
+    <t>7627600028946</t>
+  </si>
+  <si>
+    <t>7627600028947</t>
+  </si>
+  <si>
+    <t>7627600028948</t>
+  </si>
+  <si>
+    <t>7627600028949</t>
+  </si>
+  <si>
+    <t>7627600028950</t>
+  </si>
+  <si>
+    <t>7627600028951</t>
+  </si>
+  <si>
+    <t>7627600028952</t>
+  </si>
+  <si>
+    <t>7627600028953</t>
+  </si>
+  <si>
+    <t>7627600028954</t>
+  </si>
+  <si>
+    <t>7627600028955</t>
+  </si>
+  <si>
+    <t>7627600028956</t>
+  </si>
+  <si>
+    <t>7627600028957</t>
+  </si>
+  <si>
+    <t>7627600028958</t>
+  </si>
+  <si>
+    <t>7627600028959</t>
+  </si>
+  <si>
+    <t>7627600028960</t>
+  </si>
+  <si>
+    <t>7627600028961</t>
+  </si>
+  <si>
+    <t>7627600028962</t>
+  </si>
+  <si>
     <t>10094054</t>
   </si>
   <si>
@@ -941,6 +1085,9 @@
   </si>
   <si>
     <t>1003600000111</t>
+  </si>
+  <si>
+    <t>1003600000112</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR248"/>
+  <dimension ref="A1:AR297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32216,10 +32363,10 @@
         <v>2</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>46</v>
@@ -32228,7 +32375,7 @@
         <v>46069</v>
       </c>
       <c r="G230" s="5">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="H230" s="3" t="s">
         <v>47</v>
@@ -32243,19 +32390,19 @@
         <v>50</v>
       </c>
       <c r="L230" s="6">
-        <v>2</v>
+        <v>926</v>
       </c>
       <c r="M230" s="7">
-        <v>398.2</v>
+        <v>161035.26</v>
       </c>
       <c r="N230" s="6">
         <v>1</v>
       </c>
       <c r="O230" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P230" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q230" s="6">
         <v>0</v>
@@ -32270,7 +32417,7 @@
         <v>52</v>
       </c>
       <c r="U230" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V230" s="11">
         <v>11</v>
@@ -32279,7 +32426,7 @@
         <v>46069</v>
       </c>
       <c r="X230" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y230" s="10">
         <v>0</v>
@@ -32339,7 +32486,7 @@
         <v>53</v>
       </c>
       <c r="AR230" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="1:44" x14ac:dyDescent="0.3">
@@ -32350,10 +32497,10 @@
         <v>2</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>46</v>
@@ -32362,7 +32509,7 @@
         <v>46069</v>
       </c>
       <c r="G231" s="5">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="H231" s="3" t="s">
         <v>47</v>
@@ -32377,19 +32524,19 @@
         <v>50</v>
       </c>
       <c r="L231" s="6">
-        <v>3</v>
+        <v>927</v>
       </c>
       <c r="M231" s="7">
-        <v>597.29999999999995</v>
+        <v>161209.17000000001</v>
       </c>
       <c r="N231" s="6">
         <v>1</v>
       </c>
       <c r="O231" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P231" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q231" s="6">
         <v>0</v>
@@ -32404,7 +32551,7 @@
         <v>52</v>
       </c>
       <c r="U231" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V231" s="11">
         <v>11</v>
@@ -32413,7 +32560,7 @@
         <v>46069</v>
       </c>
       <c r="X231" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y231" s="10">
         <v>0</v>
@@ -32473,7 +32620,7 @@
         <v>53</v>
       </c>
       <c r="AR231" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="232" spans="1:44" x14ac:dyDescent="0.3">
@@ -32484,10 +32631,10 @@
         <v>2</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>46</v>
@@ -32496,7 +32643,7 @@
         <v>46069</v>
       </c>
       <c r="G232" s="5">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="H232" s="3" t="s">
         <v>47</v>
@@ -32511,19 +32658,19 @@
         <v>50</v>
       </c>
       <c r="L232" s="6">
-        <v>4</v>
+        <v>928</v>
       </c>
       <c r="M232" s="7">
-        <v>796.4</v>
+        <v>161383.07</v>
       </c>
       <c r="N232" s="6">
         <v>1</v>
       </c>
       <c r="O232" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P232" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q232" s="6">
         <v>0</v>
@@ -32538,7 +32685,7 @@
         <v>52</v>
       </c>
       <c r="U232" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V232" s="11">
         <v>11</v>
@@ -32547,7 +32694,7 @@
         <v>46069</v>
       </c>
       <c r="X232" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y232" s="10">
         <v>0</v>
@@ -32607,7 +32754,7 @@
         <v>53</v>
       </c>
       <c r="AR232" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="233" spans="1:44" x14ac:dyDescent="0.3">
@@ -32618,10 +32765,10 @@
         <v>2</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>46</v>
@@ -32630,7 +32777,7 @@
         <v>46069</v>
       </c>
       <c r="G233" s="5">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="H233" s="3" t="s">
         <v>47</v>
@@ -32645,19 +32792,19 @@
         <v>50</v>
       </c>
       <c r="L233" s="6">
-        <v>5</v>
+        <v>929</v>
       </c>
       <c r="M233" s="7">
-        <v>995.5</v>
+        <v>161556.97</v>
       </c>
       <c r="N233" s="6">
         <v>1</v>
       </c>
       <c r="O233" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P233" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q233" s="6">
         <v>0</v>
@@ -32672,7 +32819,7 @@
         <v>52</v>
       </c>
       <c r="U233" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V233" s="11">
         <v>11</v>
@@ -32681,7 +32828,7 @@
         <v>46069</v>
       </c>
       <c r="X233" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y233" s="10">
         <v>0</v>
@@ -32741,7 +32888,7 @@
         <v>53</v>
       </c>
       <c r="AR233" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="234" spans="1:44" x14ac:dyDescent="0.3">
@@ -32752,10 +32899,10 @@
         <v>2</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>46</v>
@@ -32764,7 +32911,7 @@
         <v>46069</v>
       </c>
       <c r="G234" s="5">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="H234" s="3" t="s">
         <v>47</v>
@@ -32779,19 +32926,19 @@
         <v>50</v>
       </c>
       <c r="L234" s="6">
-        <v>6</v>
+        <v>930</v>
       </c>
       <c r="M234" s="7">
-        <v>1194.5999999999999</v>
+        <v>161730.88</v>
       </c>
       <c r="N234" s="6">
         <v>1</v>
       </c>
       <c r="O234" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P234" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q234" s="6">
         <v>0</v>
@@ -32806,7 +32953,7 @@
         <v>52</v>
       </c>
       <c r="U234" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V234" s="11">
         <v>11</v>
@@ -32815,7 +32962,7 @@
         <v>46069</v>
       </c>
       <c r="X234" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y234" s="10">
         <v>0</v>
@@ -32875,7 +33022,7 @@
         <v>53</v>
       </c>
       <c r="AR234" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="235" spans="1:44" x14ac:dyDescent="0.3">
@@ -32886,10 +33033,10 @@
         <v>2</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>46</v>
@@ -32898,7 +33045,7 @@
         <v>46069</v>
       </c>
       <c r="G235" s="5">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="H235" s="3" t="s">
         <v>47</v>
@@ -32913,19 +33060,19 @@
         <v>50</v>
       </c>
       <c r="L235" s="6">
-        <v>7</v>
+        <v>931</v>
       </c>
       <c r="M235" s="7">
-        <v>1393.7</v>
+        <v>161904.78</v>
       </c>
       <c r="N235" s="6">
         <v>1</v>
       </c>
       <c r="O235" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P235" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q235" s="6">
         <v>0</v>
@@ -32940,7 +33087,7 @@
         <v>52</v>
       </c>
       <c r="U235" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V235" s="11">
         <v>11</v>
@@ -32949,7 +33096,7 @@
         <v>46069</v>
       </c>
       <c r="X235" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y235" s="10">
         <v>0</v>
@@ -33009,7 +33156,7 @@
         <v>53</v>
       </c>
       <c r="AR235" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="236" spans="1:44" x14ac:dyDescent="0.3">
@@ -33020,10 +33167,10 @@
         <v>2</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>46</v>
@@ -33032,7 +33179,7 @@
         <v>46069</v>
       </c>
       <c r="G236" s="5">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="H236" s="3" t="s">
         <v>47</v>
@@ -33047,19 +33194,19 @@
         <v>50</v>
       </c>
       <c r="L236" s="6">
-        <v>8</v>
+        <v>932</v>
       </c>
       <c r="M236" s="7">
-        <v>1592.8</v>
+        <v>162078.69</v>
       </c>
       <c r="N236" s="6">
         <v>1</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P236" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q236" s="6">
         <v>0</v>
@@ -33074,7 +33221,7 @@
         <v>52</v>
       </c>
       <c r="U236" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V236" s="11">
         <v>11</v>
@@ -33083,7 +33230,7 @@
         <v>46069</v>
       </c>
       <c r="X236" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y236" s="10">
         <v>0</v>
@@ -33143,7 +33290,7 @@
         <v>53</v>
       </c>
       <c r="AR236" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" spans="1:44" x14ac:dyDescent="0.3">
@@ -33154,10 +33301,10 @@
         <v>2</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>46</v>
@@ -33166,7 +33313,7 @@
         <v>46069</v>
       </c>
       <c r="G237" s="5">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="H237" s="3" t="s">
         <v>47</v>
@@ -33181,19 +33328,19 @@
         <v>50</v>
       </c>
       <c r="L237" s="6">
-        <v>9</v>
+        <v>933</v>
       </c>
       <c r="M237" s="7">
-        <v>1791.9</v>
+        <v>162252.59</v>
       </c>
       <c r="N237" s="6">
         <v>1</v>
       </c>
       <c r="O237" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P237" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q237" s="6">
         <v>0</v>
@@ -33208,7 +33355,7 @@
         <v>52</v>
       </c>
       <c r="U237" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V237" s="11">
         <v>11</v>
@@ -33217,7 +33364,7 @@
         <v>46069</v>
       </c>
       <c r="X237" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y237" s="10">
         <v>0</v>
@@ -33277,7 +33424,7 @@
         <v>53</v>
       </c>
       <c r="AR237" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="238" spans="1:44" x14ac:dyDescent="0.3">
@@ -33288,10 +33435,10 @@
         <v>2</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>46</v>
@@ -33300,7 +33447,7 @@
         <v>46069</v>
       </c>
       <c r="G238" s="5">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="H238" s="3" t="s">
         <v>47</v>
@@ -33315,19 +33462,19 @@
         <v>50</v>
       </c>
       <c r="L238" s="6">
-        <v>10</v>
+        <v>934</v>
       </c>
       <c r="M238" s="7">
-        <v>1991</v>
+        <v>162426.5</v>
       </c>
       <c r="N238" s="6">
         <v>1</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P238" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q238" s="6">
         <v>0</v>
@@ -33342,7 +33489,7 @@
         <v>52</v>
       </c>
       <c r="U238" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V238" s="11">
         <v>11</v>
@@ -33351,7 +33498,7 @@
         <v>46069</v>
       </c>
       <c r="X238" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y238" s="10">
         <v>0</v>
@@ -33411,7 +33558,7 @@
         <v>53</v>
       </c>
       <c r="AR238" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" spans="1:44" x14ac:dyDescent="0.3">
@@ -33422,10 +33569,10 @@
         <v>2</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>46</v>
@@ -33434,7 +33581,7 @@
         <v>46069</v>
       </c>
       <c r="G239" s="5">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="H239" s="3" t="s">
         <v>47</v>
@@ -33449,19 +33596,19 @@
         <v>50</v>
       </c>
       <c r="L239" s="6">
-        <v>11</v>
+        <v>935</v>
       </c>
       <c r="M239" s="7">
-        <v>2190.1</v>
+        <v>162600.4</v>
       </c>
       <c r="N239" s="6">
         <v>1</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P239" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q239" s="6">
         <v>0</v>
@@ -33476,7 +33623,7 @@
         <v>52</v>
       </c>
       <c r="U239" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V239" s="11">
         <v>11</v>
@@ -33485,7 +33632,7 @@
         <v>46069</v>
       </c>
       <c r="X239" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y239" s="10">
         <v>0</v>
@@ -33545,7 +33692,7 @@
         <v>53</v>
       </c>
       <c r="AR239" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" spans="1:44" x14ac:dyDescent="0.3">
@@ -33556,10 +33703,10 @@
         <v>2</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>46</v>
@@ -33568,7 +33715,7 @@
         <v>46069</v>
       </c>
       <c r="G240" s="5">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H240" s="3" t="s">
         <v>47</v>
@@ -33583,19 +33730,19 @@
         <v>50</v>
       </c>
       <c r="L240" s="6">
-        <v>12</v>
+        <v>936</v>
       </c>
       <c r="M240" s="7">
-        <v>2389.1999999999998</v>
+        <v>162774.29999999999</v>
       </c>
       <c r="N240" s="6">
         <v>1</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P240" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q240" s="6">
         <v>0</v>
@@ -33610,7 +33757,7 @@
         <v>52</v>
       </c>
       <c r="U240" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V240" s="11">
         <v>11</v>
@@ -33619,7 +33766,7 @@
         <v>46069</v>
       </c>
       <c r="X240" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y240" s="10">
         <v>0</v>
@@ -33679,7 +33826,7 @@
         <v>53</v>
       </c>
       <c r="AR240" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="241" spans="1:44" x14ac:dyDescent="0.3">
@@ -33690,10 +33837,10 @@
         <v>2</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>46</v>
@@ -33702,7 +33849,7 @@
         <v>46069</v>
       </c>
       <c r="G241" s="5">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="H241" s="3" t="s">
         <v>47</v>
@@ -33717,19 +33864,19 @@
         <v>50</v>
       </c>
       <c r="L241" s="6">
-        <v>13</v>
+        <v>937</v>
       </c>
       <c r="M241" s="7">
-        <v>2588.3000000000002</v>
+        <v>162948.21</v>
       </c>
       <c r="N241" s="6">
         <v>1</v>
       </c>
       <c r="O241" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P241" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q241" s="6">
         <v>0</v>
@@ -33744,7 +33891,7 @@
         <v>52</v>
       </c>
       <c r="U241" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V241" s="11">
         <v>11</v>
@@ -33753,7 +33900,7 @@
         <v>46069</v>
       </c>
       <c r="X241" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y241" s="10">
         <v>0</v>
@@ -33813,7 +33960,7 @@
         <v>53</v>
       </c>
       <c r="AR241" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="242" spans="1:44" x14ac:dyDescent="0.3">
@@ -33824,10 +33971,10 @@
         <v>2</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>46</v>
@@ -33836,7 +33983,7 @@
         <v>46069</v>
       </c>
       <c r="G242" s="5">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="H242" s="3" t="s">
         <v>47</v>
@@ -33851,19 +33998,19 @@
         <v>50</v>
       </c>
       <c r="L242" s="6">
-        <v>14</v>
+        <v>938</v>
       </c>
       <c r="M242" s="7">
-        <v>2787.4</v>
+        <v>163122.10999999999</v>
       </c>
       <c r="N242" s="6">
         <v>1</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P242" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q242" s="6">
         <v>0</v>
@@ -33878,7 +34025,7 @@
         <v>52</v>
       </c>
       <c r="U242" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V242" s="11">
         <v>11</v>
@@ -33887,7 +34034,7 @@
         <v>46069</v>
       </c>
       <c r="X242" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y242" s="10">
         <v>0</v>
@@ -33947,7 +34094,7 @@
         <v>53</v>
       </c>
       <c r="AR242" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="243" spans="1:44" x14ac:dyDescent="0.3">
@@ -33958,10 +34105,10 @@
         <v>2</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>46</v>
@@ -33970,7 +34117,7 @@
         <v>46069</v>
       </c>
       <c r="G243" s="5">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="H243" s="3" t="s">
         <v>47</v>
@@ -33985,19 +34132,19 @@
         <v>50</v>
       </c>
       <c r="L243" s="6">
-        <v>15</v>
+        <v>939</v>
       </c>
       <c r="M243" s="7">
-        <v>2986.5</v>
+        <v>163296.01999999999</v>
       </c>
       <c r="N243" s="6">
         <v>1</v>
       </c>
       <c r="O243" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P243" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q243" s="6">
         <v>0</v>
@@ -34012,7 +34159,7 @@
         <v>52</v>
       </c>
       <c r="U243" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V243" s="11">
         <v>11</v>
@@ -34021,7 +34168,7 @@
         <v>46069</v>
       </c>
       <c r="X243" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y243" s="10">
         <v>0</v>
@@ -34081,7 +34228,7 @@
         <v>53</v>
       </c>
       <c r="AR243" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="244" spans="1:44" x14ac:dyDescent="0.3">
@@ -34092,10 +34239,10 @@
         <v>2</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>46</v>
@@ -34104,7 +34251,7 @@
         <v>46069</v>
       </c>
       <c r="G244" s="5">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="H244" s="3" t="s">
         <v>47</v>
@@ -34119,19 +34266,19 @@
         <v>50</v>
       </c>
       <c r="L244" s="6">
-        <v>16</v>
+        <v>940</v>
       </c>
       <c r="M244" s="7">
-        <v>3185.6</v>
+        <v>163469.92000000001</v>
       </c>
       <c r="N244" s="6">
         <v>1</v>
       </c>
       <c r="O244" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P244" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q244" s="6">
         <v>0</v>
@@ -34146,7 +34293,7 @@
         <v>52</v>
       </c>
       <c r="U244" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V244" s="11">
         <v>11</v>
@@ -34155,7 +34302,7 @@
         <v>46069</v>
       </c>
       <c r="X244" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y244" s="10">
         <v>0</v>
@@ -34215,7 +34362,7 @@
         <v>53</v>
       </c>
       <c r="AR244" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="245" spans="1:44" x14ac:dyDescent="0.3">
@@ -34226,10 +34373,10 @@
         <v>2</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>46</v>
@@ -34238,7 +34385,7 @@
         <v>46069</v>
       </c>
       <c r="G245" s="5">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="H245" s="3" t="s">
         <v>47</v>
@@ -34253,19 +34400,19 @@
         <v>50</v>
       </c>
       <c r="L245" s="6">
-        <v>17</v>
+        <v>941</v>
       </c>
       <c r="M245" s="7">
-        <v>3384.7</v>
+        <v>163643.82</v>
       </c>
       <c r="N245" s="6">
         <v>1</v>
       </c>
       <c r="O245" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P245" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q245" s="6">
         <v>0</v>
@@ -34280,7 +34427,7 @@
         <v>52</v>
       </c>
       <c r="U245" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V245" s="11">
         <v>11</v>
@@ -34289,7 +34436,7 @@
         <v>46069</v>
       </c>
       <c r="X245" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y245" s="10">
         <v>0</v>
@@ -34349,7 +34496,7 @@
         <v>53</v>
       </c>
       <c r="AR245" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="246" spans="1:44" x14ac:dyDescent="0.3">
@@ -34360,10 +34507,10 @@
         <v>2</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>46</v>
@@ -34372,7 +34519,7 @@
         <v>46069</v>
       </c>
       <c r="G246" s="5">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="H246" s="3" t="s">
         <v>47</v>
@@ -34387,19 +34534,19 @@
         <v>50</v>
       </c>
       <c r="L246" s="6">
-        <v>18</v>
+        <v>942</v>
       </c>
       <c r="M246" s="7">
-        <v>3583.8</v>
+        <v>163817.73000000001</v>
       </c>
       <c r="N246" s="6">
         <v>1</v>
       </c>
       <c r="O246" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P246" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q246" s="6">
         <v>0</v>
@@ -34414,7 +34561,7 @@
         <v>52</v>
       </c>
       <c r="U246" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V246" s="11">
         <v>11</v>
@@ -34423,7 +34570,7 @@
         <v>46069</v>
       </c>
       <c r="X246" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y246" s="10">
         <v>0</v>
@@ -34483,7 +34630,7 @@
         <v>53</v>
       </c>
       <c r="AR246" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="247" spans="1:44" x14ac:dyDescent="0.3">
@@ -34494,10 +34641,10 @@
         <v>2</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>46</v>
@@ -34506,7 +34653,7 @@
         <v>46069</v>
       </c>
       <c r="G247" s="5">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="H247" s="3" t="s">
         <v>47</v>
@@ -34521,19 +34668,19 @@
         <v>50</v>
       </c>
       <c r="L247" s="6">
-        <v>19</v>
+        <v>943</v>
       </c>
       <c r="M247" s="7">
-        <v>3782.9</v>
+        <v>163991.63</v>
       </c>
       <c r="N247" s="6">
         <v>1</v>
       </c>
       <c r="O247" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P247" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q247" s="6">
         <v>0</v>
@@ -34548,7 +34695,7 @@
         <v>52</v>
       </c>
       <c r="U247" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V247" s="11">
         <v>11</v>
@@ -34557,7 +34704,7 @@
         <v>46069</v>
       </c>
       <c r="X247" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y247" s="10">
         <v>0</v>
@@ -34617,7 +34764,7 @@
         <v>53</v>
       </c>
       <c r="AR247" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="1:44" x14ac:dyDescent="0.3">
@@ -34628,10 +34775,10 @@
         <v>2</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>46</v>
@@ -34640,7 +34787,7 @@
         <v>46069</v>
       </c>
       <c r="G248" s="5">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="H248" s="3" t="s">
         <v>47</v>
@@ -34655,19 +34802,19 @@
         <v>50</v>
       </c>
       <c r="L248" s="6">
-        <v>20</v>
+        <v>944</v>
       </c>
       <c r="M248" s="7">
-        <v>3982</v>
+        <v>164165.54</v>
       </c>
       <c r="N248" s="6">
         <v>1</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>287</v>
+        <v>162</v>
       </c>
       <c r="P248" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q248" s="6">
         <v>0</v>
@@ -34682,7 +34829,7 @@
         <v>52</v>
       </c>
       <c r="U248" s="10">
-        <v>62440</v>
+        <v>62502</v>
       </c>
       <c r="V248" s="11">
         <v>11</v>
@@ -34691,7 +34838,7 @@
         <v>46069</v>
       </c>
       <c r="X248" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.67083329999999997</v>
       </c>
       <c r="Y248" s="10">
         <v>0</v>
@@ -34751,7 +34898,6573 @@
         <v>53</v>
       </c>
       <c r="AR248" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="249" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>1</v>
+      </c>
+      <c r="B249" s="2">
+        <v>2</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F249" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G249" s="5">
+        <v>143</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L249" s="6">
+        <v>945</v>
+      </c>
+      <c r="M249" s="7">
+        <v>164339.44</v>
+      </c>
+      <c r="N249" s="6">
+        <v>1</v>
+      </c>
+      <c r="O249" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P249" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q249" s="6">
+        <v>0</v>
+      </c>
+      <c r="R249" s="7">
+        <v>0</v>
+      </c>
+      <c r="S249" s="9">
+        <v>0</v>
+      </c>
+      <c r="T249" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U249" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V249" s="11">
+        <v>11</v>
+      </c>
+      <c r="W249" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X249" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y249" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z249" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA249" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB249" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC249" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD249" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE249" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF249" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG249" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH249" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI249" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ249" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK249" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL249" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM249" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN249" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO249" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP249" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ249" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR249" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="250" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>1</v>
+      </c>
+      <c r="B250" s="2">
+        <v>2</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F250" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G250" s="5">
+        <v>144</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L250" s="6">
+        <v>946</v>
+      </c>
+      <c r="M250" s="7">
+        <v>164513.35</v>
+      </c>
+      <c r="N250" s="6">
+        <v>1</v>
+      </c>
+      <c r="O250" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P250" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q250" s="6">
+        <v>0</v>
+      </c>
+      <c r="R250" s="7">
+        <v>0</v>
+      </c>
+      <c r="S250" s="9">
+        <v>0</v>
+      </c>
+      <c r="T250" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U250" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V250" s="11">
+        <v>11</v>
+      </c>
+      <c r="W250" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X250" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y250" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z250" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA250" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB250" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC250" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD250" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE250" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF250" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG250" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH250" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI250" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ250" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK250" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL250" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM250" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN250" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO250" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP250" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ250" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR250" s="3" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="251" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>1</v>
+      </c>
+      <c r="B251" s="2">
+        <v>2</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F251" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G251" s="5">
+        <v>145</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L251" s="6">
+        <v>947</v>
+      </c>
+      <c r="M251" s="7">
+        <v>164687.25</v>
+      </c>
+      <c r="N251" s="6">
+        <v>1</v>
+      </c>
+      <c r="O251" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P251" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q251" s="6">
+        <v>0</v>
+      </c>
+      <c r="R251" s="7">
+        <v>0</v>
+      </c>
+      <c r="S251" s="9">
+        <v>0</v>
+      </c>
+      <c r="T251" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U251" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V251" s="11">
+        <v>11</v>
+      </c>
+      <c r="W251" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X251" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y251" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z251" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA251" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB251" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC251" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD251" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE251" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF251" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG251" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH251" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI251" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ251" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK251" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL251" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM251" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN251" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO251" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP251" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ251" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR251" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="252" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>1</v>
+      </c>
+      <c r="B252" s="2">
+        <v>2</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F252" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G252" s="5">
+        <v>146</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L252" s="6">
+        <v>948</v>
+      </c>
+      <c r="M252" s="7">
+        <v>164861.15</v>
+      </c>
+      <c r="N252" s="6">
+        <v>1</v>
+      </c>
+      <c r="O252" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P252" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q252" s="6">
+        <v>0</v>
+      </c>
+      <c r="R252" s="7">
+        <v>0</v>
+      </c>
+      <c r="S252" s="9">
+        <v>0</v>
+      </c>
+      <c r="T252" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U252" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V252" s="11">
+        <v>11</v>
+      </c>
+      <c r="W252" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X252" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y252" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z252" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA252" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB252" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC252" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD252" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE252" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF252" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG252" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH252" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI252" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ252" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK252" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL252" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM252" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN252" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO252" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP252" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ252" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR252" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="253" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>1</v>
+      </c>
+      <c r="B253" s="2">
+        <v>2</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F253" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G253" s="5">
+        <v>147</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L253" s="6">
+        <v>949</v>
+      </c>
+      <c r="M253" s="7">
+        <v>165035.06</v>
+      </c>
+      <c r="N253" s="6">
+        <v>1</v>
+      </c>
+      <c r="O253" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P253" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q253" s="6">
+        <v>0</v>
+      </c>
+      <c r="R253" s="7">
+        <v>0</v>
+      </c>
+      <c r="S253" s="9">
+        <v>0</v>
+      </c>
+      <c r="T253" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U253" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V253" s="11">
+        <v>11</v>
+      </c>
+      <c r="W253" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X253" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y253" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z253" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA253" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB253" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC253" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD253" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE253" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF253" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG253" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH253" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI253" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ253" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK253" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL253" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM253" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN253" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO253" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP253" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ253" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR253" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="254" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>1</v>
+      </c>
+      <c r="B254" s="2">
+        <v>2</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F254" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G254" s="5">
+        <v>148</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L254" s="6">
+        <v>950</v>
+      </c>
+      <c r="M254" s="7">
+        <v>165208.95999999999</v>
+      </c>
+      <c r="N254" s="6">
+        <v>1</v>
+      </c>
+      <c r="O254" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P254" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q254" s="6">
+        <v>0</v>
+      </c>
+      <c r="R254" s="7">
+        <v>0</v>
+      </c>
+      <c r="S254" s="9">
+        <v>0</v>
+      </c>
+      <c r="T254" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U254" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V254" s="11">
+        <v>11</v>
+      </c>
+      <c r="W254" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X254" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y254" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z254" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA254" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB254" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC254" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD254" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE254" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF254" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG254" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH254" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI254" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ254" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK254" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL254" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM254" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN254" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO254" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP254" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ254" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR254" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="255" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>1</v>
+      </c>
+      <c r="B255" s="2">
+        <v>2</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F255" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G255" s="5">
+        <v>149</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L255" s="6">
+        <v>951</v>
+      </c>
+      <c r="M255" s="7">
+        <v>165382.87</v>
+      </c>
+      <c r="N255" s="6">
+        <v>1</v>
+      </c>
+      <c r="O255" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P255" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q255" s="6">
+        <v>0</v>
+      </c>
+      <c r="R255" s="7">
+        <v>0</v>
+      </c>
+      <c r="S255" s="9">
+        <v>0</v>
+      </c>
+      <c r="T255" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U255" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V255" s="11">
+        <v>11</v>
+      </c>
+      <c r="W255" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X255" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y255" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z255" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA255" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB255" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC255" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD255" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE255" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF255" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG255" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH255" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI255" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ255" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK255" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL255" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM255" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN255" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO255" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP255" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ255" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR255" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="256" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>1</v>
+      </c>
+      <c r="B256" s="2">
+        <v>2</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F256" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G256" s="5">
+        <v>150</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L256" s="6">
+        <v>952</v>
+      </c>
+      <c r="M256" s="7">
+        <v>165556.76999999999</v>
+      </c>
+      <c r="N256" s="6">
+        <v>1</v>
+      </c>
+      <c r="O256" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P256" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q256" s="6">
+        <v>0</v>
+      </c>
+      <c r="R256" s="7">
+        <v>0</v>
+      </c>
+      <c r="S256" s="9">
+        <v>0</v>
+      </c>
+      <c r="T256" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U256" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V256" s="11">
+        <v>11</v>
+      </c>
+      <c r="W256" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X256" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y256" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z256" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA256" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB256" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC256" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD256" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE256" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF256" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG256" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH256" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI256" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ256" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK256" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL256" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM256" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN256" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO256" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP256" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ256" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR256" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="257" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>1</v>
+      </c>
+      <c r="B257" s="2">
+        <v>2</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F257" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G257" s="5">
+        <v>151</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L257" s="6">
+        <v>953</v>
+      </c>
+      <c r="M257" s="7">
+        <v>165730.67000000001</v>
+      </c>
+      <c r="N257" s="6">
+        <v>1</v>
+      </c>
+      <c r="O257" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P257" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q257" s="6">
+        <v>0</v>
+      </c>
+      <c r="R257" s="7">
+        <v>0</v>
+      </c>
+      <c r="S257" s="9">
+        <v>0</v>
+      </c>
+      <c r="T257" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U257" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V257" s="11">
+        <v>11</v>
+      </c>
+      <c r="W257" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X257" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y257" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z257" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA257" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB257" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC257" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD257" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE257" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF257" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG257" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH257" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI257" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ257" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK257" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL257" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM257" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN257" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO257" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP257" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ257" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR257" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="258" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>1</v>
+      </c>
+      <c r="B258" s="2">
+        <v>2</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F258" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G258" s="5">
+        <v>152</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L258" s="6">
+        <v>954</v>
+      </c>
+      <c r="M258" s="7">
+        <v>165904.57999999999</v>
+      </c>
+      <c r="N258" s="6">
+        <v>1</v>
+      </c>
+      <c r="O258" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P258" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q258" s="6">
+        <v>0</v>
+      </c>
+      <c r="R258" s="7">
+        <v>0</v>
+      </c>
+      <c r="S258" s="9">
+        <v>0</v>
+      </c>
+      <c r="T258" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U258" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V258" s="11">
+        <v>11</v>
+      </c>
+      <c r="W258" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X258" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y258" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB258" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF258" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG258" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH258" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI258" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ258" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK258" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM258" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN258" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO258" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP258" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ258" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR258" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="259" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>1</v>
+      </c>
+      <c r="B259" s="2">
+        <v>2</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F259" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G259" s="5">
+        <v>153</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L259" s="6">
+        <v>955</v>
+      </c>
+      <c r="M259" s="7">
+        <v>166078.48000000001</v>
+      </c>
+      <c r="N259" s="6">
+        <v>1</v>
+      </c>
+      <c r="O259" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P259" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q259" s="6">
+        <v>0</v>
+      </c>
+      <c r="R259" s="7">
+        <v>0</v>
+      </c>
+      <c r="S259" s="9">
+        <v>0</v>
+      </c>
+      <c r="T259" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U259" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V259" s="11">
+        <v>11</v>
+      </c>
+      <c r="W259" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X259" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y259" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z259" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA259" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB259" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC259" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD259" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE259" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF259" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG259" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH259" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI259" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ259" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK259" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL259" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM259" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN259" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO259" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP259" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ259" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR259" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="260" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>1</v>
+      </c>
+      <c r="B260" s="2">
+        <v>2</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F260" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G260" s="5">
+        <v>154</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L260" s="6">
+        <v>956</v>
+      </c>
+      <c r="M260" s="7">
+        <v>166252.39000000001</v>
+      </c>
+      <c r="N260" s="6">
+        <v>1</v>
+      </c>
+      <c r="O260" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P260" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q260" s="6">
+        <v>0</v>
+      </c>
+      <c r="R260" s="7">
+        <v>0</v>
+      </c>
+      <c r="S260" s="9">
+        <v>0</v>
+      </c>
+      <c r="T260" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U260" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V260" s="11">
+        <v>11</v>
+      </c>
+      <c r="W260" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X260" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y260" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z260" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA260" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB260" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC260" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD260" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE260" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF260" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG260" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH260" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI260" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ260" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK260" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL260" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM260" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN260" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO260" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP260" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ260" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR260" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="261" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>1</v>
+      </c>
+      <c r="B261" s="2">
+        <v>2</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F261" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G261" s="5">
+        <v>155</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L261" s="6">
+        <v>957</v>
+      </c>
+      <c r="M261" s="7">
+        <v>166426.29</v>
+      </c>
+      <c r="N261" s="6">
+        <v>1</v>
+      </c>
+      <c r="O261" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P261" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q261" s="6">
+        <v>0</v>
+      </c>
+      <c r="R261" s="7">
+        <v>0</v>
+      </c>
+      <c r="S261" s="9">
+        <v>0</v>
+      </c>
+      <c r="T261" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U261" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V261" s="11">
+        <v>11</v>
+      </c>
+      <c r="W261" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X261" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y261" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB261" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF261" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG261" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH261" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI261" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ261" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK261" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM261" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN261" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO261" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP261" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ261" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR261" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="262" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>1</v>
+      </c>
+      <c r="B262" s="2">
+        <v>2</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F262" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G262" s="5">
+        <v>156</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L262" s="6">
+        <v>958</v>
+      </c>
+      <c r="M262" s="7">
+        <v>166600.20000000001</v>
+      </c>
+      <c r="N262" s="6">
+        <v>1</v>
+      </c>
+      <c r="O262" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P262" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q262" s="6">
+        <v>0</v>
+      </c>
+      <c r="R262" s="7">
+        <v>0</v>
+      </c>
+      <c r="S262" s="9">
+        <v>0</v>
+      </c>
+      <c r="T262" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U262" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V262" s="11">
+        <v>11</v>
+      </c>
+      <c r="W262" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X262" s="12">
+        <v>0.67083329999999997</v>
+      </c>
+      <c r="Y262" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB262" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF262" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG262" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH262" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI262" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ262" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK262" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM262" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN262" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO262" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP262" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ262" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR262" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="263" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>1</v>
+      </c>
+      <c r="B263" s="2">
+        <v>2</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F263" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G263" s="5">
+        <v>157</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L263" s="6">
+        <v>959</v>
+      </c>
+      <c r="M263" s="7">
+        <v>166774.1</v>
+      </c>
+      <c r="N263" s="6">
+        <v>1</v>
+      </c>
+      <c r="O263" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P263" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q263" s="6">
+        <v>0</v>
+      </c>
+      <c r="R263" s="7">
+        <v>0</v>
+      </c>
+      <c r="S263" s="9">
+        <v>0</v>
+      </c>
+      <c r="T263" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U263" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V263" s="11">
+        <v>11</v>
+      </c>
+      <c r="W263" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X263" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y263" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB263" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF263" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG263" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH263" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI263" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ263" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK263" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM263" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN263" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO263" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP263" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ263" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR263" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="264" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>1</v>
+      </c>
+      <c r="B264" s="2">
+        <v>2</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F264" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G264" s="5">
+        <v>158</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L264" s="6">
+        <v>960</v>
+      </c>
+      <c r="M264" s="7">
+        <v>166948</v>
+      </c>
+      <c r="N264" s="6">
+        <v>1</v>
+      </c>
+      <c r="O264" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P264" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q264" s="6">
+        <v>0</v>
+      </c>
+      <c r="R264" s="7">
+        <v>0</v>
+      </c>
+      <c r="S264" s="9">
+        <v>0</v>
+      </c>
+      <c r="T264" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U264" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V264" s="11">
+        <v>11</v>
+      </c>
+      <c r="W264" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X264" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y264" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB264" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF264" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG264" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH264" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI264" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ264" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK264" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM264" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN264" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO264" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP264" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ264" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR264" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="265" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>1</v>
+      </c>
+      <c r="B265" s="2">
+        <v>2</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F265" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G265" s="5">
+        <v>159</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L265" s="6">
+        <v>961</v>
+      </c>
+      <c r="M265" s="7">
+        <v>167121.91</v>
+      </c>
+      <c r="N265" s="6">
+        <v>1</v>
+      </c>
+      <c r="O265" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P265" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q265" s="6">
+        <v>0</v>
+      </c>
+      <c r="R265" s="7">
+        <v>0</v>
+      </c>
+      <c r="S265" s="9">
+        <v>0</v>
+      </c>
+      <c r="T265" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U265" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V265" s="11">
+        <v>11</v>
+      </c>
+      <c r="W265" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X265" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y265" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB265" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF265" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG265" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH265" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI265" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ265" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK265" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM265" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN265" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO265" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP265" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ265" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR265" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="266" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>1</v>
+      </c>
+      <c r="B266" s="2">
+        <v>2</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F266" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G266" s="5">
+        <v>160</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L266" s="6">
+        <v>962</v>
+      </c>
+      <c r="M266" s="7">
+        <v>167295.81</v>
+      </c>
+      <c r="N266" s="6">
+        <v>1</v>
+      </c>
+      <c r="O266" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P266" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q266" s="6">
+        <v>0</v>
+      </c>
+      <c r="R266" s="7">
+        <v>0</v>
+      </c>
+      <c r="S266" s="9">
+        <v>0</v>
+      </c>
+      <c r="T266" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U266" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V266" s="11">
+        <v>11</v>
+      </c>
+      <c r="W266" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X266" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y266" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB266" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF266" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG266" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH266" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI266" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ266" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK266" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM266" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN266" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO266" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP266" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ266" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR266" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="267" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>1</v>
+      </c>
+      <c r="B267" s="2">
+        <v>2</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F267" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G267" s="5">
+        <v>161</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J267" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L267" s="6">
+        <v>963</v>
+      </c>
+      <c r="M267" s="7">
+        <v>167469.72</v>
+      </c>
+      <c r="N267" s="6">
+        <v>1</v>
+      </c>
+      <c r="O267" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P267" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q267" s="6">
+        <v>0</v>
+      </c>
+      <c r="R267" s="7">
+        <v>0</v>
+      </c>
+      <c r="S267" s="9">
+        <v>0</v>
+      </c>
+      <c r="T267" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U267" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V267" s="11">
+        <v>11</v>
+      </c>
+      <c r="W267" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X267" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y267" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB267" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF267" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG267" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH267" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI267" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ267" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK267" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM267" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN267" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO267" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP267" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ267" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR267" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="268" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>1</v>
+      </c>
+      <c r="B268" s="2">
+        <v>2</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F268" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G268" s="5">
+        <v>162</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L268" s="6">
+        <v>964</v>
+      </c>
+      <c r="M268" s="7">
+        <v>167643.62</v>
+      </c>
+      <c r="N268" s="6">
+        <v>1</v>
+      </c>
+      <c r="O268" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P268" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q268" s="6">
+        <v>0</v>
+      </c>
+      <c r="R268" s="7">
+        <v>0</v>
+      </c>
+      <c r="S268" s="9">
+        <v>0</v>
+      </c>
+      <c r="T268" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U268" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V268" s="11">
+        <v>11</v>
+      </c>
+      <c r="W268" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X268" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y268" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB268" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF268" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG268" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH268" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI268" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ268" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK268" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM268" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN268" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO268" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP268" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ268" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR268" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="269" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>1</v>
+      </c>
+      <c r="B269" s="2">
+        <v>2</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F269" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G269" s="5">
+        <v>163</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L269" s="6">
+        <v>965</v>
+      </c>
+      <c r="M269" s="7">
+        <v>167817.52</v>
+      </c>
+      <c r="N269" s="6">
+        <v>1</v>
+      </c>
+      <c r="O269" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P269" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q269" s="6">
+        <v>0</v>
+      </c>
+      <c r="R269" s="7">
+        <v>0</v>
+      </c>
+      <c r="S269" s="9">
+        <v>0</v>
+      </c>
+      <c r="T269" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U269" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V269" s="11">
+        <v>11</v>
+      </c>
+      <c r="W269" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X269" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y269" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB269" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF269" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG269" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH269" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI269" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ269" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK269" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM269" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN269" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO269" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP269" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ269" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR269" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="270" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>1</v>
+      </c>
+      <c r="B270" s="2">
+        <v>2</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F270" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G270" s="5">
+        <v>164</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L270" s="6">
+        <v>966</v>
+      </c>
+      <c r="M270" s="7">
+        <v>167991.43</v>
+      </c>
+      <c r="N270" s="6">
+        <v>1</v>
+      </c>
+      <c r="O270" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P270" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q270" s="6">
+        <v>0</v>
+      </c>
+      <c r="R270" s="7">
+        <v>0</v>
+      </c>
+      <c r="S270" s="9">
+        <v>0</v>
+      </c>
+      <c r="T270" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U270" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V270" s="11">
+        <v>11</v>
+      </c>
+      <c r="W270" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X270" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y270" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB270" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF270" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG270" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH270" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI270" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ270" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK270" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM270" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN270" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO270" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP270" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ270" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR270" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="271" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>1</v>
+      </c>
+      <c r="B271" s="2">
+        <v>2</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F271" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G271" s="5">
+        <v>165</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L271" s="6">
+        <v>967</v>
+      </c>
+      <c r="M271" s="7">
+        <v>168165.33</v>
+      </c>
+      <c r="N271" s="6">
+        <v>1</v>
+      </c>
+      <c r="O271" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P271" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q271" s="6">
+        <v>0</v>
+      </c>
+      <c r="R271" s="7">
+        <v>0</v>
+      </c>
+      <c r="S271" s="9">
+        <v>0</v>
+      </c>
+      <c r="T271" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U271" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V271" s="11">
+        <v>11</v>
+      </c>
+      <c r="W271" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X271" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y271" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z271" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA271" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB271" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC271" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD271" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE271" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF271" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG271" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH271" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI271" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ271" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK271" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL271" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM271" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN271" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO271" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP271" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ271" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR271" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="272" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>1</v>
+      </c>
+      <c r="B272" s="2">
+        <v>2</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F272" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G272" s="5">
+        <v>166</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L272" s="6">
+        <v>968</v>
+      </c>
+      <c r="M272" s="7">
+        <v>168339.24</v>
+      </c>
+      <c r="N272" s="6">
+        <v>1</v>
+      </c>
+      <c r="O272" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P272" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q272" s="6">
+        <v>0</v>
+      </c>
+      <c r="R272" s="7">
+        <v>0</v>
+      </c>
+      <c r="S272" s="9">
+        <v>0</v>
+      </c>
+      <c r="T272" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U272" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V272" s="11">
+        <v>11</v>
+      </c>
+      <c r="W272" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X272" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y272" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB272" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF272" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG272" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH272" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI272" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ272" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK272" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM272" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN272" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO272" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP272" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ272" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR272" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="273" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>1</v>
+      </c>
+      <c r="B273" s="2">
+        <v>2</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F273" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G273" s="5">
+        <v>167</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L273" s="6">
+        <v>969</v>
+      </c>
+      <c r="M273" s="7">
+        <v>168513.14</v>
+      </c>
+      <c r="N273" s="6">
+        <v>1</v>
+      </c>
+      <c r="O273" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P273" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q273" s="6">
+        <v>0</v>
+      </c>
+      <c r="R273" s="7">
+        <v>0</v>
+      </c>
+      <c r="S273" s="9">
+        <v>0</v>
+      </c>
+      <c r="T273" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U273" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V273" s="11">
+        <v>11</v>
+      </c>
+      <c r="W273" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X273" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y273" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB273" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF273" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG273" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH273" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI273" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ273" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK273" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM273" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN273" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO273" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP273" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ273" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR273" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="274" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>1</v>
+      </c>
+      <c r="B274" s="2">
+        <v>2</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F274" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G274" s="5">
+        <v>168</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L274" s="6">
+        <v>970</v>
+      </c>
+      <c r="M274" s="7">
+        <v>168687.05</v>
+      </c>
+      <c r="N274" s="6">
+        <v>1</v>
+      </c>
+      <c r="O274" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P274" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q274" s="6">
+        <v>0</v>
+      </c>
+      <c r="R274" s="7">
+        <v>0</v>
+      </c>
+      <c r="S274" s="9">
+        <v>0</v>
+      </c>
+      <c r="T274" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U274" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V274" s="11">
+        <v>11</v>
+      </c>
+      <c r="W274" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X274" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y274" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB274" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF274" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG274" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH274" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI274" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ274" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK274" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM274" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN274" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO274" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP274" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ274" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR274" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="275" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>1</v>
+      </c>
+      <c r="B275" s="2">
+        <v>2</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F275" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G275" s="5">
+        <v>169</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L275" s="6">
+        <v>971</v>
+      </c>
+      <c r="M275" s="7">
+        <v>168860.95</v>
+      </c>
+      <c r="N275" s="6">
+        <v>1</v>
+      </c>
+      <c r="O275" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P275" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q275" s="6">
+        <v>0</v>
+      </c>
+      <c r="R275" s="7">
+        <v>0</v>
+      </c>
+      <c r="S275" s="9">
+        <v>0</v>
+      </c>
+      <c r="T275" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U275" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V275" s="11">
+        <v>11</v>
+      </c>
+      <c r="W275" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X275" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y275" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB275" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF275" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG275" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH275" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI275" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ275" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK275" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM275" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN275" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO275" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP275" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ275" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR275" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="276" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>1</v>
+      </c>
+      <c r="B276" s="2">
+        <v>2</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F276" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G276" s="5">
+        <v>170</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L276" s="6">
+        <v>972</v>
+      </c>
+      <c r="M276" s="7">
+        <v>169034.85</v>
+      </c>
+      <c r="N276" s="6">
+        <v>1</v>
+      </c>
+      <c r="O276" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P276" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q276" s="6">
+        <v>0</v>
+      </c>
+      <c r="R276" s="7">
+        <v>0</v>
+      </c>
+      <c r="S276" s="9">
+        <v>0</v>
+      </c>
+      <c r="T276" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U276" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V276" s="11">
+        <v>11</v>
+      </c>
+      <c r="W276" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X276" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y276" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB276" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF276" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG276" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH276" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI276" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ276" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK276" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM276" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN276" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO276" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP276" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ276" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR276" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="277" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>1</v>
+      </c>
+      <c r="B277" s="2">
+        <v>2</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F277" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G277" s="5">
+        <v>171</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L277" s="6">
+        <v>973</v>
+      </c>
+      <c r="M277" s="7">
+        <v>169208.76</v>
+      </c>
+      <c r="N277" s="6">
+        <v>1</v>
+      </c>
+      <c r="O277" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P277" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q277" s="6">
+        <v>0</v>
+      </c>
+      <c r="R277" s="7">
+        <v>0</v>
+      </c>
+      <c r="S277" s="9">
+        <v>0</v>
+      </c>
+      <c r="T277" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U277" s="10">
+        <v>62502</v>
+      </c>
+      <c r="V277" s="11">
+        <v>11</v>
+      </c>
+      <c r="W277" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X277" s="12">
+        <v>0.67152780000000001</v>
+      </c>
+      <c r="Y277" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB277" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF277" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG277" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH277" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI277" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ277" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK277" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM277" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN277" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO277" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP277" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ277" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR277" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="278" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>1</v>
+      </c>
+      <c r="B278" s="2">
+        <v>2</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F278" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G278" s="5">
+        <v>1</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L278" s="6">
+        <v>2</v>
+      </c>
+      <c r="M278" s="7">
+        <v>398.2</v>
+      </c>
+      <c r="N278" s="6">
+        <v>1</v>
+      </c>
+      <c r="O278" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P278" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q278" s="6">
+        <v>0</v>
+      </c>
+      <c r="R278" s="7">
+        <v>0</v>
+      </c>
+      <c r="S278" s="9">
+        <v>0</v>
+      </c>
+      <c r="T278" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U278" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V278" s="11">
+        <v>11</v>
+      </c>
+      <c r="W278" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X278" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y278" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB278" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF278" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG278" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH278" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI278" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ278" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK278" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM278" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN278" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO278" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP278" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ278" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR278" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="279" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>1</v>
+      </c>
+      <c r="B279" s="2">
+        <v>2</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F279" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G279" s="5">
+        <v>2</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L279" s="6">
+        <v>3</v>
+      </c>
+      <c r="M279" s="7">
+        <v>597.29999999999995</v>
+      </c>
+      <c r="N279" s="6">
+        <v>1</v>
+      </c>
+      <c r="O279" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P279" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q279" s="6">
+        <v>0</v>
+      </c>
+      <c r="R279" s="7">
+        <v>0</v>
+      </c>
+      <c r="S279" s="9">
+        <v>0</v>
+      </c>
+      <c r="T279" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U279" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V279" s="11">
+        <v>11</v>
+      </c>
+      <c r="W279" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X279" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y279" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z279" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA279" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB279" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC279" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD279" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE279" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF279" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG279" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH279" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI279" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ279" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK279" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL279" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM279" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN279" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO279" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP279" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ279" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR279" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="280" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>1</v>
+      </c>
+      <c r="B280" s="2">
+        <v>2</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F280" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G280" s="5">
+        <v>3</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L280" s="6">
+        <v>4</v>
+      </c>
+      <c r="M280" s="7">
+        <v>796.4</v>
+      </c>
+      <c r="N280" s="6">
+        <v>1</v>
+      </c>
+      <c r="O280" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P280" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q280" s="6">
+        <v>0</v>
+      </c>
+      <c r="R280" s="7">
+        <v>0</v>
+      </c>
+      <c r="S280" s="9">
+        <v>0</v>
+      </c>
+      <c r="T280" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U280" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V280" s="11">
+        <v>11</v>
+      </c>
+      <c r="W280" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X280" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y280" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB280" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF280" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG280" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH280" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI280" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ280" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK280" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM280" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN280" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO280" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP280" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ280" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR280" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="281" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>1</v>
+      </c>
+      <c r="B281" s="2">
+        <v>2</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F281" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G281" s="5">
+        <v>4</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L281" s="6">
+        <v>5</v>
+      </c>
+      <c r="M281" s="7">
+        <v>995.5</v>
+      </c>
+      <c r="N281" s="6">
+        <v>1</v>
+      </c>
+      <c r="O281" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P281" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q281" s="6">
+        <v>0</v>
+      </c>
+      <c r="R281" s="7">
+        <v>0</v>
+      </c>
+      <c r="S281" s="9">
+        <v>0</v>
+      </c>
+      <c r="T281" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U281" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V281" s="11">
+        <v>11</v>
+      </c>
+      <c r="W281" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X281" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y281" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z281" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA281" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB281" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC281" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD281" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE281" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF281" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG281" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH281" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI281" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ281" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK281" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL281" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM281" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN281" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO281" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP281" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ281" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR281" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="282" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>1</v>
+      </c>
+      <c r="B282" s="2">
+        <v>2</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F282" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G282" s="5">
+        <v>5</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J282" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K282" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L282" s="6">
+        <v>6</v>
+      </c>
+      <c r="M282" s="7">
+        <v>1194.5999999999999</v>
+      </c>
+      <c r="N282" s="6">
+        <v>1</v>
+      </c>
+      <c r="O282" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P282" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q282" s="6">
+        <v>0</v>
+      </c>
+      <c r="R282" s="7">
+        <v>0</v>
+      </c>
+      <c r="S282" s="9">
+        <v>0</v>
+      </c>
+      <c r="T282" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U282" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V282" s="11">
+        <v>11</v>
+      </c>
+      <c r="W282" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X282" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y282" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z282" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA282" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB282" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC282" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD282" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE282" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF282" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG282" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH282" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI282" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ282" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK282" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL282" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM282" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN282" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO282" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP282" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ282" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR282" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="283" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>1</v>
+      </c>
+      <c r="B283" s="2">
+        <v>2</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F283" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G283" s="5">
+        <v>6</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L283" s="6">
+        <v>7</v>
+      </c>
+      <c r="M283" s="7">
+        <v>1393.7</v>
+      </c>
+      <c r="N283" s="6">
+        <v>1</v>
+      </c>
+      <c r="O283" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P283" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q283" s="6">
+        <v>0</v>
+      </c>
+      <c r="R283" s="7">
+        <v>0</v>
+      </c>
+      <c r="S283" s="9">
+        <v>0</v>
+      </c>
+      <c r="T283" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U283" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V283" s="11">
+        <v>11</v>
+      </c>
+      <c r="W283" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X283" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y283" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z283" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA283" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB283" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC283" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD283" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE283" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF283" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG283" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH283" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI283" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ283" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK283" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL283" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM283" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN283" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO283" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP283" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ283" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR283" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="284" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>1</v>
+      </c>
+      <c r="B284" s="2">
+        <v>2</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F284" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G284" s="5">
+        <v>7</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L284" s="6">
+        <v>8</v>
+      </c>
+      <c r="M284" s="7">
+        <v>1592.8</v>
+      </c>
+      <c r="N284" s="6">
+        <v>1</v>
+      </c>
+      <c r="O284" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P284" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q284" s="6">
+        <v>0</v>
+      </c>
+      <c r="R284" s="7">
+        <v>0</v>
+      </c>
+      <c r="S284" s="9">
+        <v>0</v>
+      </c>
+      <c r="T284" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U284" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V284" s="11">
+        <v>11</v>
+      </c>
+      <c r="W284" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X284" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y284" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z284" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA284" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB284" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC284" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD284" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE284" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF284" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG284" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH284" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI284" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ284" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK284" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL284" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM284" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN284" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO284" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP284" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ284" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR284" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="285" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>1</v>
+      </c>
+      <c r="B285" s="2">
+        <v>2</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F285" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G285" s="5">
+        <v>8</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L285" s="6">
+        <v>9</v>
+      </c>
+      <c r="M285" s="7">
+        <v>1791.9</v>
+      </c>
+      <c r="N285" s="6">
+        <v>1</v>
+      </c>
+      <c r="O285" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P285" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q285" s="6">
+        <v>0</v>
+      </c>
+      <c r="R285" s="7">
+        <v>0</v>
+      </c>
+      <c r="S285" s="9">
+        <v>0</v>
+      </c>
+      <c r="T285" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U285" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V285" s="11">
+        <v>11</v>
+      </c>
+      <c r="W285" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X285" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y285" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z285" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA285" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB285" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC285" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD285" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE285" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF285" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG285" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH285" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI285" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ285" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK285" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL285" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM285" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN285" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO285" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP285" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ285" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR285" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="286" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>1</v>
+      </c>
+      <c r="B286" s="2">
+        <v>2</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F286" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G286" s="5">
+        <v>9</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L286" s="6">
+        <v>10</v>
+      </c>
+      <c r="M286" s="7">
+        <v>1991</v>
+      </c>
+      <c r="N286" s="6">
+        <v>1</v>
+      </c>
+      <c r="O286" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P286" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q286" s="6">
+        <v>0</v>
+      </c>
+      <c r="R286" s="7">
+        <v>0</v>
+      </c>
+      <c r="S286" s="9">
+        <v>0</v>
+      </c>
+      <c r="T286" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U286" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V286" s="11">
+        <v>11</v>
+      </c>
+      <c r="W286" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X286" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y286" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z286" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA286" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB286" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC286" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD286" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE286" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF286" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG286" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH286" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI286" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ286" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK286" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL286" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM286" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN286" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO286" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP286" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ286" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR286" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="287" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>1</v>
+      </c>
+      <c r="B287" s="2">
+        <v>2</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F287" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G287" s="5">
+        <v>10</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K287" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L287" s="6">
+        <v>11</v>
+      </c>
+      <c r="M287" s="7">
+        <v>2190.1</v>
+      </c>
+      <c r="N287" s="6">
+        <v>1</v>
+      </c>
+      <c r="O287" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P287" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q287" s="6">
+        <v>0</v>
+      </c>
+      <c r="R287" s="7">
+        <v>0</v>
+      </c>
+      <c r="S287" s="9">
+        <v>0</v>
+      </c>
+      <c r="T287" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U287" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V287" s="11">
+        <v>11</v>
+      </c>
+      <c r="W287" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X287" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y287" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z287" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA287" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB287" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC287" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD287" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE287" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF287" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG287" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH287" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI287" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ287" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK287" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL287" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM287" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN287" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO287" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP287" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ287" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR287" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="288" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>1</v>
+      </c>
+      <c r="B288" s="2">
+        <v>2</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F288" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G288" s="5">
+        <v>11</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L288" s="6">
+        <v>12</v>
+      </c>
+      <c r="M288" s="7">
+        <v>2389.1999999999998</v>
+      </c>
+      <c r="N288" s="6">
+        <v>1</v>
+      </c>
+      <c r="O288" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P288" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q288" s="6">
+        <v>0</v>
+      </c>
+      <c r="R288" s="7">
+        <v>0</v>
+      </c>
+      <c r="S288" s="9">
+        <v>0</v>
+      </c>
+      <c r="T288" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U288" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V288" s="11">
+        <v>11</v>
+      </c>
+      <c r="W288" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X288" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y288" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z288" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA288" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB288" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC288" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD288" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE288" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF288" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG288" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH288" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI288" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ288" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK288" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL288" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM288" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN288" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO288" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP288" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ288" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR288" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="289" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>1</v>
+      </c>
+      <c r="B289" s="2">
+        <v>2</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F289" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G289" s="5">
+        <v>12</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L289" s="6">
+        <v>13</v>
+      </c>
+      <c r="M289" s="7">
+        <v>2588.3000000000002</v>
+      </c>
+      <c r="N289" s="6">
+        <v>1</v>
+      </c>
+      <c r="O289" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P289" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q289" s="6">
+        <v>0</v>
+      </c>
+      <c r="R289" s="7">
+        <v>0</v>
+      </c>
+      <c r="S289" s="9">
+        <v>0</v>
+      </c>
+      <c r="T289" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U289" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V289" s="11">
+        <v>11</v>
+      </c>
+      <c r="W289" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X289" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y289" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z289" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA289" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB289" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC289" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD289" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE289" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF289" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG289" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH289" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI289" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ289" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK289" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL289" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM289" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN289" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO289" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP289" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ289" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR289" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="290" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>1</v>
+      </c>
+      <c r="B290" s="2">
+        <v>2</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F290" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G290" s="5">
+        <v>13</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L290" s="6">
+        <v>14</v>
+      </c>
+      <c r="M290" s="7">
+        <v>2787.4</v>
+      </c>
+      <c r="N290" s="6">
+        <v>1</v>
+      </c>
+      <c r="O290" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P290" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q290" s="6">
+        <v>0</v>
+      </c>
+      <c r="R290" s="7">
+        <v>0</v>
+      </c>
+      <c r="S290" s="9">
+        <v>0</v>
+      </c>
+      <c r="T290" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U290" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V290" s="11">
+        <v>11</v>
+      </c>
+      <c r="W290" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X290" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y290" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z290" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA290" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB290" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC290" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD290" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE290" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF290" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG290" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH290" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI290" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ290" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK290" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL290" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM290" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN290" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO290" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP290" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ290" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR290" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="291" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>1</v>
+      </c>
+      <c r="B291" s="2">
+        <v>2</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F291" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G291" s="5">
+        <v>14</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J291" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L291" s="6">
+        <v>15</v>
+      </c>
+      <c r="M291" s="7">
+        <v>2986.5</v>
+      </c>
+      <c r="N291" s="6">
+        <v>1</v>
+      </c>
+      <c r="O291" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P291" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q291" s="6">
+        <v>0</v>
+      </c>
+      <c r="R291" s="7">
+        <v>0</v>
+      </c>
+      <c r="S291" s="9">
+        <v>0</v>
+      </c>
+      <c r="T291" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U291" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V291" s="11">
+        <v>11</v>
+      </c>
+      <c r="W291" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X291" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y291" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z291" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA291" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB291" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC291" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD291" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE291" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF291" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG291" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH291" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI291" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ291" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK291" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL291" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM291" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN291" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO291" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP291" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ291" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR291" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="292" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>1</v>
+      </c>
+      <c r="B292" s="2">
+        <v>2</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F292" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G292" s="5">
+        <v>15</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J292" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L292" s="6">
+        <v>16</v>
+      </c>
+      <c r="M292" s="7">
+        <v>3185.6</v>
+      </c>
+      <c r="N292" s="6">
+        <v>1</v>
+      </c>
+      <c r="O292" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P292" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q292" s="6">
+        <v>0</v>
+      </c>
+      <c r="R292" s="7">
+        <v>0</v>
+      </c>
+      <c r="S292" s="9">
+        <v>0</v>
+      </c>
+      <c r="T292" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U292" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V292" s="11">
+        <v>11</v>
+      </c>
+      <c r="W292" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X292" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y292" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z292" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA292" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB292" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC292" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD292" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE292" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF292" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG292" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH292" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI292" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ292" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK292" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL292" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM292" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN292" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO292" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP292" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ292" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR292" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="293" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>1</v>
+      </c>
+      <c r="B293" s="2">
+        <v>2</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F293" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G293" s="5">
+        <v>16</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J293" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K293" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L293" s="6">
+        <v>17</v>
+      </c>
+      <c r="M293" s="7">
+        <v>3384.7</v>
+      </c>
+      <c r="N293" s="6">
+        <v>1</v>
+      </c>
+      <c r="O293" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P293" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q293" s="6">
+        <v>0</v>
+      </c>
+      <c r="R293" s="7">
+        <v>0</v>
+      </c>
+      <c r="S293" s="9">
+        <v>0</v>
+      </c>
+      <c r="T293" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U293" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V293" s="11">
+        <v>11</v>
+      </c>
+      <c r="W293" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X293" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y293" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z293" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA293" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB293" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC293" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD293" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE293" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF293" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG293" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH293" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI293" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ293" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK293" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL293" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM293" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN293" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO293" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP293" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ293" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR293" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="294" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>1</v>
+      </c>
+      <c r="B294" s="2">
+        <v>2</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F294" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G294" s="5">
+        <v>17</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L294" s="6">
+        <v>18</v>
+      </c>
+      <c r="M294" s="7">
+        <v>3583.8</v>
+      </c>
+      <c r="N294" s="6">
+        <v>1</v>
+      </c>
+      <c r="O294" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P294" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q294" s="6">
+        <v>0</v>
+      </c>
+      <c r="R294" s="7">
+        <v>0</v>
+      </c>
+      <c r="S294" s="9">
+        <v>0</v>
+      </c>
+      <c r="T294" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U294" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V294" s="11">
+        <v>11</v>
+      </c>
+      <c r="W294" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X294" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y294" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z294" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA294" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB294" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC294" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD294" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE294" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF294" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG294" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH294" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI294" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ294" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK294" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL294" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM294" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN294" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO294" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP294" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ294" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR294" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="295" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>1</v>
+      </c>
+      <c r="B295" s="2">
+        <v>2</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F295" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G295" s="5">
+        <v>18</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J295" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L295" s="6">
+        <v>19</v>
+      </c>
+      <c r="M295" s="7">
+        <v>3782.9</v>
+      </c>
+      <c r="N295" s="6">
+        <v>1</v>
+      </c>
+      <c r="O295" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P295" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q295" s="6">
+        <v>0</v>
+      </c>
+      <c r="R295" s="7">
+        <v>0</v>
+      </c>
+      <c r="S295" s="9">
+        <v>0</v>
+      </c>
+      <c r="T295" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U295" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V295" s="11">
+        <v>11</v>
+      </c>
+      <c r="W295" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X295" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y295" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z295" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA295" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB295" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC295" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD295" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE295" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF295" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG295" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH295" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI295" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ295" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK295" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL295" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM295" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN295" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO295" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP295" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ295" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR295" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="296" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>1</v>
+      </c>
+      <c r="B296" s="2">
+        <v>2</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F296" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G296" s="5">
+        <v>19</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J296" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K296" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L296" s="6">
+        <v>20</v>
+      </c>
+      <c r="M296" s="7">
+        <v>3982</v>
+      </c>
+      <c r="N296" s="6">
+        <v>1</v>
+      </c>
+      <c r="O296" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P296" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q296" s="6">
+        <v>0</v>
+      </c>
+      <c r="R296" s="7">
+        <v>0</v>
+      </c>
+      <c r="S296" s="9">
+        <v>0</v>
+      </c>
+      <c r="T296" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U296" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V296" s="11">
+        <v>11</v>
+      </c>
+      <c r="W296" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X296" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y296" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z296" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA296" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB296" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC296" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD296" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE296" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF296" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG296" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH296" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI296" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ296" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK296" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL296" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM296" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN296" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO296" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP296" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ296" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR296" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="297" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>1</v>
+      </c>
+      <c r="B297" s="2">
+        <v>2</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F297" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G297" s="5">
+        <v>20</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J297" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L297" s="6">
+        <v>21</v>
+      </c>
+      <c r="M297" s="7">
+        <v>4181.1000000000004</v>
+      </c>
+      <c r="N297" s="6">
+        <v>1</v>
+      </c>
+      <c r="O297" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P297" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q297" s="6">
+        <v>0</v>
+      </c>
+      <c r="R297" s="7">
+        <v>0</v>
+      </c>
+      <c r="S297" s="9">
+        <v>0</v>
+      </c>
+      <c r="T297" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U297" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V297" s="11">
+        <v>11</v>
+      </c>
+      <c r="W297" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X297" s="12">
+        <v>0.67013889999999998</v>
+      </c>
+      <c r="Y297" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z297" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA297" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB297" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC297" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD297" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE297" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF297" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG297" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH297" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI297" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ297" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK297" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL297" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM297" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN297" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO297" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP297" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ297" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR297" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7513128-17F3-4F41-BD60-E6D3DDD0D101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DFF33BB-547A-4FA4-BACF-A9628AD05C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6146" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6776" uniqueCount="434">
   <si>
     <t>Sel</t>
   </si>
@@ -1153,6 +1153,111 @@
     <t>7627600029004</t>
   </si>
   <si>
+    <t>7627600029005</t>
+  </si>
+  <si>
+    <t>7627600029006</t>
+  </si>
+  <si>
+    <t>7627600029007</t>
+  </si>
+  <si>
+    <t>7627600029008</t>
+  </si>
+  <si>
+    <t>7627600029009</t>
+  </si>
+  <si>
+    <t>7627600029010</t>
+  </si>
+  <si>
+    <t>7627600029011</t>
+  </si>
+  <si>
+    <t>7627600029012</t>
+  </si>
+  <si>
+    <t>7627600029013</t>
+  </si>
+  <si>
+    <t>7627600029014</t>
+  </si>
+  <si>
+    <t>7627600029015</t>
+  </si>
+  <si>
+    <t>7627600029016</t>
+  </si>
+  <si>
+    <t>7627600029017</t>
+  </si>
+  <si>
+    <t>7627600029018</t>
+  </si>
+  <si>
+    <t>7627600029019</t>
+  </si>
+  <si>
+    <t>7627600029020</t>
+  </si>
+  <si>
+    <t>7627600029021</t>
+  </si>
+  <si>
+    <t>7627600029022</t>
+  </si>
+  <si>
+    <t>7627600029023</t>
+  </si>
+  <si>
+    <t>7627600029024</t>
+  </si>
+  <si>
+    <t>7627600029025</t>
+  </si>
+  <si>
+    <t>7627600029026</t>
+  </si>
+  <si>
+    <t>7627600029027</t>
+  </si>
+  <si>
+    <t>7627600029028</t>
+  </si>
+  <si>
+    <t>7627600029029</t>
+  </si>
+  <si>
+    <t>7627600029030</t>
+  </si>
+  <si>
+    <t>7627600029031</t>
+  </si>
+  <si>
+    <t>7627600029032</t>
+  </si>
+  <si>
+    <t>7627600029033</t>
+  </si>
+  <si>
+    <t>7627600029034</t>
+  </si>
+  <si>
+    <t>7627600029035</t>
+  </si>
+  <si>
+    <t>7627600029036</t>
+  </si>
+  <si>
+    <t>7627600029037</t>
+  </si>
+  <si>
+    <t>7627600029038</t>
+  </si>
+  <si>
+    <t>7627600029039</t>
+  </si>
+  <si>
     <t>10094054</t>
   </si>
   <si>
@@ -1792,7 +1897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR340"/>
+  <dimension ref="A1:AR375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44686,10 +44791,10 @@
         <v>2</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E321" s="3" t="s">
         <v>46</v>
@@ -44698,7 +44803,7 @@
         <v>46069</v>
       </c>
       <c r="G321" s="5">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="H321" s="3" t="s">
         <v>47</v>
@@ -44713,19 +44818,19 @@
         <v>50</v>
       </c>
       <c r="L321" s="6">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="M321" s="7">
-        <v>398.2</v>
+        <v>176686.64</v>
       </c>
       <c r="N321" s="6">
         <v>1</v>
       </c>
       <c r="O321" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P321" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q321" s="6">
         <v>0</v>
@@ -44740,7 +44845,7 @@
         <v>52</v>
       </c>
       <c r="U321" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V321" s="11">
         <v>11</v>
@@ -44749,7 +44854,7 @@
         <v>46069</v>
       </c>
       <c r="X321" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="Y321" s="10">
         <v>0</v>
@@ -44809,7 +44914,7 @@
         <v>53</v>
       </c>
       <c r="AR321" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="322" spans="1:44" x14ac:dyDescent="0.3">
@@ -44820,10 +44925,10 @@
         <v>2</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E322" s="3" t="s">
         <v>46</v>
@@ -44832,7 +44937,7 @@
         <v>46069</v>
       </c>
       <c r="G322" s="5">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="H322" s="3" t="s">
         <v>47</v>
@@ -44847,19 +44952,19 @@
         <v>50</v>
       </c>
       <c r="L322" s="6">
-        <v>3</v>
+        <v>1017</v>
       </c>
       <c r="M322" s="7">
-        <v>597.29999999999995</v>
+        <v>176860.54</v>
       </c>
       <c r="N322" s="6">
         <v>1</v>
       </c>
       <c r="O322" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P322" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q322" s="6">
         <v>0</v>
@@ -44874,7 +44979,7 @@
         <v>52</v>
       </c>
       <c r="U322" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V322" s="11">
         <v>11</v>
@@ -44883,7 +44988,7 @@
         <v>46069</v>
       </c>
       <c r="X322" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="Y322" s="10">
         <v>0</v>
@@ -44943,7 +45048,7 @@
         <v>53</v>
       </c>
       <c r="AR322" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="323" spans="1:44" x14ac:dyDescent="0.3">
@@ -44954,10 +45059,10 @@
         <v>2</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>46</v>
@@ -44966,7 +45071,7 @@
         <v>46069</v>
       </c>
       <c r="G323" s="5">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="H323" s="3" t="s">
         <v>47</v>
@@ -44981,19 +45086,19 @@
         <v>50</v>
       </c>
       <c r="L323" s="6">
-        <v>4</v>
+        <v>1018</v>
       </c>
       <c r="M323" s="7">
-        <v>796.4</v>
+        <v>177034.45</v>
       </c>
       <c r="N323" s="6">
         <v>1</v>
       </c>
       <c r="O323" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P323" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q323" s="6">
         <v>0</v>
@@ -45008,7 +45113,7 @@
         <v>52</v>
       </c>
       <c r="U323" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V323" s="11">
         <v>11</v>
@@ -45017,7 +45122,7 @@
         <v>46069</v>
       </c>
       <c r="X323" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="Y323" s="10">
         <v>0</v>
@@ -45077,7 +45182,7 @@
         <v>53</v>
       </c>
       <c r="AR323" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="324" spans="1:44" x14ac:dyDescent="0.3">
@@ -45088,10 +45193,10 @@
         <v>2</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E324" s="3" t="s">
         <v>46</v>
@@ -45100,7 +45205,7 @@
         <v>46069</v>
       </c>
       <c r="G324" s="5">
-        <v>4</v>
+        <v>217</v>
       </c>
       <c r="H324" s="3" t="s">
         <v>47</v>
@@ -45115,19 +45220,19 @@
         <v>50</v>
       </c>
       <c r="L324" s="6">
-        <v>5</v>
+        <v>1019</v>
       </c>
       <c r="M324" s="7">
-        <v>995.5</v>
+        <v>177208.35</v>
       </c>
       <c r="N324" s="6">
         <v>1</v>
       </c>
       <c r="O324" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P324" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q324" s="6">
         <v>0</v>
@@ -45142,7 +45247,7 @@
         <v>52</v>
       </c>
       <c r="U324" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V324" s="11">
         <v>11</v>
@@ -45151,7 +45256,7 @@
         <v>46069</v>
       </c>
       <c r="X324" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="Y324" s="10">
         <v>0</v>
@@ -45211,7 +45316,7 @@
         <v>53</v>
       </c>
       <c r="AR324" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="325" spans="1:44" x14ac:dyDescent="0.3">
@@ -45222,10 +45327,10 @@
         <v>2</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>46</v>
@@ -45234,7 +45339,7 @@
         <v>46069</v>
       </c>
       <c r="G325" s="5">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="H325" s="3" t="s">
         <v>47</v>
@@ -45249,19 +45354,19 @@
         <v>50</v>
       </c>
       <c r="L325" s="6">
-        <v>6</v>
+        <v>1020</v>
       </c>
       <c r="M325" s="7">
-        <v>1194.5999999999999</v>
+        <v>177382.25</v>
       </c>
       <c r="N325" s="6">
         <v>1</v>
       </c>
       <c r="O325" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P325" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q325" s="6">
         <v>0</v>
@@ -45276,7 +45381,7 @@
         <v>52</v>
       </c>
       <c r="U325" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V325" s="11">
         <v>11</v>
@@ -45285,7 +45390,7 @@
         <v>46069</v>
       </c>
       <c r="X325" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="Y325" s="10">
         <v>0</v>
@@ -45345,7 +45450,7 @@
         <v>53</v>
       </c>
       <c r="AR325" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="326" spans="1:44" x14ac:dyDescent="0.3">
@@ -45356,10 +45461,10 @@
         <v>2</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E326" s="3" t="s">
         <v>46</v>
@@ -45368,7 +45473,7 @@
         <v>46069</v>
       </c>
       <c r="G326" s="5">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="H326" s="3" t="s">
         <v>47</v>
@@ -45383,19 +45488,19 @@
         <v>50</v>
       </c>
       <c r="L326" s="6">
-        <v>7</v>
+        <v>1021</v>
       </c>
       <c r="M326" s="7">
-        <v>1393.7</v>
+        <v>177556.16</v>
       </c>
       <c r="N326" s="6">
         <v>1</v>
       </c>
       <c r="O326" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P326" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q326" s="6">
         <v>0</v>
@@ -45410,7 +45515,7 @@
         <v>52</v>
       </c>
       <c r="U326" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V326" s="11">
         <v>11</v>
@@ -45419,7 +45524,7 @@
         <v>46069</v>
       </c>
       <c r="X326" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="Y326" s="10">
         <v>0</v>
@@ -45479,7 +45584,7 @@
         <v>53</v>
       </c>
       <c r="AR326" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="327" spans="1:44" x14ac:dyDescent="0.3">
@@ -45490,10 +45595,10 @@
         <v>2</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>46</v>
@@ -45502,7 +45607,7 @@
         <v>46069</v>
       </c>
       <c r="G327" s="5">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="H327" s="3" t="s">
         <v>47</v>
@@ -45517,19 +45622,19 @@
         <v>50</v>
       </c>
       <c r="L327" s="6">
-        <v>8</v>
+        <v>1022</v>
       </c>
       <c r="M327" s="7">
-        <v>1592.8</v>
+        <v>177730.06</v>
       </c>
       <c r="N327" s="6">
         <v>1</v>
       </c>
       <c r="O327" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P327" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q327" s="6">
         <v>0</v>
@@ -45544,7 +45649,7 @@
         <v>52</v>
       </c>
       <c r="U327" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V327" s="11">
         <v>11</v>
@@ -45553,7 +45658,7 @@
         <v>46069</v>
       </c>
       <c r="X327" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="Y327" s="10">
         <v>0</v>
@@ -45613,7 +45718,7 @@
         <v>53</v>
       </c>
       <c r="AR327" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="328" spans="1:44" x14ac:dyDescent="0.3">
@@ -45624,10 +45729,10 @@
         <v>2</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>46</v>
@@ -45636,7 +45741,7 @@
         <v>46069</v>
       </c>
       <c r="G328" s="5">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="H328" s="3" t="s">
         <v>47</v>
@@ -45651,19 +45756,19 @@
         <v>50</v>
       </c>
       <c r="L328" s="6">
-        <v>9</v>
+        <v>1023</v>
       </c>
       <c r="M328" s="7">
-        <v>1791.9</v>
+        <v>177903.97</v>
       </c>
       <c r="N328" s="6">
         <v>1</v>
       </c>
       <c r="O328" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P328" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q328" s="6">
         <v>0</v>
@@ -45678,7 +45783,7 @@
         <v>52</v>
       </c>
       <c r="U328" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V328" s="11">
         <v>11</v>
@@ -45687,7 +45792,7 @@
         <v>46069</v>
       </c>
       <c r="X328" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y328" s="10">
         <v>0</v>
@@ -45747,7 +45852,7 @@
         <v>53</v>
       </c>
       <c r="AR328" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="329" spans="1:44" x14ac:dyDescent="0.3">
@@ -45758,10 +45863,10 @@
         <v>2</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>46</v>
@@ -45770,7 +45875,7 @@
         <v>46069</v>
       </c>
       <c r="G329" s="5">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="H329" s="3" t="s">
         <v>47</v>
@@ -45785,19 +45890,19 @@
         <v>50</v>
       </c>
       <c r="L329" s="6">
-        <v>10</v>
+        <v>1024</v>
       </c>
       <c r="M329" s="7">
-        <v>1991</v>
+        <v>178077.87</v>
       </c>
       <c r="N329" s="6">
         <v>1</v>
       </c>
       <c r="O329" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P329" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q329" s="6">
         <v>0</v>
@@ -45812,7 +45917,7 @@
         <v>52</v>
       </c>
       <c r="U329" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V329" s="11">
         <v>11</v>
@@ -45821,7 +45926,7 @@
         <v>46069</v>
       </c>
       <c r="X329" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y329" s="10">
         <v>0</v>
@@ -45881,7 +45986,7 @@
         <v>53</v>
       </c>
       <c r="AR329" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="330" spans="1:44" x14ac:dyDescent="0.3">
@@ -45892,10 +45997,10 @@
         <v>2</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>46</v>
@@ -45904,7 +46009,7 @@
         <v>46069</v>
       </c>
       <c r="G330" s="5">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="H330" s="3" t="s">
         <v>47</v>
@@ -45919,19 +46024,19 @@
         <v>50</v>
       </c>
       <c r="L330" s="6">
-        <v>11</v>
+        <v>1025</v>
       </c>
       <c r="M330" s="7">
-        <v>2190.1</v>
+        <v>178251.77</v>
       </c>
       <c r="N330" s="6">
         <v>1</v>
       </c>
       <c r="O330" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P330" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q330" s="6">
         <v>0</v>
@@ -45946,7 +46051,7 @@
         <v>52</v>
       </c>
       <c r="U330" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V330" s="11">
         <v>11</v>
@@ -45955,7 +46060,7 @@
         <v>46069</v>
       </c>
       <c r="X330" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y330" s="10">
         <v>0</v>
@@ -46015,7 +46120,7 @@
         <v>53</v>
       </c>
       <c r="AR330" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="331" spans="1:44" x14ac:dyDescent="0.3">
@@ -46026,10 +46131,10 @@
         <v>2</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E331" s="3" t="s">
         <v>46</v>
@@ -46038,7 +46143,7 @@
         <v>46069</v>
       </c>
       <c r="G331" s="5">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="H331" s="3" t="s">
         <v>47</v>
@@ -46053,19 +46158,19 @@
         <v>50</v>
       </c>
       <c r="L331" s="6">
-        <v>12</v>
+        <v>1026</v>
       </c>
       <c r="M331" s="7">
-        <v>2389.1999999999998</v>
+        <v>178425.68</v>
       </c>
       <c r="N331" s="6">
         <v>1</v>
       </c>
       <c r="O331" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P331" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q331" s="6">
         <v>0</v>
@@ -46080,7 +46185,7 @@
         <v>52</v>
       </c>
       <c r="U331" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V331" s="11">
         <v>11</v>
@@ -46089,7 +46194,7 @@
         <v>46069</v>
       </c>
       <c r="X331" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y331" s="10">
         <v>0</v>
@@ -46149,7 +46254,7 @@
         <v>53</v>
       </c>
       <c r="AR331" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="332" spans="1:44" x14ac:dyDescent="0.3">
@@ -46160,10 +46265,10 @@
         <v>2</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E332" s="3" t="s">
         <v>46</v>
@@ -46172,7 +46277,7 @@
         <v>46069</v>
       </c>
       <c r="G332" s="5">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="H332" s="3" t="s">
         <v>47</v>
@@ -46187,19 +46292,19 @@
         <v>50</v>
       </c>
       <c r="L332" s="6">
-        <v>13</v>
+        <v>1027</v>
       </c>
       <c r="M332" s="7">
-        <v>2588.3000000000002</v>
+        <v>178599.58</v>
       </c>
       <c r="N332" s="6">
         <v>1</v>
       </c>
       <c r="O332" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P332" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q332" s="6">
         <v>0</v>
@@ -46214,7 +46319,7 @@
         <v>52</v>
       </c>
       <c r="U332" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V332" s="11">
         <v>11</v>
@@ -46223,7 +46328,7 @@
         <v>46069</v>
       </c>
       <c r="X332" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y332" s="10">
         <v>0</v>
@@ -46283,7 +46388,7 @@
         <v>53</v>
       </c>
       <c r="AR332" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="333" spans="1:44" x14ac:dyDescent="0.3">
@@ -46294,10 +46399,10 @@
         <v>2</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>46</v>
@@ -46306,7 +46411,7 @@
         <v>46069</v>
       </c>
       <c r="G333" s="5">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="H333" s="3" t="s">
         <v>47</v>
@@ -46321,19 +46426,19 @@
         <v>50</v>
       </c>
       <c r="L333" s="6">
-        <v>14</v>
+        <v>1028</v>
       </c>
       <c r="M333" s="7">
-        <v>2787.4</v>
+        <v>178773.49</v>
       </c>
       <c r="N333" s="6">
         <v>1</v>
       </c>
       <c r="O333" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P333" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q333" s="6">
         <v>0</v>
@@ -46348,7 +46453,7 @@
         <v>52</v>
       </c>
       <c r="U333" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V333" s="11">
         <v>11</v>
@@ -46357,7 +46462,7 @@
         <v>46069</v>
       </c>
       <c r="X333" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y333" s="10">
         <v>0</v>
@@ -46417,7 +46522,7 @@
         <v>53</v>
       </c>
       <c r="AR333" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="334" spans="1:44" x14ac:dyDescent="0.3">
@@ -46428,10 +46533,10 @@
         <v>2</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>46</v>
@@ -46440,7 +46545,7 @@
         <v>46069</v>
       </c>
       <c r="G334" s="5">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="H334" s="3" t="s">
         <v>47</v>
@@ -46455,19 +46560,19 @@
         <v>50</v>
       </c>
       <c r="L334" s="6">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="M334" s="7">
-        <v>2986.5</v>
+        <v>178947.39</v>
       </c>
       <c r="N334" s="6">
         <v>1</v>
       </c>
       <c r="O334" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P334" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q334" s="6">
         <v>0</v>
@@ -46482,7 +46587,7 @@
         <v>52</v>
       </c>
       <c r="U334" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V334" s="11">
         <v>11</v>
@@ -46491,7 +46596,7 @@
         <v>46069</v>
       </c>
       <c r="X334" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y334" s="10">
         <v>0</v>
@@ -46551,7 +46656,7 @@
         <v>53</v>
       </c>
       <c r="AR334" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="335" spans="1:44" x14ac:dyDescent="0.3">
@@ -46562,10 +46667,10 @@
         <v>2</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>46</v>
@@ -46574,7 +46679,7 @@
         <v>46069</v>
       </c>
       <c r="G335" s="5">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c r="H335" s="3" t="s">
         <v>47</v>
@@ -46589,19 +46694,19 @@
         <v>50</v>
       </c>
       <c r="L335" s="6">
-        <v>16</v>
+        <v>1030</v>
       </c>
       <c r="M335" s="7">
-        <v>3185.6</v>
+        <v>179121.3</v>
       </c>
       <c r="N335" s="6">
         <v>1</v>
       </c>
       <c r="O335" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P335" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q335" s="6">
         <v>0</v>
@@ -46616,7 +46721,7 @@
         <v>52</v>
       </c>
       <c r="U335" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V335" s="11">
         <v>11</v>
@@ -46625,7 +46730,7 @@
         <v>46069</v>
       </c>
       <c r="X335" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y335" s="10">
         <v>0</v>
@@ -46685,7 +46790,7 @@
         <v>53</v>
       </c>
       <c r="AR335" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="336" spans="1:44" x14ac:dyDescent="0.3">
@@ -46696,10 +46801,10 @@
         <v>2</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E336" s="3" t="s">
         <v>46</v>
@@ -46708,7 +46813,7 @@
         <v>46069</v>
       </c>
       <c r="G336" s="5">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="H336" s="3" t="s">
         <v>47</v>
@@ -46723,19 +46828,19 @@
         <v>50</v>
       </c>
       <c r="L336" s="6">
-        <v>17</v>
+        <v>1031</v>
       </c>
       <c r="M336" s="7">
-        <v>3384.7</v>
+        <v>179295.2</v>
       </c>
       <c r="N336" s="6">
         <v>1</v>
       </c>
       <c r="O336" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P336" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q336" s="6">
         <v>0</v>
@@ -46750,7 +46855,7 @@
         <v>52</v>
       </c>
       <c r="U336" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V336" s="11">
         <v>11</v>
@@ -46759,7 +46864,7 @@
         <v>46069</v>
       </c>
       <c r="X336" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y336" s="10">
         <v>0</v>
@@ -46819,7 +46924,7 @@
         <v>53</v>
       </c>
       <c r="AR336" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="337" spans="1:44" x14ac:dyDescent="0.3">
@@ -46830,10 +46935,10 @@
         <v>2</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>46</v>
@@ -46842,7 +46947,7 @@
         <v>46069</v>
       </c>
       <c r="G337" s="5">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="H337" s="3" t="s">
         <v>47</v>
@@ -46857,19 +46962,19 @@
         <v>50</v>
       </c>
       <c r="L337" s="6">
-        <v>18</v>
+        <v>1032</v>
       </c>
       <c r="M337" s="7">
-        <v>3583.8</v>
+        <v>179469.1</v>
       </c>
       <c r="N337" s="6">
         <v>1</v>
       </c>
       <c r="O337" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P337" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q337" s="6">
         <v>0</v>
@@ -46884,7 +46989,7 @@
         <v>52</v>
       </c>
       <c r="U337" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V337" s="11">
         <v>11</v>
@@ -46893,7 +46998,7 @@
         <v>46069</v>
       </c>
       <c r="X337" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y337" s="10">
         <v>0</v>
@@ -46953,7 +47058,7 @@
         <v>53</v>
       </c>
       <c r="AR337" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="338" spans="1:44" x14ac:dyDescent="0.3">
@@ -46964,10 +47069,10 @@
         <v>2</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E338" s="3" t="s">
         <v>46</v>
@@ -46976,7 +47081,7 @@
         <v>46069</v>
       </c>
       <c r="G338" s="5">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="H338" s="3" t="s">
         <v>47</v>
@@ -46991,19 +47096,19 @@
         <v>50</v>
       </c>
       <c r="L338" s="6">
-        <v>19</v>
+        <v>1033</v>
       </c>
       <c r="M338" s="7">
-        <v>3782.9</v>
+        <v>179643.01</v>
       </c>
       <c r="N338" s="6">
         <v>1</v>
       </c>
       <c r="O338" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P338" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q338" s="6">
         <v>0</v>
@@ -47018,7 +47123,7 @@
         <v>52</v>
       </c>
       <c r="U338" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V338" s="11">
         <v>11</v>
@@ -47027,7 +47132,7 @@
         <v>46069</v>
       </c>
       <c r="X338" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y338" s="10">
         <v>0</v>
@@ -47087,7 +47192,7 @@
         <v>53</v>
       </c>
       <c r="AR338" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="339" spans="1:44" x14ac:dyDescent="0.3">
@@ -47098,10 +47203,10 @@
         <v>2</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E339" s="3" t="s">
         <v>46</v>
@@ -47110,7 +47215,7 @@
         <v>46069</v>
       </c>
       <c r="G339" s="5">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="H339" s="3" t="s">
         <v>47</v>
@@ -47125,19 +47230,19 @@
         <v>50</v>
       </c>
       <c r="L339" s="6">
-        <v>20</v>
+        <v>1034</v>
       </c>
       <c r="M339" s="7">
-        <v>3982</v>
+        <v>179816.91</v>
       </c>
       <c r="N339" s="6">
         <v>1</v>
       </c>
       <c r="O339" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P339" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q339" s="6">
         <v>0</v>
@@ -47152,7 +47257,7 @@
         <v>52</v>
       </c>
       <c r="U339" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V339" s="11">
         <v>11</v>
@@ -47161,7 +47266,7 @@
         <v>46069</v>
       </c>
       <c r="X339" s="12">
-        <v>0.64930560000000004</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y339" s="10">
         <v>0</v>
@@ -47221,7 +47326,7 @@
         <v>53</v>
       </c>
       <c r="AR339" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="340" spans="1:44" x14ac:dyDescent="0.3">
@@ -47232,10 +47337,10 @@
         <v>2</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="E340" s="3" t="s">
         <v>46</v>
@@ -47244,7 +47349,7 @@
         <v>46069</v>
       </c>
       <c r="G340" s="5">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="H340" s="3" t="s">
         <v>47</v>
@@ -47259,19 +47364,19 @@
         <v>50</v>
       </c>
       <c r="L340" s="6">
-        <v>21</v>
+        <v>1035</v>
       </c>
       <c r="M340" s="7">
-        <v>4181.1000000000004</v>
+        <v>179990.82</v>
       </c>
       <c r="N340" s="6">
         <v>1</v>
       </c>
       <c r="O340" s="3" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P340" s="8">
-        <v>199.1</v>
+        <v>173.9</v>
       </c>
       <c r="Q340" s="6">
         <v>0</v>
@@ -47286,7 +47391,7 @@
         <v>52</v>
       </c>
       <c r="U340" s="10">
-        <v>62440</v>
+        <v>62503</v>
       </c>
       <c r="V340" s="11">
         <v>11</v>
@@ -47295,7 +47400,7 @@
         <v>46069</v>
       </c>
       <c r="X340" s="12">
-        <v>0.67013889999999998</v>
+        <v>0.71319440000000001</v>
       </c>
       <c r="Y340" s="10">
         <v>0</v>
@@ -47355,7 +47460,4697 @@
         <v>53</v>
       </c>
       <c r="AR340" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="341" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>1</v>
+      </c>
+      <c r="B341" s="2">
+        <v>2</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F341" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G341" s="5">
+        <v>234</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K341" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L341" s="6">
+        <v>1036</v>
+      </c>
+      <c r="M341" s="7">
+        <v>180164.72</v>
+      </c>
+      <c r="N341" s="6">
+        <v>1</v>
+      </c>
+      <c r="O341" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P341" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q341" s="6">
+        <v>0</v>
+      </c>
+      <c r="R341" s="7">
+        <v>0</v>
+      </c>
+      <c r="S341" s="9">
+        <v>0</v>
+      </c>
+      <c r="T341" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U341" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V341" s="11">
+        <v>11</v>
+      </c>
+      <c r="W341" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X341" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y341" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z341" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA341" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB341" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC341" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD341" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE341" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG341" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI341" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ341" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK341" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL341" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM341" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ341" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR341" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="342" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>1</v>
+      </c>
+      <c r="B342" s="2">
+        <v>2</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F342" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G342" s="5">
+        <v>235</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J342" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K342" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L342" s="6">
+        <v>1037</v>
+      </c>
+      <c r="M342" s="7">
+        <v>180338.62</v>
+      </c>
+      <c r="N342" s="6">
+        <v>1</v>
+      </c>
+      <c r="O342" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P342" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q342" s="6">
+        <v>0</v>
+      </c>
+      <c r="R342" s="7">
+        <v>0</v>
+      </c>
+      <c r="S342" s="9">
+        <v>0</v>
+      </c>
+      <c r="T342" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U342" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V342" s="11">
+        <v>11</v>
+      </c>
+      <c r="W342" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X342" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y342" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z342" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA342" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB342" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC342" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD342" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE342" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG342" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI342" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ342" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK342" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL342" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM342" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ342" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR342" s="3" t="s">
         <v>398</v>
+      </c>
+    </row>
+    <row r="343" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>1</v>
+      </c>
+      <c r="B343" s="2">
+        <v>2</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F343" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G343" s="5">
+        <v>236</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J343" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K343" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L343" s="6">
+        <v>1038</v>
+      </c>
+      <c r="M343" s="7">
+        <v>180512.53</v>
+      </c>
+      <c r="N343" s="6">
+        <v>1</v>
+      </c>
+      <c r="O343" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P343" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q343" s="6">
+        <v>0</v>
+      </c>
+      <c r="R343" s="7">
+        <v>0</v>
+      </c>
+      <c r="S343" s="9">
+        <v>0</v>
+      </c>
+      <c r="T343" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U343" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V343" s="11">
+        <v>11</v>
+      </c>
+      <c r="W343" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X343" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y343" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z343" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA343" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB343" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC343" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD343" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE343" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF343" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG343" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH343" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI343" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ343" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK343" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL343" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM343" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN343" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO343" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP343" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ343" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR343" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="344" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>1</v>
+      </c>
+      <c r="B344" s="2">
+        <v>2</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F344" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G344" s="5">
+        <v>237</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J344" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K344" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L344" s="6">
+        <v>1039</v>
+      </c>
+      <c r="M344" s="7">
+        <v>180686.43</v>
+      </c>
+      <c r="N344" s="6">
+        <v>1</v>
+      </c>
+      <c r="O344" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P344" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q344" s="6">
+        <v>0</v>
+      </c>
+      <c r="R344" s="7">
+        <v>0</v>
+      </c>
+      <c r="S344" s="9">
+        <v>0</v>
+      </c>
+      <c r="T344" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U344" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V344" s="11">
+        <v>11</v>
+      </c>
+      <c r="W344" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X344" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y344" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z344" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA344" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB344" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC344" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD344" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE344" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF344" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG344" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH344" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI344" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ344" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK344" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL344" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM344" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN344" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO344" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP344" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ344" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR344" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="345" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>1</v>
+      </c>
+      <c r="B345" s="2">
+        <v>2</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F345" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G345" s="5">
+        <v>238</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J345" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K345" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L345" s="6">
+        <v>1040</v>
+      </c>
+      <c r="M345" s="7">
+        <v>180860.34</v>
+      </c>
+      <c r="N345" s="6">
+        <v>1</v>
+      </c>
+      <c r="O345" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P345" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q345" s="6">
+        <v>0</v>
+      </c>
+      <c r="R345" s="7">
+        <v>0</v>
+      </c>
+      <c r="S345" s="9">
+        <v>0</v>
+      </c>
+      <c r="T345" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U345" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V345" s="11">
+        <v>11</v>
+      </c>
+      <c r="W345" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X345" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y345" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z345" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA345" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB345" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC345" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD345" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE345" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG345" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI345" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ345" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK345" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL345" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM345" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ345" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR345" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="346" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>1</v>
+      </c>
+      <c r="B346" s="2">
+        <v>2</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F346" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G346" s="5">
+        <v>239</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J346" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K346" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L346" s="6">
+        <v>1041</v>
+      </c>
+      <c r="M346" s="7">
+        <v>181034.23999999999</v>
+      </c>
+      <c r="N346" s="6">
+        <v>1</v>
+      </c>
+      <c r="O346" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P346" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q346" s="6">
+        <v>0</v>
+      </c>
+      <c r="R346" s="7">
+        <v>0</v>
+      </c>
+      <c r="S346" s="9">
+        <v>0</v>
+      </c>
+      <c r="T346" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U346" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V346" s="11">
+        <v>11</v>
+      </c>
+      <c r="W346" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X346" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y346" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z346" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA346" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB346" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC346" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD346" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE346" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF346" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG346" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH346" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI346" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ346" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK346" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL346" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM346" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN346" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO346" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP346" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ346" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR346" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="347" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>1</v>
+      </c>
+      <c r="B347" s="2">
+        <v>2</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F347" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G347" s="5">
+        <v>240</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J347" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K347" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L347" s="6">
+        <v>1042</v>
+      </c>
+      <c r="M347" s="7">
+        <v>181208.15</v>
+      </c>
+      <c r="N347" s="6">
+        <v>1</v>
+      </c>
+      <c r="O347" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P347" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q347" s="6">
+        <v>0</v>
+      </c>
+      <c r="R347" s="7">
+        <v>0</v>
+      </c>
+      <c r="S347" s="9">
+        <v>0</v>
+      </c>
+      <c r="T347" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U347" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V347" s="11">
+        <v>11</v>
+      </c>
+      <c r="W347" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X347" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y347" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z347" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA347" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB347" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC347" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD347" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE347" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF347" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG347" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH347" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI347" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ347" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK347" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL347" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM347" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN347" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO347" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP347" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ347" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR347" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="348" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>1</v>
+      </c>
+      <c r="B348" s="2">
+        <v>2</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F348" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G348" s="5">
+        <v>241</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I348" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J348" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K348" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L348" s="6">
+        <v>1043</v>
+      </c>
+      <c r="M348" s="7">
+        <v>181382.05</v>
+      </c>
+      <c r="N348" s="6">
+        <v>1</v>
+      </c>
+      <c r="O348" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P348" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q348" s="6">
+        <v>0</v>
+      </c>
+      <c r="R348" s="7">
+        <v>0</v>
+      </c>
+      <c r="S348" s="9">
+        <v>0</v>
+      </c>
+      <c r="T348" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U348" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V348" s="11">
+        <v>11</v>
+      </c>
+      <c r="W348" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X348" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y348" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z348" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA348" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB348" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC348" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD348" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE348" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG348" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI348" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ348" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK348" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL348" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM348" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ348" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR348" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="349" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>1</v>
+      </c>
+      <c r="B349" s="2">
+        <v>2</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F349" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G349" s="5">
+        <v>242</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I349" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K349" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L349" s="6">
+        <v>1044</v>
+      </c>
+      <c r="M349" s="7">
+        <v>181555.95</v>
+      </c>
+      <c r="N349" s="6">
+        <v>1</v>
+      </c>
+      <c r="O349" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P349" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q349" s="6">
+        <v>0</v>
+      </c>
+      <c r="R349" s="7">
+        <v>0</v>
+      </c>
+      <c r="S349" s="9">
+        <v>0</v>
+      </c>
+      <c r="T349" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U349" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V349" s="11">
+        <v>11</v>
+      </c>
+      <c r="W349" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X349" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y349" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z349" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA349" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB349" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC349" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD349" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE349" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF349" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG349" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH349" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI349" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ349" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK349" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL349" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM349" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN349" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO349" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP349" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ349" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR349" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="350" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>1</v>
+      </c>
+      <c r="B350" s="2">
+        <v>2</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F350" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G350" s="5">
+        <v>243</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I350" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J350" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K350" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L350" s="6">
+        <v>1045</v>
+      </c>
+      <c r="M350" s="7">
+        <v>181729.86</v>
+      </c>
+      <c r="N350" s="6">
+        <v>1</v>
+      </c>
+      <c r="O350" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P350" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q350" s="6">
+        <v>0</v>
+      </c>
+      <c r="R350" s="7">
+        <v>0</v>
+      </c>
+      <c r="S350" s="9">
+        <v>0</v>
+      </c>
+      <c r="T350" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U350" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V350" s="11">
+        <v>11</v>
+      </c>
+      <c r="W350" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X350" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y350" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z350" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA350" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB350" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC350" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD350" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE350" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF350" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG350" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH350" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI350" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ350" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK350" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL350" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM350" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN350" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO350" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP350" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ350" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR350" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="351" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>1</v>
+      </c>
+      <c r="B351" s="2">
+        <v>2</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F351" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G351" s="5">
+        <v>244</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I351" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J351" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K351" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L351" s="6">
+        <v>1046</v>
+      </c>
+      <c r="M351" s="7">
+        <v>181903.76</v>
+      </c>
+      <c r="N351" s="6">
+        <v>1</v>
+      </c>
+      <c r="O351" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P351" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q351" s="6">
+        <v>0</v>
+      </c>
+      <c r="R351" s="7">
+        <v>0</v>
+      </c>
+      <c r="S351" s="9">
+        <v>0</v>
+      </c>
+      <c r="T351" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U351" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V351" s="11">
+        <v>11</v>
+      </c>
+      <c r="W351" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X351" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y351" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z351" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA351" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB351" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC351" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD351" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE351" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG351" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI351" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ351" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK351" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL351" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM351" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ351" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR351" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="352" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>1</v>
+      </c>
+      <c r="B352" s="2">
+        <v>2</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F352" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G352" s="5">
+        <v>245</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I352" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K352" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L352" s="6">
+        <v>1047</v>
+      </c>
+      <c r="M352" s="7">
+        <v>182077.67</v>
+      </c>
+      <c r="N352" s="6">
+        <v>1</v>
+      </c>
+      <c r="O352" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P352" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q352" s="6">
+        <v>0</v>
+      </c>
+      <c r="R352" s="7">
+        <v>0</v>
+      </c>
+      <c r="S352" s="9">
+        <v>0</v>
+      </c>
+      <c r="T352" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U352" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V352" s="11">
+        <v>11</v>
+      </c>
+      <c r="W352" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X352" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y352" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z352" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA352" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB352" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC352" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD352" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE352" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF352" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG352" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH352" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI352" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ352" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK352" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL352" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM352" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN352" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO352" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP352" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ352" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR352" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="353" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>1</v>
+      </c>
+      <c r="B353" s="2">
+        <v>2</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F353" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G353" s="5">
+        <v>246</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I353" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J353" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K353" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L353" s="6">
+        <v>1048</v>
+      </c>
+      <c r="M353" s="7">
+        <v>182251.57</v>
+      </c>
+      <c r="N353" s="6">
+        <v>1</v>
+      </c>
+      <c r="O353" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P353" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q353" s="6">
+        <v>0</v>
+      </c>
+      <c r="R353" s="7">
+        <v>0</v>
+      </c>
+      <c r="S353" s="9">
+        <v>0</v>
+      </c>
+      <c r="T353" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U353" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V353" s="11">
+        <v>11</v>
+      </c>
+      <c r="W353" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X353" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y353" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z353" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA353" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB353" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC353" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD353" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE353" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF353" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG353" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH353" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI353" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ353" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK353" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL353" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM353" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN353" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO353" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP353" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ353" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR353" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="354" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>1</v>
+      </c>
+      <c r="B354" s="2">
+        <v>2</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F354" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G354" s="5">
+        <v>247</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I354" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J354" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K354" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L354" s="6">
+        <v>1049</v>
+      </c>
+      <c r="M354" s="7">
+        <v>182425.47</v>
+      </c>
+      <c r="N354" s="6">
+        <v>1</v>
+      </c>
+      <c r="O354" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P354" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q354" s="6">
+        <v>0</v>
+      </c>
+      <c r="R354" s="7">
+        <v>0</v>
+      </c>
+      <c r="S354" s="9">
+        <v>0</v>
+      </c>
+      <c r="T354" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U354" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V354" s="11">
+        <v>11</v>
+      </c>
+      <c r="W354" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X354" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y354" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB354" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG354" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI354" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ354" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK354" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL354" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM354" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ354" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR354" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="355" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>1</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F355" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G355" s="5">
+        <v>248</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I355" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J355" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K355" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L355" s="6">
+        <v>1050</v>
+      </c>
+      <c r="M355" s="7">
+        <v>182599.38</v>
+      </c>
+      <c r="N355" s="6">
+        <v>1</v>
+      </c>
+      <c r="O355" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P355" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="Q355" s="6">
+        <v>0</v>
+      </c>
+      <c r="R355" s="7">
+        <v>0</v>
+      </c>
+      <c r="S355" s="9">
+        <v>0</v>
+      </c>
+      <c r="T355" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U355" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V355" s="11">
+        <v>11</v>
+      </c>
+      <c r="W355" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X355" s="12">
+        <v>0.71319440000000001</v>
+      </c>
+      <c r="Y355" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB355" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG355" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI355" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ355" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK355" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL355" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM355" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ355" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR355" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="356" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>1</v>
+      </c>
+      <c r="B356" s="2">
+        <v>2</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F356" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G356" s="5">
+        <v>1</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J356" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K356" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L356" s="6">
+        <v>2</v>
+      </c>
+      <c r="M356" s="7">
+        <v>398.2</v>
+      </c>
+      <c r="N356" s="6">
+        <v>1</v>
+      </c>
+      <c r="O356" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P356" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q356" s="6">
+        <v>0</v>
+      </c>
+      <c r="R356" s="7">
+        <v>0</v>
+      </c>
+      <c r="S356" s="9">
+        <v>0</v>
+      </c>
+      <c r="T356" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U356" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V356" s="11">
+        <v>11</v>
+      </c>
+      <c r="W356" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X356" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y356" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB356" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG356" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI356" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ356" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK356" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL356" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM356" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ356" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR356" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="357" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>1</v>
+      </c>
+      <c r="B357" s="2">
+        <v>2</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F357" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G357" s="5">
+        <v>2</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I357" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J357" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K357" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L357" s="6">
+        <v>3</v>
+      </c>
+      <c r="M357" s="7">
+        <v>597.29999999999995</v>
+      </c>
+      <c r="N357" s="6">
+        <v>1</v>
+      </c>
+      <c r="O357" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P357" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q357" s="6">
+        <v>0</v>
+      </c>
+      <c r="R357" s="7">
+        <v>0</v>
+      </c>
+      <c r="S357" s="9">
+        <v>0</v>
+      </c>
+      <c r="T357" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U357" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V357" s="11">
+        <v>11</v>
+      </c>
+      <c r="W357" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X357" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y357" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB357" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG357" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI357" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ357" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK357" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL357" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM357" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ357" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR357" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="358" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>1</v>
+      </c>
+      <c r="B358" s="2">
+        <v>2</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F358" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G358" s="5">
+        <v>3</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I358" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J358" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K358" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L358" s="6">
+        <v>4</v>
+      </c>
+      <c r="M358" s="7">
+        <v>796.4</v>
+      </c>
+      <c r="N358" s="6">
+        <v>1</v>
+      </c>
+      <c r="O358" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P358" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q358" s="6">
+        <v>0</v>
+      </c>
+      <c r="R358" s="7">
+        <v>0</v>
+      </c>
+      <c r="S358" s="9">
+        <v>0</v>
+      </c>
+      <c r="T358" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U358" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V358" s="11">
+        <v>11</v>
+      </c>
+      <c r="W358" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X358" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y358" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB358" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG358" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI358" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ358" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK358" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL358" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM358" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ358" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR358" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="359" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>1</v>
+      </c>
+      <c r="B359" s="2">
+        <v>2</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F359" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G359" s="5">
+        <v>4</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I359" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J359" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K359" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L359" s="6">
+        <v>5</v>
+      </c>
+      <c r="M359" s="7">
+        <v>995.5</v>
+      </c>
+      <c r="N359" s="6">
+        <v>1</v>
+      </c>
+      <c r="O359" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P359" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q359" s="6">
+        <v>0</v>
+      </c>
+      <c r="R359" s="7">
+        <v>0</v>
+      </c>
+      <c r="S359" s="9">
+        <v>0</v>
+      </c>
+      <c r="T359" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U359" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V359" s="11">
+        <v>11</v>
+      </c>
+      <c r="W359" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X359" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y359" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB359" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG359" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI359" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ359" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK359" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL359" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM359" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ359" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR359" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="360" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>1</v>
+      </c>
+      <c r="B360" s="2">
+        <v>2</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F360" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G360" s="5">
+        <v>5</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I360" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J360" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K360" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L360" s="6">
+        <v>6</v>
+      </c>
+      <c r="M360" s="7">
+        <v>1194.5999999999999</v>
+      </c>
+      <c r="N360" s="6">
+        <v>1</v>
+      </c>
+      <c r="O360" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P360" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q360" s="6">
+        <v>0</v>
+      </c>
+      <c r="R360" s="7">
+        <v>0</v>
+      </c>
+      <c r="S360" s="9">
+        <v>0</v>
+      </c>
+      <c r="T360" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U360" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V360" s="11">
+        <v>11</v>
+      </c>
+      <c r="W360" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X360" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y360" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB360" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG360" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI360" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ360" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK360" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL360" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM360" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ360" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR360" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="361" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>1</v>
+      </c>
+      <c r="B361" s="2">
+        <v>2</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F361" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G361" s="5">
+        <v>6</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I361" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J361" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K361" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L361" s="6">
+        <v>7</v>
+      </c>
+      <c r="M361" s="7">
+        <v>1393.7</v>
+      </c>
+      <c r="N361" s="6">
+        <v>1</v>
+      </c>
+      <c r="O361" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P361" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q361" s="6">
+        <v>0</v>
+      </c>
+      <c r="R361" s="7">
+        <v>0</v>
+      </c>
+      <c r="S361" s="9">
+        <v>0</v>
+      </c>
+      <c r="T361" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U361" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V361" s="11">
+        <v>11</v>
+      </c>
+      <c r="W361" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X361" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y361" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB361" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG361" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI361" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ361" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK361" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL361" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM361" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ361" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR361" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="362" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>1</v>
+      </c>
+      <c r="B362" s="2">
+        <v>2</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F362" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G362" s="5">
+        <v>7</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I362" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J362" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K362" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L362" s="6">
+        <v>8</v>
+      </c>
+      <c r="M362" s="7">
+        <v>1592.8</v>
+      </c>
+      <c r="N362" s="6">
+        <v>1</v>
+      </c>
+      <c r="O362" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P362" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q362" s="6">
+        <v>0</v>
+      </c>
+      <c r="R362" s="7">
+        <v>0</v>
+      </c>
+      <c r="S362" s="9">
+        <v>0</v>
+      </c>
+      <c r="T362" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U362" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V362" s="11">
+        <v>11</v>
+      </c>
+      <c r="W362" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X362" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y362" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB362" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG362" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI362" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ362" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK362" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL362" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM362" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ362" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR362" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="363" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>1</v>
+      </c>
+      <c r="B363" s="2">
+        <v>2</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F363" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G363" s="5">
+        <v>8</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I363" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J363" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K363" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L363" s="6">
+        <v>9</v>
+      </c>
+      <c r="M363" s="7">
+        <v>1791.9</v>
+      </c>
+      <c r="N363" s="6">
+        <v>1</v>
+      </c>
+      <c r="O363" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P363" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q363" s="6">
+        <v>0</v>
+      </c>
+      <c r="R363" s="7">
+        <v>0</v>
+      </c>
+      <c r="S363" s="9">
+        <v>0</v>
+      </c>
+      <c r="T363" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U363" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V363" s="11">
+        <v>11</v>
+      </c>
+      <c r="W363" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X363" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y363" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB363" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG363" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI363" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ363" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK363" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL363" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM363" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ363" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR363" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="364" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>1</v>
+      </c>
+      <c r="B364" s="2">
+        <v>2</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F364" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G364" s="5">
+        <v>9</v>
+      </c>
+      <c r="H364" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I364" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J364" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K364" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L364" s="6">
+        <v>10</v>
+      </c>
+      <c r="M364" s="7">
+        <v>1991</v>
+      </c>
+      <c r="N364" s="6">
+        <v>1</v>
+      </c>
+      <c r="O364" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P364" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q364" s="6">
+        <v>0</v>
+      </c>
+      <c r="R364" s="7">
+        <v>0</v>
+      </c>
+      <c r="S364" s="9">
+        <v>0</v>
+      </c>
+      <c r="T364" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U364" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V364" s="11">
+        <v>11</v>
+      </c>
+      <c r="W364" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X364" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y364" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB364" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG364" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI364" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ364" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK364" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL364" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM364" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ364" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR364" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="365" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>1</v>
+      </c>
+      <c r="B365" s="2">
+        <v>2</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F365" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G365" s="5">
+        <v>10</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I365" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J365" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K365" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L365" s="6">
+        <v>11</v>
+      </c>
+      <c r="M365" s="7">
+        <v>2190.1</v>
+      </c>
+      <c r="N365" s="6">
+        <v>1</v>
+      </c>
+      <c r="O365" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P365" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q365" s="6">
+        <v>0</v>
+      </c>
+      <c r="R365" s="7">
+        <v>0</v>
+      </c>
+      <c r="S365" s="9">
+        <v>0</v>
+      </c>
+      <c r="T365" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U365" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V365" s="11">
+        <v>11</v>
+      </c>
+      <c r="W365" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X365" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y365" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB365" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG365" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI365" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ365" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK365" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL365" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM365" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ365" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR365" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="366" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>1</v>
+      </c>
+      <c r="B366" s="2">
+        <v>2</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F366" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G366" s="5">
+        <v>11</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I366" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J366" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K366" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L366" s="6">
+        <v>12</v>
+      </c>
+      <c r="M366" s="7">
+        <v>2389.1999999999998</v>
+      </c>
+      <c r="N366" s="6">
+        <v>1</v>
+      </c>
+      <c r="O366" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P366" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q366" s="6">
+        <v>0</v>
+      </c>
+      <c r="R366" s="7">
+        <v>0</v>
+      </c>
+      <c r="S366" s="9">
+        <v>0</v>
+      </c>
+      <c r="T366" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U366" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V366" s="11">
+        <v>11</v>
+      </c>
+      <c r="W366" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X366" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y366" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB366" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG366" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI366" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ366" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK366" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL366" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM366" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ366" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR366" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="367" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>1</v>
+      </c>
+      <c r="B367" s="2">
+        <v>2</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F367" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G367" s="5">
+        <v>12</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I367" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J367" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K367" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L367" s="6">
+        <v>13</v>
+      </c>
+      <c r="M367" s="7">
+        <v>2588.3000000000002</v>
+      </c>
+      <c r="N367" s="6">
+        <v>1</v>
+      </c>
+      <c r="O367" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P367" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q367" s="6">
+        <v>0</v>
+      </c>
+      <c r="R367" s="7">
+        <v>0</v>
+      </c>
+      <c r="S367" s="9">
+        <v>0</v>
+      </c>
+      <c r="T367" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U367" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V367" s="11">
+        <v>11</v>
+      </c>
+      <c r="W367" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X367" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y367" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB367" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG367" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI367" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ367" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK367" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL367" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM367" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ367" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR367" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="368" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>1</v>
+      </c>
+      <c r="B368" s="2">
+        <v>2</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F368" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G368" s="5">
+        <v>13</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I368" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J368" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K368" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L368" s="6">
+        <v>14</v>
+      </c>
+      <c r="M368" s="7">
+        <v>2787.4</v>
+      </c>
+      <c r="N368" s="6">
+        <v>1</v>
+      </c>
+      <c r="O368" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P368" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q368" s="6">
+        <v>0</v>
+      </c>
+      <c r="R368" s="7">
+        <v>0</v>
+      </c>
+      <c r="S368" s="9">
+        <v>0</v>
+      </c>
+      <c r="T368" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U368" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V368" s="11">
+        <v>11</v>
+      </c>
+      <c r="W368" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X368" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y368" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB368" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG368" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI368" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ368" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK368" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL368" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM368" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ368" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR368" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="369" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>1</v>
+      </c>
+      <c r="B369" s="2">
+        <v>2</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F369" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G369" s="5">
+        <v>14</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I369" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J369" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K369" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L369" s="6">
+        <v>15</v>
+      </c>
+      <c r="M369" s="7">
+        <v>2986.5</v>
+      </c>
+      <c r="N369" s="6">
+        <v>1</v>
+      </c>
+      <c r="O369" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P369" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q369" s="6">
+        <v>0</v>
+      </c>
+      <c r="R369" s="7">
+        <v>0</v>
+      </c>
+      <c r="S369" s="9">
+        <v>0</v>
+      </c>
+      <c r="T369" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U369" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V369" s="11">
+        <v>11</v>
+      </c>
+      <c r="W369" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X369" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y369" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB369" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG369" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI369" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ369" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK369" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL369" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM369" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ369" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR369" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="370" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>1</v>
+      </c>
+      <c r="B370" s="2">
+        <v>2</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F370" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G370" s="5">
+        <v>15</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I370" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J370" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K370" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L370" s="6">
+        <v>16</v>
+      </c>
+      <c r="M370" s="7">
+        <v>3185.6</v>
+      </c>
+      <c r="N370" s="6">
+        <v>1</v>
+      </c>
+      <c r="O370" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P370" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q370" s="6">
+        <v>0</v>
+      </c>
+      <c r="R370" s="7">
+        <v>0</v>
+      </c>
+      <c r="S370" s="9">
+        <v>0</v>
+      </c>
+      <c r="T370" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U370" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V370" s="11">
+        <v>11</v>
+      </c>
+      <c r="W370" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X370" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y370" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB370" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG370" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI370" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ370" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK370" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL370" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM370" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ370" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR370" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="371" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>1</v>
+      </c>
+      <c r="B371" s="2">
+        <v>2</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F371" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G371" s="5">
+        <v>16</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I371" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J371" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K371" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L371" s="6">
+        <v>17</v>
+      </c>
+      <c r="M371" s="7">
+        <v>3384.7</v>
+      </c>
+      <c r="N371" s="6">
+        <v>1</v>
+      </c>
+      <c r="O371" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P371" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q371" s="6">
+        <v>0</v>
+      </c>
+      <c r="R371" s="7">
+        <v>0</v>
+      </c>
+      <c r="S371" s="9">
+        <v>0</v>
+      </c>
+      <c r="T371" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U371" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V371" s="11">
+        <v>11</v>
+      </c>
+      <c r="W371" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X371" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y371" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB371" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG371" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI371" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ371" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK371" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL371" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM371" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ371" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR371" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="372" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>1</v>
+      </c>
+      <c r="B372" s="2">
+        <v>2</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F372" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G372" s="5">
+        <v>17</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I372" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J372" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K372" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L372" s="6">
+        <v>18</v>
+      </c>
+      <c r="M372" s="7">
+        <v>3583.8</v>
+      </c>
+      <c r="N372" s="6">
+        <v>1</v>
+      </c>
+      <c r="O372" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P372" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q372" s="6">
+        <v>0</v>
+      </c>
+      <c r="R372" s="7">
+        <v>0</v>
+      </c>
+      <c r="S372" s="9">
+        <v>0</v>
+      </c>
+      <c r="T372" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U372" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V372" s="11">
+        <v>11</v>
+      </c>
+      <c r="W372" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X372" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y372" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB372" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG372" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI372" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ372" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK372" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL372" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM372" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ372" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR372" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="373" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>1</v>
+      </c>
+      <c r="B373" s="2">
+        <v>2</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F373" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G373" s="5">
+        <v>18</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I373" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J373" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K373" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L373" s="6">
+        <v>19</v>
+      </c>
+      <c r="M373" s="7">
+        <v>3782.9</v>
+      </c>
+      <c r="N373" s="6">
+        <v>1</v>
+      </c>
+      <c r="O373" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P373" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q373" s="6">
+        <v>0</v>
+      </c>
+      <c r="R373" s="7">
+        <v>0</v>
+      </c>
+      <c r="S373" s="9">
+        <v>0</v>
+      </c>
+      <c r="T373" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U373" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V373" s="11">
+        <v>11</v>
+      </c>
+      <c r="W373" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X373" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y373" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB373" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG373" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI373" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ373" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK373" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL373" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM373" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ373" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR373" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="374" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>1</v>
+      </c>
+      <c r="B374" s="2">
+        <v>2</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F374" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G374" s="5">
+        <v>19</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I374" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J374" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K374" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L374" s="6">
+        <v>20</v>
+      </c>
+      <c r="M374" s="7">
+        <v>3982</v>
+      </c>
+      <c r="N374" s="6">
+        <v>1</v>
+      </c>
+      <c r="O374" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P374" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q374" s="6">
+        <v>0</v>
+      </c>
+      <c r="R374" s="7">
+        <v>0</v>
+      </c>
+      <c r="S374" s="9">
+        <v>0</v>
+      </c>
+      <c r="T374" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U374" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V374" s="11">
+        <v>11</v>
+      </c>
+      <c r="W374" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X374" s="12">
+        <v>0.64930560000000004</v>
+      </c>
+      <c r="Y374" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z374" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA374" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB374" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC374" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD374" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE374" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF374" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG374" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH374" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI374" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ374" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK374" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL374" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM374" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN374" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO374" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP374" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ374" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR374" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="375" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>1</v>
+      </c>
+      <c r="B375" s="2">
+        <v>2</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F375" s="4">
+        <v>46069</v>
+      </c>
+      <c r="G375" s="5">
+        <v>20</v>
+      </c>
+      <c r="H375" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I375" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J375" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K375" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L375" s="6">
+        <v>21</v>
+      </c>
+      <c r="M375" s="7">
+        <v>4181.1000000000004</v>
+      </c>
+      <c r="N375" s="6">
+        <v>1</v>
+      </c>
+      <c r="O375" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P375" s="8">
+        <v>199.1</v>
+      </c>
+      <c r="Q375" s="6">
+        <v>0</v>
+      </c>
+      <c r="R375" s="7">
+        <v>0</v>
+      </c>
+      <c r="S375" s="9">
+        <v>0</v>
+      </c>
+      <c r="T375" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U375" s="10">
+        <v>62440</v>
+      </c>
+      <c r="V375" s="11">
+        <v>11</v>
+      </c>
+      <c r="W375" s="4">
+        <v>46069</v>
+      </c>
+      <c r="X375" s="12">
+        <v>0.67013889999999998</v>
+      </c>
+      <c r="Y375" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z375" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA375" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB375" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC375" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD375" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE375" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF375" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG375" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH375" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI375" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ375" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK375" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL375" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM375" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN375" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO375" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP375" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ375" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR375" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6A7F44-C490-48BF-9A18-41E74ED87298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08113502-67D4-41FD-ADD5-A582937A138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="139">
   <si>
     <t>Sel</t>
   </si>
@@ -347,6 +347,96 @@
   </si>
   <si>
     <t>7627600029109</t>
+  </si>
+  <si>
+    <t>7627600029110</t>
+  </si>
+  <si>
+    <t>7627600029111</t>
+  </si>
+  <si>
+    <t>7627600029112</t>
+  </si>
+  <si>
+    <t>7627600029113</t>
+  </si>
+  <si>
+    <t>7627600029114</t>
+  </si>
+  <si>
+    <t>7627600029115</t>
+  </si>
+  <si>
+    <t>7627600029116</t>
+  </si>
+  <si>
+    <t>7627600029117</t>
+  </si>
+  <si>
+    <t>7627600029118</t>
+  </si>
+  <si>
+    <t>7627600029119</t>
+  </si>
+  <si>
+    <t>7627600029120</t>
+  </si>
+  <si>
+    <t>7627600029121</t>
+  </si>
+  <si>
+    <t>7627600029122</t>
+  </si>
+  <si>
+    <t>7627600029123</t>
+  </si>
+  <si>
+    <t>7627600029124</t>
+  </si>
+  <si>
+    <t>7627600029125</t>
+  </si>
+  <si>
+    <t>7627600029126</t>
+  </si>
+  <si>
+    <t>7627600029127</t>
+  </si>
+  <si>
+    <t>7627600029128</t>
+  </si>
+  <si>
+    <t>7627600029129</t>
+  </si>
+  <si>
+    <t>7627600029130</t>
+  </si>
+  <si>
+    <t>7627600029131</t>
+  </si>
+  <si>
+    <t>7627600029132</t>
+  </si>
+  <si>
+    <t>7627600029133</t>
+  </si>
+  <si>
+    <t>7627600029134</t>
+  </si>
+  <si>
+    <t>7627600029135</t>
+  </si>
+  <si>
+    <t>7627600029136</t>
+  </si>
+  <si>
+    <t>7627600029137</t>
+  </si>
+  <si>
+    <t>7627600029138</t>
+  </si>
+  <si>
+    <t>7627600029139</t>
   </si>
 </sst>
 </file>
@@ -922,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR55"/>
+  <dimension ref="A1:AR85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8298,6 +8388,4026 @@
         <v>108</v>
       </c>
     </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G56" s="5">
+        <v>55</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L56" s="6">
+        <v>1121</v>
+      </c>
+      <c r="M56" s="7">
+        <v>194122.26</v>
+      </c>
+      <c r="N56" s="6">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>0</v>
+      </c>
+      <c r="R56" s="7">
+        <v>0</v>
+      </c>
+      <c r="S56" s="9">
+        <v>0</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U56" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V56" s="11">
+        <v>11</v>
+      </c>
+      <c r="W56" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X56" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR56" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G57" s="5">
+        <v>56</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57" s="6">
+        <v>1122</v>
+      </c>
+      <c r="M57" s="7">
+        <v>194295.43</v>
+      </c>
+      <c r="N57" s="6">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>0</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+      <c r="S57" s="9">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U57" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V57" s="11">
+        <v>11</v>
+      </c>
+      <c r="W57" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X57" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y57" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR57" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G58" s="5">
+        <v>57</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L58" s="6">
+        <v>1123</v>
+      </c>
+      <c r="M58" s="7">
+        <v>194468.6</v>
+      </c>
+      <c r="N58" s="6">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P58" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>0</v>
+      </c>
+      <c r="R58" s="7">
+        <v>0</v>
+      </c>
+      <c r="S58" s="9">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U58" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V58" s="11">
+        <v>11</v>
+      </c>
+      <c r="W58" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X58" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR58" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G59" s="5">
+        <v>58</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L59" s="6">
+        <v>1124</v>
+      </c>
+      <c r="M59" s="7">
+        <v>194641.77</v>
+      </c>
+      <c r="N59" s="6">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P59" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>0</v>
+      </c>
+      <c r="R59" s="7">
+        <v>0</v>
+      </c>
+      <c r="S59" s="9">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U59" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V59" s="11">
+        <v>11</v>
+      </c>
+      <c r="W59" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X59" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y59" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR59" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G60" s="5">
+        <v>59</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L60" s="6">
+        <v>1125</v>
+      </c>
+      <c r="M60" s="7">
+        <v>194814.94</v>
+      </c>
+      <c r="N60" s="6">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P60" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>0</v>
+      </c>
+      <c r="R60" s="7">
+        <v>0</v>
+      </c>
+      <c r="S60" s="9">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U60" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V60" s="11">
+        <v>11</v>
+      </c>
+      <c r="W60" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X60" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y60" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR60" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G61" s="5">
+        <v>60</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L61" s="6">
+        <v>1126</v>
+      </c>
+      <c r="M61" s="7">
+        <v>194988.11</v>
+      </c>
+      <c r="N61" s="6">
+        <v>1</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P61" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>0</v>
+      </c>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="S61" s="9">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U61" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V61" s="11">
+        <v>11</v>
+      </c>
+      <c r="W61" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X61" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y61" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR61" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G62" s="5">
+        <v>61</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" s="6">
+        <v>1127</v>
+      </c>
+      <c r="M62" s="7">
+        <v>195161.28</v>
+      </c>
+      <c r="N62" s="6">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P62" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>0</v>
+      </c>
+      <c r="R62" s="7">
+        <v>0</v>
+      </c>
+      <c r="S62" s="9">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U62" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V62" s="11">
+        <v>11</v>
+      </c>
+      <c r="W62" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X62" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y62" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI62" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR62" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G63" s="5">
+        <v>62</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" s="6">
+        <v>1128</v>
+      </c>
+      <c r="M63" s="7">
+        <v>195334.44</v>
+      </c>
+      <c r="N63" s="6">
+        <v>1</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>0</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+      <c r="S63" s="9">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U63" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V63" s="11">
+        <v>11</v>
+      </c>
+      <c r="W63" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X63" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y63" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI63" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR63" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G64" s="5">
+        <v>63</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L64" s="6">
+        <v>1129</v>
+      </c>
+      <c r="M64" s="7">
+        <v>195507.61</v>
+      </c>
+      <c r="N64" s="6">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P64" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>0</v>
+      </c>
+      <c r="R64" s="7">
+        <v>0</v>
+      </c>
+      <c r="S64" s="9">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U64" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V64" s="11">
+        <v>11</v>
+      </c>
+      <c r="W64" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X64" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y64" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR64" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G65" s="5">
+        <v>64</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L65" s="6">
+        <v>1130</v>
+      </c>
+      <c r="M65" s="7">
+        <v>195680.78</v>
+      </c>
+      <c r="N65" s="6">
+        <v>1</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P65" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>0</v>
+      </c>
+      <c r="R65" s="7">
+        <v>0</v>
+      </c>
+      <c r="S65" s="9">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U65" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V65" s="11">
+        <v>11</v>
+      </c>
+      <c r="W65" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X65" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y65" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR65" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G66" s="5">
+        <v>65</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L66" s="6">
+        <v>1131</v>
+      </c>
+      <c r="M66" s="7">
+        <v>195853.95</v>
+      </c>
+      <c r="N66" s="6">
+        <v>1</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P66" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>0</v>
+      </c>
+      <c r="R66" s="7">
+        <v>0</v>
+      </c>
+      <c r="S66" s="9">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U66" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V66" s="11">
+        <v>11</v>
+      </c>
+      <c r="W66" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X66" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y66" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG66" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR66" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G67" s="5">
+        <v>66</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L67" s="6">
+        <v>1132</v>
+      </c>
+      <c r="M67" s="7">
+        <v>196027.12</v>
+      </c>
+      <c r="N67" s="6">
+        <v>1</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P67" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>0</v>
+      </c>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="9">
+        <v>0</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U67" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V67" s="11">
+        <v>11</v>
+      </c>
+      <c r="W67" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X67" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y67" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG67" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI67" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK67" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR67" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G68" s="5">
+        <v>67</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L68" s="6">
+        <v>1133</v>
+      </c>
+      <c r="M68" s="7">
+        <v>196200.29</v>
+      </c>
+      <c r="N68" s="6">
+        <v>1</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P68" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0</v>
+      </c>
+      <c r="S68" s="9">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U68" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V68" s="11">
+        <v>11</v>
+      </c>
+      <c r="W68" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X68" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y68" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG68" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR68" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G69" s="5">
+        <v>68</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L69" s="6">
+        <v>1134</v>
+      </c>
+      <c r="M69" s="7">
+        <v>196373.46</v>
+      </c>
+      <c r="N69" s="6">
+        <v>1</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P69" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>0</v>
+      </c>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69" s="9">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U69" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V69" s="11">
+        <v>11</v>
+      </c>
+      <c r="W69" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X69" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y69" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG69" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR69" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G70" s="5">
+        <v>69</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L70" s="6">
+        <v>1135</v>
+      </c>
+      <c r="M70" s="7">
+        <v>196546.63</v>
+      </c>
+      <c r="N70" s="6">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P70" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>0</v>
+      </c>
+      <c r="R70" s="7">
+        <v>0</v>
+      </c>
+      <c r="S70" s="9">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U70" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V70" s="11">
+        <v>11</v>
+      </c>
+      <c r="W70" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X70" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y70" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG70" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI70" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR70" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G71" s="5">
+        <v>70</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L71" s="6">
+        <v>1136</v>
+      </c>
+      <c r="M71" s="7">
+        <v>196719.8</v>
+      </c>
+      <c r="N71" s="6">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P71" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>0</v>
+      </c>
+      <c r="R71" s="7">
+        <v>0</v>
+      </c>
+      <c r="S71" s="9">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U71" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V71" s="11">
+        <v>11</v>
+      </c>
+      <c r="W71" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X71" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y71" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG71" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR71" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G72" s="5">
+        <v>71</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L72" s="6">
+        <v>1137</v>
+      </c>
+      <c r="M72" s="7">
+        <v>196892.96</v>
+      </c>
+      <c r="N72" s="6">
+        <v>1</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P72" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q72" s="6">
+        <v>0</v>
+      </c>
+      <c r="R72" s="7">
+        <v>0</v>
+      </c>
+      <c r="S72" s="9">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U72" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V72" s="11">
+        <v>11</v>
+      </c>
+      <c r="W72" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X72" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y72" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI72" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR72" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G73" s="5">
+        <v>72</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L73" s="6">
+        <v>1138</v>
+      </c>
+      <c r="M73" s="7">
+        <v>197066.13</v>
+      </c>
+      <c r="N73" s="6">
+        <v>1</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P73" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q73" s="6">
+        <v>0</v>
+      </c>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73" s="9">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U73" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V73" s="11">
+        <v>11</v>
+      </c>
+      <c r="W73" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X73" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y73" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG73" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI73" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR73" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G74" s="5">
+        <v>73</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L74" s="6">
+        <v>1139</v>
+      </c>
+      <c r="M74" s="7">
+        <v>197239.3</v>
+      </c>
+      <c r="N74" s="6">
+        <v>1</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P74" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>0</v>
+      </c>
+      <c r="R74" s="7">
+        <v>0</v>
+      </c>
+      <c r="S74" s="9">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U74" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V74" s="11">
+        <v>11</v>
+      </c>
+      <c r="W74" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X74" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y74" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG74" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK74" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR74" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G75" s="5">
+        <v>74</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L75" s="6">
+        <v>1140</v>
+      </c>
+      <c r="M75" s="7">
+        <v>197412.47</v>
+      </c>
+      <c r="N75" s="6">
+        <v>1</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P75" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>0</v>
+      </c>
+      <c r="R75" s="7">
+        <v>0</v>
+      </c>
+      <c r="S75" s="9">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U75" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V75" s="11">
+        <v>11</v>
+      </c>
+      <c r="W75" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X75" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y75" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG75" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK75" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM75" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR75" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G76" s="5">
+        <v>75</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L76" s="6">
+        <v>1141</v>
+      </c>
+      <c r="M76" s="7">
+        <v>197585.64</v>
+      </c>
+      <c r="N76" s="6">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P76" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>0</v>
+      </c>
+      <c r="R76" s="7">
+        <v>0</v>
+      </c>
+      <c r="S76" s="9">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U76" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V76" s="11">
+        <v>11</v>
+      </c>
+      <c r="W76" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X76" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y76" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG76" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR76" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G77" s="5">
+        <v>76</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L77" s="6">
+        <v>1142</v>
+      </c>
+      <c r="M77" s="7">
+        <v>197758.81</v>
+      </c>
+      <c r="N77" s="6">
+        <v>1</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P77" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q77" s="6">
+        <v>0</v>
+      </c>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="9">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U77" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V77" s="11">
+        <v>11</v>
+      </c>
+      <c r="W77" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X77" s="12">
+        <v>0.35763889999999998</v>
+      </c>
+      <c r="Y77" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG77" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ77" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR77" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G78" s="5">
+        <v>77</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L78" s="6">
+        <v>1143</v>
+      </c>
+      <c r="M78" s="7">
+        <v>197931.98</v>
+      </c>
+      <c r="N78" s="6">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P78" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q78" s="6">
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="9">
+        <v>0</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U78" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V78" s="11">
+        <v>11</v>
+      </c>
+      <c r="W78" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X78" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y78" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG78" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK78" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR78" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>1</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G79" s="5">
+        <v>78</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L79" s="6">
+        <v>1144</v>
+      </c>
+      <c r="M79" s="7">
+        <v>198105.15</v>
+      </c>
+      <c r="N79" s="6">
+        <v>1</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P79" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q79" s="6">
+        <v>0</v>
+      </c>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="9">
+        <v>0</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U79" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V79" s="11">
+        <v>11</v>
+      </c>
+      <c r="W79" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X79" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y79" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG79" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI79" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ79" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK79" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM79" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR79" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G80" s="5">
+        <v>79</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L80" s="6">
+        <v>1145</v>
+      </c>
+      <c r="M80" s="7">
+        <v>198278.31</v>
+      </c>
+      <c r="N80" s="6">
+        <v>1</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P80" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q80" s="6">
+        <v>0</v>
+      </c>
+      <c r="R80" s="7">
+        <v>0</v>
+      </c>
+      <c r="S80" s="9">
+        <v>0</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U80" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V80" s="11">
+        <v>11</v>
+      </c>
+      <c r="W80" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X80" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y80" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG80" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ80" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK80" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM80" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR80" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G81" s="5">
+        <v>80</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L81" s="6">
+        <v>1146</v>
+      </c>
+      <c r="M81" s="7">
+        <v>198451.48</v>
+      </c>
+      <c r="N81" s="6">
+        <v>1</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P81" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q81" s="6">
+        <v>0</v>
+      </c>
+      <c r="R81" s="7">
+        <v>0</v>
+      </c>
+      <c r="S81" s="9">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U81" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V81" s="11">
+        <v>11</v>
+      </c>
+      <c r="W81" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X81" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y81" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG81" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ81" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK81" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM81" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR81" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G82" s="5">
+        <v>81</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L82" s="6">
+        <v>1147</v>
+      </c>
+      <c r="M82" s="7">
+        <v>198624.65</v>
+      </c>
+      <c r="N82" s="6">
+        <v>1</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P82" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>0</v>
+      </c>
+      <c r="R82" s="7">
+        <v>0</v>
+      </c>
+      <c r="S82" s="9">
+        <v>0</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U82" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V82" s="11">
+        <v>11</v>
+      </c>
+      <c r="W82" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X82" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y82" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG82" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI82" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK82" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR82" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G83" s="5">
+        <v>82</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L83" s="6">
+        <v>1148</v>
+      </c>
+      <c r="M83" s="7">
+        <v>198797.82</v>
+      </c>
+      <c r="N83" s="6">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P83" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>0</v>
+      </c>
+      <c r="R83" s="7">
+        <v>0</v>
+      </c>
+      <c r="S83" s="9">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U83" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V83" s="11">
+        <v>11</v>
+      </c>
+      <c r="W83" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X83" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y83" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG83" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI83" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ83" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK83" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM83" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR83" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G84" s="5">
+        <v>83</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L84" s="6">
+        <v>1149</v>
+      </c>
+      <c r="M84" s="7">
+        <v>198970.99</v>
+      </c>
+      <c r="N84" s="6">
+        <v>1</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P84" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>0</v>
+      </c>
+      <c r="R84" s="7">
+        <v>0</v>
+      </c>
+      <c r="S84" s="9">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U84" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V84" s="11">
+        <v>11</v>
+      </c>
+      <c r="W84" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X84" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y84" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG84" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK84" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM84" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR84" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G85" s="5">
+        <v>84</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L85" s="6">
+        <v>1150</v>
+      </c>
+      <c r="M85" s="7">
+        <v>199144.16</v>
+      </c>
+      <c r="N85" s="6">
+        <v>1</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P85" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q85" s="6">
+        <v>0</v>
+      </c>
+      <c r="R85" s="7">
+        <v>0</v>
+      </c>
+      <c r="S85" s="9">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U85" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V85" s="11">
+        <v>11</v>
+      </c>
+      <c r="W85" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X85" s="12">
+        <v>0.35833330000000002</v>
+      </c>
+      <c r="Y85" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ85" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR85" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08113502-67D4-41FD-ADD5-A582937A138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62FCBB2-1E3F-4C15-834E-3F7A1E6270F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62FCBB2-1E3F-4C15-834E-3F7A1E6270F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A6EE6C3-5724-4649-A95D-FE91DED42A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A6EE6C3-5724-4649-A95D-FE91DED42A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0E79D77-341B-46A5-8028-6B3B8EF0B978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D44CEA1-D3AC-4B31-ACBD-10B1CAD02142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE891FC0-39B8-45F6-B623-99B068569785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4B8BD0B-F526-4922-BBF0-D24941440075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEF0CC19-AA9F-4948-949D-C30448CF60CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5642" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6092" uniqueCount="391">
   <si>
     <t>Sel</t>
   </si>
@@ -1119,6 +1119,81 @@
   <si>
     <t>7627600029366</t>
   </si>
+  <si>
+    <t>7627600029367</t>
+  </si>
+  <si>
+    <t>7627600029368</t>
+  </si>
+  <si>
+    <t>7627600029369</t>
+  </si>
+  <si>
+    <t>7627600029370</t>
+  </si>
+  <si>
+    <t>7627600029371</t>
+  </si>
+  <si>
+    <t>7627600029372</t>
+  </si>
+  <si>
+    <t>7627600029373</t>
+  </si>
+  <si>
+    <t>7627600029374</t>
+  </si>
+  <si>
+    <t>7627600029375</t>
+  </si>
+  <si>
+    <t>7627600029376</t>
+  </si>
+  <si>
+    <t>7627600029377</t>
+  </si>
+  <si>
+    <t>7627600029378</t>
+  </si>
+  <si>
+    <t>7627600029379</t>
+  </si>
+  <si>
+    <t>7627600029380</t>
+  </si>
+  <si>
+    <t>7627600029381</t>
+  </si>
+  <si>
+    <t>7627600029382</t>
+  </si>
+  <si>
+    <t>7627600029383</t>
+  </si>
+  <si>
+    <t>7627600029384</t>
+  </si>
+  <si>
+    <t>7627600029385</t>
+  </si>
+  <si>
+    <t>7627600029386</t>
+  </si>
+  <si>
+    <t>7627600029387</t>
+  </si>
+  <si>
+    <t>7627600029388</t>
+  </si>
+  <si>
+    <t>7627600029389</t>
+  </si>
+  <si>
+    <t>7627600029390</t>
+  </si>
+  <si>
+    <t>7627600029391</t>
+  </si>
 </sst>
 </file>
 
@@ -1693,7 +1768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR312"/>
+  <dimension ref="A1:AR337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -43507,6 +43582,3356 @@
         <v>365</v>
       </c>
     </row>
+    <row r="313" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>1</v>
+      </c>
+      <c r="B313" s="2">
+        <v>2</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F313" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G313" s="5">
+        <v>513</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L313" s="6">
+        <v>1365</v>
+      </c>
+      <c r="M313" s="7">
+        <v>236375.46</v>
+      </c>
+      <c r="N313" s="6">
+        <v>1</v>
+      </c>
+      <c r="O313" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P313" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q313" s="6">
+        <v>0</v>
+      </c>
+      <c r="R313" s="7">
+        <v>0</v>
+      </c>
+      <c r="S313" s="9">
+        <v>0</v>
+      </c>
+      <c r="T313" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U313" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V313" s="11">
+        <v>11</v>
+      </c>
+      <c r="W313" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X313" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y313" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z313" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA313" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB313" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC313" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD313" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE313" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF313" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG313" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH313" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI313" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ313" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK313" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL313" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM313" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN313" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO313" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP313" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ313" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR313" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="314" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>1</v>
+      </c>
+      <c r="B314" s="2">
+        <v>2</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F314" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G314" s="5">
+        <v>514</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L314" s="6">
+        <v>1366</v>
+      </c>
+      <c r="M314" s="7">
+        <v>236548.63</v>
+      </c>
+      <c r="N314" s="6">
+        <v>1</v>
+      </c>
+      <c r="O314" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P314" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q314" s="6">
+        <v>0</v>
+      </c>
+      <c r="R314" s="7">
+        <v>0</v>
+      </c>
+      <c r="S314" s="9">
+        <v>0</v>
+      </c>
+      <c r="T314" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U314" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V314" s="11">
+        <v>11</v>
+      </c>
+      <c r="W314" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X314" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y314" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z314" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA314" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB314" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC314" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD314" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE314" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF314" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG314" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH314" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI314" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ314" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK314" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL314" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM314" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN314" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO314" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP314" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ314" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR314" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="315" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>1</v>
+      </c>
+      <c r="B315" s="2">
+        <v>2</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F315" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G315" s="5">
+        <v>515</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L315" s="6">
+        <v>1367</v>
+      </c>
+      <c r="M315" s="7">
+        <v>236721.8</v>
+      </c>
+      <c r="N315" s="6">
+        <v>1</v>
+      </c>
+      <c r="O315" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P315" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q315" s="6">
+        <v>0</v>
+      </c>
+      <c r="R315" s="7">
+        <v>0</v>
+      </c>
+      <c r="S315" s="9">
+        <v>0</v>
+      </c>
+      <c r="T315" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U315" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V315" s="11">
+        <v>11</v>
+      </c>
+      <c r="W315" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X315" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y315" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z315" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA315" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB315" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC315" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD315" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE315" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF315" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG315" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH315" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI315" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ315" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK315" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL315" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM315" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN315" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO315" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP315" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ315" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR315" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="316" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>1</v>
+      </c>
+      <c r="B316" s="2">
+        <v>2</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F316" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G316" s="5">
+        <v>516</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L316" s="6">
+        <v>1368</v>
+      </c>
+      <c r="M316" s="7">
+        <v>236894.96</v>
+      </c>
+      <c r="N316" s="6">
+        <v>1</v>
+      </c>
+      <c r="O316" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P316" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q316" s="6">
+        <v>0</v>
+      </c>
+      <c r="R316" s="7">
+        <v>0</v>
+      </c>
+      <c r="S316" s="9">
+        <v>0</v>
+      </c>
+      <c r="T316" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U316" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V316" s="11">
+        <v>11</v>
+      </c>
+      <c r="W316" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X316" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y316" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z316" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA316" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB316" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC316" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD316" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE316" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF316" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG316" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH316" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI316" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ316" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK316" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL316" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM316" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN316" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO316" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP316" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ316" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR316" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="317" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>1</v>
+      </c>
+      <c r="B317" s="2">
+        <v>2</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F317" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G317" s="5">
+        <v>517</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L317" s="6">
+        <v>1369</v>
+      </c>
+      <c r="M317" s="7">
+        <v>237068.13</v>
+      </c>
+      <c r="N317" s="6">
+        <v>1</v>
+      </c>
+      <c r="O317" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P317" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q317" s="6">
+        <v>0</v>
+      </c>
+      <c r="R317" s="7">
+        <v>0</v>
+      </c>
+      <c r="S317" s="9">
+        <v>0</v>
+      </c>
+      <c r="T317" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U317" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V317" s="11">
+        <v>11</v>
+      </c>
+      <c r="W317" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X317" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y317" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z317" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA317" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB317" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC317" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD317" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE317" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF317" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG317" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH317" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI317" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ317" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK317" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL317" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM317" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN317" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO317" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP317" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ317" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR317" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="318" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>1</v>
+      </c>
+      <c r="B318" s="2">
+        <v>2</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F318" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G318" s="5">
+        <v>518</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K318" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L318" s="6">
+        <v>1370</v>
+      </c>
+      <c r="M318" s="7">
+        <v>237241.3</v>
+      </c>
+      <c r="N318" s="6">
+        <v>1</v>
+      </c>
+      <c r="O318" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P318" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q318" s="6">
+        <v>0</v>
+      </c>
+      <c r="R318" s="7">
+        <v>0</v>
+      </c>
+      <c r="S318" s="9">
+        <v>0</v>
+      </c>
+      <c r="T318" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U318" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V318" s="11">
+        <v>11</v>
+      </c>
+      <c r="W318" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X318" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y318" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z318" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA318" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB318" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC318" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD318" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE318" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF318" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG318" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH318" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI318" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ318" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK318" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL318" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM318" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN318" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO318" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP318" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ318" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR318" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="319" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>1</v>
+      </c>
+      <c r="B319" s="2">
+        <v>2</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F319" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G319" s="5">
+        <v>519</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L319" s="6">
+        <v>1371</v>
+      </c>
+      <c r="M319" s="7">
+        <v>237414.47</v>
+      </c>
+      <c r="N319" s="6">
+        <v>1</v>
+      </c>
+      <c r="O319" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P319" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q319" s="6">
+        <v>0</v>
+      </c>
+      <c r="R319" s="7">
+        <v>0</v>
+      </c>
+      <c r="S319" s="9">
+        <v>0</v>
+      </c>
+      <c r="T319" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U319" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V319" s="11">
+        <v>11</v>
+      </c>
+      <c r="W319" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X319" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y319" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z319" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA319" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB319" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC319" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD319" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE319" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF319" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG319" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH319" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI319" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ319" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK319" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL319" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM319" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN319" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO319" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP319" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ319" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR319" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="320" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>1</v>
+      </c>
+      <c r="B320" s="2">
+        <v>2</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F320" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G320" s="5">
+        <v>520</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K320" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L320" s="6">
+        <v>1372</v>
+      </c>
+      <c r="M320" s="7">
+        <v>237587.64</v>
+      </c>
+      <c r="N320" s="6">
+        <v>1</v>
+      </c>
+      <c r="O320" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P320" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q320" s="6">
+        <v>0</v>
+      </c>
+      <c r="R320" s="7">
+        <v>0</v>
+      </c>
+      <c r="S320" s="9">
+        <v>0</v>
+      </c>
+      <c r="T320" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U320" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V320" s="11">
+        <v>11</v>
+      </c>
+      <c r="W320" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X320" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y320" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z320" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA320" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB320" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC320" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD320" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE320" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF320" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG320" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH320" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI320" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ320" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK320" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL320" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM320" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN320" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO320" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP320" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ320" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR320" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="321" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>1</v>
+      </c>
+      <c r="B321" s="2">
+        <v>2</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F321" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G321" s="5">
+        <v>521</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K321" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L321" s="6">
+        <v>1373</v>
+      </c>
+      <c r="M321" s="7">
+        <v>237760.81</v>
+      </c>
+      <c r="N321" s="6">
+        <v>1</v>
+      </c>
+      <c r="O321" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P321" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q321" s="6">
+        <v>0</v>
+      </c>
+      <c r="R321" s="7">
+        <v>0</v>
+      </c>
+      <c r="S321" s="9">
+        <v>0</v>
+      </c>
+      <c r="T321" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U321" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V321" s="11">
+        <v>11</v>
+      </c>
+      <c r="W321" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X321" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y321" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z321" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA321" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB321" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC321" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD321" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE321" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF321" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG321" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH321" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI321" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ321" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK321" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL321" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM321" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN321" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO321" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP321" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ321" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR321" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="322" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>1</v>
+      </c>
+      <c r="B322" s="2">
+        <v>2</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F322" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G322" s="5">
+        <v>522</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K322" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L322" s="6">
+        <v>1374</v>
+      </c>
+      <c r="M322" s="7">
+        <v>237933.98</v>
+      </c>
+      <c r="N322" s="6">
+        <v>1</v>
+      </c>
+      <c r="O322" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P322" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q322" s="6">
+        <v>0</v>
+      </c>
+      <c r="R322" s="7">
+        <v>0</v>
+      </c>
+      <c r="S322" s="9">
+        <v>0</v>
+      </c>
+      <c r="T322" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U322" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V322" s="11">
+        <v>11</v>
+      </c>
+      <c r="W322" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X322" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y322" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z322" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA322" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB322" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC322" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD322" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE322" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF322" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG322" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH322" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI322" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ322" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK322" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL322" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM322" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN322" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO322" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP322" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ322" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR322" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="323" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>1</v>
+      </c>
+      <c r="B323" s="2">
+        <v>2</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F323" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G323" s="5">
+        <v>523</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L323" s="6">
+        <v>1375</v>
+      </c>
+      <c r="M323" s="7">
+        <v>238107.15</v>
+      </c>
+      <c r="N323" s="6">
+        <v>1</v>
+      </c>
+      <c r="O323" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P323" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q323" s="6">
+        <v>0</v>
+      </c>
+      <c r="R323" s="7">
+        <v>0</v>
+      </c>
+      <c r="S323" s="9">
+        <v>0</v>
+      </c>
+      <c r="T323" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U323" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V323" s="11">
+        <v>11</v>
+      </c>
+      <c r="W323" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X323" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y323" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z323" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA323" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB323" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC323" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD323" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE323" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF323" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG323" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH323" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI323" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ323" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK323" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL323" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM323" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN323" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO323" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP323" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ323" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR323" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="324" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>1</v>
+      </c>
+      <c r="B324" s="2">
+        <v>2</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F324" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G324" s="5">
+        <v>524</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L324" s="6">
+        <v>1376</v>
+      </c>
+      <c r="M324" s="7">
+        <v>238280.32000000001</v>
+      </c>
+      <c r="N324" s="6">
+        <v>1</v>
+      </c>
+      <c r="O324" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P324" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q324" s="6">
+        <v>0</v>
+      </c>
+      <c r="R324" s="7">
+        <v>0</v>
+      </c>
+      <c r="S324" s="9">
+        <v>0</v>
+      </c>
+      <c r="T324" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U324" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V324" s="11">
+        <v>11</v>
+      </c>
+      <c r="W324" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X324" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y324" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z324" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA324" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB324" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC324" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD324" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE324" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF324" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG324" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH324" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI324" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ324" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK324" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL324" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM324" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN324" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO324" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP324" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ324" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR324" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="325" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>1</v>
+      </c>
+      <c r="B325" s="2">
+        <v>2</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F325" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G325" s="5">
+        <v>525</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J325" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K325" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L325" s="6">
+        <v>1377</v>
+      </c>
+      <c r="M325" s="7">
+        <v>238453.48</v>
+      </c>
+      <c r="N325" s="6">
+        <v>1</v>
+      </c>
+      <c r="O325" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P325" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q325" s="6">
+        <v>0</v>
+      </c>
+      <c r="R325" s="7">
+        <v>0</v>
+      </c>
+      <c r="S325" s="9">
+        <v>0</v>
+      </c>
+      <c r="T325" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U325" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V325" s="11">
+        <v>11</v>
+      </c>
+      <c r="W325" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X325" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y325" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z325" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA325" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB325" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC325" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD325" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE325" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF325" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG325" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH325" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI325" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ325" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK325" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL325" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM325" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN325" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO325" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP325" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ325" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR325" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="326" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>1</v>
+      </c>
+      <c r="B326" s="2">
+        <v>2</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F326" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G326" s="5">
+        <v>526</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L326" s="6">
+        <v>1378</v>
+      </c>
+      <c r="M326" s="7">
+        <v>238626.65</v>
+      </c>
+      <c r="N326" s="6">
+        <v>1</v>
+      </c>
+      <c r="O326" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P326" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q326" s="6">
+        <v>0</v>
+      </c>
+      <c r="R326" s="7">
+        <v>0</v>
+      </c>
+      <c r="S326" s="9">
+        <v>0</v>
+      </c>
+      <c r="T326" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U326" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V326" s="11">
+        <v>11</v>
+      </c>
+      <c r="W326" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X326" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y326" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z326" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA326" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB326" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC326" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD326" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE326" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF326" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG326" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH326" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI326" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ326" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK326" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL326" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM326" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN326" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO326" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP326" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ326" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR326" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="327" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>1</v>
+      </c>
+      <c r="B327" s="2">
+        <v>2</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F327" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G327" s="5">
+        <v>527</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J327" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K327" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L327" s="6">
+        <v>1379</v>
+      </c>
+      <c r="M327" s="7">
+        <v>238799.82</v>
+      </c>
+      <c r="N327" s="6">
+        <v>1</v>
+      </c>
+      <c r="O327" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P327" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q327" s="6">
+        <v>0</v>
+      </c>
+      <c r="R327" s="7">
+        <v>0</v>
+      </c>
+      <c r="S327" s="9">
+        <v>0</v>
+      </c>
+      <c r="T327" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U327" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V327" s="11">
+        <v>11</v>
+      </c>
+      <c r="W327" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X327" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y327" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z327" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA327" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB327" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC327" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD327" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE327" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF327" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG327" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH327" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI327" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ327" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK327" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL327" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM327" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN327" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO327" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP327" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ327" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR327" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="328" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>1</v>
+      </c>
+      <c r="B328" s="2">
+        <v>2</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F328" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G328" s="5">
+        <v>528</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L328" s="6">
+        <v>1380</v>
+      </c>
+      <c r="M328" s="7">
+        <v>238972.99</v>
+      </c>
+      <c r="N328" s="6">
+        <v>1</v>
+      </c>
+      <c r="O328" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P328" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q328" s="6">
+        <v>0</v>
+      </c>
+      <c r="R328" s="7">
+        <v>0</v>
+      </c>
+      <c r="S328" s="9">
+        <v>0</v>
+      </c>
+      <c r="T328" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U328" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V328" s="11">
+        <v>11</v>
+      </c>
+      <c r="W328" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X328" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y328" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z328" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA328" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB328" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC328" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD328" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE328" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF328" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG328" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH328" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI328" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ328" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK328" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL328" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM328" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN328" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO328" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP328" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ328" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR328" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="329" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>1</v>
+      </c>
+      <c r="B329" s="2">
+        <v>2</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F329" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G329" s="5">
+        <v>529</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L329" s="6">
+        <v>1381</v>
+      </c>
+      <c r="M329" s="7">
+        <v>239146.16</v>
+      </c>
+      <c r="N329" s="6">
+        <v>1</v>
+      </c>
+      <c r="O329" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P329" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q329" s="6">
+        <v>0</v>
+      </c>
+      <c r="R329" s="7">
+        <v>0</v>
+      </c>
+      <c r="S329" s="9">
+        <v>0</v>
+      </c>
+      <c r="T329" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U329" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V329" s="11">
+        <v>11</v>
+      </c>
+      <c r="W329" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X329" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y329" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z329" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA329" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB329" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC329" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD329" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE329" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF329" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG329" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH329" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI329" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ329" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK329" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL329" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM329" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN329" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO329" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP329" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ329" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR329" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="330" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>1</v>
+      </c>
+      <c r="B330" s="2">
+        <v>2</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F330" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G330" s="5">
+        <v>530</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J330" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K330" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L330" s="6">
+        <v>1382</v>
+      </c>
+      <c r="M330" s="7">
+        <v>239319.33</v>
+      </c>
+      <c r="N330" s="6">
+        <v>1</v>
+      </c>
+      <c r="O330" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P330" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q330" s="6">
+        <v>0</v>
+      </c>
+      <c r="R330" s="7">
+        <v>0</v>
+      </c>
+      <c r="S330" s="9">
+        <v>0</v>
+      </c>
+      <c r="T330" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U330" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V330" s="11">
+        <v>11</v>
+      </c>
+      <c r="W330" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X330" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y330" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z330" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA330" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB330" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC330" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD330" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE330" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF330" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG330" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH330" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI330" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ330" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK330" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL330" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM330" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN330" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO330" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP330" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ330" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR330" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="331" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>1</v>
+      </c>
+      <c r="B331" s="2">
+        <v>2</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F331" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G331" s="5">
+        <v>531</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K331" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L331" s="6">
+        <v>1383</v>
+      </c>
+      <c r="M331" s="7">
+        <v>239492.5</v>
+      </c>
+      <c r="N331" s="6">
+        <v>1</v>
+      </c>
+      <c r="O331" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P331" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q331" s="6">
+        <v>0</v>
+      </c>
+      <c r="R331" s="7">
+        <v>0</v>
+      </c>
+      <c r="S331" s="9">
+        <v>0</v>
+      </c>
+      <c r="T331" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U331" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V331" s="11">
+        <v>11</v>
+      </c>
+      <c r="W331" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X331" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y331" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z331" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA331" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB331" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC331" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD331" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE331" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF331" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG331" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH331" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI331" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ331" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK331" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL331" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM331" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN331" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO331" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP331" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ331" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR331" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="332" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>1</v>
+      </c>
+      <c r="B332" s="2">
+        <v>2</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F332" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G332" s="5">
+        <v>532</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K332" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L332" s="6">
+        <v>1384</v>
+      </c>
+      <c r="M332" s="7">
+        <v>239665.67</v>
+      </c>
+      <c r="N332" s="6">
+        <v>1</v>
+      </c>
+      <c r="O332" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P332" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q332" s="6">
+        <v>0</v>
+      </c>
+      <c r="R332" s="7">
+        <v>0</v>
+      </c>
+      <c r="S332" s="9">
+        <v>0</v>
+      </c>
+      <c r="T332" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U332" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V332" s="11">
+        <v>11</v>
+      </c>
+      <c r="W332" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X332" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y332" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z332" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA332" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB332" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC332" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD332" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE332" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF332" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG332" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH332" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI332" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ332" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK332" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL332" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM332" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN332" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO332" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP332" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ332" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR332" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="333" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>1</v>
+      </c>
+      <c r="B333" s="2">
+        <v>2</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F333" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G333" s="5">
+        <v>533</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K333" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L333" s="6">
+        <v>1385</v>
+      </c>
+      <c r="M333" s="7">
+        <v>239838.84</v>
+      </c>
+      <c r="N333" s="6">
+        <v>1</v>
+      </c>
+      <c r="O333" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P333" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q333" s="6">
+        <v>0</v>
+      </c>
+      <c r="R333" s="7">
+        <v>0</v>
+      </c>
+      <c r="S333" s="9">
+        <v>0</v>
+      </c>
+      <c r="T333" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U333" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V333" s="11">
+        <v>11</v>
+      </c>
+      <c r="W333" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X333" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y333" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z333" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA333" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB333" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC333" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD333" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE333" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF333" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG333" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH333" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI333" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ333" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK333" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL333" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM333" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN333" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO333" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP333" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ333" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR333" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="334" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>1</v>
+      </c>
+      <c r="B334" s="2">
+        <v>2</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F334" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G334" s="5">
+        <v>534</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K334" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L334" s="6">
+        <v>1386</v>
+      </c>
+      <c r="M334" s="7">
+        <v>240012</v>
+      </c>
+      <c r="N334" s="6">
+        <v>1</v>
+      </c>
+      <c r="O334" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P334" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q334" s="6">
+        <v>0</v>
+      </c>
+      <c r="R334" s="7">
+        <v>0</v>
+      </c>
+      <c r="S334" s="9">
+        <v>0</v>
+      </c>
+      <c r="T334" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U334" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V334" s="11">
+        <v>11</v>
+      </c>
+      <c r="W334" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X334" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y334" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z334" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA334" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB334" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC334" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD334" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE334" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF334" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG334" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH334" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI334" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ334" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK334" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL334" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM334" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN334" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO334" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP334" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ334" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR334" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="335" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>1</v>
+      </c>
+      <c r="B335" s="2">
+        <v>2</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F335" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G335" s="5">
+        <v>535</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J335" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K335" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L335" s="6">
+        <v>1387</v>
+      </c>
+      <c r="M335" s="7">
+        <v>240185.17</v>
+      </c>
+      <c r="N335" s="6">
+        <v>1</v>
+      </c>
+      <c r="O335" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P335" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q335" s="6">
+        <v>0</v>
+      </c>
+      <c r="R335" s="7">
+        <v>0</v>
+      </c>
+      <c r="S335" s="9">
+        <v>0</v>
+      </c>
+      <c r="T335" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U335" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V335" s="11">
+        <v>11</v>
+      </c>
+      <c r="W335" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X335" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y335" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z335" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA335" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB335" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC335" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD335" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE335" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF335" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG335" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH335" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI335" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ335" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK335" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL335" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM335" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN335" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO335" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP335" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ335" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR335" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="336" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>1</v>
+      </c>
+      <c r="B336" s="2">
+        <v>2</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F336" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G336" s="5">
+        <v>536</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J336" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K336" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L336" s="6">
+        <v>1388</v>
+      </c>
+      <c r="M336" s="7">
+        <v>240358.34</v>
+      </c>
+      <c r="N336" s="6">
+        <v>1</v>
+      </c>
+      <c r="O336" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P336" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q336" s="6">
+        <v>0</v>
+      </c>
+      <c r="R336" s="7">
+        <v>0</v>
+      </c>
+      <c r="S336" s="9">
+        <v>0</v>
+      </c>
+      <c r="T336" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U336" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V336" s="11">
+        <v>11</v>
+      </c>
+      <c r="W336" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X336" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y336" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z336" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA336" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB336" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC336" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD336" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE336" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF336" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG336" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH336" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI336" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ336" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK336" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL336" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM336" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN336" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO336" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP336" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ336" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR336" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="337" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>1</v>
+      </c>
+      <c r="B337" s="2">
+        <v>2</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F337" s="4">
+        <v>46070</v>
+      </c>
+      <c r="G337" s="5">
+        <v>537</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J337" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K337" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L337" s="6">
+        <v>1389</v>
+      </c>
+      <c r="M337" s="7">
+        <v>240531.51</v>
+      </c>
+      <c r="N337" s="6">
+        <v>1</v>
+      </c>
+      <c r="O337" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P337" s="8">
+        <v>173.17</v>
+      </c>
+      <c r="Q337" s="6">
+        <v>0</v>
+      </c>
+      <c r="R337" s="7">
+        <v>0</v>
+      </c>
+      <c r="S337" s="9">
+        <v>0</v>
+      </c>
+      <c r="T337" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U337" s="10">
+        <v>62503</v>
+      </c>
+      <c r="V337" s="11">
+        <v>11</v>
+      </c>
+      <c r="W337" s="4">
+        <v>46070</v>
+      </c>
+      <c r="X337" s="12">
+        <v>0.56666669999999997</v>
+      </c>
+      <c r="Y337" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z337" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA337" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB337" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC337" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD337" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE337" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF337" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG337" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH337" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI337" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ337" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK337" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL337" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM337" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN337" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO337" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP337" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ337" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR337" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D41102C6-304E-4A3C-8E57-5FBCEA50163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F7F0B38-B3D3-4FD2-B743-ADBE8E1E1DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBCB8317-9117-4E9A-BD95-54F83FDDDB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74F00172-15E2-4FB6-8242-B06A8E4923B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/movimentos_estoque_dados.xlsx
+++ b/movimentos_estoque_dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jucieli\Desktop\automacao_senior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3E83456-B297-4541-89DD-36707924B441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8666A1-5292-42A9-AA29-0F89002D9520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="216">
   <si>
     <t>Sel</t>
   </si>
@@ -481,16 +481,133 @@
     <t>1854300111955</t>
   </si>
   <si>
+    <t>1854300111956</t>
+  </si>
+  <si>
+    <t>1854300111957</t>
+  </si>
+  <si>
+    <t>1854300111958</t>
+  </si>
+  <si>
+    <t>1854300111959</t>
+  </si>
+  <si>
+    <t>1854300111960</t>
+  </si>
+  <si>
+    <t>1854300111961</t>
+  </si>
+  <si>
+    <t>1854300111962</t>
+  </si>
+  <si>
+    <t>1854300111963</t>
+  </si>
+  <si>
+    <t>1854300111964</t>
+  </si>
+  <si>
+    <t>1854300111965</t>
+  </si>
+  <si>
+    <t>1854300111966</t>
+  </si>
+  <si>
+    <t>1854300111967</t>
+  </si>
+  <si>
+    <t>1854300111968</t>
+  </si>
+  <si>
+    <t>1854300111969</t>
+  </si>
+  <si>
+    <t>1854300111970</t>
+  </si>
+  <si>
+    <t>1854300111971</t>
+  </si>
+  <si>
+    <t>1854300111972</t>
+  </si>
+  <si>
+    <t>1854300111973</t>
+  </si>
+  <si>
+    <t>1854300111974</t>
+  </si>
+  <si>
+    <t>1854300111975</t>
+  </si>
+  <si>
+    <t>1854300111976</t>
+  </si>
+  <si>
+    <t>1854300111977</t>
+  </si>
+  <si>
+    <t>1854300111978</t>
+  </si>
+  <si>
+    <t>1854300111979</t>
+  </si>
+  <si>
+    <t>1854300111980</t>
+  </si>
+  <si>
+    <t>1854300111981</t>
+  </si>
+  <si>
+    <t>1854300111982</t>
+  </si>
+  <si>
+    <t>1854300111983</t>
+  </si>
+  <si>
+    <t>1854300111984</t>
+  </si>
+  <si>
+    <t>1854300111985</t>
+  </si>
+  <si>
+    <t>1854300111986</t>
+  </si>
+  <si>
+    <t>1854300111987</t>
+  </si>
+  <si>
+    <t>1854300111988</t>
+  </si>
+  <si>
     <t>10016354</t>
+  </si>
+  <si>
+    <t>FORNO ELETRICO NARDELLI EMBUTIR 60L BLACK - NARDELLI EMBUTIR 60L BLACK - 127 V</t>
+  </si>
+  <si>
+    <t>FORNOE</t>
+  </si>
+  <si>
+    <t>1871400009049</t>
+  </si>
+  <si>
+    <t>1871400009050</t>
+  </si>
+  <si>
+    <t>1871400009051</t>
+  </si>
+  <si>
+    <t>1871400009052</t>
+  </si>
+  <si>
+    <t>1871400009053</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
     <t>FORNO ELETRICO NARDELLI EMBUTIR 60L BLACK - NARDELLI EMBUTIR 60L BLACK - 220 V</t>
-  </si>
-  <si>
-    <t>FORNOE</t>
   </si>
   <si>
     <t>1871600007298</t>
@@ -539,6 +656,18 @@
   </si>
   <si>
     <t>1871600007313</t>
+  </si>
+  <si>
+    <t>1871600007314</t>
+  </si>
+  <si>
+    <t>1871600007315</t>
+  </si>
+  <si>
+    <t>1871600007316</t>
+  </si>
+  <si>
+    <t>1871600007317</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR115"/>
+  <dimension ref="A1:AR157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14394,10 +14523,10 @@
         <v>2</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>46</v>
@@ -14406,7 +14535,7 @@
         <v>46073</v>
       </c>
       <c r="G100" s="5">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>47</v>
@@ -14421,19 +14550,19 @@
         <v>50</v>
       </c>
       <c r="L100" s="6">
-        <v>274</v>
+        <v>4923</v>
       </c>
       <c r="M100" s="7">
-        <v>111425.64</v>
+        <v>873366.17</v>
       </c>
       <c r="N100" s="6">
         <v>1</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P100" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q100" s="6">
         <v>0</v>
@@ -14448,7 +14577,7 @@
         <v>52</v>
       </c>
       <c r="U100" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V100" s="11">
         <v>11</v>
@@ -14457,7 +14586,7 @@
         <v>46073</v>
       </c>
       <c r="X100" s="12">
-        <v>0.31388890000000003</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y100" s="10">
         <v>0</v>
@@ -14490,7 +14619,7 @@
         <v>53</v>
       </c>
       <c r="AI100" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ100" s="3" t="s">
         <v>52</v>
@@ -14517,7 +14646,7 @@
         <v>53</v>
       </c>
       <c r="AR100" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.3">
@@ -14528,10 +14657,10 @@
         <v>2</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>46</v>
@@ -14540,7 +14669,7 @@
         <v>46073</v>
       </c>
       <c r="G101" s="5">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>47</v>
@@ -14555,19 +14684,19 @@
         <v>50</v>
       </c>
       <c r="L101" s="6">
-        <v>275</v>
+        <v>4924</v>
       </c>
       <c r="M101" s="7">
-        <v>111832.3</v>
+        <v>873543.57</v>
       </c>
       <c r="N101" s="6">
         <v>1</v>
       </c>
       <c r="O101" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P101" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q101" s="6">
         <v>0</v>
@@ -14582,7 +14711,7 @@
         <v>52</v>
       </c>
       <c r="U101" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V101" s="11">
         <v>11</v>
@@ -14591,7 +14720,7 @@
         <v>46073</v>
       </c>
       <c r="X101" s="12">
-        <v>0.31388890000000003</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y101" s="10">
         <v>0</v>
@@ -14624,7 +14753,7 @@
         <v>53</v>
       </c>
       <c r="AI101" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ101" s="3" t="s">
         <v>52</v>
@@ -14651,7 +14780,7 @@
         <v>53</v>
       </c>
       <c r="AR101" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.3">
@@ -14662,10 +14791,10 @@
         <v>2</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>46</v>
@@ -14674,7 +14803,7 @@
         <v>46073</v>
       </c>
       <c r="G102" s="5">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>47</v>
@@ -14689,19 +14818,19 @@
         <v>50</v>
       </c>
       <c r="L102" s="6">
-        <v>276</v>
+        <v>4925</v>
       </c>
       <c r="M102" s="7">
-        <v>112238.96</v>
+        <v>873720.98</v>
       </c>
       <c r="N102" s="6">
         <v>1</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P102" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q102" s="6">
         <v>0</v>
@@ -14716,7 +14845,7 @@
         <v>52</v>
       </c>
       <c r="U102" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V102" s="11">
         <v>11</v>
@@ -14725,7 +14854,7 @@
         <v>46073</v>
       </c>
       <c r="X102" s="12">
-        <v>0.31388890000000003</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y102" s="10">
         <v>0</v>
@@ -14758,7 +14887,7 @@
         <v>53</v>
       </c>
       <c r="AI102" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ102" s="3" t="s">
         <v>52</v>
@@ -14785,7 +14914,7 @@
         <v>53</v>
       </c>
       <c r="AR102" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.3">
@@ -14796,10 +14925,10 @@
         <v>2</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>46</v>
@@ -14808,7 +14937,7 @@
         <v>46073</v>
       </c>
       <c r="G103" s="5">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>47</v>
@@ -14823,19 +14952,19 @@
         <v>50</v>
       </c>
       <c r="L103" s="6">
-        <v>277</v>
+        <v>4926</v>
       </c>
       <c r="M103" s="7">
-        <v>112645.63</v>
+        <v>873898.38</v>
       </c>
       <c r="N103" s="6">
         <v>1</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P103" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q103" s="6">
         <v>0</v>
@@ -14850,7 +14979,7 @@
         <v>52</v>
       </c>
       <c r="U103" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V103" s="11">
         <v>11</v>
@@ -14859,7 +14988,7 @@
         <v>46073</v>
       </c>
       <c r="X103" s="12">
-        <v>0.31388890000000003</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y103" s="10">
         <v>0</v>
@@ -14892,34 +15021,34 @@
         <v>53</v>
       </c>
       <c r="AI103" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ103" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK103" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL103" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM103" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR103" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="AJ103" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK103" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL103" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM103" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN103" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO103" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP103" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ103" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR103" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.3">
@@ -14930,10 +15059,10 @@
         <v>2</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>46</v>
@@ -14942,7 +15071,7 @@
         <v>46073</v>
       </c>
       <c r="G104" s="5">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>47</v>
@@ -14957,19 +15086,19 @@
         <v>50</v>
       </c>
       <c r="L104" s="6">
-        <v>278</v>
+        <v>4927</v>
       </c>
       <c r="M104" s="7">
-        <v>113052.29</v>
+        <v>874075.79</v>
       </c>
       <c r="N104" s="6">
         <v>1</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P104" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q104" s="6">
         <v>0</v>
@@ -14984,7 +15113,7 @@
         <v>52</v>
       </c>
       <c r="U104" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V104" s="11">
         <v>11</v>
@@ -14993,7 +15122,7 @@
         <v>46073</v>
       </c>
       <c r="X104" s="12">
-        <v>0.31388890000000003</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y104" s="10">
         <v>0</v>
@@ -15026,7 +15155,7 @@
         <v>53</v>
       </c>
       <c r="AI104" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ104" s="3" t="s">
         <v>52</v>
@@ -15053,7 +15182,7 @@
         <v>53</v>
       </c>
       <c r="AR104" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.3">
@@ -15064,10 +15193,10 @@
         <v>2</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>46</v>
@@ -15076,7 +15205,7 @@
         <v>46073</v>
       </c>
       <c r="G105" s="5">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>47</v>
@@ -15091,19 +15220,19 @@
         <v>50</v>
       </c>
       <c r="L105" s="6">
-        <v>279</v>
+        <v>4928</v>
       </c>
       <c r="M105" s="7">
-        <v>113458.95</v>
+        <v>874253.19</v>
       </c>
       <c r="N105" s="6">
         <v>1</v>
       </c>
       <c r="O105" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P105" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q105" s="6">
         <v>0</v>
@@ -15118,7 +15247,7 @@
         <v>52</v>
       </c>
       <c r="U105" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V105" s="11">
         <v>11</v>
@@ -15127,7 +15256,7 @@
         <v>46073</v>
       </c>
       <c r="X105" s="12">
-        <v>0.31388890000000003</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y105" s="10">
         <v>0</v>
@@ -15160,7 +15289,7 @@
         <v>53</v>
       </c>
       <c r="AI105" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ105" s="3" t="s">
         <v>52</v>
@@ -15187,7 +15316,7 @@
         <v>53</v>
       </c>
       <c r="AR105" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.3">
@@ -15198,10 +15327,10 @@
         <v>2</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>46</v>
@@ -15210,7 +15339,7 @@
         <v>46073</v>
       </c>
       <c r="G106" s="5">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>47</v>
@@ -15225,19 +15354,19 @@
         <v>50</v>
       </c>
       <c r="L106" s="6">
-        <v>280</v>
+        <v>4929</v>
       </c>
       <c r="M106" s="7">
-        <v>113865.61</v>
+        <v>874430.6</v>
       </c>
       <c r="N106" s="6">
         <v>1</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P106" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q106" s="6">
         <v>0</v>
@@ -15252,7 +15381,7 @@
         <v>52</v>
       </c>
       <c r="U106" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V106" s="11">
         <v>11</v>
@@ -15261,7 +15390,7 @@
         <v>46073</v>
       </c>
       <c r="X106" s="12">
-        <v>0.38402779999999997</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y106" s="10">
         <v>0</v>
@@ -15294,7 +15423,7 @@
         <v>53</v>
       </c>
       <c r="AI106" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ106" s="3" t="s">
         <v>52</v>
@@ -15321,7 +15450,7 @@
         <v>53</v>
       </c>
       <c r="AR106" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.3">
@@ -15332,10 +15461,10 @@
         <v>2</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>46</v>
@@ -15344,7 +15473,7 @@
         <v>46073</v>
       </c>
       <c r="G107" s="5">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>47</v>
@@ -15359,19 +15488,19 @@
         <v>50</v>
       </c>
       <c r="L107" s="6">
-        <v>281</v>
+        <v>4930</v>
       </c>
       <c r="M107" s="7">
-        <v>114272.28</v>
+        <v>874608</v>
       </c>
       <c r="N107" s="6">
         <v>1</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P107" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q107" s="6">
         <v>0</v>
@@ -15386,7 +15515,7 @@
         <v>52</v>
       </c>
       <c r="U107" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V107" s="11">
         <v>11</v>
@@ -15395,7 +15524,7 @@
         <v>46073</v>
       </c>
       <c r="X107" s="12">
-        <v>0.38402779999999997</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y107" s="10">
         <v>0</v>
@@ -15428,7 +15557,7 @@
         <v>53</v>
       </c>
       <c r="AI107" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ107" s="3" t="s">
         <v>52</v>
@@ -15455,7 +15584,7 @@
         <v>53</v>
       </c>
       <c r="AR107" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.3">
@@ -15466,10 +15595,10 @@
         <v>2</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>46</v>
@@ -15478,7 +15607,7 @@
         <v>46073</v>
       </c>
       <c r="G108" s="5">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>47</v>
@@ -15493,19 +15622,19 @@
         <v>50</v>
       </c>
       <c r="L108" s="6">
-        <v>282</v>
+        <v>4931</v>
       </c>
       <c r="M108" s="7">
-        <v>114678.94</v>
+        <v>874785.41</v>
       </c>
       <c r="N108" s="6">
         <v>1</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P108" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q108" s="6">
         <v>0</v>
@@ -15520,7 +15649,7 @@
         <v>52</v>
       </c>
       <c r="U108" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V108" s="11">
         <v>11</v>
@@ -15529,7 +15658,7 @@
         <v>46073</v>
       </c>
       <c r="X108" s="12">
-        <v>0.38402779999999997</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y108" s="10">
         <v>0</v>
@@ -15562,7 +15691,7 @@
         <v>53</v>
       </c>
       <c r="AI108" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ108" s="3" t="s">
         <v>52</v>
@@ -15589,7 +15718,7 @@
         <v>53</v>
       </c>
       <c r="AR108" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.3">
@@ -15600,10 +15729,10 @@
         <v>2</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>46</v>
@@ -15612,7 +15741,7 @@
         <v>46073</v>
       </c>
       <c r="G109" s="5">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>47</v>
@@ -15627,19 +15756,19 @@
         <v>50</v>
       </c>
       <c r="L109" s="6">
-        <v>283</v>
+        <v>4932</v>
       </c>
       <c r="M109" s="7">
-        <v>115085.6</v>
+        <v>874962.81</v>
       </c>
       <c r="N109" s="6">
         <v>1</v>
       </c>
       <c r="O109" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P109" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q109" s="6">
         <v>0</v>
@@ -15654,7 +15783,7 @@
         <v>52</v>
       </c>
       <c r="U109" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V109" s="11">
         <v>11</v>
@@ -15663,7 +15792,7 @@
         <v>46073</v>
       </c>
       <c r="X109" s="12">
-        <v>0.38402779999999997</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y109" s="10">
         <v>0</v>
@@ -15696,7 +15825,7 @@
         <v>53</v>
       </c>
       <c r="AI109" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ109" s="3" t="s">
         <v>52</v>
@@ -15723,7 +15852,7 @@
         <v>53</v>
       </c>
       <c r="AR109" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.3">
@@ -15734,10 +15863,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>46</v>
@@ -15746,7 +15875,7 @@
         <v>46073</v>
       </c>
       <c r="G110" s="5">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>47</v>
@@ -15761,19 +15890,19 @@
         <v>50</v>
       </c>
       <c r="L110" s="6">
-        <v>284</v>
+        <v>4933</v>
       </c>
       <c r="M110" s="7">
-        <v>115492.27</v>
+        <v>875140.22</v>
       </c>
       <c r="N110" s="6">
         <v>1</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P110" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q110" s="6">
         <v>0</v>
@@ -15788,7 +15917,7 @@
         <v>52</v>
       </c>
       <c r="U110" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V110" s="11">
         <v>11</v>
@@ -15797,7 +15926,7 @@
         <v>46073</v>
       </c>
       <c r="X110" s="12">
-        <v>0.38402779999999997</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y110" s="10">
         <v>0</v>
@@ -15830,7 +15959,7 @@
         <v>53</v>
       </c>
       <c r="AI110" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ110" s="3" t="s">
         <v>52</v>
@@ -15857,7 +15986,7 @@
         <v>53</v>
       </c>
       <c r="AR110" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.3">
@@ -15868,10 +15997,10 @@
         <v>2</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>46</v>
@@ -15880,7 +16009,7 @@
         <v>46073</v>
       </c>
       <c r="G111" s="5">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>47</v>
@@ -15895,19 +16024,19 @@
         <v>50</v>
       </c>
       <c r="L111" s="6">
-        <v>285</v>
+        <v>4934</v>
       </c>
       <c r="M111" s="7">
-        <v>115898.93</v>
+        <v>875317.62</v>
       </c>
       <c r="N111" s="6">
         <v>1</v>
       </c>
       <c r="O111" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P111" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q111" s="6">
         <v>0</v>
@@ -15922,7 +16051,7 @@
         <v>52</v>
       </c>
       <c r="U111" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V111" s="11">
         <v>11</v>
@@ -15931,7 +16060,7 @@
         <v>46073</v>
       </c>
       <c r="X111" s="12">
-        <v>0.38402779999999997</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y111" s="10">
         <v>0</v>
@@ -15964,7 +16093,7 @@
         <v>53</v>
       </c>
       <c r="AI111" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ111" s="3" t="s">
         <v>52</v>
@@ -15991,7 +16120,7 @@
         <v>53</v>
       </c>
       <c r="AR111" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.3">
@@ -16002,10 +16131,10 @@
         <v>2</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>46</v>
@@ -16014,7 +16143,7 @@
         <v>46073</v>
       </c>
       <c r="G112" s="5">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>47</v>
@@ -16029,19 +16158,19 @@
         <v>50</v>
       </c>
       <c r="L112" s="6">
-        <v>286</v>
+        <v>4935</v>
       </c>
       <c r="M112" s="7">
-        <v>116305.59</v>
+        <v>875495.03</v>
       </c>
       <c r="N112" s="6">
         <v>1</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P112" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q112" s="6">
         <v>0</v>
@@ -16056,7 +16185,7 @@
         <v>52</v>
       </c>
       <c r="U112" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V112" s="11">
         <v>11</v>
@@ -16065,7 +16194,7 @@
         <v>46073</v>
       </c>
       <c r="X112" s="12">
-        <v>0.38402779999999997</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y112" s="10">
         <v>0</v>
@@ -16098,7 +16227,7 @@
         <v>53</v>
       </c>
       <c r="AI112" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ112" s="3" t="s">
         <v>52</v>
@@ -16125,7 +16254,7 @@
         <v>53</v>
       </c>
       <c r="AR112" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:44" x14ac:dyDescent="0.3">
@@ -16136,10 +16265,10 @@
         <v>2</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>46</v>
@@ -16148,7 +16277,7 @@
         <v>46073</v>
       </c>
       <c r="G113" s="5">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>47</v>
@@ -16163,19 +16292,19 @@
         <v>50</v>
       </c>
       <c r="L113" s="6">
-        <v>287</v>
+        <v>4936</v>
       </c>
       <c r="M113" s="7">
-        <v>116712.25</v>
+        <v>875672.43</v>
       </c>
       <c r="N113" s="6">
         <v>1</v>
       </c>
       <c r="O113" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P113" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q113" s="6">
         <v>0</v>
@@ -16190,7 +16319,7 @@
         <v>52</v>
       </c>
       <c r="U113" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V113" s="11">
         <v>11</v>
@@ -16199,7 +16328,7 @@
         <v>46073</v>
       </c>
       <c r="X113" s="12">
-        <v>0.38402779999999997</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y113" s="10">
         <v>0</v>
@@ -16232,7 +16361,7 @@
         <v>53</v>
       </c>
       <c r="AI113" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ113" s="3" t="s">
         <v>52</v>
@@ -16259,7 +16388,7 @@
         <v>53</v>
       </c>
       <c r="AR113" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.3">
@@ -16270,10 +16399,10 @@
         <v>2</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>46</v>
@@ -16282,7 +16411,7 @@
         <v>46073</v>
       </c>
       <c r="G114" s="5">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>47</v>
@@ -16297,19 +16426,19 @@
         <v>50</v>
       </c>
       <c r="L114" s="6">
-        <v>288</v>
+        <v>4937</v>
       </c>
       <c r="M114" s="7">
-        <v>117118.92</v>
+        <v>875849.84</v>
       </c>
       <c r="N114" s="6">
         <v>1</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P114" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q114" s="6">
         <v>0</v>
@@ -16324,7 +16453,7 @@
         <v>52</v>
       </c>
       <c r="U114" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V114" s="11">
         <v>11</v>
@@ -16333,7 +16462,7 @@
         <v>46073</v>
       </c>
       <c r="X114" s="12">
-        <v>0.38402779999999997</v>
+        <v>0.42222219999999999</v>
       </c>
       <c r="Y114" s="10">
         <v>0</v>
@@ -16366,7 +16495,7 @@
         <v>53</v>
       </c>
       <c r="AI114" s="3" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="AJ114" s="3" t="s">
         <v>52</v>
@@ -16393,7 +16522,7 @@
         <v>53</v>
       </c>
       <c r="AR114" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:44" x14ac:dyDescent="0.3">
@@ -16404,10 +16533,10 @@
         <v>2</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>46</v>
@@ -16416,7 +16545,7 @@
         <v>46073</v>
       </c>
       <c r="G115" s="5">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>47</v>
@@ -16431,19 +16560,19 @@
         <v>50</v>
       </c>
       <c r="L115" s="6">
-        <v>289</v>
+        <v>4938</v>
       </c>
       <c r="M115" s="7">
-        <v>117525.58</v>
+        <v>876027.24</v>
       </c>
       <c r="N115" s="6">
         <v>1</v>
       </c>
       <c r="O115" s="3" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="P115" s="8">
-        <v>406.66</v>
+        <v>177.41</v>
       </c>
       <c r="Q115" s="6">
         <v>0</v>
@@ -16458,7 +16587,7 @@
         <v>52</v>
       </c>
       <c r="U115" s="10">
-        <v>62658</v>
+        <v>62688</v>
       </c>
       <c r="V115" s="11">
         <v>11</v>
@@ -16467,67 +16596,5695 @@
         <v>46073</v>
       </c>
       <c r="X115" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y115" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG115" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI115" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ115" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK115" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM115" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR115" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F116" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G116" s="5">
+        <v>117</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L116" s="6">
+        <v>4939</v>
+      </c>
+      <c r="M116" s="7">
+        <v>876204.65</v>
+      </c>
+      <c r="N116" s="6">
+        <v>1</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P116" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q116" s="6">
+        <v>0</v>
+      </c>
+      <c r="R116" s="7">
+        <v>0</v>
+      </c>
+      <c r="S116" s="9">
+        <v>0</v>
+      </c>
+      <c r="T116" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U116" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V116" s="11">
+        <v>11</v>
+      </c>
+      <c r="W116" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X116" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y116" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG116" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI116" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ116" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK116" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM116" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR116" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>1</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F117" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G117" s="5">
+        <v>118</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L117" s="6">
+        <v>4940</v>
+      </c>
+      <c r="M117" s="7">
+        <v>876382.06</v>
+      </c>
+      <c r="N117" s="6">
+        <v>1</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P117" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q117" s="6">
+        <v>0</v>
+      </c>
+      <c r="R117" s="7">
+        <v>0</v>
+      </c>
+      <c r="S117" s="9">
+        <v>0</v>
+      </c>
+      <c r="T117" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U117" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V117" s="11">
+        <v>11</v>
+      </c>
+      <c r="W117" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X117" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y117" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD117" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE117" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG117" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI117" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ117" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK117" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL117" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM117" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR117" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>1</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F118" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G118" s="5">
+        <v>119</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L118" s="6">
+        <v>4941</v>
+      </c>
+      <c r="M118" s="7">
+        <v>876559.46</v>
+      </c>
+      <c r="N118" s="6">
+        <v>1</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P118" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q118" s="6">
+        <v>0</v>
+      </c>
+      <c r="R118" s="7">
+        <v>0</v>
+      </c>
+      <c r="S118" s="9">
+        <v>0</v>
+      </c>
+      <c r="T118" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U118" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V118" s="11">
+        <v>11</v>
+      </c>
+      <c r="W118" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X118" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y118" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC118" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD118" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE118" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG118" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI118" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ118" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK118" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL118" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM118" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR118" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F119" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G119" s="5">
+        <v>120</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L119" s="6">
+        <v>4942</v>
+      </c>
+      <c r="M119" s="7">
+        <v>876736.87</v>
+      </c>
+      <c r="N119" s="6">
+        <v>1</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P119" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q119" s="6">
+        <v>0</v>
+      </c>
+      <c r="R119" s="7">
+        <v>0</v>
+      </c>
+      <c r="S119" s="9">
+        <v>0</v>
+      </c>
+      <c r="T119" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U119" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V119" s="11">
+        <v>11</v>
+      </c>
+      <c r="W119" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X119" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y119" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC119" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD119" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE119" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG119" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI119" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ119" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK119" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL119" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM119" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ119" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR119" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>1</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G120" s="5">
+        <v>121</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L120" s="6">
+        <v>4943</v>
+      </c>
+      <c r="M120" s="7">
+        <v>876914.27</v>
+      </c>
+      <c r="N120" s="6">
+        <v>1</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P120" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q120" s="6">
+        <v>0</v>
+      </c>
+      <c r="R120" s="7">
+        <v>0</v>
+      </c>
+      <c r="S120" s="9">
+        <v>0</v>
+      </c>
+      <c r="T120" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U120" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V120" s="11">
+        <v>11</v>
+      </c>
+      <c r="W120" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X120" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y120" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z120" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI120" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ120" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK120" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL120" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM120" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ120" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR120" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F121" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G121" s="5">
+        <v>122</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L121" s="6">
+        <v>4944</v>
+      </c>
+      <c r="M121" s="7">
+        <v>877091.68</v>
+      </c>
+      <c r="N121" s="6">
+        <v>1</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P121" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q121" s="6">
+        <v>0</v>
+      </c>
+      <c r="R121" s="7">
+        <v>0</v>
+      </c>
+      <c r="S121" s="9">
+        <v>0</v>
+      </c>
+      <c r="T121" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U121" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V121" s="11">
+        <v>11</v>
+      </c>
+      <c r="W121" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X121" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y121" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z121" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA121" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC121" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD121" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE121" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG121" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI121" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ121" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK121" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL121" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM121" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR121" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>1</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F122" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G122" s="5">
+        <v>123</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L122" s="6">
+        <v>4945</v>
+      </c>
+      <c r="M122" s="7">
+        <v>877269.08</v>
+      </c>
+      <c r="N122" s="6">
+        <v>1</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P122" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q122" s="6">
+        <v>0</v>
+      </c>
+      <c r="R122" s="7">
+        <v>0</v>
+      </c>
+      <c r="S122" s="9">
+        <v>0</v>
+      </c>
+      <c r="T122" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U122" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V122" s="11">
+        <v>11</v>
+      </c>
+      <c r="W122" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X122" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y122" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z122" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA122" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC122" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD122" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE122" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG122" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI122" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ122" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK122" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL122" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM122" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ122" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR122" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F123" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G123" s="5">
+        <v>124</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L123" s="6">
+        <v>4946</v>
+      </c>
+      <c r="M123" s="7">
+        <v>877446.49</v>
+      </c>
+      <c r="N123" s="6">
+        <v>1</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P123" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q123" s="6">
+        <v>0</v>
+      </c>
+      <c r="R123" s="7">
+        <v>0</v>
+      </c>
+      <c r="S123" s="9">
+        <v>0</v>
+      </c>
+      <c r="T123" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U123" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V123" s="11">
+        <v>11</v>
+      </c>
+      <c r="W123" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X123" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y123" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC123" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD123" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE123" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG123" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI123" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ123" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK123" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL123" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM123" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ123" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR123" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>1</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G124" s="5">
+        <v>125</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L124" s="6">
+        <v>4947</v>
+      </c>
+      <c r="M124" s="7">
+        <v>877623.89</v>
+      </c>
+      <c r="N124" s="6">
+        <v>1</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P124" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q124" s="6">
+        <v>0</v>
+      </c>
+      <c r="R124" s="7">
+        <v>0</v>
+      </c>
+      <c r="S124" s="9">
+        <v>0</v>
+      </c>
+      <c r="T124" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U124" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V124" s="11">
+        <v>11</v>
+      </c>
+      <c r="W124" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X124" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y124" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z124" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC124" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD124" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE124" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG124" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI124" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ124" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK124" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL124" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM124" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR124" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>1</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F125" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G125" s="5">
+        <v>126</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L125" s="6">
+        <v>4948</v>
+      </c>
+      <c r="M125" s="7">
+        <v>877801.3</v>
+      </c>
+      <c r="N125" s="6">
+        <v>1</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P125" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q125" s="6">
+        <v>0</v>
+      </c>
+      <c r="R125" s="7">
+        <v>0</v>
+      </c>
+      <c r="S125" s="9">
+        <v>0</v>
+      </c>
+      <c r="T125" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U125" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V125" s="11">
+        <v>11</v>
+      </c>
+      <c r="W125" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X125" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y125" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z125" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD125" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE125" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG125" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI125" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ125" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK125" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL125" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM125" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR125" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>1</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F126" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G126" s="5">
+        <v>127</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L126" s="6">
+        <v>4949</v>
+      </c>
+      <c r="M126" s="7">
+        <v>877978.7</v>
+      </c>
+      <c r="N126" s="6">
+        <v>1</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P126" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q126" s="6">
+        <v>0</v>
+      </c>
+      <c r="R126" s="7">
+        <v>0</v>
+      </c>
+      <c r="S126" s="9">
+        <v>0</v>
+      </c>
+      <c r="T126" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U126" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V126" s="11">
+        <v>11</v>
+      </c>
+      <c r="W126" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X126" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y126" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z126" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA126" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB126" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC126" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD126" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE126" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG126" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI126" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ126" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK126" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL126" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM126" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR126" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>1</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F127" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G127" s="5">
+        <v>128</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L127" s="6">
+        <v>4950</v>
+      </c>
+      <c r="M127" s="7">
+        <v>878156.11</v>
+      </c>
+      <c r="N127" s="6">
+        <v>1</v>
+      </c>
+      <c r="O127" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P127" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q127" s="6">
+        <v>0</v>
+      </c>
+      <c r="R127" s="7">
+        <v>0</v>
+      </c>
+      <c r="S127" s="9">
+        <v>0</v>
+      </c>
+      <c r="T127" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U127" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V127" s="11">
+        <v>11</v>
+      </c>
+      <c r="W127" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X127" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y127" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z127" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC127" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD127" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE127" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG127" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI127" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ127" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK127" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL127" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM127" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR127" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>1</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F128" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G128" s="5">
+        <v>129</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L128" s="6">
+        <v>4951</v>
+      </c>
+      <c r="M128" s="7">
+        <v>878333.51</v>
+      </c>
+      <c r="N128" s="6">
+        <v>1</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P128" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q128" s="6">
+        <v>0</v>
+      </c>
+      <c r="R128" s="7">
+        <v>0</v>
+      </c>
+      <c r="S128" s="9">
+        <v>0</v>
+      </c>
+      <c r="T128" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U128" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V128" s="11">
+        <v>11</v>
+      </c>
+      <c r="W128" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X128" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y128" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC128" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD128" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE128" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG128" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI128" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ128" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK128" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL128" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM128" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR128" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>1</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F129" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G129" s="5">
+        <v>130</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L129" s="6">
+        <v>4952</v>
+      </c>
+      <c r="M129" s="7">
+        <v>878510.92</v>
+      </c>
+      <c r="N129" s="6">
+        <v>1</v>
+      </c>
+      <c r="O129" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P129" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q129" s="6">
+        <v>0</v>
+      </c>
+      <c r="R129" s="7">
+        <v>0</v>
+      </c>
+      <c r="S129" s="9">
+        <v>0</v>
+      </c>
+      <c r="T129" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U129" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V129" s="11">
+        <v>11</v>
+      </c>
+      <c r="W129" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X129" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y129" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB129" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC129" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD129" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE129" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG129" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI129" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ129" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK129" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL129" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM129" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR129" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>1</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F130" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G130" s="5">
+        <v>131</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L130" s="6">
+        <v>4953</v>
+      </c>
+      <c r="M130" s="7">
+        <v>878688.32</v>
+      </c>
+      <c r="N130" s="6">
+        <v>1</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P130" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q130" s="6">
+        <v>0</v>
+      </c>
+      <c r="R130" s="7">
+        <v>0</v>
+      </c>
+      <c r="S130" s="9">
+        <v>0</v>
+      </c>
+      <c r="T130" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U130" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V130" s="11">
+        <v>11</v>
+      </c>
+      <c r="W130" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X130" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y130" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z130" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC130" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD130" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE130" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG130" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI130" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ130" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK130" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL130" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM130" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR130" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>1</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G131" s="5">
+        <v>132</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L131" s="6">
+        <v>4954</v>
+      </c>
+      <c r="M131" s="7">
+        <v>878865.73</v>
+      </c>
+      <c r="N131" s="6">
+        <v>1</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P131" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q131" s="6">
+        <v>0</v>
+      </c>
+      <c r="R131" s="7">
+        <v>0</v>
+      </c>
+      <c r="S131" s="9">
+        <v>0</v>
+      </c>
+      <c r="T131" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U131" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V131" s="11">
+        <v>11</v>
+      </c>
+      <c r="W131" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X131" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y131" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB131" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC131" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD131" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE131" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG131" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI131" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ131" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK131" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL131" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM131" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR131" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>1</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F132" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G132" s="5">
+        <v>133</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L132" s="6">
+        <v>4955</v>
+      </c>
+      <c r="M132" s="7">
+        <v>879043.13</v>
+      </c>
+      <c r="N132" s="6">
+        <v>1</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P132" s="8">
+        <v>177.41</v>
+      </c>
+      <c r="Q132" s="6">
+        <v>0</v>
+      </c>
+      <c r="R132" s="7">
+        <v>0</v>
+      </c>
+      <c r="S132" s="9">
+        <v>0</v>
+      </c>
+      <c r="T132" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U132" s="10">
+        <v>62688</v>
+      </c>
+      <c r="V132" s="11">
+        <v>11</v>
+      </c>
+      <c r="W132" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X132" s="12">
+        <v>0.42222219999999999</v>
+      </c>
+      <c r="Y132" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG132" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI132" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ132" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK132" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL132" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM132" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR132" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>1</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F133" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G133" s="5">
+        <v>1</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L133" s="6">
+        <v>70</v>
+      </c>
+      <c r="M133" s="7">
+        <v>29203.45</v>
+      </c>
+      <c r="N133" s="6">
+        <v>1</v>
+      </c>
+      <c r="O133" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P133" s="8">
+        <v>417.19</v>
+      </c>
+      <c r="Q133" s="6">
+        <v>0</v>
+      </c>
+      <c r="R133" s="7">
+        <v>0</v>
+      </c>
+      <c r="S133" s="9">
+        <v>0</v>
+      </c>
+      <c r="T133" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U133" s="10">
+        <v>62504</v>
+      </c>
+      <c r="V133" s="11">
+        <v>11</v>
+      </c>
+      <c r="W133" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X133" s="12">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="Y133" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z133" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA133" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB133" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC133" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD133" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE133" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG133" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI133" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ133" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK133" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL133" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM133" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR133" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F134" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G134" s="5">
+        <v>2</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L134" s="6">
+        <v>71</v>
+      </c>
+      <c r="M134" s="7">
+        <v>29620.65</v>
+      </c>
+      <c r="N134" s="6">
+        <v>1</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P134" s="8">
+        <v>417.19</v>
+      </c>
+      <c r="Q134" s="6">
+        <v>0</v>
+      </c>
+      <c r="R134" s="7">
+        <v>0</v>
+      </c>
+      <c r="S134" s="9">
+        <v>0</v>
+      </c>
+      <c r="T134" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U134" s="10">
+        <v>62504</v>
+      </c>
+      <c r="V134" s="11">
+        <v>11</v>
+      </c>
+      <c r="W134" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X134" s="12">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="Y134" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z134" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA134" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB134" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC134" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD134" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE134" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG134" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI134" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ134" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK134" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL134" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM134" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR134" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="135" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>1</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G135" s="5">
+        <v>3</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L135" s="6">
+        <v>72</v>
+      </c>
+      <c r="M135" s="7">
+        <v>30037.84</v>
+      </c>
+      <c r="N135" s="6">
+        <v>1</v>
+      </c>
+      <c r="O135" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P135" s="8">
+        <v>417.19</v>
+      </c>
+      <c r="Q135" s="6">
+        <v>0</v>
+      </c>
+      <c r="R135" s="7">
+        <v>0</v>
+      </c>
+      <c r="S135" s="9">
+        <v>0</v>
+      </c>
+      <c r="T135" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U135" s="10">
+        <v>62504</v>
+      </c>
+      <c r="V135" s="11">
+        <v>11</v>
+      </c>
+      <c r="W135" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X135" s="12">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="Y135" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z135" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD135" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE135" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG135" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI135" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ135" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK135" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL135" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM135" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR135" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>1</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G136" s="5">
+        <v>4</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L136" s="6">
+        <v>73</v>
+      </c>
+      <c r="M136" s="7">
+        <v>30455.03</v>
+      </c>
+      <c r="N136" s="6">
+        <v>1</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P136" s="8">
+        <v>417.19</v>
+      </c>
+      <c r="Q136" s="6">
+        <v>0</v>
+      </c>
+      <c r="R136" s="7">
+        <v>0</v>
+      </c>
+      <c r="S136" s="9">
+        <v>0</v>
+      </c>
+      <c r="T136" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U136" s="10">
+        <v>62504</v>
+      </c>
+      <c r="V136" s="11">
+        <v>11</v>
+      </c>
+      <c r="W136" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X136" s="12">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="Y136" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z136" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB136" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC136" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD136" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE136" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG136" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI136" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ136" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK136" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL136" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM136" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ136" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR136" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>1</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G137" s="5">
+        <v>5</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L137" s="6">
+        <v>74</v>
+      </c>
+      <c r="M137" s="7">
+        <v>30872.22</v>
+      </c>
+      <c r="N137" s="6">
+        <v>1</v>
+      </c>
+      <c r="O137" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P137" s="8">
+        <v>417.19</v>
+      </c>
+      <c r="Q137" s="6">
+        <v>0</v>
+      </c>
+      <c r="R137" s="7">
+        <v>0</v>
+      </c>
+      <c r="S137" s="9">
+        <v>0</v>
+      </c>
+      <c r="T137" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U137" s="10">
+        <v>62504</v>
+      </c>
+      <c r="V137" s="11">
+        <v>11</v>
+      </c>
+      <c r="W137" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X137" s="12">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="Y137" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA137" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB137" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC137" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD137" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE137" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG137" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI137" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ137" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK137" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL137" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM137" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ137" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR137" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>1</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F138" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G138" s="5">
+        <v>1</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L138" s="6">
+        <v>274</v>
+      </c>
+      <c r="M138" s="7">
+        <v>111425.64</v>
+      </c>
+      <c r="N138" s="6">
+        <v>1</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P138" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q138" s="6">
+        <v>0</v>
+      </c>
+      <c r="R138" s="7">
+        <v>0</v>
+      </c>
+      <c r="S138" s="9">
+        <v>0</v>
+      </c>
+      <c r="T138" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U138" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V138" s="11">
+        <v>11</v>
+      </c>
+      <c r="W138" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X138" s="12">
+        <v>0.31388890000000003</v>
+      </c>
+      <c r="Y138" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z138" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA138" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB138" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC138" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD138" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE138" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF138" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG138" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH138" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI138" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ138" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK138" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL138" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM138" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN138" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO138" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP138" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ138" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR138" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>1</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F139" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G139" s="5">
+        <v>2</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L139" s="6">
+        <v>275</v>
+      </c>
+      <c r="M139" s="7">
+        <v>111832.3</v>
+      </c>
+      <c r="N139" s="6">
+        <v>1</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P139" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q139" s="6">
+        <v>0</v>
+      </c>
+      <c r="R139" s="7">
+        <v>0</v>
+      </c>
+      <c r="S139" s="9">
+        <v>0</v>
+      </c>
+      <c r="T139" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U139" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V139" s="11">
+        <v>11</v>
+      </c>
+      <c r="W139" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X139" s="12">
+        <v>0.31388890000000003</v>
+      </c>
+      <c r="Y139" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z139" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA139" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB139" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC139" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD139" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE139" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF139" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG139" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH139" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI139" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ139" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK139" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL139" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM139" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN139" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO139" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP139" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ139" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR139" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>1</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F140" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G140" s="5">
+        <v>3</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L140" s="6">
+        <v>276</v>
+      </c>
+      <c r="M140" s="7">
+        <v>112238.96</v>
+      </c>
+      <c r="N140" s="6">
+        <v>1</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P140" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q140" s="6">
+        <v>0</v>
+      </c>
+      <c r="R140" s="7">
+        <v>0</v>
+      </c>
+      <c r="S140" s="9">
+        <v>0</v>
+      </c>
+      <c r="T140" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U140" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V140" s="11">
+        <v>11</v>
+      </c>
+      <c r="W140" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X140" s="12">
+        <v>0.31388890000000003</v>
+      </c>
+      <c r="Y140" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z140" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA140" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB140" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC140" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD140" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE140" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG140" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI140" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ140" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK140" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL140" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM140" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ140" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR140" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>1</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F141" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G141" s="5">
+        <v>4</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L141" s="6">
+        <v>277</v>
+      </c>
+      <c r="M141" s="7">
+        <v>112645.63</v>
+      </c>
+      <c r="N141" s="6">
+        <v>1</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P141" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q141" s="6">
+        <v>0</v>
+      </c>
+      <c r="R141" s="7">
+        <v>0</v>
+      </c>
+      <c r="S141" s="9">
+        <v>0</v>
+      </c>
+      <c r="T141" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U141" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V141" s="11">
+        <v>11</v>
+      </c>
+      <c r="W141" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X141" s="12">
+        <v>0.31388890000000003</v>
+      </c>
+      <c r="Y141" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z141" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA141" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB141" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC141" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD141" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE141" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG141" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI141" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ141" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK141" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL141" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM141" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ141" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR141" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>1</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F142" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G142" s="5">
+        <v>5</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L142" s="6">
+        <v>278</v>
+      </c>
+      <c r="M142" s="7">
+        <v>113052.29</v>
+      </c>
+      <c r="N142" s="6">
+        <v>1</v>
+      </c>
+      <c r="O142" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P142" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q142" s="6">
+        <v>0</v>
+      </c>
+      <c r="R142" s="7">
+        <v>0</v>
+      </c>
+      <c r="S142" s="9">
+        <v>0</v>
+      </c>
+      <c r="T142" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U142" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V142" s="11">
+        <v>11</v>
+      </c>
+      <c r="W142" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X142" s="12">
+        <v>0.31388890000000003</v>
+      </c>
+      <c r="Y142" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z142" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA142" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB142" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC142" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD142" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE142" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG142" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI142" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ142" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK142" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL142" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM142" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ142" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR142" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>1</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F143" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G143" s="5">
+        <v>6</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L143" s="6">
+        <v>279</v>
+      </c>
+      <c r="M143" s="7">
+        <v>113458.95</v>
+      </c>
+      <c r="N143" s="6">
+        <v>1</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P143" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q143" s="6">
+        <v>0</v>
+      </c>
+      <c r="R143" s="7">
+        <v>0</v>
+      </c>
+      <c r="S143" s="9">
+        <v>0</v>
+      </c>
+      <c r="T143" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U143" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V143" s="11">
+        <v>11</v>
+      </c>
+      <c r="W143" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X143" s="12">
+        <v>0.31388890000000003</v>
+      </c>
+      <c r="Y143" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z143" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA143" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB143" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC143" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD143" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE143" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG143" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI143" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ143" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK143" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL143" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM143" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR143" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>1</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F144" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G144" s="5">
+        <v>7</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L144" s="6">
+        <v>280</v>
+      </c>
+      <c r="M144" s="7">
+        <v>113865.61</v>
+      </c>
+      <c r="N144" s="6">
+        <v>1</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P144" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q144" s="6">
+        <v>0</v>
+      </c>
+      <c r="R144" s="7">
+        <v>0</v>
+      </c>
+      <c r="S144" s="9">
+        <v>0</v>
+      </c>
+      <c r="T144" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U144" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V144" s="11">
+        <v>11</v>
+      </c>
+      <c r="W144" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X144" s="12">
         <v>0.38402779999999997</v>
       </c>
-      <c r="Y115" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z115" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA115" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB115" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC115" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD115" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE115" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF115" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG115" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH115" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI115" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ115" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK115" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL115" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM115" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN115" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO115" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP115" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ115" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR115" s="3" t="s">
-        <v>172</v>
+      <c r="Y144" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z144" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB144" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC144" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD144" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG144" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI144" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ144" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK144" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL144" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM144" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ144" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR144" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>1</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F145" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G145" s="5">
+        <v>8</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L145" s="6">
+        <v>281</v>
+      </c>
+      <c r="M145" s="7">
+        <v>114272.28</v>
+      </c>
+      <c r="N145" s="6">
+        <v>1</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P145" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q145" s="6">
+        <v>0</v>
+      </c>
+      <c r="R145" s="7">
+        <v>0</v>
+      </c>
+      <c r="S145" s="9">
+        <v>0</v>
+      </c>
+      <c r="T145" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U145" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V145" s="11">
+        <v>11</v>
+      </c>
+      <c r="W145" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X145" s="12">
+        <v>0.38402779999999997</v>
+      </c>
+      <c r="Y145" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB145" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE145" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG145" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI145" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ145" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK145" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL145" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM145" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR145" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>1</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F146" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G146" s="5">
+        <v>9</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L146" s="6">
+        <v>282</v>
+      </c>
+      <c r="M146" s="7">
+        <v>114678.94</v>
+      </c>
+      <c r="N146" s="6">
+        <v>1</v>
+      </c>
+      <c r="O146" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P146" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q146" s="6">
+        <v>0</v>
+      </c>
+      <c r="R146" s="7">
+        <v>0</v>
+      </c>
+      <c r="S146" s="9">
+        <v>0</v>
+      </c>
+      <c r="T146" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U146" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V146" s="11">
+        <v>11</v>
+      </c>
+      <c r="W146" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X146" s="12">
+        <v>0.38402779999999997</v>
+      </c>
+      <c r="Y146" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z146" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB146" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD146" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG146" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI146" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ146" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK146" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL146" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM146" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR146" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>1</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F147" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G147" s="5">
+        <v>10</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L147" s="6">
+        <v>283</v>
+      </c>
+      <c r="M147" s="7">
+        <v>115085.6</v>
+      </c>
+      <c r="N147" s="6">
+        <v>1</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P147" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>0</v>
+      </c>
+      <c r="R147" s="7">
+        <v>0</v>
+      </c>
+      <c r="S147" s="9">
+        <v>0</v>
+      </c>
+      <c r="T147" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U147" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V147" s="11">
+        <v>11</v>
+      </c>
+      <c r="W147" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X147" s="12">
+        <v>0.38402779999999997</v>
+      </c>
+      <c r="Y147" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD147" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE147" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG147" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI147" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ147" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK147" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL147" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM147" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR147" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F148" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G148" s="5">
+        <v>11</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L148" s="6">
+        <v>284</v>
+      </c>
+      <c r="M148" s="7">
+        <v>115492.27</v>
+      </c>
+      <c r="N148" s="6">
+        <v>1</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P148" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q148" s="6">
+        <v>0</v>
+      </c>
+      <c r="R148" s="7">
+        <v>0</v>
+      </c>
+      <c r="S148" s="9">
+        <v>0</v>
+      </c>
+      <c r="T148" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U148" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V148" s="11">
+        <v>11</v>
+      </c>
+      <c r="W148" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X148" s="12">
+        <v>0.38402779999999997</v>
+      </c>
+      <c r="Y148" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z148" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA148" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB148" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC148" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD148" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE148" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF148" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG148" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH148" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI148" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ148" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK148" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL148" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM148" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN148" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO148" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP148" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ148" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR148" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>1</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F149" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G149" s="5">
+        <v>12</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L149" s="6">
+        <v>285</v>
+      </c>
+      <c r="M149" s="7">
+        <v>115898.93</v>
+      </c>
+      <c r="N149" s="6">
+        <v>1</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P149" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q149" s="6">
+        <v>0</v>
+      </c>
+      <c r="R149" s="7">
+        <v>0</v>
+      </c>
+      <c r="S149" s="9">
+        <v>0</v>
+      </c>
+      <c r="T149" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U149" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V149" s="11">
+        <v>11</v>
+      </c>
+      <c r="W149" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X149" s="12">
+        <v>0.38402779999999997</v>
+      </c>
+      <c r="Y149" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z149" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA149" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB149" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC149" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD149" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE149" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF149" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG149" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH149" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI149" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ149" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK149" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL149" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM149" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN149" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO149" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP149" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ149" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR149" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>1</v>
+      </c>
+      <c r="B150" s="2">
+        <v>2</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F150" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G150" s="5">
+        <v>13</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L150" s="6">
+        <v>286</v>
+      </c>
+      <c r="M150" s="7">
+        <v>116305.59</v>
+      </c>
+      <c r="N150" s="6">
+        <v>1</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P150" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q150" s="6">
+        <v>0</v>
+      </c>
+      <c r="R150" s="7">
+        <v>0</v>
+      </c>
+      <c r="S150" s="9">
+        <v>0</v>
+      </c>
+      <c r="T150" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U150" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V150" s="11">
+        <v>11</v>
+      </c>
+      <c r="W150" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X150" s="12">
+        <v>0.38402779999999997</v>
+      </c>
+      <c r="Y150" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z150" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA150" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB150" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC150" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD150" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE150" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF150" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG150" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH150" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI150" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ150" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK150" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL150" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM150" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN150" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO150" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP150" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ150" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR150" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="151" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>1</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F151" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G151" s="5">
+        <v>14</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L151" s="6">
+        <v>287</v>
+      </c>
+      <c r="M151" s="7">
+        <v>116712.25</v>
+      </c>
+      <c r="N151" s="6">
+        <v>1</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P151" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q151" s="6">
+        <v>0</v>
+      </c>
+      <c r="R151" s="7">
+        <v>0</v>
+      </c>
+      <c r="S151" s="9">
+        <v>0</v>
+      </c>
+      <c r="T151" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U151" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V151" s="11">
+        <v>11</v>
+      </c>
+      <c r="W151" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X151" s="12">
+        <v>0.38402779999999997</v>
+      </c>
+      <c r="Y151" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z151" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA151" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB151" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC151" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD151" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE151" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF151" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG151" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH151" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI151" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ151" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK151" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL151" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM151" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN151" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO151" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP151" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ151" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR151" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>1</v>
+      </c>
+      <c r="B152" s="2">
+        <v>2</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F152" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G152" s="5">
+        <v>15</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L152" s="6">
+        <v>288</v>
+      </c>
+      <c r="M152" s="7">
+        <v>117118.92</v>
+      </c>
+      <c r="N152" s="6">
+        <v>1</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P152" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q152" s="6">
+        <v>0</v>
+      </c>
+      <c r="R152" s="7">
+        <v>0</v>
+      </c>
+      <c r="S152" s="9">
+        <v>0</v>
+      </c>
+      <c r="T152" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U152" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V152" s="11">
+        <v>11</v>
+      </c>
+      <c r="W152" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X152" s="12">
+        <v>0.38402779999999997</v>
+      </c>
+      <c r="Y152" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z152" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA152" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB152" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC152" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD152" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE152" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF152" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG152" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH152" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI152" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ152" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK152" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL152" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM152" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN152" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO152" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP152" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ152" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR152" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>1</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F153" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G153" s="5">
+        <v>16</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L153" s="6">
+        <v>289</v>
+      </c>
+      <c r="M153" s="7">
+        <v>117525.58</v>
+      </c>
+      <c r="N153" s="6">
+        <v>1</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P153" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q153" s="6">
+        <v>0</v>
+      </c>
+      <c r="R153" s="7">
+        <v>0</v>
+      </c>
+      <c r="S153" s="9">
+        <v>0</v>
+      </c>
+      <c r="T153" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U153" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V153" s="11">
+        <v>11</v>
+      </c>
+      <c r="W153" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X153" s="12">
+        <v>0.38402779999999997</v>
+      </c>
+      <c r="Y153" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z153" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA153" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB153" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD153" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE153" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF153" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG153" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH153" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI153" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ153" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK153" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL153" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM153" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN153" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO153" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP153" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ153" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR153" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>1</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F154" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G154" s="5">
+        <v>17</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L154" s="6">
+        <v>290</v>
+      </c>
+      <c r="M154" s="7">
+        <v>117932.24</v>
+      </c>
+      <c r="N154" s="6">
+        <v>1</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P154" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q154" s="6">
+        <v>0</v>
+      </c>
+      <c r="R154" s="7">
+        <v>0</v>
+      </c>
+      <c r="S154" s="9">
+        <v>0</v>
+      </c>
+      <c r="T154" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U154" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V154" s="11">
+        <v>11</v>
+      </c>
+      <c r="W154" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X154" s="12">
+        <v>0.4194444</v>
+      </c>
+      <c r="Y154" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z154" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA154" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB154" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC154" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD154" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE154" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF154" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG154" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH154" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI154" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ154" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK154" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL154" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM154" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN154" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO154" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP154" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ154" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR154" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>1</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F155" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G155" s="5">
+        <v>18</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L155" s="6">
+        <v>291</v>
+      </c>
+      <c r="M155" s="7">
+        <v>118338.91</v>
+      </c>
+      <c r="N155" s="6">
+        <v>1</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P155" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q155" s="6">
+        <v>0</v>
+      </c>
+      <c r="R155" s="7">
+        <v>0</v>
+      </c>
+      <c r="S155" s="9">
+        <v>0</v>
+      </c>
+      <c r="T155" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U155" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V155" s="11">
+        <v>11</v>
+      </c>
+      <c r="W155" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X155" s="12">
+        <v>0.4194444</v>
+      </c>
+      <c r="Y155" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z155" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA155" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB155" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC155" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD155" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE155" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF155" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG155" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH155" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI155" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ155" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK155" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL155" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM155" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN155" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO155" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP155" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ155" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR155" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>1</v>
+      </c>
+      <c r="B156" s="2">
+        <v>2</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F156" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G156" s="5">
+        <v>19</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L156" s="6">
+        <v>292</v>
+      </c>
+      <c r="M156" s="7">
+        <v>118745.57</v>
+      </c>
+      <c r="N156" s="6">
+        <v>1</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P156" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q156" s="6">
+        <v>0</v>
+      </c>
+      <c r="R156" s="7">
+        <v>0</v>
+      </c>
+      <c r="S156" s="9">
+        <v>0</v>
+      </c>
+      <c r="T156" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U156" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V156" s="11">
+        <v>11</v>
+      </c>
+      <c r="W156" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X156" s="12">
+        <v>0.4194444</v>
+      </c>
+      <c r="Y156" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z156" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA156" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB156" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC156" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD156" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE156" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF156" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG156" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH156" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI156" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ156" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK156" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL156" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM156" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN156" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO156" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP156" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ156" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR156" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>1</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F157" s="4">
+        <v>46073</v>
+      </c>
+      <c r="G157" s="5">
+        <v>20</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L157" s="6">
+        <v>293</v>
+      </c>
+      <c r="M157" s="7">
+        <v>119152.23</v>
+      </c>
+      <c r="N157" s="6">
+        <v>1</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P157" s="8">
+        <v>406.66</v>
+      </c>
+      <c r="Q157" s="6">
+        <v>0</v>
+      </c>
+      <c r="R157" s="7">
+        <v>0</v>
+      </c>
+      <c r="S157" s="9">
+        <v>0</v>
+      </c>
+      <c r="T157" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U157" s="10">
+        <v>62658</v>
+      </c>
+      <c r="V157" s="11">
+        <v>11</v>
+      </c>
+      <c r="W157" s="4">
+        <v>46073</v>
+      </c>
+      <c r="X157" s="12">
+        <v>0.4194444</v>
+      </c>
+      <c r="Y157" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z157" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA157" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB157" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC157" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD157" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE157" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF157" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG157" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH157" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI157" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ157" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK157" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL157" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM157" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN157" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO157" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP157" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ157" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR157" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
